--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Svn\SN\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\GitRepository\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB2D2FE-7686-448A-AA8D-0C09F2F4785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E2A7E-7229-477C-8B7D-9EE8AB6EBBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="1" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
     <sheet name="!Desc" sheetId="1" r:id="rId2"/>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId3"/>
     <sheet name="me_resource_data" sheetId="5" r:id="rId4"/>
-    <sheet name="me_serifu_data" sheetId="2" r:id="rId5"/>
-    <sheet name="me_chat_motion_data" sheetId="11" r:id="rId6"/>
-    <sheet name="me_interaction_data" sheetId="9" r:id="rId7"/>
-    <sheet name="me_state_data" sheetId="13" r:id="rId8"/>
+    <sheet name="me_state_data" sheetId="13" r:id="rId5"/>
+    <sheet name="me_interaction_data" sheetId="9" r:id="rId6"/>
+    <sheet name="me_chat_motion_data" sheetId="11" r:id="rId7"/>
+    <sheet name="me_serifu_data" sheetId="2" r:id="rId8"/>
     <sheet name="!script_data" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
@@ -29,10 +29,10 @@
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
-    <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$13</definedName>
-    <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$13</definedName>
-    <definedName name="touch_gesture_type" comment="제스쳐 방법">'!참조_ENUM'!$F$3:$F$8</definedName>
-    <definedName name="touch_gesture_type_desc">'!참조_ENUM'!$G$3:$G$8</definedName>
+    <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
+    <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
+    <definedName name="touch_gesture_type" comment="제스쳐 방법">'!참조_ENUM'!$F$3:$F$9</definedName>
+    <definedName name="touch_gesture_type_desc">'!참조_ENUM'!$G$3:$G$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="274">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,10 +571,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뭐야~? 엄청 크니까 패ㅇ드라고 생각한거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맞아~ 산지 얼마 안된 브라가 벌써 꽉 껴~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -715,10 +711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>배치순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>idle_animation_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -828,6 +820,463 @@
   </si>
   <si>
     <t>특정 상태에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Memorial/Lucia/Memorial_Set_Node_Dev_Lucia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로 이후 연결되는 기본 루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 흐름 이후 연결되는 가슴 가리고 있는 상태 루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 터치시 반응 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 터치 연속 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 더블 터치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 저지 좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 저지 우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 다리 반응 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 다리 반응 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 다리 일정이상 시도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬티 끈 푸는 조작 저지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 터치 거부 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 방치 좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 방치 우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬티 끈 저지하다가 가슴 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜건드려도 거부 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜건드려도 거부 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜건드려도 거부 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 쓰다듬기 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 쓰다듬기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 쓰다듬기 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50000003, 50000004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50000004, 50000005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50000003, 50000004, 50000005]</t>
+  </si>
+  <si>
+    <t>[50000003, 50000004, 50000005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50000004, 50000005, 50000006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우(L or R)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch_body_direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 오빠? 왜 그렇게 보고만 있어…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 몸… 이상해…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(분명히 아까 목욕하고 다 체크했는데….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭐라고 말 좀 해줘 오빠…!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002001, 1100002002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002003, 1100002004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺅…! 오, 오빠?</t>
+  </si>
+  <si>
+    <t>하, 하지마아~</t>
+  </si>
+  <si>
+    <t>아, 안된다니까!</t>
+  </si>
+  <si>
+    <t>오빠 그러다 가이아 님한테 벌 받는다?</t>
+  </si>
+  <si>
+    <t>에…?</t>
+  </si>
+  <si>
+    <t>우우…!</t>
+  </si>
+  <si>
+    <t>자꾸 그래도 안 되는 건 안 돼!</t>
+  </si>
+  <si>
+    <t>에에에?! 그건 진짜로 안돼!</t>
+  </si>
+  <si>
+    <t>...보, 보기만 할거라구?</t>
+  </si>
+  <si>
+    <t>아, 안된다니까아….</t>
+  </si>
+  <si>
+    <t>(그래도 교리상… 맨살만 아니면….)</t>
+  </si>
+  <si>
+    <t>정말… 지, 진짜진짜 보기만 해야된다?</t>
+  </si>
+  <si>
+    <t>옷 위로는 아슬아슬하게 세이프니까….</t>
+  </si>
+  <si>
+    <t>이걸로… 괜찮아?</t>
+  </si>
+  <si>
+    <t>잠까아아아안! 그런 거 한다고는 안 했잖아!</t>
+  </si>
+  <si>
+    <t>가이아 님의 딸들은… 그… 혼전순결, 해야 된단 말야.</t>
+  </si>
+  <si>
+    <t>절대로 못 만지게 할 거야.</t>
+  </si>
+  <si>
+    <t>헤헷. 아무리 오빠라도 이러면 손 못 대겠지?</t>
+  </si>
+  <si>
+    <t>(에? 어, 어떡하지?)</t>
+  </si>
+  <si>
+    <t>(어느 쪽을 막아야…!)</t>
+  </si>
+  <si>
+    <t>(손을 대는거랑, 맨살을 보는 것중에 뭐가 더 중죄더라?!)</t>
+  </si>
+  <si>
+    <t>(으으… 오빠 진짜 바보!)</t>
+  </si>
+  <si>
+    <t>거, 거기까지?!</t>
+  </si>
+  <si>
+    <t>으, 으으….</t>
+  </si>
+  <si>
+    <t>엑, 아, 안돼…!</t>
+  </si>
+  <si>
+    <t>아아아앗!</t>
+  </si>
+  <si>
+    <t>오빠, 봤어? 안 봤지? 응?!</t>
+  </si>
+  <si>
+    <t>예뻤다고…? 그, 그러면….</t>
+  </si>
+  <si>
+    <t>본 거지! 봤구나! 내 가, 가슴!</t>
+  </si>
+  <si>
+    <t>오빠 진짜 바보!</t>
+  </si>
+  <si>
+    <t>수녀의 맨살을 보는 건 진짜 큰 죄란 말야!</t>
+  </si>
+  <si>
+    <t>나는 오빠 생각해서 하지 말라는 거라구우… 훌쩍.</t>
+  </si>
+  <si>
+    <t>나도 싫은 건 아니란 말야.</t>
+  </si>
+  <si>
+    <t>내가 오빠를 얼마나 좋아하는데….</t>
+  </si>
+  <si>
+    <t>오빠…?</t>
+  </si>
+  <si>
+    <t>(오빠가… 머리를 쓰다듬어주고 있어….)</t>
+  </si>
+  <si>
+    <t>아, 아니야. 이건 딱히… 교리 위반은 아니니까….</t>
+  </si>
+  <si>
+    <t>(오빠 손 크다… 뭔가 안심되는 기분….)</t>
+  </si>
+  <si>
+    <t>이건 얼마든지 해줘도 되는데, 다른 건….</t>
+  </si>
+  <si>
+    <t>…….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결혼하고 나서라면… 다른 곳도 오빠 맘대로 해도 되니까… </t>
+  </si>
+  <si>
+    <t>이제 진짜 안 그럴거지?</t>
+  </si>
+  <si>
+    <t>이따가 나랑 같이 가이아님한테 죄송하다고 기도드리자.</t>
+  </si>
+  <si>
+    <t>분명 용서해 주실거야.</t>
+  </si>
+  <si>
+    <t>chat_motion_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002007, 1100002008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1200002004, 1200002005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002007, 1100002011]</t>
+  </si>
+  <si>
+    <t>01_drag_bra_L_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_R_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002012, 1100002013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_panty_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 파라메터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1200002013, 1200002014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_leg_04</t>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015, 1100002017]</t>
+  </si>
+  <si>
+    <t>00_react_panty_02</t>
+  </si>
+  <si>
+    <t>[1100002007, 1100002012]</t>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015, 1100002018]</t>
+  </si>
+  <si>
+    <t>00_react_panty_03</t>
+  </si>
+  <si>
+    <t>[1100002007, 1100002013]</t>
+  </si>
+  <si>
+    <t>00_react_leg_06</t>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015, 1100002019]</t>
+  </si>
+  <si>
+    <t>00_react_panty_04</t>
+  </si>
+  <si>
+    <t>[1100002007, 1100002014]</t>
+  </si>
+  <si>
+    <t>01_drag_Leg_01</t>
+  </si>
+  <si>
+    <t>뭐야~? 엄청 크니까 패드라고 생각한거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002016, 1100002017, 1100002018]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_bra_L_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[01_drag_bra_R_02, 22_bra_R_off]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_panty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄러워하는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_bra_L_off</t>
+  </si>
+  <si>
+    <t>01_drag_bra_L_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브 애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_idle_animation_names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_leg_L_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_leg_L_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_leg_L_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -835,9 +1284,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,7 +1369,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -946,13 +1392,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -980,7 +1441,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,13 +1488,13 @@
       <sheetName val="@inequality_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
         <row r="1">
           <cell r="A1" t="str">
@@ -1105,68 +1569,101 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>BREAST_L_DRAG</v>
+            <v>PELVIS</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>왼가슴 드래그</v>
+            <v>골반</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>BREAST_R_DRAG</v>
+            <v>LEG</v>
           </cell>
           <cell r="B10">
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>오른가슴 드래그</v>
+            <v>다리</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>PELVIS</v>
+            <v>HORN</v>
           </cell>
           <cell r="B11">
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>골반</v>
+            <v>뿔</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>LEG_L</v>
+            <v>BRA</v>
           </cell>
           <cell r="B12">
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>왼다리</v>
+            <v>브라</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>LEG_R</v>
+            <v>PANTY</v>
           </cell>
           <cell r="B13">
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>오른다리</v>
+            <v>팬티</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>HORN</v>
+            <v>EAR</v>
           </cell>
           <cell r="B14">
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>뿔</v>
+            <v>귀</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>FACE</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>얼굴</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>HIP</v>
+          </cell>
+          <cell r="B16">
+            <v>12</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>엉덩이</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>TOY</v>
+          </cell>
+          <cell r="B17">
+            <v>13</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>장난감</v>
           </cell>
         </row>
       </sheetData>
@@ -1253,12 +1750,23 @@
             <v>드래그</v>
           </cell>
         </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>NADE</v>
+          </cell>
+          <cell r="B10">
+            <v>6</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>쓰다듬기</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
       <sheetData sheetId="14">
         <row r="1">
           <cell r="A1" t="str">
@@ -1662,7 +2170,7 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -1764,11 +2272,11 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="65.75" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="65.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
@@ -1823,21 +2331,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="5" max="5" width="19.125" customWidth="1"/>
     <col min="7" max="7" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -2085,7 +2593,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@touch_body_type'!$A9</f>
-        <v>BREAST_L_DRAG</v>
+        <v>PELVIS</v>
       </c>
       <c r="B8" s="4">
         <f>'[1]@touch_body_type'!$B9</f>
@@ -2093,7 +2601,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@touch_body_type'!$C9</f>
-        <v>왼가슴 드래그</v>
+        <v>골반</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A9</f>
@@ -2123,7 +2631,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@touch_body_type'!$A10</f>
-        <v>BREAST_R_DRAG</v>
+        <v>LEG</v>
       </c>
       <c r="B9" s="4">
         <f>'[1]@touch_body_type'!$B10</f>
@@ -2131,11 +2639,20 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@touch_body_type'!$C10</f>
-        <v>오른가슴 드래그</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+        <v>다리</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>'[1]@touch_gesture_type'!$A10</f>
+        <v>NADE</v>
+      </c>
+      <c r="F9" s="4">
+        <f>'[1]@touch_gesture_type'!$B10</f>
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>'[1]@touch_gesture_type'!$C10</f>
+        <v>쓰다듬기</v>
+      </c>
       <c r="I9" s="4" t="str">
         <f>'[1]@inequality_type'!$A10</f>
         <v>LESS_EQUAL</v>
@@ -2152,7 +2669,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@touch_body_type'!$A11</f>
-        <v>PELVIS</v>
+        <v>HORN</v>
       </c>
       <c r="B10" s="4">
         <f>'[1]@touch_body_type'!$B11</f>
@@ -2160,7 +2677,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@touch_body_type'!$C11</f>
-        <v>골반</v>
+        <v>뿔</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2169,7 +2686,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@touch_body_type'!$A12</f>
-        <v>LEG_L</v>
+        <v>BRA</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@touch_body_type'!$B12</f>
@@ -2177,7 +2694,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@touch_body_type'!$C12</f>
-        <v>왼다리</v>
+        <v>브라</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2186,7 +2703,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@touch_body_type'!$A13</f>
-        <v>LEG_R</v>
+        <v>PANTY</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@touch_body_type'!$B13</f>
@@ -2194,7 +2711,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@touch_body_type'!$C13</f>
-        <v>오른다리</v>
+        <v>팬티</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2203,7 +2720,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@touch_body_type'!$A14</f>
-        <v>HORN</v>
+        <v>EAR</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@touch_body_type'!$B14</f>
@@ -2211,11 +2728,72 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@touch_body_type'!$C14</f>
-        <v>뿔</v>
+        <v>귀</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="str">
+        <f>'[1]@touch_body_type'!$A15</f>
+        <v>FACE</v>
+      </c>
+      <c r="B14" s="4">
+        <f>'[1]@touch_body_type'!$B15</f>
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="str">
+        <f>'[1]@touch_body_type'!$C15</f>
+        <v>얼굴</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="str">
+        <f>'[1]@touch_body_type'!$A16</f>
+        <v>HIP</v>
+      </c>
+      <c r="B15" s="4">
+        <f>'[1]@touch_body_type'!$B16</f>
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="str">
+        <f>'[1]@touch_body_type'!$C16</f>
+        <v>엉덩이</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="str">
+        <f>'[1]@touch_body_type'!$A17</f>
+        <v>TOY</v>
+      </c>
+      <c r="B16" s="4">
+        <f>'[1]@touch_body_type'!$B17</f>
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="str">
+        <f>'[1]@touch_body_type'!$C17</f>
+        <v>장난감</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2227,28 +2805,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="4" width="91.5" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
     <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2259,13 +2837,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>46</v>
@@ -2299,13 +2877,13 @@
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>39</v>
@@ -2322,7 +2900,7 @@
         <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="4">
         <v>50000001</v>
@@ -2332,12 +2910,22 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="4">
+        <v>10000200</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="4">
+        <v>50000003</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2346,45 +2934,49 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:D19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A07720-EA6B-4BA8-BF6C-0034D0649281}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="105.5" customWidth="1"/>
-    <col min="4" max="4" width="105.625" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="4" width="33.5" customWidth="1"/>
+    <col min="5" max="5" width="65.5" customWidth="1"/>
+    <col min="6" max="6" width="33.625" customWidth="1"/>
+    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2395,233 +2987,136 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>100001001</v>
+        <v>50000001</v>
       </c>
       <c r="B5" s="4">
         <v>100001</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>100001002</v>
+        <v>50000002</v>
       </c>
       <c r="B6" s="4">
         <v>100001</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>100001003</v>
+        <v>50000003</v>
       </c>
       <c r="B7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100002</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>100001004</v>
+        <v>50000004</v>
       </c>
       <c r="B8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100002</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>100001005</v>
+        <v>50000005</v>
       </c>
       <c r="B9" s="4">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>100001006</v>
+        <v>50000006</v>
       </c>
       <c r="B10" s="4">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100001007</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>100001008</v>
-      </c>
-      <c r="B12" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1100001001</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1100001002</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1100001003</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1100001004</v>
-      </c>
-      <c r="B16" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1100001005</v>
-      </c>
-      <c r="B17" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1100001006</v>
-      </c>
-      <c r="B18" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1100001007</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
+        <v>270</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2629,47 +3124,92 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="26.5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="105.5" customWidth="1"/>
-    <col min="7" max="7" width="105.625" customWidth="1"/>
-    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="34.625" customWidth="1"/>
+    <col min="8" max="8" width="28.375" customWidth="1"/>
+    <col min="9" max="9" width="32.625" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="14" max="14" width="24.625" customWidth="1"/>
+    <col min="15" max="15" width="31.375" customWidth="1"/>
+    <col min="16" max="16" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2680,824 +3220,1098 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="M3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>200001001</v>
+        <v>1300002001</v>
       </c>
       <c r="B5" s="4">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" ref="E5:E13" si="0">INDEX(touch_body_type_desc,MATCH(D5,touch_body_type,0))</f>
+        <v>가슴</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="str">
+        <f t="shared" ref="H5:H13" si="1">INDEX(touch_gesture_type_desc,MATCH(G5,touch_gesture_type,0))</f>
+        <v>터치</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="str">
+        <f t="shared" ref="K5:K13" si="2">INDEX(inequality_type_desc,MATCH(I5,inequality_type,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="M5" s="4">
+        <v>50000003</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>200001002</v>
+        <v>1300002003</v>
       </c>
       <c r="B6" s="4">
-        <v>100001</v>
+        <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>200001003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>200001004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1200001001</v>
-      </c>
-      <c r="B9" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4">
-        <v>1100001001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1200001002</v>
-      </c>
-      <c r="B10" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1100001002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1200001003</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1100001003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1200001004</v>
-      </c>
-      <c r="B12" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1100001004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1200001005</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1100001005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1200001006</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1100001006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1200001007</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1100001007</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
-  <dimension ref="A1:N16"/>
-  <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="32.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.75" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
-    <col min="7" max="7" width="32.625" customWidth="1"/>
-    <col min="8" max="8" width="25.875" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="22.375" customWidth="1"/>
-    <col min="11" max="11" width="11.25" customWidth="1"/>
-    <col min="12" max="12" width="25.5" customWidth="1"/>
-    <col min="13" max="13" width="24.625" customWidth="1"/>
-    <col min="14" max="14" width="20.625" customWidth="1"/>
-    <col min="15" max="15" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1300001001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="4">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f t="shared" ref="D5:D15" si="0">INDEX(touch_body_type_desc,MATCH(C5,touch_body_type,0))</f>
-        <v>뿔</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>가슴</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="str">
-        <f t="shared" ref="F5:F15" si="1">INDEX(touch_gesture_type_desc,MATCH(E5,touch_gesture_type,0))</f>
-        <v>터치</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="str">
-        <f t="shared" ref="I5:I15" si="2">INDEX(inequality_type_desc,MATCH(G5,inequality_type,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1200001001</v>
-      </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1300001002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>뿔</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4" t="str">
+      <c r="H6" s="4" t="str">
         <f t="shared" si="1"/>
         <v>터치</v>
       </c>
-      <c r="G6" s="4">
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>같음</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1200002006</v>
+      </c>
+      <c r="M6" s="4">
+        <v>50000003</v>
+      </c>
+      <c r="N6" s="4">
+        <v>50000004</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1300002004</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>가슴</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>더블터치</v>
+      </c>
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="str">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
-      <c r="J6" s="4">
-        <v>1200001002</v>
-      </c>
-      <c r="K6" s="9">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1300001003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="str">
+      <c r="L7" s="4">
+        <v>1200002006</v>
+      </c>
+      <c r="M7" s="4">
+        <v>50000003</v>
+      </c>
+      <c r="N7" s="4">
+        <v>50000004</v>
+      </c>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1300002005</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>입</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4" t="str">
+        <v>브라</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G8" s="4">
+        <v>5</v>
+      </c>
+      <c r="H8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>터치</v>
-      </c>
-      <c r="G7" s="4">
+        <v>드래그</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="str">
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
-      <c r="J7" s="4">
-        <v>1200001003</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
-        <v>50000001</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1300001004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="str">
+      <c r="L8" s="4">
+        <v>1200002007</v>
+      </c>
+      <c r="M8" s="4">
+        <v>50000003</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1300002006</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>입</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4" t="str">
+        <v>브라</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G9" s="4">
+        <v>5</v>
+      </c>
+      <c r="H9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>터치</v>
-      </c>
-      <c r="G8" s="4">
+        <v>드래그</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="str">
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
-      <c r="J8" s="4">
-        <v>1200001004</v>
-      </c>
-      <c r="K8" s="9">
-        <v>2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>50000002</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1300001005</v>
-      </c>
-      <c r="B9" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2</v>
-      </c>
-      <c r="D9" s="4" t="str">
+      <c r="L9" s="4">
+        <v>1200002008</v>
+      </c>
+      <c r="M9" s="4">
+        <v>50000003</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1300002007</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="4">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>가슴</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="str">
+        <v>다리</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+      <c r="H10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>터치</v>
-      </c>
-      <c r="G9" s="4">
+        <v>드래그</v>
+      </c>
+      <c r="I10" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="I9" s="4" t="str">
+      <c r="K10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>같음</v>
       </c>
-      <c r="J9" s="4">
-        <v>1200001005</v>
-      </c>
-      <c r="K9" s="9">
-        <v>1</v>
-      </c>
-      <c r="L9" s="4">
-        <v>50000001</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1300001006</v>
-      </c>
-      <c r="B10" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="str">
+      <c r="L10" s="4">
+        <v>1200002009</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1300002008</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>가슴</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="str">
+        <v>다리</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>5</v>
+      </c>
+      <c r="H11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>터치</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="str">
+        <v>드래그</v>
+      </c>
+      <c r="I11" s="4">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4">
+        <v>5</v>
+      </c>
+      <c r="K11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>같음</v>
-      </c>
-      <c r="J10" s="4">
-        <v>1200001006</v>
-      </c>
-      <c r="K10" s="9">
-        <v>2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>50000001</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1300001007</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="str">
+        <v>미만</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1200002010</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1300002009</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>가슴</v>
-      </c>
-      <c r="E11" s="4">
-        <v>3</v>
-      </c>
-      <c r="F11" s="4" t="str">
+        <v>다리</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>터치</v>
-      </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4" t="str">
+        <v>드래그</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="J12" s="4">
+        <v>5</v>
+      </c>
+      <c r="K12" s="4" t="str">
         <f t="shared" si="2"/>
-        <v>같음</v>
-      </c>
-      <c r="J11" s="4">
-        <v>1200001007</v>
-      </c>
-      <c r="K11" s="9">
-        <v>3</v>
-      </c>
-      <c r="L11" s="4">
-        <v>50000001</v>
-      </c>
-      <c r="M11" s="4">
-        <v>50000002</v>
-      </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1300001008</v>
-      </c>
-      <c r="B12" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="str">
+        <v>이상</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1200002011</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1300002010</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D13" s="4">
+        <v>9</v>
+      </c>
+      <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>가슴</v>
-      </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="str">
+        <v>팬티</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>더블터치</v>
-      </c>
-      <c r="G12" s="4">
+        <v>드래그</v>
+      </c>
+      <c r="I13" s="4">
         <v>0</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4" t="str">
+      <c r="J13" s="4"/>
+      <c r="K13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>NONE</v>
       </c>
-      <c r="J12" s="4">
-        <v>1200001007</v>
-      </c>
-      <c r="K12" s="9">
-        <v>4</v>
-      </c>
-      <c r="L12" s="4">
-        <v>50000001</v>
-      </c>
-      <c r="M12" s="4">
-        <v>50000002</v>
-      </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>300001001</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1300002011</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" ref="E14" si="3">INDEX(touch_body_type_desc,MATCH(D14,touch_body_type,0))</f>
+        <v>가슴</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="str">
+        <f t="shared" ref="H14" si="4">INDEX(touch_gesture_type_desc,MATCH(G14,touch_gesture_type,0))</f>
+        <v>터치</v>
+      </c>
+      <c r="I14" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4" t="str">
+        <f t="shared" ref="K14" si="5">INDEX(inequality_type_desc,MATCH(I14,inequality_type,0))</f>
         <v>NONE</v>
       </c>
-      <c r="E13" s="4">
+      <c r="L14" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1300002012</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f t="shared" ref="E15" si="6">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
+        <v>브라</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G15" s="4">
+        <v>5</v>
+      </c>
+      <c r="H15" s="4" t="str">
+        <f t="shared" ref="H15" si="7">INDEX(touch_gesture_type_desc,MATCH(G15,touch_gesture_type,0))</f>
+        <v>드래그</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4" t="str">
+        <f t="shared" ref="K15" si="8">INDEX(inequality_type_desc,MATCH(I15,inequality_type,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4">
+        <v>50000004</v>
+      </c>
+      <c r="N15" s="4">
+        <v>50000005</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1300002013</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="str">
+        <f t="shared" ref="E16:E26" si="9">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
+        <v>브라</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G16" s="4">
+        <v>5</v>
+      </c>
+      <c r="H16" s="4" t="str">
+        <f t="shared" ref="H16:H26" si="10">INDEX(touch_gesture_type_desc,MATCH(G16,touch_gesture_type,0))</f>
+        <v>드래그</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4" t="str">
+        <f t="shared" ref="K16:K26" si="11">INDEX(inequality_type_desc,MATCH(I16,inequality_type,0))</f>
+        <v>NONE</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1300002014</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>팬티</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4">
+        <v>5</v>
+      </c>
+      <c r="H17" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>드래그</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>NONE</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4">
+        <v>50000005</v>
+      </c>
+      <c r="N17" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1300002015</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="F13" s="4" t="str">
-        <f t="shared" si="1"/>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>머리</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4">
+        <v>3</v>
+      </c>
+      <c r="H18" s="4" t="str">
+        <f t="shared" si="10"/>
         <v>터치</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4" t="str">
+        <f t="shared" si="11"/>
         <v>NONE</v>
       </c>
-      <c r="J13" s="4">
-        <v>200001001</v>
-      </c>
-      <c r="K13" s="9">
+      <c r="L18" s="4"/>
+      <c r="M18" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>1300002016</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>머리</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>터치</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>NONE</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1300002017</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="4">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>머리</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>터치</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>NONE</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1300002018</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D21" s="4">
+        <v>6</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>다리</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+      <c r="H21" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>터치</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>NONE</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1300002019</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>다리</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+      <c r="H22" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>터치</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>NONE</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1300002020</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="4">
+        <v>6</v>
+      </c>
+      <c r="E23" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>다리</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>터치</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>NONE</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1300002021</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>머리</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>쓰다듬기</v>
+      </c>
+      <c r="I24" s="4">
         <v>1</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>300001002</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0</v>
-      </c>
-      <c r="D14" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>NONE</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>같음</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1300002022</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="4">
         <v>3</v>
       </c>
-      <c r="F14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>터치</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE</v>
-      </c>
-      <c r="J14" s="4">
-        <v>200001002</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="E25" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>머리</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>쓰다듬기</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
         <v>2</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>300001003</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>NONE</v>
-      </c>
-      <c r="E15" s="4">
+      <c r="K25" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>같음</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1300002023</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="4">
         <v>3</v>
       </c>
-      <c r="F15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>터치</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE</v>
-      </c>
-      <c r="J15" s="4">
-        <v>200001004</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="E26" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>머리</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4">
+        <v>6</v>
+      </c>
+      <c r="H26" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>쓰다듬기</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" s="4">
         <v>3</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="K26" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>같음</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4">
+        <v>50000006</v>
+      </c>
+      <c r="N26" s="4">
+        <v>50000003</v>
+      </c>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C16" xr:uid="{E9B854B6-DE6E-4019-B702-12C9C1D1E92A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D30" xr:uid="{E9B854B6-DE6E-4019-B702-12C9C1D1E92A}">
       <formula1>touch_body_type</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E5:E16" xr:uid="{849441D0-BC9E-40E0-B971-F03AE5703FF1}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G5:G30" xr:uid="{849441D0-BC9E-40E0-B971-F03AE5703FF1}">
       <formula1>touch_gesture_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G16" xr:uid="{FB101D9D-3782-49FE-A4E9-D2CCD2ABB39B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I30" xr:uid="{FB101D9D-3782-49FE-A4E9-D2CCD2ABB39B}">
       <formula1>inequality_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -3505,44 +4319,46 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A07720-EA6B-4BA8-BF6C-0034D0649281}">
-  <dimension ref="A1:D11"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="105.5" customWidth="1"/>
+    <col min="7" max="7" width="105.625" customWidth="1"/>
+    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>143</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3553,6 +4369,483 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>200001001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>200001002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>200001003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>200001004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1200001001</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1100001001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1200001002</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1100001002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1200001003</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1100001003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1200001004</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1100001004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1200001005</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1100001005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1200001006</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1100001006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1200001007</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="4">
+        <v>1100001007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1200002001</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1200002002</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1200002003</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>1200002004</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1100002005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1200002005</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1100002006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1200002006</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1200002007</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1100002009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1200002008</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1100002010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1200002009</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1200002010</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1200002011</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1200002012</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1200002013</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1200002014</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1200002015</v>
+      </c>
+      <c r="B30" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1200002016</v>
+      </c>
+      <c r="B31" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1200002017</v>
+      </c>
+      <c r="B32" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1200002018</v>
+      </c>
+      <c r="B33" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
+  <dimension ref="A1:D67"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="105.5" customWidth="1"/>
+    <col min="4" max="4" width="105.625" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3561,61 +4854,804 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>127</v>
+        <v>66</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>50000001</v>
+        <v>100001001</v>
       </c>
       <c r="B5" s="4">
         <v>100001</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>145</v>
+      <c r="C5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>50000002</v>
+        <v>100001002</v>
       </c>
       <c r="B6" s="4">
         <v>100001</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>146</v>
+      <c r="C6" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="4">
+        <v>100001003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A8" s="4">
+        <v>100001004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>100001005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>100001006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>100001007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100001008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1100001001</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1100001002</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1100001003</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1100001004</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1100001005</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1100001006</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>1100001007</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1100002001</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1100002002</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1100002003</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1100002004</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1100002005</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1100002006</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1100002007</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1100002008</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1100002009</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1100002010</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1100002011</v>
+      </c>
+      <c r="B30" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1100002012</v>
+      </c>
+      <c r="B31" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1100002013</v>
+      </c>
+      <c r="B32" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1100002014</v>
+      </c>
+      <c r="B33" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1100002015</v>
+      </c>
+      <c r="B34" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1100002016</v>
+      </c>
+      <c r="B35" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1100002017</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>1100002018</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>1100002019</v>
+      </c>
+      <c r="B38" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>1100002020</v>
+      </c>
+      <c r="B39" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>1100002021</v>
+      </c>
+      <c r="B40" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1100002022</v>
+      </c>
+      <c r="B41" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>1100002023</v>
+      </c>
+      <c r="B42" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="8"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>1100002024</v>
+      </c>
+      <c r="B43" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>1100002025</v>
+      </c>
+      <c r="B44" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>1100002026</v>
+      </c>
+      <c r="B45" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>1100002027</v>
+      </c>
+      <c r="B46" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" s="8"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>1100002028</v>
+      </c>
+      <c r="B47" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>1100002029</v>
+      </c>
+      <c r="B48" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="8"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>1100002030</v>
+      </c>
+      <c r="B49" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>1100002031</v>
+      </c>
+      <c r="B50" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="8"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>1100002032</v>
+      </c>
+      <c r="B51" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>1100002033</v>
+      </c>
+      <c r="B52" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>1100002034</v>
+      </c>
+      <c r="B53" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>1100002035</v>
+      </c>
+      <c r="B54" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>1100002036</v>
+      </c>
+      <c r="B55" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>1100002037</v>
+      </c>
+      <c r="B56" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="8"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>1100002038</v>
+      </c>
+      <c r="B57" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D57" s="8"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>1100002039</v>
+      </c>
+      <c r="B58" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>1100002040</v>
+      </c>
+      <c r="B59" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>1100002041</v>
+      </c>
+      <c r="B60" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D60" s="8"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>1100002042</v>
+      </c>
+      <c r="B61" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>1100002043</v>
+      </c>
+      <c r="B62" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>1100002044</v>
+      </c>
+      <c r="B63" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>1100002045</v>
+      </c>
+      <c r="B64" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>1100002046</v>
+      </c>
+      <c r="B65" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>1100002047</v>
+      </c>
+      <c r="B66" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D66" s="8"/>
+    </row>
+    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <v>1100002048</v>
+      </c>
+      <c r="B67" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="D67" s="8"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3630,16 +5666,16 @@
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
     <col min="5" max="5" width="33.625" customWidth="1"/>
     <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\GitRepository\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E2A7E-7229-477C-8B7D-9EE8AB6EBBDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA622A-4EBC-4412-ACB2-CFA1CE5168E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="270">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -775,34 +775,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>touch_condition_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch_condition_inequality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연속으로 제스쳐를 한 횟수에 따른 조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제스쳐 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부등호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제스쳐 조건 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:INEQUALITY_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상태 고유 아이디</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1197,15 +1173,6 @@
     <t>[1100002007, 1100002012]</t>
   </si>
   <si>
-    <t>[1100002014, 1100002015, 1100002018]</t>
-  </si>
-  <si>
-    <t>00_react_panty_03</t>
-  </si>
-  <si>
-    <t>[1100002007, 1100002013]</t>
-  </si>
-  <si>
     <t>00_react_leg_06</t>
   </si>
   <si>
@@ -1249,21 +1216,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21_bra_L_off</t>
-  </si>
-  <si>
     <t>01_drag_bra_L_02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서브 애니메이션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sub_idle_animation_names</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00_idle_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1277,6 +1233,37 @@
   </si>
   <si>
     <t>00_return_leg_L_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_min_gesture_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_max_gesture_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drag_animation_name</t>
+  </si>
+  <si>
+    <t>드래그 애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_R_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_bra_R_off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2917,7 +2904,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -2935,48 +2922,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A07720-EA6B-4BA8-BF6C-0034D0649281}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="4" width="33.5" customWidth="1"/>
-    <col min="5" max="5" width="65.5" customWidth="1"/>
-    <col min="6" max="6" width="33.625" customWidth="1"/>
-    <col min="7" max="7" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="65.5" customWidth="1"/>
+    <col min="5" max="5" width="33.625" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2987,13 +2971,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>125</v>
       </c>
@@ -3004,13 +2985,10 @@
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>50000001</v>
       </c>
@@ -3020,12 +2998,11 @@
       <c r="C5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>50000002</v>
       </c>
@@ -3035,12 +3012,11 @@
       <c r="C6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>50000003</v>
       </c>
@@ -3048,14 +3024,13 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>50000004</v>
       </c>
@@ -3063,14 +3038,13 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>50000005</v>
       </c>
@@ -3078,16 +3052,13 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>50000006</v>
       </c>
@@ -3095,28 +3066,25 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3127,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3142,16 +3110,16 @@
     <col min="7" max="7" width="34.625" customWidth="1"/>
     <col min="8" max="8" width="28.375" customWidth="1"/>
     <col min="9" max="9" width="32.625" customWidth="1"/>
-    <col min="10" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="30" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="30" customWidth="1"/>
-    <col min="14" max="14" width="24.625" customWidth="1"/>
-    <col min="15" max="15" width="31.375" customWidth="1"/>
-    <col min="16" max="16" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="28.875" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+    <col min="13" max="13" width="28.25" customWidth="1"/>
+    <col min="14" max="14" width="30" customWidth="1"/>
+    <col min="15" max="15" width="24.625" customWidth="1"/>
+    <col min="16" max="16" width="31.375" customWidth="1"/>
+    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -3159,7 +3127,7 @@
         <v>112</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3179,7 +3147,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>121</v>
@@ -3188,13 +3156,13 @@
         <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>136</v>
+        <v>263</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>103</v>
@@ -3206,7 +3174,7 @@
         <v>127</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3235,7 +3203,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>0</v>
@@ -3273,7 +3241,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>120</v>
@@ -3282,16 +3250,16 @@
         <v>101</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>134</v>
+        <v>264</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>126</v>
@@ -3300,7 +3268,7 @@
         <v>128</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3311,7 +3279,7 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -3329,15 +3297,14 @@
         <v>터치</v>
       </c>
       <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="str">
-        <f t="shared" ref="K5:K13" si="2">INDEX(inequality_type_desc,MATCH(I5,inequality_type,0))</f>
-        <v>NONE</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -3353,7 +3320,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -3371,15 +3338,12 @@
         <v>터치</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
         <v>3</v>
       </c>
-      <c r="K6" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>같음</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4">
         <v>1200002006</v>
       </c>
@@ -3399,7 +3363,7 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -3416,14 +3380,9 @@
         <f t="shared" si="1"/>
         <v>더블터치</v>
       </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4">
         <v>1200002006</v>
       </c>
@@ -3443,7 +3402,7 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
@@ -3453,7 +3412,7 @@
         <v>브라</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -3462,13 +3421,10 @@
         <f t="shared" si="1"/>
         <v>드래그</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE</v>
+      <c r="K8" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -3478,7 +3434,7 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3489,7 +3445,7 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -3499,7 +3455,7 @@
         <v>브라</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -3508,13 +3464,10 @@
         <f t="shared" si="1"/>
         <v>드래그</v>
       </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE</v>
+      <c r="K9" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -3524,7 +3477,7 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3535,7 +3488,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -3558,19 +3511,18 @@
       <c r="J10" s="4">
         <v>1</v>
       </c>
-      <c r="K10" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>같음</v>
+      <c r="K10" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3581,7 +3533,7 @@
         <v>100002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -3599,24 +3551,23 @@
         <v>드래그</v>
       </c>
       <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="4">
         <v>4</v>
       </c>
-      <c r="J11" s="4">
-        <v>5</v>
-      </c>
-      <c r="K11" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>미만</v>
+      <c r="K11" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -3627,7 +3578,7 @@
         <v>100002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
@@ -3650,19 +3601,18 @@
       <c r="J12" s="4">
         <v>5</v>
       </c>
-      <c r="K12" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>이상</v>
+      <c r="K12" s="4" t="s">
+        <v>249</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -3673,7 +3623,7 @@
         <v>100002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -3690,21 +3640,18 @@
         <f t="shared" si="1"/>
         <v>드래그</v>
       </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>NONE</v>
+      <c r="K13" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -3715,13 +3662,13 @@
         <v>100002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f t="shared" ref="E14" si="3">INDEX(touch_body_type_desc,MATCH(D14,touch_body_type,0))</f>
+        <f t="shared" ref="E14" si="2">INDEX(touch_body_type_desc,MATCH(D14,touch_body_type,0))</f>
         <v>가슴</v>
       </c>
       <c r="F14" s="4"/>
@@ -3729,22 +3676,17 @@
         <v>3</v>
       </c>
       <c r="H14" s="4" t="str">
-        <f t="shared" ref="H14" si="4">INDEX(touch_gesture_type_desc,MATCH(G14,touch_gesture_type,0))</f>
+        <f t="shared" ref="H14" si="3">INDEX(touch_gesture_type_desc,MATCH(G14,touch_gesture_type,0))</f>
         <v>터치</v>
       </c>
-      <c r="I14" s="4">
-        <v>0</v>
-      </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4" t="str">
-        <f t="shared" ref="K14" si="5">INDEX(inequality_type_desc,MATCH(I14,inequality_type,0))</f>
-        <v>NONE</v>
-      </c>
+      <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3757,34 +3699,33 @@
         <v>100002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f t="shared" ref="E15" si="6">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
+        <f t="shared" ref="E15" si="4">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
         <v>브라</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="4" t="str">
-        <f t="shared" ref="H15" si="7">INDEX(touch_gesture_type_desc,MATCH(G15,touch_gesture_type,0))</f>
+        <f t="shared" ref="H15" si="5">INDEX(touch_gesture_type_desc,MATCH(G15,touch_gesture_type,0))</f>
         <v>드래그</v>
       </c>
-      <c r="I15" s="4">
-        <v>0</v>
-      </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4" t="str">
-        <f t="shared" ref="K15" si="8">INDEX(inequality_type_desc,MATCH(I15,inequality_type,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1200002015</v>
+      </c>
       <c r="M15" s="4">
         <v>50000004</v>
       </c>
@@ -3792,7 +3733,7 @@
         <v>50000005</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3803,39 +3744,39 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f t="shared" ref="E16:E26" si="9">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
+        <f t="shared" ref="E16:E26" si="6">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
         <v>브라</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="str">
-        <f t="shared" ref="H16:H26" si="10">INDEX(touch_gesture_type_desc,MATCH(G16,touch_gesture_type,0))</f>
+        <f t="shared" ref="H16:H26" si="7">INDEX(touch_gesture_type_desc,MATCH(G16,touch_gesture_type,0))</f>
         <v>드래그</v>
       </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4" t="str">
-        <f t="shared" ref="K16:K26" si="11">INDEX(inequality_type_desc,MATCH(I16,inequality_type,0))</f>
-        <v>NONE</v>
-      </c>
-      <c r="L16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="4">
+        <v>1200002016</v>
+      </c>
       <c r="M16" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3846,13 +3787,13 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>팬티</v>
       </c>
       <c r="F17" s="4"/>
@@ -3860,16 +3801,13 @@
         <v>5</v>
       </c>
       <c r="H17" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>드래그</v>
       </c>
-      <c r="I17" s="4">
-        <v>0</v>
-      </c>
+      <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>NONE</v>
+      <c r="K17" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
@@ -3879,7 +3817,7 @@
         <v>50000006</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -3890,13 +3828,13 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D18" s="4">
         <v>3</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>머리</v>
       </c>
       <c r="F18" s="4"/>
@@ -3904,17 +3842,12 @@
         <v>3</v>
       </c>
       <c r="H18" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>터치</v>
       </c>
-      <c r="I18" s="4">
-        <v>0</v>
-      </c>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>NONE</v>
-      </c>
+      <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4">
         <v>50000006</v>
@@ -3930,13 +3863,13 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>머리</v>
       </c>
       <c r="F19" s="4"/>
@@ -3944,17 +3877,12 @@
         <v>3</v>
       </c>
       <c r="H19" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>터치</v>
       </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
+      <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>NONE</v>
-      </c>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4">
         <v>50000006</v>
@@ -3970,13 +3898,13 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>머리</v>
       </c>
       <c r="F20" s="4"/>
@@ -3984,17 +3912,12 @@
         <v>3</v>
       </c>
       <c r="H20" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>터치</v>
       </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
+      <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>NONE</v>
-      </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4">
         <v>50000006</v>
@@ -4010,13 +3933,13 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>다리</v>
       </c>
       <c r="F21" s="4"/>
@@ -4024,17 +3947,12 @@
         <v>3</v>
       </c>
       <c r="H21" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>터치</v>
       </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>NONE</v>
-      </c>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4">
         <v>50000006</v>
@@ -4050,13 +3968,13 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>다리</v>
       </c>
       <c r="F22" s="4"/>
@@ -4064,17 +3982,12 @@
         <v>3</v>
       </c>
       <c r="H22" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>터치</v>
       </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
+      <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>NONE</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4">
         <v>50000006</v>
@@ -4090,13 +4003,13 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>다리</v>
       </c>
       <c r="F23" s="4"/>
@@ -4104,17 +4017,12 @@
         <v>3</v>
       </c>
       <c r="H23" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>터치</v>
       </c>
-      <c r="I23" s="4">
-        <v>0</v>
-      </c>
+      <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>NONE</v>
-      </c>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4">
         <v>50000006</v>
@@ -4130,13 +4038,13 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>머리</v>
       </c>
       <c r="F24" s="4"/>
@@ -4144,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="H24" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>쓰다듬기</v>
       </c>
       <c r="I24" s="4">
@@ -4153,10 +4061,7 @@
       <c r="J24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>같음</v>
-      </c>
+      <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4">
         <v>50000006</v>
@@ -4172,13 +4077,13 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>머리</v>
       </c>
       <c r="F25" s="4"/>
@@ -4186,19 +4091,16 @@
         <v>6</v>
       </c>
       <c r="H25" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>쓰다듬기</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J25" s="4">
         <v>2</v>
       </c>
-      <c r="K25" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>같음</v>
-      </c>
+      <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
         <v>50000006</v>
@@ -4214,13 +4116,13 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>머리</v>
       </c>
       <c r="F26" s="4"/>
@@ -4228,19 +4130,16 @@
         <v>6</v>
       </c>
       <c r="H26" s="4" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>쓰다듬기</v>
       </c>
       <c r="I26" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" s="4">
         <v>3</v>
       </c>
-      <c r="K26" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>같음</v>
-      </c>
+      <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>50000006</v>
@@ -4262,6 +4161,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
@@ -4275,6 +4175,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
@@ -4288,6 +4189,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
@@ -4301,6 +4203,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4311,7 +4214,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="G5:G30" xr:uid="{849441D0-BC9E-40E0-B971-F03AE5703FF1}">
       <formula1>touch_gesture_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I30" xr:uid="{FB101D9D-3782-49FE-A4E9-D2CCD2ABB39B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I27:I30" xr:uid="{FB101D9D-3782-49FE-A4E9-D2CCD2ABB39B}">
       <formula1>inequality_type</formula1>
     </dataValidation>
   </dataValidations>
@@ -4323,8 +4226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4332,7 +4235,7 @@
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="37" customWidth="1"/>
+    <col min="4" max="4" width="34.125" customWidth="1"/>
     <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="105.5" customWidth="1"/>
     <col min="7" max="7" width="105.625" customWidth="1"/>
@@ -4551,10 +4454,10 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4565,10 +4468,10 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4579,7 +4482,7 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -4591,7 +4494,7 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D19" s="4">
         <v>1100002005</v>
@@ -4605,7 +4508,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D20" s="4">
         <v>1100002006</v>
@@ -4619,10 +4522,10 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4633,7 +4536,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D22" s="4">
         <v>1100002009</v>
@@ -4647,7 +4550,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D23" s="4">
         <v>1100002010</v>
@@ -4661,10 +4564,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4675,10 +4578,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4689,10 +4592,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4703,10 +4606,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4717,10 +4620,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4731,10 +4634,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4745,11 +4648,9 @@
         <v>100002</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>251</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -4759,11 +4660,9 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>253</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -4773,10 +4672,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4787,10 +4686,10 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4804,7 +4703,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5070,7 +4969,7 @@
         <v>100001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>87</v>
@@ -5084,7 +4983,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -5096,7 +4995,7 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -5108,7 +5007,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -5120,7 +5019,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -5132,7 +5031,7 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -5144,7 +5043,7 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -5156,7 +5055,7 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -5168,7 +5067,7 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -5180,7 +5079,7 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -5192,7 +5091,7 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -5204,7 +5103,7 @@
         <v>100002</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -5216,7 +5115,7 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -5228,7 +5127,7 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -5240,7 +5139,7 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D33" s="8"/>
     </row>
@@ -5252,7 +5151,7 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -5264,7 +5163,7 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -5276,7 +5175,7 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D36" s="8"/>
     </row>
@@ -5288,7 +5187,7 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D37" s="8"/>
     </row>
@@ -5300,7 +5199,7 @@
         <v>100002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D38" s="8"/>
     </row>
@@ -5312,7 +5211,7 @@
         <v>100002</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D39" s="8"/>
     </row>
@@ -5324,7 +5223,7 @@
         <v>100002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D40" s="8"/>
     </row>
@@ -5336,7 +5235,7 @@
         <v>100002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D41" s="8"/>
     </row>
@@ -5348,7 +5247,7 @@
         <v>100002</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -5360,7 +5259,7 @@
         <v>100002</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -5372,7 +5271,7 @@
         <v>100002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D44" s="8"/>
     </row>
@@ -5384,7 +5283,7 @@
         <v>100002</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -5396,7 +5295,7 @@
         <v>100002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D46" s="8"/>
     </row>
@@ -5408,7 +5307,7 @@
         <v>100002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D47" s="8"/>
     </row>
@@ -5420,7 +5319,7 @@
         <v>100002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -5432,7 +5331,7 @@
         <v>100002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -5444,7 +5343,7 @@
         <v>100002</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -5456,7 +5355,7 @@
         <v>100002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -5468,7 +5367,7 @@
         <v>100002</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -5480,7 +5379,7 @@
         <v>100002</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -5492,7 +5391,7 @@
         <v>100002</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D54" s="8"/>
     </row>
@@ -5504,7 +5403,7 @@
         <v>100002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D55" s="8"/>
     </row>
@@ -5516,7 +5415,7 @@
         <v>100002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D56" s="8"/>
     </row>
@@ -5528,7 +5427,7 @@
         <v>100002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -5540,7 +5439,7 @@
         <v>100002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -5552,7 +5451,7 @@
         <v>100002</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -5564,7 +5463,7 @@
         <v>100002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D60" s="8"/>
     </row>
@@ -5576,7 +5475,7 @@
         <v>100002</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -5588,7 +5487,7 @@
         <v>100002</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D62" s="8"/>
     </row>
@@ -5600,7 +5499,7 @@
         <v>100002</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -5612,7 +5511,7 @@
         <v>100002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -5624,7 +5523,7 @@
         <v>100002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -5636,7 +5535,7 @@
         <v>100002</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D66" s="8"/>
     </row>
@@ -5648,7 +5547,7 @@
         <v>100002</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D67" s="8"/>
     </row>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA622A-4EBC-4412-ACB2-CFA1CE5168E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A49A174-F4A0-4CE9-9A5C-1DCA70F1AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="3" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -979,291 +979,293 @@
     <t>자꾸 그래도 안 되는 건 안 돼!</t>
   </si>
   <si>
+    <t>...보, 보기만 할거라구?</t>
+  </si>
+  <si>
+    <t>아, 안된다니까아….</t>
+  </si>
+  <si>
+    <t>(그래도 교리상… 맨살만 아니면….)</t>
+  </si>
+  <si>
+    <t>정말… 지, 진짜진짜 보기만 해야된다?</t>
+  </si>
+  <si>
+    <t>옷 위로는 아슬아슬하게 세이프니까….</t>
+  </si>
+  <si>
+    <t>이걸로… 괜찮아?</t>
+  </si>
+  <si>
+    <t>잠까아아아안! 그런 거 한다고는 안 했잖아!</t>
+  </si>
+  <si>
+    <t>가이아 님의 딸들은… 그… 혼전순결, 해야 된단 말야.</t>
+  </si>
+  <si>
+    <t>절대로 못 만지게 할 거야.</t>
+  </si>
+  <si>
+    <t>헤헷. 아무리 오빠라도 이러면 손 못 대겠지?</t>
+  </si>
+  <si>
+    <t>(어느 쪽을 막아야…!)</t>
+  </si>
+  <si>
+    <t>(손을 대는거랑, 맨살을 보는 것중에 뭐가 더 중죄더라?!)</t>
+  </si>
+  <si>
+    <t>(으으… 오빠 진짜 바보!)</t>
+  </si>
+  <si>
+    <t>거, 거기까지?!</t>
+  </si>
+  <si>
+    <t>으, 으으….</t>
+  </si>
+  <si>
+    <t>엑, 아, 안돼…!</t>
+  </si>
+  <si>
+    <t>아아아앗!</t>
+  </si>
+  <si>
+    <t>오빠, 봤어? 안 봤지? 응?!</t>
+  </si>
+  <si>
+    <t>예뻤다고…? 그, 그러면….</t>
+  </si>
+  <si>
+    <t>본 거지! 봤구나! 내 가, 가슴!</t>
+  </si>
+  <si>
+    <t>오빠 진짜 바보!</t>
+  </si>
+  <si>
+    <t>수녀의 맨살을 보는 건 진짜 큰 죄란 말야!</t>
+  </si>
+  <si>
+    <t>나는 오빠 생각해서 하지 말라는 거라구우… 훌쩍.</t>
+  </si>
+  <si>
+    <t>나도 싫은 건 아니란 말야.</t>
+  </si>
+  <si>
+    <t>내가 오빠를 얼마나 좋아하는데….</t>
+  </si>
+  <si>
+    <t>오빠…?</t>
+  </si>
+  <si>
+    <t>(오빠가… 머리를 쓰다듬어주고 있어….)</t>
+  </si>
+  <si>
+    <t>아, 아니야. 이건 딱히… 교리 위반은 아니니까….</t>
+  </si>
+  <si>
+    <t>(오빠 손 크다… 뭔가 안심되는 기분….)</t>
+  </si>
+  <si>
+    <t>이건 얼마든지 해줘도 되는데, 다른 건….</t>
+  </si>
+  <si>
+    <t>…….</t>
+  </si>
+  <si>
+    <t xml:space="preserve">결혼하고 나서라면… 다른 곳도 오빠 맘대로 해도 되니까… </t>
+  </si>
+  <si>
+    <t>이제 진짜 안 그럴거지?</t>
+  </si>
+  <si>
+    <t>이따가 나랑 같이 가이아님한테 죄송하다고 기도드리자.</t>
+  </si>
+  <si>
+    <t>분명 용서해 주실거야.</t>
+  </si>
+  <si>
+    <t>chat_motion_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002007, 1100002008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1200002004, 1200002005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002007, 1100002011]</t>
+  </si>
+  <si>
+    <t>01_drag_bra_L_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_R_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002012, 1100002013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_panty_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 파라메터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1200002013, 1200002014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_leg_04</t>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015, 1100002017]</t>
+  </si>
+  <si>
+    <t>00_react_panty_02</t>
+  </si>
+  <si>
+    <t>[1100002007, 1100002012]</t>
+  </si>
+  <si>
+    <t>00_react_leg_06</t>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015, 1100002019]</t>
+  </si>
+  <si>
+    <t>00_react_panty_04</t>
+  </si>
+  <si>
+    <t>[1100002007, 1100002014]</t>
+  </si>
+  <si>
+    <t>01_drag_Leg_01</t>
+  </si>
+  <si>
+    <t>뭐야~? 엄청 크니까 패드라고 생각한거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002016, 1100002017, 1100002018]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_bra_L_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[01_drag_bra_R_02, 22_bra_R_off]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_panty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄러워하는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_L_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_leg_L_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_leg_L_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_leg_L_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_min_gesture_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_max_gesture_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drag_animation_name</t>
+  </si>
+  <si>
+    <t>드래그 애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_R_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_bra_R_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(에? 어, 어떡하지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>에에에?! 그건 진짜로 안돼!</t>
-  </si>
-  <si>
-    <t>...보, 보기만 할거라구?</t>
-  </si>
-  <si>
-    <t>아, 안된다니까아….</t>
-  </si>
-  <si>
-    <t>(그래도 교리상… 맨살만 아니면….)</t>
-  </si>
-  <si>
-    <t>정말… 지, 진짜진짜 보기만 해야된다?</t>
-  </si>
-  <si>
-    <t>옷 위로는 아슬아슬하게 세이프니까….</t>
-  </si>
-  <si>
-    <t>이걸로… 괜찮아?</t>
-  </si>
-  <si>
-    <t>잠까아아아안! 그런 거 한다고는 안 했잖아!</t>
-  </si>
-  <si>
-    <t>가이아 님의 딸들은… 그… 혼전순결, 해야 된단 말야.</t>
-  </si>
-  <si>
-    <t>절대로 못 만지게 할 거야.</t>
-  </si>
-  <si>
-    <t>헤헷. 아무리 오빠라도 이러면 손 못 대겠지?</t>
-  </si>
-  <si>
-    <t>(에? 어, 어떡하지?)</t>
-  </si>
-  <si>
-    <t>(어느 쪽을 막아야…!)</t>
-  </si>
-  <si>
-    <t>(손을 대는거랑, 맨살을 보는 것중에 뭐가 더 중죄더라?!)</t>
-  </si>
-  <si>
-    <t>(으으… 오빠 진짜 바보!)</t>
-  </si>
-  <si>
-    <t>거, 거기까지?!</t>
-  </si>
-  <si>
-    <t>으, 으으….</t>
-  </si>
-  <si>
-    <t>엑, 아, 안돼…!</t>
-  </si>
-  <si>
-    <t>아아아앗!</t>
-  </si>
-  <si>
-    <t>오빠, 봤어? 안 봤지? 응?!</t>
-  </si>
-  <si>
-    <t>예뻤다고…? 그, 그러면….</t>
-  </si>
-  <si>
-    <t>본 거지! 봤구나! 내 가, 가슴!</t>
-  </si>
-  <si>
-    <t>오빠 진짜 바보!</t>
-  </si>
-  <si>
-    <t>수녀의 맨살을 보는 건 진짜 큰 죄란 말야!</t>
-  </si>
-  <si>
-    <t>나는 오빠 생각해서 하지 말라는 거라구우… 훌쩍.</t>
-  </si>
-  <si>
-    <t>나도 싫은 건 아니란 말야.</t>
-  </si>
-  <si>
-    <t>내가 오빠를 얼마나 좋아하는데….</t>
-  </si>
-  <si>
-    <t>오빠…?</t>
-  </si>
-  <si>
-    <t>(오빠가… 머리를 쓰다듬어주고 있어….)</t>
-  </si>
-  <si>
-    <t>아, 아니야. 이건 딱히… 교리 위반은 아니니까….</t>
-  </si>
-  <si>
-    <t>(오빠 손 크다… 뭔가 안심되는 기분….)</t>
-  </si>
-  <si>
-    <t>이건 얼마든지 해줘도 되는데, 다른 건….</t>
-  </si>
-  <si>
-    <t>…….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">결혼하고 나서라면… 다른 곳도 오빠 맘대로 해도 되니까… </t>
-  </si>
-  <si>
-    <t>이제 진짜 안 그럴거지?</t>
-  </si>
-  <si>
-    <t>이따가 나랑 같이 가이아님한테 죄송하다고 기도드리자.</t>
-  </si>
-  <si>
-    <t>분명 용서해 주실거야.</t>
-  </si>
-  <si>
-    <t>chat_motion_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002007, 1100002008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1200002004, 1200002005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_bored_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_bored_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002007, 1100002011]</t>
-  </si>
-  <si>
-    <t>01_drag_bra_L_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_bra_R_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002012, 1100002013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_panty_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 파라메터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1200002013, 1200002014]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_leg_04</t>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015, 1100002017]</t>
-  </si>
-  <si>
-    <t>00_react_panty_02</t>
-  </si>
-  <si>
-    <t>[1100002007, 1100002012]</t>
-  </si>
-  <si>
-    <t>00_react_leg_06</t>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015, 1100002019]</t>
-  </si>
-  <si>
-    <t>00_react_panty_04</t>
-  </si>
-  <si>
-    <t>[1100002007, 1100002014]</t>
-  </si>
-  <si>
-    <t>01_drag_Leg_01</t>
-  </si>
-  <si>
-    <t>뭐야~? 엄청 크니까 패드라고 생각한거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002016, 1100002017, 1100002018]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21_bra_L_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[01_drag_bra_R_02, 22_bra_R_off]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_panty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부끄러워하는 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_bra_L_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_idle_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_leg_L_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_leg_L_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_leg_L_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_min_gesture_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_max_gesture_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drag_animation_name</t>
-  </si>
-  <si>
-    <t>드래그 애니메이션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_bra_R_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22_bra_R_off</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3066,10 +3068,10 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3096,7 +3098,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3156,13 +3158,13 @@
         <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>103</v>
@@ -3174,7 +3176,7 @@
         <v>127</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3250,16 +3252,16 @@
         <v>101</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>266</v>
-      </c>
       <c r="L4" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>126</v>
@@ -3268,7 +3270,7 @@
         <v>128</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3304,7 +3306,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -3424,7 +3426,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -3434,7 +3436,7 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3467,7 +3469,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -3477,7 +3479,7 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3512,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
@@ -3522,7 +3524,7 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3557,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
@@ -3567,7 +3569,7 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -3602,7 +3604,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
@@ -3612,7 +3614,7 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -3643,7 +3645,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
@@ -3651,7 +3653,7 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -3683,7 +3685,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>167</v>
@@ -3721,7 +3723,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -3733,7 +3735,7 @@
         <v>50000005</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -3766,7 +3768,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
@@ -3776,7 +3778,7 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -3807,7 +3809,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="4">
@@ -3817,7 +3819,7 @@
         <v>50000006</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -4062,9 +4064,11 @@
         <v>1</v>
       </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>1200002004</v>
+      </c>
       <c r="M24" s="4">
-        <v>50000006</v>
+        <v>50000003</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -4101,9 +4105,11 @@
         <v>2</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>1200002004</v>
+      </c>
       <c r="M25" s="4">
-        <v>50000006</v>
+        <v>50000003</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -4140,9 +4146,11 @@
         <v>3</v>
       </c>
       <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>1200002004</v>
+      </c>
       <c r="M26" s="4">
-        <v>50000006</v>
+        <v>50000003</v>
       </c>
       <c r="N26" s="4">
         <v>50000003</v>
@@ -4468,7 +4476,7 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>178</v>
@@ -4482,7 +4490,7 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -4494,7 +4502,7 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D19" s="4">
         <v>1100002005</v>
@@ -4508,7 +4516,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D20" s="4">
         <v>1100002006</v>
@@ -4522,10 +4530,10 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4536,7 +4544,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D22" s="4">
         <v>1100002009</v>
@@ -4550,7 +4558,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D23" s="4">
         <v>1100002010</v>
@@ -4564,10 +4572,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4578,10 +4586,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4592,10 +4600,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4606,10 +4614,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4620,10 +4628,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4634,10 +4642,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4648,7 +4656,7 @@
         <v>100002</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -4660,7 +4668,7 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -4672,10 +4680,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4686,10 +4694,10 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4702,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4969,7 +4977,7 @@
         <v>100001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>87</v>
@@ -5115,7 +5123,7 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -5127,7 +5135,7 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -5139,7 +5147,7 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D33" s="8"/>
     </row>
@@ -5151,7 +5159,7 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -5163,7 +5171,7 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -5175,7 +5183,7 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D36" s="8"/>
     </row>
@@ -5187,7 +5195,7 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D37" s="8"/>
     </row>
@@ -5199,7 +5207,7 @@
         <v>100002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D38" s="8"/>
     </row>
@@ -5211,7 +5219,7 @@
         <v>100002</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D39" s="8"/>
     </row>
@@ -5223,7 +5231,7 @@
         <v>100002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="8"/>
     </row>
@@ -5235,7 +5243,7 @@
         <v>100002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" s="8"/>
     </row>
@@ -5247,7 +5255,7 @@
         <v>100002</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -5259,7 +5267,7 @@
         <v>100002</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -5271,7 +5279,7 @@
         <v>100002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D44" s="8"/>
     </row>
@@ -5283,7 +5291,7 @@
         <v>100002</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -5295,7 +5303,7 @@
         <v>100002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D46" s="8"/>
     </row>
@@ -5307,7 +5315,7 @@
         <v>100002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D47" s="8"/>
     </row>
@@ -5319,7 +5327,7 @@
         <v>100002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -5331,7 +5339,7 @@
         <v>100002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -5343,7 +5351,7 @@
         <v>100002</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -5355,7 +5363,7 @@
         <v>100002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -5367,7 +5375,7 @@
         <v>100002</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -5379,7 +5387,7 @@
         <v>100002</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -5391,7 +5399,7 @@
         <v>100002</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D54" s="8"/>
     </row>
@@ -5403,7 +5411,7 @@
         <v>100002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D55" s="8"/>
     </row>
@@ -5415,7 +5423,7 @@
         <v>100002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D56" s="8"/>
     </row>
@@ -5427,7 +5435,7 @@
         <v>100002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -5439,7 +5447,7 @@
         <v>100002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -5451,7 +5459,7 @@
         <v>100002</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -5463,7 +5471,7 @@
         <v>100002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D60" s="8"/>
     </row>
@@ -5475,7 +5483,7 @@
         <v>100002</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -5487,7 +5495,7 @@
         <v>100002</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D62" s="8"/>
     </row>
@@ -5499,7 +5507,7 @@
         <v>100002</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -5511,7 +5519,7 @@
         <v>100002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -5523,7 +5531,7 @@
         <v>100002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -5535,7 +5543,7 @@
         <v>100002</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D66" s="8"/>
     </row>
@@ -5547,7 +5555,7 @@
         <v>100002</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D67" s="8"/>
     </row>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A49A174-F4A0-4CE9-9A5C-1DCA70F1AAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D61A9-6457-404F-B901-5F0B6F8A7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="3" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="275">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,6 +1266,26 @@
   </si>
   <si>
     <t>에에에?! 그건 진짜로 안돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bored_chatmotion_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기시 자동재생될 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동재생될 아이들 애니메이션 출력횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bored_condition_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200002001, 1200002002, 1200002003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2924,31 +2944,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A07720-EA6B-4BA8-BF6C-0034D0649281}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="65.5" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="33.5" customWidth="1"/>
+    <col min="6" max="6" width="65.5" customWidth="1"/>
+    <col min="7" max="7" width="33.625" customWidth="1"/>
+    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>134</v>
       </c>
@@ -2959,10 +2979,16 @@
         <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2973,10 +2999,16 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>125</v>
       </c>
@@ -2987,10 +3019,16 @@
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>50000001</v>
       </c>
@@ -3000,11 +3038,13 @@
       <c r="C5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>50000002</v>
       </c>
@@ -3014,11 +3054,13 @@
       <c r="C6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>50000003</v>
       </c>
@@ -3029,10 +3071,16 @@
         <v>140</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>50000004</v>
       </c>
@@ -3042,11 +3090,13 @@
       <c r="C8" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>50000005</v>
       </c>
@@ -3056,11 +3106,13 @@
       <c r="C9" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>50000006</v>
       </c>
@@ -3070,23 +3122,29 @@
       <c r="C10" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3097,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4235,7 +4293,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D61A9-6457-404F-B901-5F0B6F8A7258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E847D9-FA75-4F18-88EB-648AEE1AAA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="4" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="3" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -2814,8 +2814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2946,8 +2946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A07720-EA6B-4BA8-BF6C-0034D0649281}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E847D9-FA75-4F18-88EB-648AEE1AAA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82096DA7-5123-41ED-A969-BF3E391A83AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="3" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="3" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="277">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -895,10 +895,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[50000003, 50000004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[50000004, 50000005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1116,9 +1112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1100002007, 1100002011]</t>
-  </si>
-  <si>
     <t>01_drag_bra_L_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1131,10 +1124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_react_panty_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기타 파라메터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1167,18 +1156,6 @@
     <t>[1100002007, 1100002012]</t>
   </si>
   <si>
-    <t>00_react_leg_06</t>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015, 1100002019]</t>
-  </si>
-  <si>
-    <t>00_react_panty_04</t>
-  </si>
-  <si>
-    <t>[1100002007, 1100002014]</t>
-  </si>
-  <si>
     <t>01_drag_Leg_01</t>
   </si>
   <si>
@@ -1198,10 +1175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[01_drag_bra_R_02, 22_bra_R_off]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01_drag_panty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1286,6 +1259,45 @@
   </si>
   <si>
     <t>1200002001, 1200002002, 1200002003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002019, 1100002020]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_03</t>
+  </si>
+  <si>
+    <t>1100002039, 1100002040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100002041, 1100002042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100002043, 1100002045</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1484,6 +1496,7 @@
       <sheetName val="@position"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
       <sheetName val="@team_type"/>
@@ -1495,6 +1508,8 @@
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
+      <sheetName val="@skill_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1504,7 +1519,8 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_BODY_TYPE</v>
@@ -1676,7 +1692,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8">
+      <sheetData sheetId="9">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_GESTURE_TYPE</v>
@@ -1771,12 +1787,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15">
         <row r="1">
           <cell r="A1" t="str">
             <v>INEQUALITY_TYPE</v>
@@ -1871,6 +1887,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2814,8 +2832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2947,7 +2965,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2979,10 +2997,10 @@
         <v>135</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>136</v>
@@ -3019,10 +3037,10 @@
         <v>117</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>101</v>
@@ -3071,7 +3089,7 @@
         <v>140</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
@@ -3120,12 +3138,12 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3155,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3207,7 +3225,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>121</v>
@@ -3216,13 +3234,13 @@
         <v>122</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>103</v>
@@ -3234,7 +3252,7 @@
         <v>127</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3301,7 +3319,7 @@
         <v>101</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>120</v>
@@ -3310,16 +3328,16 @@
         <v>101</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>126</v>
@@ -3328,7 +3346,7 @@
         <v>128</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3364,7 +3382,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -3472,7 +3490,7 @@
         <v>브라</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -3484,7 +3502,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -3493,9 +3511,7 @@
         <v>50000003</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="4" t="s">
-        <v>230</v>
-      </c>
+      <c r="O8" s="4"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -3515,7 +3531,7 @@
         <v>브라</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -3527,7 +3543,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -3536,9 +3552,7 @@
         <v>50000003</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="4" t="s">
-        <v>231</v>
-      </c>
+      <c r="O9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -3572,18 +3586,16 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -3617,18 +3629,16 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -3662,18 +3672,16 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -3703,16 +3711,16 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4" t="s">
-        <v>163</v>
+        <v>245</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1200002012</v>
+      </c>
+      <c r="M13" s="4">
+        <v>50000003</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -3743,10 +3751,10 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3769,7 +3777,7 @@
         <v>브라</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
@@ -3781,7 +3789,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -3792,9 +3800,7 @@
       <c r="N15" s="4">
         <v>50000005</v>
       </c>
-      <c r="O15" s="4" t="s">
-        <v>255</v>
-      </c>
+      <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -3814,7 +3820,7 @@
         <v>브라</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -3826,18 +3832,16 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="4" t="s">
-        <v>252</v>
-      </c>
+      <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -3867,18 +3871,18 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="L17" s="4"/>
+        <v>245</v>
+      </c>
+      <c r="L17" s="4">
+        <v>1200002018</v>
+      </c>
       <c r="M17" s="4">
         <v>50000005</v>
       </c>
       <c r="N17" s="4">
         <v>50000006</v>
       </c>
-      <c r="O17" s="4" t="s">
-        <v>253</v>
-      </c>
+      <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -3888,29 +3892,33 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>머리</v>
+        <v>팬티</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>터치</v>
+        <v>드래그</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="K18" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L18" s="4">
+        <v>1200002017</v>
+      </c>
       <c r="M18" s="4">
-        <v>50000006</v>
+        <v>50000004</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -4123,10 +4131,10 @@
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4">
-        <v>1200002004</v>
+        <v>1200002019</v>
       </c>
       <c r="M24" s="4">
-        <v>50000003</v>
+        <v>50000006</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -4164,10 +4172,10 @@
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4">
-        <v>1200002004</v>
+        <v>1200002020</v>
       </c>
       <c r="M25" s="4">
-        <v>50000003</v>
+        <v>50000006</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -4205,10 +4213,10 @@
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4">
-        <v>1200002004</v>
+        <v>1200002021</v>
       </c>
       <c r="M26" s="4">
-        <v>50000003</v>
+        <v>50000006</v>
       </c>
       <c r="N26" s="4">
         <v>50000003</v>
@@ -4290,10 +4298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4520,10 +4528,10 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4534,10 +4542,10 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4548,7 +4556,7 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -4560,7 +4568,7 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D19" s="4">
         <v>1100002005</v>
@@ -4574,7 +4582,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="4">
         <v>1100002006</v>
@@ -4588,10 +4596,10 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4602,7 +4610,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D22" s="4">
         <v>1100002009</v>
@@ -4616,7 +4624,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D23" s="4">
         <v>1100002010</v>
@@ -4630,10 +4638,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4644,10 +4652,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4658,10 +4666,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4672,10 +4680,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4686,10 +4694,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4700,10 +4708,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4714,7 +4722,7 @@
         <v>100002</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -4726,7 +4734,7 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -4738,10 +4746,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4752,10 +4760,52 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>246</v>
+        <v>269</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1100002029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1200002019</v>
+      </c>
+      <c r="B34" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1200002020</v>
+      </c>
+      <c r="B35" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1200002021</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4769,7 +4819,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5035,7 +5085,7 @@
         <v>100001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>87</v>
@@ -5049,7 +5099,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -5061,7 +5111,7 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -5073,7 +5123,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -5085,7 +5135,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -5097,7 +5147,7 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -5109,7 +5159,7 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -5121,7 +5171,7 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -5133,7 +5183,7 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -5145,7 +5195,7 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -5157,7 +5207,7 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -5169,7 +5219,7 @@
         <v>100002</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -5181,7 +5231,7 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -5193,7 +5243,7 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D32" s="8"/>
     </row>
@@ -5205,7 +5255,7 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D33" s="8"/>
     </row>
@@ -5217,7 +5267,7 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -5229,7 +5279,7 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D35" s="8"/>
     </row>
@@ -5241,7 +5291,7 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D36" s="8"/>
     </row>
@@ -5253,7 +5303,7 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D37" s="8"/>
     </row>
@@ -5265,7 +5315,7 @@
         <v>100002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D38" s="8"/>
     </row>
@@ -5277,7 +5327,7 @@
         <v>100002</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39" s="8"/>
     </row>
@@ -5289,7 +5339,7 @@
         <v>100002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D40" s="8"/>
     </row>
@@ -5301,7 +5351,7 @@
         <v>100002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D41" s="8"/>
     </row>
@@ -5313,7 +5363,7 @@
         <v>100002</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -5325,7 +5375,7 @@
         <v>100002</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -5337,7 +5387,7 @@
         <v>100002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D44" s="8"/>
     </row>
@@ -5349,7 +5399,7 @@
         <v>100002</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -5361,7 +5411,7 @@
         <v>100002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" s="8"/>
     </row>
@@ -5373,7 +5423,7 @@
         <v>100002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D47" s="8"/>
     </row>
@@ -5385,7 +5435,7 @@
         <v>100002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D48" s="8"/>
     </row>
@@ -5397,7 +5447,7 @@
         <v>100002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="8"/>
     </row>
@@ -5409,7 +5459,7 @@
         <v>100002</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="8"/>
     </row>
@@ -5421,7 +5471,7 @@
         <v>100002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D51" s="8"/>
     </row>
@@ -5433,7 +5483,7 @@
         <v>100002</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D52" s="8"/>
     </row>
@@ -5445,7 +5495,7 @@
         <v>100002</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" s="8"/>
     </row>
@@ -5457,7 +5507,7 @@
         <v>100002</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D54" s="8"/>
     </row>
@@ -5469,7 +5519,7 @@
         <v>100002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D55" s="8"/>
     </row>
@@ -5481,7 +5531,7 @@
         <v>100002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D56" s="8"/>
     </row>
@@ -5493,7 +5543,7 @@
         <v>100002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D57" s="8"/>
     </row>
@@ -5505,7 +5555,7 @@
         <v>100002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D58" s="8"/>
     </row>
@@ -5517,7 +5567,7 @@
         <v>100002</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -5529,7 +5579,7 @@
         <v>100002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D60" s="8"/>
     </row>
@@ -5541,7 +5591,7 @@
         <v>100002</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -5553,7 +5603,7 @@
         <v>100002</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D62" s="8"/>
     </row>
@@ -5565,7 +5615,7 @@
         <v>100002</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -5577,7 +5627,7 @@
         <v>100002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D64" s="8"/>
     </row>
@@ -5589,7 +5639,7 @@
         <v>100002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D65" s="8"/>
     </row>
@@ -5601,7 +5651,7 @@
         <v>100002</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" s="8"/>
     </row>
@@ -5613,7 +5663,7 @@
         <v>100002</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D67" s="8"/>
     </row>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82096DA7-5123-41ED-A969-BF3E391A83AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4908EE1D-6241-46BB-B006-C177B451CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="3" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="277">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1494,8 +1494,11 @@
     <sheetNames>
       <sheetName val="@tribe"/>
       <sheetName val="@position"/>
+      <sheetName val="@role"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
+      <sheetName val="@character_sort"/>
+      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1520,7 +1523,10 @@
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_BODY_TYPE</v>
@@ -1692,7 +1698,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="9">
+      <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_GESTURE_TYPE</v>
@@ -1787,12 +1793,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
-      <sheetData sheetId="15">
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
             <v>INEQUALITY_TYPE</v>
@@ -1887,8 +1893,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2830,10 +2836,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2938,19 +2944,119 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
+        <v>10000101</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50000001</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>10000200</v>
       </c>
-      <c r="B6" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
         <v>50000003</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>10000300</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100003</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="4">
+        <v>50000001</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>10000400</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100004</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>10000500</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100005</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="4">
+        <v>50000001</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10000600</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="4">
+        <v>50000001</v>
+      </c>
+      <c r="F11" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3173,7 +3279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4908EE1D-6241-46BB-B006-C177B451CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFD95B-614C-4BC2-8CFF-E2C6574C02C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="283">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1298,6 +1298,30 @@
   </si>
   <si>
     <t>1100002043, 1100002045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_prefab_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background_prefab_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Memorial/Memorial_BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 프리팹 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 프리팹 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Memorial/Lucia/Memorial_Dev2_Lucia</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2836,33 +2860,35 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="4" width="91.5" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
-    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
-    <col min="17" max="17" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.875" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
+    <col min="5" max="6" width="91.5" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="19" max="19" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2870,19 +2896,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2896,13 +2928,19 @@
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -2910,19 +2948,25 @@
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10000100</v>
       </c>
@@ -2930,19 +2974,25 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>50000001</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10000101</v>
       </c>
@@ -2950,19 +3000,25 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="4">
+      <c r="G6" s="4">
         <v>50000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10000200</v>
       </c>
@@ -2970,17 +3026,25 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4">
+      <c r="F7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="4">
         <v>50000003</v>
       </c>
-      <c r="F7" s="4">
+      <c r="H7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>10000300</v>
       </c>
@@ -2988,19 +3052,25 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="4">
+      <c r="G8" s="4">
         <v>50000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="H8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>10000400</v>
       </c>
@@ -3008,19 +3078,25 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="4">
+      <c r="G9" s="4">
         <v>50000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10000500</v>
       </c>
@@ -3028,19 +3104,25 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="4">
+      <c r="G10" s="4">
         <v>50000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="H10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10000600</v>
       </c>
@@ -3048,15 +3130,21 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="4">
+      <c r="G11" s="4">
         <v>50000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <v>0</v>
       </c>
     </row>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CFD95B-614C-4BC2-8CFF-E2C6574C02C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5147DF70-6803-460E-9982-A17CD6521386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="321">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -560,768 +560,922 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/AssetResources/Audio/Voice/sample/sample_03_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 그래? 뿔 만져보고 싶어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아~ 산지 얼마 안된 브라가 벌써 꽉 껴~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라, 또 가슴이 커진걸까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후훗♡ 대장의 손가락 듬직해서 빨고 싶어지네.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우훗♡ 알겠어? 이 립스틱 신상인데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싫다~ 뿔에 거미줄이 걸려있잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/FX/Touch/touch_mouth_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/FX/Touch/touch_mouth_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/FX/Touch/touch_horn_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/FX/Touch/touch_horn_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001001, 100001002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001003, 100001004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001005, 100001006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001007, 100001008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:TOUCH_BODY_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치 박스 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터치가능한 신체부위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗모션 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefab_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리팹 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intro_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Memorial/Sample/TL_intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me_Resource_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me_Serifu_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me_Chat_Motion_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me_Interaction_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_clip_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오디오 클립 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말풍선 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serifu_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_animation_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch_body_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENUM:TOUCH_GESTURE_TYPE:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch_gesture_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제스쳐 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제스쳐 종류 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 상태 조건 고유 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_state_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 상태 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_state_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터렉션 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 고유 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me_State_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속으로 제스쳐를 한 횟수에 따른 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태 고유 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이들 애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상태에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 상태에 대한 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Memorial/Lucia/Memorial_Set_Node_Dev_Lucia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인트로 이후 연결되는 기본 루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정 흐름 이후 연결되는 가슴 가리고 있는 상태 루프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 터치시 반응 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 터치 연속 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 더블 터치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 저지 좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 저지 우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 다리 반응 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 다리 반응 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 다리 일정이상 시도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬티 끈 푸는 조작 저지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 터치 거부 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 방치 좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어깨끈 방치 우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팬티 끈 저지하다가 가슴 노출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜건드려도 거부 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜건드려도 거부 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어딜건드려도 거부 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 쓰다듬기 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 쓰다듬기 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머리 쓰다듬기 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50000004, 50000005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50000003, 50000004, 50000005]</t>
+  </si>
+  <si>
+    <t>[50000003, 50000004, 50000005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50000004, 50000005, 50000006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌우(L or R)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touch_body_direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오, 오빠? 왜 그렇게 보고만 있어…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 몸… 이상해…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(분명히 아까 목욕하고 다 체크했는데….)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(뭐라고 말 좀 해줘 오빠…!)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002001, 1100002002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002003, 1100002004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그래도 교리상… 맨살만 아니면….)</t>
+  </si>
+  <si>
+    <t>(어느 쪽을 막아야…!)</t>
+  </si>
+  <si>
+    <t>(손을 대는거랑, 맨살을 보는 것중에 뭐가 더 중죄더라?!)</t>
+  </si>
+  <si>
+    <t>(으으… 오빠 진짜 바보!)</t>
+  </si>
+  <si>
+    <t>(오빠가… 머리를 쓰다듬어주고 있어….)</t>
+  </si>
+  <si>
+    <t>(오빠 손 크다… 뭔가 안심되는 기분….)</t>
+  </si>
+  <si>
+    <t>…….</t>
+  </si>
+  <si>
+    <t>chat_motion_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002007, 1100002008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1200002004, 1200002005]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_L_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_R_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002012, 1100002013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 파라메터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1200002013, 1200002014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_leg_04</t>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015, 1100002017]</t>
+  </si>
+  <si>
+    <t>00_react_panty_02</t>
+  </si>
+  <si>
+    <t>[1100002007, 1100002012]</t>
+  </si>
+  <si>
+    <t>01_drag_Leg_01</t>
+  </si>
+  <si>
+    <t>뭐야~? 엄청 크니까 패드라고 생각한거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002016, 1100002017, 1100002018]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_bra_L_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_panty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부끄러워하는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_L_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_min_gesture_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>condition_max_gesture_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drag_animation_name</t>
+  </si>
+  <si>
+    <t>드래그 애니메이션 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_drag_bra_R_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22_bra_R_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(에? 어, 어떡하지?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에에에?! 그건 진짜로 안돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bored_chatmotion_ids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기시 자동재생될 반응</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동재생될 아이들 애니메이션 출력횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bored_condition_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200002001, 1200002002, 1200002003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002019, 1100002020]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_03</t>
+  </si>
+  <si>
+    <t>1100002039, 1100002040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100002041, 1100002042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100002043, 1100002045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor_prefab_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>background_prefab_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Memorial/Memorial_BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 프리팹 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 프리팹 키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Memorial/Lucia/Memorial_Dev2_Lucia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺅…! 오, 오빠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하, 하지마아~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 안된다니까!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠 그러다 가이아 님한테 벌 받는다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우우…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자꾸 그래도 안 되는 건 안 돼!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>...보, 보기만 할거라구?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 안된다니까아….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말… 지, 진짜진짜 보기만 해야된다?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 위로는 아슬아슬하게 세이프니까….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸로… 괜찮아?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠까아아아안! 그런 거 한다고는 안 했잖아!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가이아 님의 딸들은… 그… 혼전순결, 해야 된단 말야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>절대로 못 만지게 할 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤헷. 아무리 오빠라도 이러면 손 못 대겠지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거, 거기까지?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>으, 으으….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑, 아, 안돼…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아아아앗!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠, 봤어? 안 봤지? 응?!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예뻤다고…? 그, 그러면….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본 거지! 봤구나! 내 가, 가슴!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠 진짜 바보!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수녀의 맨살을 보는 건 진짜 큰 죄란 말야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 오빠 생각해서 하지 말라는 거라구우… 훌쩍.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 싫은 건 아니란 말야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 오빠를 얼마나 좋아하는데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오빠…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 아니야. 이건 딱히… 교리 위반은 아니니까….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이건 얼마든지 해줘도 되는데, 다른 건….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">결혼하고 나서라면… 다른 곳도 오빠 맘대로 해도 되니까… </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 진짜 안 그럴거지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이따가 나랑 같이 가이아님한테 죄송하다고 기도드리자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분명 용서해 주실거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Assets/AssetResources/Audio/Voice/sample/sample_03_2</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_03_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 그래? 뿔 만져보고 싶어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아~ 산지 얼마 안된 브라가 벌써 꽉 껴~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라, 또 가슴이 커진걸까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후훗♡ 대장의 손가락 듬직해서 빨고 싶어지네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우훗♡ 알겠어? 이 립스틱 신상인데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫다~ 뿔에 거미줄이 걸려있잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_mouth_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_mouth_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_horn_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_horn_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사 id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001001, 100001002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001003, 100001004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001005, 100001006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001007, 100001008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:TOUCH_BODY_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치 박스 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#desc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>터치가능한 신체부위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챗모션 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인트로 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리팹 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>intro_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Memorial/Sample/TL_intro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Me_Resource_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Me_Serifu_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Me_Chat_Motion_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Me_Interaction_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audio_clip_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디오 클립 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말풍선 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serifu_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle_animation_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch_body_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENUM:TOUCH_GESTURE_TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch_gesture_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제스쳐 종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제스쳐 종류 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 상태 조건 고유 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>state_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_state_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 상태 변환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>change_state_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인터렉션 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 고유 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Me_State_Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속으로 제스쳐를 한 횟수에 따른 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태 고유 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이들 애니메이션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상태에 대한 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 상태에 대한 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Memorial/Lucia/Memorial_Set_Node_Dev_Lucia</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_idle_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_idle_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인트로 이후 연결되는 기본 루프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>특정 흐름 이후 연결되는 가슴 가리고 있는 상태 루프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 터치시 반응 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 터치 연속 3회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 더블 터치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어깨끈 저지 좌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어깨끈 저지 우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 다리 반응 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 다리 반응 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 다리 일정이상 시도시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팬티 끈 푸는 조작 저지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 터치 거부 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어깨끈 방치 좌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어깨끈 방치 우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>팬티 끈 저지하다가 가슴 노출</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어딜건드려도 거부 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어딜건드려도 거부 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어딜건드려도 거부 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 쓰다듬기 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 쓰다듬기 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>머리 쓰다듬기 3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[50000004, 50000005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[50000003, 50000004, 50000005]</t>
-  </si>
-  <si>
-    <t>[50000003, 50000004, 50000005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[50000004, 50000005, 50000006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좌우(L or R)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>touch_body_direction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오, 오빠? 왜 그렇게 보고만 있어…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 몸… 이상해…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(분명히 아까 목욕하고 다 체크했는데….)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뭐라고 말 좀 해줘 오빠…!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_bored_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002001, 1100002002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002003, 1100002004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>꺅…! 오, 오빠?</t>
-  </si>
-  <si>
-    <t>하, 하지마아~</t>
-  </si>
-  <si>
-    <t>아, 안된다니까!</t>
-  </si>
-  <si>
-    <t>오빠 그러다 가이아 님한테 벌 받는다?</t>
-  </si>
-  <si>
-    <t>에…?</t>
-  </si>
-  <si>
-    <t>우우…!</t>
-  </si>
-  <si>
-    <t>자꾸 그래도 안 되는 건 안 돼!</t>
-  </si>
-  <si>
-    <t>...보, 보기만 할거라구?</t>
-  </si>
-  <si>
-    <t>아, 안된다니까아….</t>
-  </si>
-  <si>
-    <t>(그래도 교리상… 맨살만 아니면….)</t>
-  </si>
-  <si>
-    <t>정말… 지, 진짜진짜 보기만 해야된다?</t>
-  </si>
-  <si>
-    <t>옷 위로는 아슬아슬하게 세이프니까….</t>
-  </si>
-  <si>
-    <t>이걸로… 괜찮아?</t>
-  </si>
-  <si>
-    <t>잠까아아아안! 그런 거 한다고는 안 했잖아!</t>
-  </si>
-  <si>
-    <t>가이아 님의 딸들은… 그… 혼전순결, 해야 된단 말야.</t>
-  </si>
-  <si>
-    <t>절대로 못 만지게 할 거야.</t>
-  </si>
-  <si>
-    <t>헤헷. 아무리 오빠라도 이러면 손 못 대겠지?</t>
-  </si>
-  <si>
-    <t>(어느 쪽을 막아야…!)</t>
-  </si>
-  <si>
-    <t>(손을 대는거랑, 맨살을 보는 것중에 뭐가 더 중죄더라?!)</t>
-  </si>
-  <si>
-    <t>(으으… 오빠 진짜 바보!)</t>
-  </si>
-  <si>
-    <t>거, 거기까지?!</t>
-  </si>
-  <si>
-    <t>으, 으으….</t>
-  </si>
-  <si>
-    <t>엑, 아, 안돼…!</t>
-  </si>
-  <si>
-    <t>아아아앗!</t>
-  </si>
-  <si>
-    <t>오빠, 봤어? 안 봤지? 응?!</t>
-  </si>
-  <si>
-    <t>예뻤다고…? 그, 그러면….</t>
-  </si>
-  <si>
-    <t>본 거지! 봤구나! 내 가, 가슴!</t>
-  </si>
-  <si>
-    <t>오빠 진짜 바보!</t>
-  </si>
-  <si>
-    <t>수녀의 맨살을 보는 건 진짜 큰 죄란 말야!</t>
-  </si>
-  <si>
-    <t>나는 오빠 생각해서 하지 말라는 거라구우… 훌쩍.</t>
-  </si>
-  <si>
-    <t>나도 싫은 건 아니란 말야.</t>
-  </si>
-  <si>
-    <t>내가 오빠를 얼마나 좋아하는데….</t>
-  </si>
-  <si>
-    <t>오빠…?</t>
-  </si>
-  <si>
-    <t>(오빠가… 머리를 쓰다듬어주고 있어….)</t>
-  </si>
-  <si>
-    <t>아, 아니야. 이건 딱히… 교리 위반은 아니니까….</t>
-  </si>
-  <si>
-    <t>(오빠 손 크다… 뭔가 안심되는 기분….)</t>
-  </si>
-  <si>
-    <t>이건 얼마든지 해줘도 되는데, 다른 건….</t>
-  </si>
-  <si>
-    <t>…….</t>
-  </si>
-  <si>
-    <t xml:space="preserve">결혼하고 나서라면… 다른 곳도 오빠 맘대로 해도 되니까… </t>
-  </si>
-  <si>
-    <t>이제 진짜 안 그럴거지?</t>
-  </si>
-  <si>
-    <t>이따가 나랑 같이 가이아님한테 죄송하다고 기도드리자.</t>
-  </si>
-  <si>
-    <t>분명 용서해 주실거야.</t>
-  </si>
-  <si>
-    <t>chat_motion_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002007, 1100002008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1200002004, 1200002005]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_bored_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_bored_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_bra_L_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_bra_R_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002012, 1100002013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기타 파라메터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1200002013, 1200002014]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_leg_04</t>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015, 1100002017]</t>
-  </si>
-  <si>
-    <t>00_react_panty_02</t>
-  </si>
-  <si>
-    <t>[1100002007, 1100002012]</t>
-  </si>
-  <si>
-    <t>01_drag_Leg_01</t>
-  </si>
-  <si>
-    <t>뭐야~? 엄청 크니까 패드라고 생각한거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002016, 1100002017, 1100002018]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21_bra_L_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_panty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부끄러워하는 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_bra_L_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_idle_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_leg_L_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_leg_L_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_leg_L_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_min_gesture_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition_max_gesture_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drag_animation_name</t>
-  </si>
-  <si>
-    <t>드래그 애니메이션 이름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_drag_bra_R_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22_bra_R_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(에? 어, 어떡하지?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에에에?! 그건 진짜로 안돼!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bored_chatmotion_ids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기시 자동재생될 반응</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동재생될 아이들 애니메이션 출력횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bored_condition_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200002001, 1200002002, 1200002003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_panty_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_panty_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_panty_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002019, 1100002020]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_03</t>
-  </si>
-  <si>
-    <t>1100002039, 1100002040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100002041, 1100002042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100002043, 1100002045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor_prefab_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>background_prefab_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Memorial/Memorial_BG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캐릭터 프리팹 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배경 프리팹 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Prefabs/Memorial/Lucia/Memorial_Dev2_Lucia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_3</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_4</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_5</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_6</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_7</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_8</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_9</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_10</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_11</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_12</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_13</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_14</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_15</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_16</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_17</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_18</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_19</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_20</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_21</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_22</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_23</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_24</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_25</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_26</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_27</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_28</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_29</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_30</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_31</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_32</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_33</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_34</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_37</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_38</t>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_return_leg_L_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_return_leg_L_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_return_leg_L_03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2862,7 +3016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2885,7 +3039,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -2896,19 +3050,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>46</v>
@@ -2948,19 +3102,19 @@
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>39</v>
@@ -2974,16 +3128,16 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G5" s="4">
         <v>50000001</v>
@@ -3000,16 +3154,16 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" s="4">
         <v>50000001</v>
@@ -3026,16 +3180,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="4">
         <v>50000003</v>
@@ -3052,16 +3206,16 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G8" s="4">
         <v>50000001</v>
@@ -3078,16 +3232,16 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G9" s="4">
         <v>50000001</v>
@@ -3104,16 +3258,16 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G10" s="4">
         <v>50000001</v>
@@ -3130,16 +3284,16 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="4">
         <v>50000001</v>
@@ -3177,27 +3331,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3222,22 +3376,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3248,12 +3402,12 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3264,12 +3418,12 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3280,16 +3434,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>266</v>
+        <v>227</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3300,12 +3454,12 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3316,12 +3470,12 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3332,12 +3486,12 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3367,8 +3521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3396,57 +3550,57 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>231</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3460,7 +3614,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -3469,7 +3623,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -3504,43 +3658,43 @@
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3551,7 +3705,7 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -3576,7 +3730,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -3592,7 +3746,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -3635,7 +3789,7 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -3674,7 +3828,7 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
@@ -3684,7 +3838,7 @@
         <v>브라</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -3696,7 +3850,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -3715,7 +3869,7 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -3725,7 +3879,7 @@
         <v>브라</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -3737,7 +3891,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -3756,7 +3910,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -3780,13 +3934,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -3799,7 +3953,7 @@
         <v>100002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -3823,13 +3977,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3842,7 +3996,7 @@
         <v>100002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
@@ -3866,13 +4020,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -3885,7 +4039,7 @@
         <v>100002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -3905,7 +4059,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="L13" s="4">
         <v>1200002012</v>
@@ -3924,7 +4078,7 @@
         <v>100002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -3945,10 +4099,10 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3961,7 +4115,7 @@
         <v>100002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
@@ -3971,7 +4125,7 @@
         <v>브라</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
@@ -3983,7 +4137,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -4004,7 +4158,7 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
@@ -4014,7 +4168,7 @@
         <v>브라</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -4026,13 +4180,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -4045,7 +4199,7 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
@@ -4065,7 +4219,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="L17" s="4">
         <v>1200002018</v>
@@ -4086,7 +4240,7 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4">
         <v>9</v>
@@ -4106,7 +4260,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="L18" s="4">
         <v>1200002017</v>
@@ -4125,7 +4279,7 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -4160,7 +4314,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -4195,7 +4349,7 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
@@ -4230,7 +4384,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
@@ -4265,7 +4419,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
@@ -4300,7 +4454,7 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -4341,7 +4495,7 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -4382,7 +4536,7 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
@@ -4494,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4515,7 +4669,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -4523,13 +4677,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4557,7 +4711,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4571,7 +4725,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4585,7 +4739,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4599,7 +4753,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4613,7 +4767,7 @@
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4722,10 +4876,10 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4736,10 +4890,10 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4750,7 +4904,7 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -4762,7 +4916,7 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="D19" s="4">
         <v>1100002005</v>
@@ -4776,7 +4930,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="D20" s="4">
         <v>1100002006</v>
@@ -4790,10 +4944,10 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4804,7 +4958,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="D22" s="4">
         <v>1100002009</v>
@@ -4818,7 +4972,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="D23" s="4">
         <v>1100002010</v>
@@ -4832,10 +4986,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>249</v>
+        <v>318</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4846,10 +5000,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>250</v>
+        <v>319</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4860,10 +5014,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4874,10 +5028,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4888,10 +5042,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -4902,10 +5056,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -4916,7 +5070,7 @@
         <v>100002</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -4928,7 +5082,7 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -4940,10 +5094,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -4954,7 +5108,7 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="D33" s="4">
         <v>1100002029</v>
@@ -4968,10 +5122,10 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -4982,10 +5136,10 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>275</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -4996,10 +5150,10 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -5013,7 +5167,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5030,7 +5184,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -5038,13 +5192,13 @@
         <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5072,7 +5226,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5170,7 +5324,7 @@
         <v>78</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5184,7 +5338,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>79</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5195,10 +5349,10 @@
         <v>100001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5209,10 +5363,10 @@
         <v>100001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5223,10 +5377,10 @@
         <v>100001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -5237,10 +5391,10 @@
         <v>100001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5251,10 +5405,10 @@
         <v>100001</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5265,10 +5419,10 @@
         <v>100001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5279,10 +5433,10 @@
         <v>100001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -5293,9 +5447,11 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>170</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -5305,9 +5461,11 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>171</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -5317,7 +5475,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -5329,7 +5487,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -5341,9 +5499,11 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>244</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -5353,9 +5513,11 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>245</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -5365,9 +5527,11 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>246</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -5377,9 +5541,11 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>247</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -5389,9 +5555,11 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>248</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -5401,9 +5569,11 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>249</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -5413,9 +5583,11 @@
         <v>100002</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="8"/>
+        <v>250</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -5425,9 +5597,11 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -5437,9 +5611,11 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>251</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -5449,9 +5625,11 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>252</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -5461,7 +5639,7 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -5473,9 +5651,11 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>253</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
@@ -5485,9 +5665,11 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>254</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -5497,9 +5679,11 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>255</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -5509,9 +5693,11 @@
         <v>100002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D38" s="8"/>
+        <v>256</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
@@ -5521,9 +5707,11 @@
         <v>100002</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" s="8"/>
+        <v>257</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -5533,9 +5721,11 @@
         <v>100002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="8"/>
+        <v>258</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
@@ -5545,9 +5735,11 @@
         <v>100002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D41" s="8"/>
+        <v>259</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -5557,7 +5749,7 @@
         <v>100002</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -5569,7 +5761,7 @@
         <v>100002</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -5581,7 +5773,7 @@
         <v>100002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D44" s="8"/>
     </row>
@@ -5593,7 +5785,7 @@
         <v>100002</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -5605,9 +5797,11 @@
         <v>100002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="8"/>
+        <v>260</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -5617,9 +5811,11 @@
         <v>100002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" s="8"/>
+        <v>261</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -5629,9 +5825,11 @@
         <v>100002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D48" s="8"/>
+        <v>262</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -5641,9 +5839,11 @@
         <v>100002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="8"/>
+        <v>263</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -5653,9 +5853,11 @@
         <v>100002</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D50" s="8"/>
+        <v>264</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -5665,9 +5867,11 @@
         <v>100002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D51" s="8"/>
+        <v>265</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -5677,9 +5881,11 @@
         <v>100002</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D52" s="8"/>
+        <v>266</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -5689,9 +5895,11 @@
         <v>100002</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D53" s="8"/>
+        <v>267</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -5701,9 +5909,11 @@
         <v>100002</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D54" s="8"/>
+        <v>268</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -5713,9 +5923,11 @@
         <v>100002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D55" s="8"/>
+        <v>269</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -5725,9 +5937,11 @@
         <v>100002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D56" s="8"/>
+        <v>270</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -5737,9 +5951,11 @@
         <v>100002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -5749,9 +5965,11 @@
         <v>100002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="8"/>
+        <v>272</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -5761,7 +5979,7 @@
         <v>100002</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -5773,9 +5991,11 @@
         <v>100002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="8"/>
+        <v>273</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -5785,7 +6005,7 @@
         <v>100002</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -5797,9 +6017,11 @@
         <v>100002</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D62" s="8"/>
+        <v>274</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -5809,7 +6031,7 @@
         <v>100002</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -5821,9 +6043,11 @@
         <v>100002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D64" s="8"/>
+        <v>275</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -5833,9 +6057,11 @@
         <v>100002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D65" s="8"/>
+        <v>276</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
@@ -5845,9 +6071,11 @@
         <v>100002</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="8"/>
+        <v>277</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4">
@@ -5857,9 +6085,11 @@
         <v>100002</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="D67" s="8"/>
+        <v>278</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5147DF70-6803-460E-9982-A17CD6521386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF170B9A-C873-4151-8838-5F488DE60FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="323">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1138,10 +1138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1200002001, 1200002002, 1200002003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00_return_panty_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1476,6 +1472,18 @@
   </si>
   <si>
     <t>01_return_leg_L_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1200002001, 1200002002, 1200002003]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1691,18 +1699,76 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@stage"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
+      <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TRIBE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>POSITION_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ROLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>NPC_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SECOND_TARGET_RULE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>STAT_MULTIPLE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="1">
@@ -1971,10 +2037,34 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
+      <sheetData sheetId="13">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>TARGET_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>ONETIME_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="15">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>DURATION_EFFECT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="16">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>PERSISTENCE_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18">
         <row r="1">
@@ -2071,8 +2161,30 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
+      <sheetData sheetId="19">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>SKILL_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>EFFECT_COUNT_TYPE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3050,10 +3162,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>105</v>
@@ -3102,10 +3214,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>103</v>
@@ -3128,10 +3240,10 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -3154,10 +3266,10 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>20</v>
@@ -3180,10 +3292,10 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>138</v>
@@ -3206,10 +3318,10 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>20</v>
@@ -3232,10 +3344,10 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>20</v>
@@ -3258,10 +3370,10 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>20</v>
@@ -3284,10 +3396,10 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>20</v>
@@ -3313,7 +3425,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3404,7 +3516,9 @@
       <c r="C5" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
         <v>136</v>
@@ -3420,7 +3534,9 @@
       <c r="C6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>137</v>
@@ -3437,7 +3553,7 @@
         <v>139</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>227</v>
+        <v>321</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
@@ -3456,7 +3572,9 @@
       <c r="C8" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>142</v>
@@ -3472,7 +3590,9 @@
       <c r="C9" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
         <v>142</v>
@@ -3488,7 +3608,9 @@
       <c r="C10" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
         <v>210</v>
@@ -3498,7 +3620,9 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
@@ -3506,7 +3630,9 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>320</v>
+      </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
@@ -3521,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3736,7 +3862,9 @@
         <v>50000003</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -3779,7 +3907,9 @@
       <c r="N6" s="4">
         <v>50000004</v>
       </c>
-      <c r="O6" s="4"/>
+      <c r="O6" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -3818,7 +3948,9 @@
       <c r="N7" s="4">
         <v>50000004</v>
       </c>
-      <c r="O7" s="4"/>
+      <c r="O7" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -3859,7 +3991,9 @@
         <v>50000003</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -3900,7 +4034,9 @@
         <v>50000003</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -3943,7 +4079,9 @@
         <v>164</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -3986,7 +4124,9 @@
         <v>164</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -4029,7 +4169,9 @@
         <v>163</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
+      <c r="O12" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -4068,7 +4210,9 @@
         <v>50000003</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -4105,7 +4249,9 @@
         <v>165</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="O14" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -4148,7 +4294,9 @@
       <c r="N15" s="4">
         <v>50000005</v>
       </c>
-      <c r="O15" s="4"/>
+      <c r="O15" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -4189,7 +4337,9 @@
         <v>162</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="O16" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -4230,7 +4380,9 @@
       <c r="N17" s="4">
         <v>50000006</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -4269,7 +4421,9 @@
         <v>50000004</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="O18" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -4299,12 +4453,16 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="M19" s="4">
         <v>50000006</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -4334,12 +4492,16 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="M20" s="4">
         <v>50000006</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="O20" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -4369,12 +4531,16 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="M21" s="4">
         <v>50000006</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -4404,12 +4570,16 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="M22" s="4">
         <v>50000006</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -4439,12 +4609,16 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="M23" s="4">
         <v>50000006</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
+      <c r="O23" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -4485,7 +4659,9 @@
         <v>50000006</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+      <c r="O24" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -4526,7 +4702,9 @@
         <v>50000006</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="O25" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -4569,7 +4747,9 @@
       <c r="N26" s="4">
         <v>50000003</v>
       </c>
-      <c r="O26" s="4"/>
+      <c r="O26" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
@@ -4649,7 +4829,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4906,7 +5086,9 @@
       <c r="C18" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -4986,7 +5168,7 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>194</v>
@@ -5000,7 +5182,7 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>206</v>
@@ -5014,7 +5196,7 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>207</v>
@@ -5028,10 +5210,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5072,7 +5254,9 @@
       <c r="C30" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -5084,7 +5268,9 @@
       <c r="C31" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -5094,10 +5280,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5108,7 +5294,7 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D33" s="4">
         <v>1100002029</v>
@@ -5122,10 +5308,10 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,10 +5322,10 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5150,10 +5336,10 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -5338,7 +5524,7 @@
         <v>77</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5450,7 +5636,7 @@
         <v>170</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5464,7 +5650,7 @@
         <v>171</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5499,10 +5685,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5513,10 +5699,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5527,10 +5713,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5541,10 +5727,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5555,10 +5741,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5569,10 +5755,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5583,10 +5769,10 @@
         <v>100002</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5600,7 +5786,7 @@
         <v>222</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5611,10 +5797,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5625,10 +5811,10 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,10 +5837,10 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5665,10 +5851,10 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5679,10 +5865,10 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5693,10 +5879,10 @@
         <v>100002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5707,10 +5893,10 @@
         <v>100002</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5721,10 +5907,10 @@
         <v>100002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5735,10 +5921,10 @@
         <v>100002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5797,10 +5983,10 @@
         <v>100002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5811,10 +5997,10 @@
         <v>100002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5825,10 +6011,10 @@
         <v>100002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5839,10 +6025,10 @@
         <v>100002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5853,10 +6039,10 @@
         <v>100002</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5867,10 +6053,10 @@
         <v>100002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5881,10 +6067,10 @@
         <v>100002</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5895,10 +6081,10 @@
         <v>100002</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5909,10 +6095,10 @@
         <v>100002</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5923,10 +6109,10 @@
         <v>100002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5937,10 +6123,10 @@
         <v>100002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5951,10 +6137,10 @@
         <v>100002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5965,10 +6151,10 @@
         <v>100002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5991,10 +6177,10 @@
         <v>100002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -6017,10 +6203,10 @@
         <v>100002</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -6043,10 +6229,10 @@
         <v>100002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -6057,10 +6243,10 @@
         <v>100002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -6071,10 +6257,10 @@
         <v>100002</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6085,10 +6271,10 @@
         <v>100002</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\test\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5147DF70-6803-460E-9982-A17CD6521386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD387E8-8069-4AA6-B968-6C43D8B2B500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="3" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -21,10 +21,9 @@
     <sheet name="me_interaction_data" sheetId="9" r:id="rId6"/>
     <sheet name="me_chat_motion_data" sheetId="11" r:id="rId7"/>
     <sheet name="me_serifu_data" sheetId="2" r:id="rId8"/>
-    <sheet name="!script_data" sheetId="8" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
@@ -55,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="309">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,10 +326,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>script_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Assets/AssetResources/Prefabs/Memorial/Sample/Memorial_Set_Node_Dev_Sample</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,10 +397,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>진행순서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chat_motion_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -430,10 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스크립트 고유 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,38 +442,6 @@
   </si>
   <si>
     <t>리액션 -&gt; 액션의 짝을 맞춰주기 위한 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출력 타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>챗모션인지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택지인지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사만 있는지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그외 등등</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1671,12 +1622,12 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="@tribe"/>
+      <sheetName val="@stage"/>
       <sheetName val="@position"/>
       <sheetName val="@role"/>
       <sheetName val="@npc"/>
       <sheetName val="@target_rule"/>
       <sheetName val="@character_sort"/>
-      <sheetName val="@stage_common"/>
       <sheetName val="@second_target_rule"/>
       <sheetName val="@effect"/>
       <sheetName val="@stat"/>
@@ -1691,6 +1642,16 @@
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@Limit"/>
+      <sheetName val="@item_type_v2"/>
+      <sheetName val="@goods_type"/>
+      <sheetName val="@piece_type"/>
+      <sheetName val="@eqipment_type"/>
+      <sheetName val="@drop_type"/>
+      <sheetName val="@repeat_type"/>
+      <sheetName val="@charge_type"/>
+      <sheetName val="@reward_type"/>
+      <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1740,7 +1701,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>몸체</v>
+            <v>1 몸체</v>
           </cell>
         </row>
         <row r="6">
@@ -1751,7 +1712,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>가슴</v>
+            <v>2 가슴</v>
           </cell>
         </row>
         <row r="7">
@@ -1762,7 +1723,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>머리</v>
+            <v>3 머리</v>
           </cell>
         </row>
         <row r="8">
@@ -1773,7 +1734,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>입</v>
+            <v>4 입</v>
           </cell>
         </row>
         <row r="9">
@@ -1784,7 +1745,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>골반</v>
+            <v>5 골반</v>
           </cell>
         </row>
         <row r="10">
@@ -1795,7 +1756,7 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>다리</v>
+            <v>6 다리</v>
           </cell>
         </row>
         <row r="11">
@@ -1806,7 +1767,7 @@
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>뿔</v>
+            <v>7 뿔</v>
           </cell>
         </row>
         <row r="12">
@@ -1817,7 +1778,7 @@
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>브라</v>
+            <v>8 브라</v>
           </cell>
         </row>
         <row r="13">
@@ -1828,7 +1789,7 @@
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>팬티</v>
+            <v>9 팬티</v>
           </cell>
         </row>
         <row r="14">
@@ -1839,7 +1800,7 @@
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>귀</v>
+            <v>10 귀</v>
           </cell>
         </row>
         <row r="15">
@@ -1850,7 +1811,7 @@
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>얼굴</v>
+            <v>11 얼굴</v>
           </cell>
         </row>
         <row r="16">
@@ -1861,7 +1822,7 @@
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>엉덩이</v>
+            <v>12 엉덩이</v>
           </cell>
         </row>
         <row r="17">
@@ -1872,7 +1833,7 @@
             <v>13</v>
           </cell>
           <cell r="C17" t="str">
-            <v>장난감</v>
+            <v>13 장난감</v>
           </cell>
         </row>
       </sheetData>
@@ -1912,7 +1873,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>누른 즉시</v>
+            <v>1 누른 즉시</v>
           </cell>
         </row>
         <row r="6">
@@ -1923,7 +1884,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>뗀 즉시</v>
+            <v>2 뗀 즉시</v>
           </cell>
         </row>
         <row r="7">
@@ -1934,7 +1895,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>터치</v>
+            <v>3 터치</v>
           </cell>
         </row>
         <row r="8">
@@ -1945,7 +1906,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>더블터치</v>
+            <v>4 더블터치</v>
           </cell>
         </row>
         <row r="9">
@@ -1956,7 +1917,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>드래그</v>
+            <v>5 드래그</v>
           </cell>
         </row>
         <row r="10">
@@ -1967,7 +1928,7 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>쓰다듬기</v>
+            <v>6 쓰다듬기</v>
           </cell>
         </row>
       </sheetData>
@@ -2012,7 +1973,7 @@
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>같음</v>
+            <v>1 같음</v>
           </cell>
         </row>
         <row r="6">
@@ -2023,7 +1984,7 @@
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>다름</v>
+            <v>2 다름</v>
           </cell>
         </row>
         <row r="7">
@@ -2034,7 +1995,7 @@
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>초과</v>
+            <v>3 초과</v>
           </cell>
         </row>
         <row r="8">
@@ -2045,7 +2006,7 @@
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>미만</v>
+            <v>4 미만</v>
           </cell>
         </row>
         <row r="9">
@@ -2056,7 +2017,7 @@
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>이상</v>
+            <v>5 이상</v>
           </cell>
         </row>
         <row r="10">
@@ -2067,12 +2028,22 @@
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>이하</v>
+            <v>6 이하</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2375,10 +2346,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCA676B-ADC0-4DC0-BBCE-DB25FD7926D5}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2477,10 +2451,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163C7321-ADBB-4F25-B4FE-109270DC0565}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2492,39 +2469,39 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -2542,6 +2519,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE5FBD5-DEC5-4BB7-BF75-CE8046386F75}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2660,7 +2640,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@touch_body_type'!$C5</f>
-        <v>몸체</v>
+        <v>1 몸체</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A5</f>
@@ -2672,7 +2652,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C5</f>
-        <v>누른 즉시</v>
+        <v>1 누른 즉시</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@inequality_type'!$A5</f>
@@ -2684,7 +2664,7 @@
       </c>
       <c r="K4" s="4" t="str">
         <f>'[1]@inequality_type'!$C5</f>
-        <v>같음</v>
+        <v>1 같음</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2698,7 +2678,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@touch_body_type'!$C6</f>
-        <v>가슴</v>
+        <v>2 가슴</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A6</f>
@@ -2710,7 +2690,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C6</f>
-        <v>뗀 즉시</v>
+        <v>2 뗀 즉시</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@inequality_type'!$A6</f>
@@ -2722,7 +2702,7 @@
       </c>
       <c r="K5" s="4" t="str">
         <f>'[1]@inequality_type'!$C6</f>
-        <v>다름</v>
+        <v>2 다름</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2736,7 +2716,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@touch_body_type'!$C7</f>
-        <v>머리</v>
+        <v>3 머리</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A7</f>
@@ -2748,7 +2728,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C7</f>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@inequality_type'!$A7</f>
@@ -2760,7 +2740,7 @@
       </c>
       <c r="K6" s="4" t="str">
         <f>'[1]@inequality_type'!$C7</f>
-        <v>초과</v>
+        <v>3 초과</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2774,7 +2754,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@touch_body_type'!$C8</f>
-        <v>입</v>
+        <v>4 입</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A8</f>
@@ -2786,7 +2766,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C8</f>
-        <v>더블터치</v>
+        <v>4 더블터치</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@inequality_type'!$A8</f>
@@ -2798,7 +2778,7 @@
       </c>
       <c r="K7" s="4" t="str">
         <f>'[1]@inequality_type'!$C8</f>
-        <v>미만</v>
+        <v>4 미만</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2812,7 +2792,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@touch_body_type'!$C9</f>
-        <v>골반</v>
+        <v>5 골반</v>
       </c>
       <c r="E8" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A9</f>
@@ -2824,7 +2804,7 @@
       </c>
       <c r="G8" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C9</f>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I8" s="4" t="str">
         <f>'[1]@inequality_type'!$A9</f>
@@ -2836,7 +2816,7 @@
       </c>
       <c r="K8" s="4" t="str">
         <f>'[1]@inequality_type'!$C9</f>
-        <v>이상</v>
+        <v>5 이상</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2850,7 +2830,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@touch_body_type'!$C10</f>
-        <v>다리</v>
+        <v>6 다리</v>
       </c>
       <c r="E9" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A10</f>
@@ -2862,7 +2842,7 @@
       </c>
       <c r="G9" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C10</f>
-        <v>쓰다듬기</v>
+        <v>6 쓰다듬기</v>
       </c>
       <c r="I9" s="4" t="str">
         <f>'[1]@inequality_type'!$A10</f>
@@ -2874,7 +2854,7 @@
       </c>
       <c r="K9" s="4" t="str">
         <f>'[1]@inequality_type'!$C10</f>
-        <v>이하</v>
+        <v>6 이하</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2888,7 +2868,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@touch_body_type'!$C11</f>
-        <v>뿔</v>
+        <v>7 뿔</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2905,7 +2885,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@touch_body_type'!$C12</f>
-        <v>브라</v>
+        <v>8 브라</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2922,7 +2902,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@touch_body_type'!$C13</f>
-        <v>팬티</v>
+        <v>9 팬티</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2939,7 +2919,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@touch_body_type'!$C14</f>
-        <v>귀</v>
+        <v>10 귀</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2956,7 +2936,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@touch_body_type'!$C15</f>
-        <v>얼굴</v>
+        <v>11 얼굴</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2973,7 +2953,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@touch_body_type'!$C16</f>
-        <v>엉덩이</v>
+        <v>12 엉덩이</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2990,7 +2970,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@touch_body_type'!$C17</f>
-        <v>장난감</v>
+        <v>13 장난감</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3014,10 +2994,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB99CCC4-53E8-44FE-AAEF-FF252046E24C}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3039,33 +3022,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3096,28 +3079,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3128,16 +3111,16 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G5" s="4">
         <v>50000001</v>
@@ -3154,16 +3137,16 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G6" s="4">
         <v>50000001</v>
@@ -3180,16 +3163,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G7" s="4">
         <v>50000003</v>
@@ -3206,16 +3189,16 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G8" s="4">
         <v>50000001</v>
@@ -3232,16 +3215,16 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G9" s="4">
         <v>50000001</v>
@@ -3258,16 +3241,16 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G10" s="4">
         <v>50000001</v>
@@ -3284,16 +3267,16 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="G11" s="4">
         <v>50000001</v>
@@ -3310,10 +3293,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A07720-EA6B-4BA8-BF6C-0034D0649281}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3331,27 +3317,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -3376,22 +3362,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3402,12 +3388,12 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3418,12 +3404,12 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3434,16 +3420,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3454,12 +3440,12 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3470,12 +3456,12 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3486,12 +3472,12 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3519,10 +3505,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D265536-6657-4D2D-A07E-94E5E5B13049}">
+  <sheetPr>
+    <tabColor theme="1"/>
+  </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3550,57 +3539,57 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3614,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -3623,7 +3612,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -3652,49 +3641,49 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3705,14 +3694,14 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E13" si="0">INDEX(touch_body_type_desc,MATCH(D5,touch_body_type,0))</f>
-        <v>가슴</v>
+        <v>2 가슴</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
@@ -3720,7 +3709,7 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5:H13" si="1">INDEX(touch_gesture_type_desc,MATCH(G5,touch_gesture_type,0))</f>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -3730,7 +3719,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -3746,14 +3735,14 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>가슴</v>
+        <v>2 가슴</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
@@ -3761,7 +3750,7 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -3789,14 +3778,14 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>가슴</v>
+        <v>2 가슴</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
@@ -3804,7 +3793,7 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>더블터치</v>
+        <v>4 더블터치</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3828,29 +3817,29 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>브라</v>
+        <v>8 브라</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
       </c>
       <c r="H8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -3869,29 +3858,29 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>브라</v>
+        <v>8 브라</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
       </c>
       <c r="H9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -3910,14 +3899,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>다리</v>
+        <v>6 다리</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -3925,7 +3914,7 @@
       </c>
       <c r="H10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -3934,13 +3923,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
@@ -3953,14 +3942,14 @@
         <v>100002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>다리</v>
+        <v>6 다리</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -3968,7 +3957,7 @@
       </c>
       <c r="H11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I11" s="4">
         <v>2</v>
@@ -3977,13 +3966,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
@@ -3996,14 +3985,14 @@
         <v>100002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>다리</v>
+        <v>6 다리</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
@@ -4011,7 +4000,7 @@
       </c>
       <c r="H12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I12" s="4">
         <v>5</v>
@@ -4020,13 +4009,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -4039,14 +4028,14 @@
         <v>100002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>팬티</v>
+        <v>9 팬티</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -4054,12 +4043,12 @@
       </c>
       <c r="H13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L13" s="4">
         <v>1200002012</v>
@@ -4078,14 +4067,14 @@
         <v>100002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ref="E14" si="2">INDEX(touch_body_type_desc,MATCH(D14,touch_body_type,0))</f>
-        <v>가슴</v>
+        <v>2 가슴</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
@@ -4093,16 +4082,16 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ref="H14" si="3">INDEX(touch_gesture_type_desc,MATCH(G14,touch_gesture_type,0))</f>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -4115,29 +4104,29 @@
         <v>100002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ref="E15" si="4">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
-        <v>브라</v>
+        <v>8 브라</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
       </c>
       <c r="H15" s="4" t="str">
         <f t="shared" ref="H15" si="5">INDEX(touch_gesture_type_desc,MATCH(G15,touch_gesture_type,0))</f>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -4158,35 +4147,35 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ref="E16:E26" si="6">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
-        <v>브라</v>
+        <v>8 브라</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
       </c>
       <c r="H16" s="4" t="str">
         <f t="shared" ref="H16:H26" si="7">INDEX(touch_gesture_type_desc,MATCH(G16,touch_gesture_type,0))</f>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -4199,14 +4188,14 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>팬티</v>
+        <v>9 팬티</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -4214,12 +4203,12 @@
       </c>
       <c r="H17" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L17" s="4">
         <v>1200002018</v>
@@ -4240,14 +4229,14 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D18" s="4">
         <v>9</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>팬티</v>
+        <v>9 팬티</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
@@ -4255,12 +4244,12 @@
       </c>
       <c r="H18" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>드래그</v>
+        <v>5 드래그</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="L18" s="4">
         <v>1200002017</v>
@@ -4279,14 +4268,14 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>머리</v>
+        <v>3 머리</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
@@ -4294,7 +4283,7 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -4314,14 +4303,14 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>머리</v>
+        <v>3 머리</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
@@ -4329,7 +4318,7 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -4349,14 +4338,14 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>다리</v>
+        <v>6 다리</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
@@ -4364,7 +4353,7 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -4384,14 +4373,14 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>다리</v>
+        <v>6 다리</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
@@ -4399,7 +4388,7 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -4419,14 +4408,14 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>다리</v>
+        <v>6 다리</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
@@ -4434,7 +4423,7 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>터치</v>
+        <v>3 터치</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -4454,14 +4443,14 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>머리</v>
+        <v>3 머리</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
@@ -4469,7 +4458,7 @@
       </c>
       <c r="H24" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>쓰다듬기</v>
+        <v>6 쓰다듬기</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -4495,14 +4484,14 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>머리</v>
+        <v>3 머리</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
@@ -4510,7 +4499,7 @@
       </c>
       <c r="H25" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>쓰다듬기</v>
+        <v>6 쓰다듬기</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
@@ -4536,14 +4525,14 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>머리</v>
+        <v>3 머리</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
@@ -4551,7 +4540,7 @@
       </c>
       <c r="H26" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>쓰다듬기</v>
+        <v>6 쓰다듬기</v>
       </c>
       <c r="I26" s="4">
         <v>3</v>
@@ -4629,7 +4618,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D30" xr:uid="{E9B854B6-DE6E-4019-B702-12C9C1D1E92A}">
       <formula1>touch_body_type</formula1>
     </dataValidation>
@@ -4648,8 +4637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4669,21 +4658,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4702,16 +4691,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4722,10 +4711,10 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4736,10 +4725,10 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4750,10 +4739,10 @@
         <v>100001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4764,10 +4753,10 @@
         <v>100001</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4778,7 +4767,7 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>1100001001</v>
@@ -4792,7 +4781,7 @@
         <v>100001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4">
         <v>1100001002</v>
@@ -4806,7 +4795,7 @@
         <v>100001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="4">
         <v>1100001003</v>
@@ -4820,7 +4809,7 @@
         <v>100001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4">
         <v>1100001004</v>
@@ -4834,7 +4823,7 @@
         <v>100001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4">
         <v>1100001005</v>
@@ -4848,7 +4837,7 @@
         <v>100001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="4">
         <v>1100001006</v>
@@ -4862,7 +4851,7 @@
         <v>100001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="4">
         <v>1100001007</v>
@@ -4876,10 +4865,10 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4890,10 +4879,10 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4904,7 +4893,7 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D18" s="4"/>
     </row>
@@ -4916,7 +4905,7 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D19" s="4">
         <v>1100002005</v>
@@ -4930,7 +4919,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D20" s="4">
         <v>1100002006</v>
@@ -4944,10 +4933,10 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4958,7 +4947,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D22" s="4">
         <v>1100002009</v>
@@ -4972,7 +4961,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="D23" s="4">
         <v>1100002010</v>
@@ -4986,10 +4975,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5000,10 +4989,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5014,10 +5003,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5028,10 +5017,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5042,10 +5031,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5056,10 +5045,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5070,7 +5059,7 @@
         <v>100002</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D30" s="4"/>
     </row>
@@ -5082,7 +5071,7 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D31" s="4"/>
     </row>
@@ -5094,10 +5083,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5108,7 +5097,7 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D33" s="4">
         <v>1100002029</v>
@@ -5122,10 +5111,10 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5136,10 +5125,10 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5150,10 +5139,10 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -5167,7 +5156,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5184,21 +5173,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -5217,16 +5206,16 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5237,10 +5226,10 @@
         <v>100001</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5251,10 +5240,10 @@
         <v>100001</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5265,10 +5254,10 @@
         <v>100001</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5279,10 +5268,10 @@
         <v>100001</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5293,10 +5282,10 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5307,10 +5296,10 @@
         <v>100001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5321,10 +5310,10 @@
         <v>100001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5335,10 +5324,10 @@
         <v>100001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5349,10 +5338,10 @@
         <v>100001</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5363,10 +5352,10 @@
         <v>100001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5377,10 +5366,10 @@
         <v>100001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -5391,10 +5380,10 @@
         <v>100001</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -5405,10 +5394,10 @@
         <v>100001</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -5419,10 +5408,10 @@
         <v>100001</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -5433,10 +5422,10 @@
         <v>100001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -5447,10 +5436,10 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5461,10 +5450,10 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5475,7 +5464,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -5487,7 +5476,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -5499,10 +5488,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5513,10 +5502,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5527,10 +5516,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5541,10 +5530,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5555,10 +5544,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5569,10 +5558,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5583,10 +5572,10 @@
         <v>100002</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5597,10 +5586,10 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5611,10 +5600,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5625,10 +5614,10 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5639,7 +5628,7 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="D34" s="8"/>
     </row>
@@ -5651,10 +5640,10 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5665,10 +5654,10 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5679,10 +5668,10 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5693,10 +5682,10 @@
         <v>100002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5707,10 +5696,10 @@
         <v>100002</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5721,10 +5710,10 @@
         <v>100002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5735,10 +5724,10 @@
         <v>100002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5749,7 +5738,7 @@
         <v>100002</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -5761,7 +5750,7 @@
         <v>100002</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D43" s="8"/>
     </row>
@@ -5773,7 +5762,7 @@
         <v>100002</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D44" s="8"/>
     </row>
@@ -5785,7 +5774,7 @@
         <v>100002</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D45" s="8"/>
     </row>
@@ -5797,10 +5786,10 @@
         <v>100002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5811,10 +5800,10 @@
         <v>100002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5825,10 +5814,10 @@
         <v>100002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5839,10 +5828,10 @@
         <v>100002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5853,10 +5842,10 @@
         <v>100002</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5867,10 +5856,10 @@
         <v>100002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5881,10 +5870,10 @@
         <v>100002</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5895,10 +5884,10 @@
         <v>100002</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5909,10 +5898,10 @@
         <v>100002</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5923,10 +5912,10 @@
         <v>100002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5937,10 +5926,10 @@
         <v>100002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5951,10 +5940,10 @@
         <v>100002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5965,10 +5954,10 @@
         <v>100002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5979,7 +5968,7 @@
         <v>100002</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8"/>
     </row>
@@ -5991,10 +5980,10 @@
         <v>100002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -6005,7 +5994,7 @@
         <v>100002</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D61" s="8"/>
     </row>
@@ -6017,10 +6006,10 @@
         <v>100002</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -6031,7 +6020,7 @@
         <v>100002</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D63" s="8"/>
     </row>
@@ -6043,10 +6032,10 @@
         <v>100002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -6057,10 +6046,10 @@
         <v>100002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -6071,10 +6060,10 @@
         <v>100002</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6085,165 +6074,12 @@
         <v>100002</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53F3B53F-83BA-4C3F-91EB-651707BB2D24}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>40000001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>40000002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>40000003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>40000004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\test\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD387E8-8069-4AA6-B968-6C43D8B2B500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A7A0B-22E6-4C41-87AA-E44593BECCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" activeTab="5" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="1" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -28,6 +28,8 @@
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
+    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$36</definedName>
+    <definedName name="me_serifu_data_id">me_serifu_data!$A$5:$A$67</definedName>
     <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
     <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
     <definedName name="touch_gesture_type" comment="제스쳐 방법">'!참조_ENUM'!$F$3:$F$9</definedName>
@@ -1654,17 +1656,17 @@
       <sheetName val="@effect_count_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
@@ -1932,11 +1934,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
       <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
@@ -2032,18 +2034,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2525,7 +2527,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3510,7 +3512,7 @@
   </sheetPr>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -4638,7 +4640,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5155,8 +5157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705A7A0B-22E6-4C41-87AA-E44593BECCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0D1413-5206-4883-A411-253336575709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-6315" windowWidth="21840" windowHeight="38040" tabRatio="707" firstSheet="1" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="309">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,14 +969,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기타 파라메터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00_return_bra_R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1429,6 +1421,14 @@
   </si>
   <si>
     <t>01_return_leg_L_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1654,19 +1654,20 @@
       <sheetName val="@charge_type"/>
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
+      <sheetName val="@love_level_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
@@ -1692,7 +1693,7 @@
             <v>0</v>
           </cell>
           <cell r="C4" t="str">
-            <v>NONE</v>
+            <v>캐릭터 클릭이지만, 퍼즐 클릭이 아님</v>
           </cell>
         </row>
         <row r="5">
@@ -1763,79 +1764,79 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>HORN</v>
+            <v>EYE</v>
           </cell>
           <cell r="B11">
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7 뿔</v>
+            <v>7 눈</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>BRA</v>
+            <v>NOSE</v>
           </cell>
           <cell r="B12">
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>8 브라</v>
+            <v>8 코</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>PANTY</v>
+            <v>EAR</v>
           </cell>
           <cell r="B13">
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>9 팬티</v>
+            <v>9 귀</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>EAR</v>
+            <v>CHEEK</v>
           </cell>
           <cell r="B14">
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>10 귀</v>
+            <v>10 볼</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>FACE</v>
+            <v>JAW</v>
           </cell>
           <cell r="B15">
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>11 얼굴</v>
+            <v>11 턱</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>HIP</v>
+            <v>BROW</v>
           </cell>
           <cell r="B16">
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>12 엉덩이</v>
+            <v>12 이마</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>TOY</v>
+            <v>FACE</v>
           </cell>
           <cell r="B17">
             <v>13</v>
           </cell>
           <cell r="C17" t="str">
-            <v>13 장난감</v>
+            <v>13 얼굴</v>
           </cell>
         </row>
       </sheetData>
@@ -1869,76 +1870,64 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>DOWN</v>
+            <v>CLICK</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 누른 즉시</v>
+            <v>1 OnClick</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>UP</v>
+            <v>DOUBLE_CLICK</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 뗀 즉시</v>
+            <v>2 DoubleClick</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>TOUCH</v>
+            <v>PUSH_DOWN</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 터치</v>
+            <v>3 PushDown(누른 채로 1초 이상)</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>DOUBLE_TOUCH</v>
+            <v>DRAG</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>4 더블터치</v>
+            <v>4 Drag</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>DRAG</v>
-          </cell>
-          <cell r="B9">
-            <v>5</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>5 드래그</v>
-          </cell>
+          <cell r="A9"/>
+          <cell r="B9"/>
+          <cell r="C9"/>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>NADE</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>6 쓰다듬기</v>
-          </cell>
+          <cell r="A10"/>
+          <cell r="B10"/>
+          <cell r="C10"/>
         </row>
       </sheetData>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
       <sheetData sheetId="18">
         <row r="1">
           <cell r="A1" t="str">
@@ -2034,18 +2023,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2527,7 +2517,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2604,7 +2594,7 @@
       </c>
       <c r="C3" s="4" t="str">
         <f>'[1]@touch_body_type'!$C4</f>
-        <v>NONE</v>
+        <v>캐릭터 클릭이지만, 퍼즐 클릭이 아님</v>
       </c>
       <c r="E3" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A4</f>
@@ -2646,7 +2636,7 @@
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A5</f>
-        <v>DOWN</v>
+        <v>CLICK</v>
       </c>
       <c r="F4" s="4">
         <f>'[1]@touch_gesture_type'!$B5</f>
@@ -2654,7 +2644,7 @@
       </c>
       <c r="G4" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C5</f>
-        <v>1 누른 즉시</v>
+        <v>1 OnClick</v>
       </c>
       <c r="I4" s="4" t="str">
         <f>'[1]@inequality_type'!$A5</f>
@@ -2684,7 +2674,7 @@
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A6</f>
-        <v>UP</v>
+        <v>DOUBLE_CLICK</v>
       </c>
       <c r="F5" s="4">
         <f>'[1]@touch_gesture_type'!$B6</f>
@@ -2692,7 +2682,7 @@
       </c>
       <c r="G5" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C6</f>
-        <v>2 뗀 즉시</v>
+        <v>2 DoubleClick</v>
       </c>
       <c r="I5" s="4" t="str">
         <f>'[1]@inequality_type'!$A6</f>
@@ -2722,7 +2712,7 @@
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A7</f>
-        <v>TOUCH</v>
+        <v>PUSH_DOWN</v>
       </c>
       <c r="F6" s="4">
         <f>'[1]@touch_gesture_type'!$B7</f>
@@ -2730,7 +2720,7 @@
       </c>
       <c r="G6" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C7</f>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I6" s="4" t="str">
         <f>'[1]@inequality_type'!$A7</f>
@@ -2760,7 +2750,7 @@
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A8</f>
-        <v>DOUBLE_TOUCH</v>
+        <v>DRAG</v>
       </c>
       <c r="F7" s="4">
         <f>'[1]@touch_gesture_type'!$B8</f>
@@ -2768,7 +2758,7 @@
       </c>
       <c r="G7" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$C8</f>
-        <v>4 더블터치</v>
+        <v>4 Drag</v>
       </c>
       <c r="I7" s="4" t="str">
         <f>'[1]@inequality_type'!$A8</f>
@@ -2796,17 +2786,17 @@
         <f>'[1]@touch_body_type'!$C9</f>
         <v>5 골반</v>
       </c>
-      <c r="E8" s="4" t="str">
+      <c r="E8" s="4">
         <f>'[1]@touch_gesture_type'!$A9</f>
-        <v>DRAG</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
         <f>'[1]@touch_gesture_type'!$B9</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
         <f>'[1]@touch_gesture_type'!$C9</f>
-        <v>5 드래그</v>
+        <v>0</v>
       </c>
       <c r="I8" s="4" t="str">
         <f>'[1]@inequality_type'!$A9</f>
@@ -2834,17 +2824,17 @@
         <f>'[1]@touch_body_type'!$C10</f>
         <v>6 다리</v>
       </c>
-      <c r="E9" s="4" t="str">
+      <c r="E9" s="4">
         <f>'[1]@touch_gesture_type'!$A10</f>
-        <v>NADE</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4">
         <f>'[1]@touch_gesture_type'!$B10</f>
-        <v>6</v>
-      </c>
-      <c r="G9" s="4" t="str">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
         <f>'[1]@touch_gesture_type'!$C10</f>
-        <v>6 쓰다듬기</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4" t="str">
         <f>'[1]@inequality_type'!$A10</f>
@@ -2862,7 +2852,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@touch_body_type'!$A11</f>
-        <v>HORN</v>
+        <v>EYE</v>
       </c>
       <c r="B10" s="4">
         <f>'[1]@touch_body_type'!$B11</f>
@@ -2870,7 +2860,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@touch_body_type'!$C11</f>
-        <v>7 뿔</v>
+        <v>7 눈</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2879,7 +2869,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@touch_body_type'!$A12</f>
-        <v>BRA</v>
+        <v>NOSE</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@touch_body_type'!$B12</f>
@@ -2887,7 +2877,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@touch_body_type'!$C12</f>
-        <v>8 브라</v>
+        <v>8 코</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2896,7 +2886,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@touch_body_type'!$A13</f>
-        <v>PANTY</v>
+        <v>EAR</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@touch_body_type'!$B13</f>
@@ -2904,7 +2894,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@touch_body_type'!$C13</f>
-        <v>9 팬티</v>
+        <v>9 귀</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2913,7 +2903,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@touch_body_type'!$A14</f>
-        <v>EAR</v>
+        <v>CHEEK</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@touch_body_type'!$B14</f>
@@ -2921,7 +2911,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@touch_body_type'!$C14</f>
-        <v>10 귀</v>
+        <v>10 볼</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2930,7 +2920,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@touch_body_type'!$A15</f>
-        <v>FACE</v>
+        <v>JAW</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@touch_body_type'!$B15</f>
@@ -2938,7 +2928,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@touch_body_type'!$C15</f>
-        <v>11 얼굴</v>
+        <v>11 턱</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2947,7 +2937,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@touch_body_type'!$A16</f>
-        <v>HIP</v>
+        <v>BROW</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@touch_body_type'!$B16</f>
@@ -2955,7 +2945,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@touch_body_type'!$C16</f>
-        <v>12 엉덩이</v>
+        <v>12 이마</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2964,7 +2954,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@touch_body_type'!$A17</f>
-        <v>TOY</v>
+        <v>FACE</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@touch_body_type'!$B17</f>
@@ -2972,7 +2962,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@touch_body_type'!$C17</f>
-        <v>13 장난감</v>
+        <v>13 얼굴</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3035,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>93</v>
@@ -3087,10 +3077,10 @@
         <v>43</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>91</v>
@@ -3113,10 +3103,10 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -3139,10 +3129,10 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
@@ -3165,10 +3155,10 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>126</v>
@@ -3191,10 +3181,10 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
@@ -3217,10 +3207,10 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -3243,10 +3233,10 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
@@ -3269,10 +3259,10 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
@@ -3301,7 +3291,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3333,10 +3323,10 @@
         <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>123</v>
@@ -3373,10 +3363,10 @@
         <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>88</v>
@@ -3392,7 +3382,9 @@
       <c r="C5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
         <v>124</v>
@@ -3408,7 +3400,9 @@
       <c r="C6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
         <v>125</v>
@@ -3425,7 +3419,7 @@
         <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
@@ -3444,7 +3438,9 @@
       <c r="C8" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
         <v>130</v>
@@ -3460,7 +3456,9 @@
       <c r="C9" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
         <v>130</v>
@@ -3474,12 +3472,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>307</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3510,10 +3510,10 @@
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3531,15 +3531,14 @@
     <col min="12" max="12" width="30" customWidth="1"/>
     <col min="13" max="13" width="28.25" customWidth="1"/>
     <col min="14" max="14" width="30" customWidth="1"/>
-    <col min="15" max="15" width="24.625" customWidth="1"/>
-    <col min="16" max="16" width="31.375" customWidth="1"/>
-    <col min="17" max="17" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.375" customWidth="1"/>
+    <col min="16" max="16" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -3547,7 +3546,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
@@ -3573,13 +3572,13 @@
         <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>90</v>
@@ -3590,11 +3589,8 @@
       <c r="N2" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -3637,11 +3633,8 @@
       <c r="N3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>39</v>
       </c>
@@ -3667,13 +3660,13 @@
         <v>88</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>172</v>
@@ -3684,11 +3677,8 @@
       <c r="N4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1300002001</v>
       </c>
@@ -3711,7 +3701,7 @@
       </c>
       <c r="H5" s="4" t="str">
         <f t="shared" ref="H5:H13" si="1">INDEX(touch_gesture_type_desc,MATCH(G5,touch_gesture_type,0))</f>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -3727,9 +3717,8 @@
         <v>50000003</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1300002003</v>
       </c>
@@ -3752,7 +3741,7 @@
       </c>
       <c r="H6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I6" s="4">
         <v>3</v>
@@ -3770,9 +3759,8 @@
       <c r="N6" s="4">
         <v>50000004</v>
       </c>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>1300002004</v>
       </c>
@@ -3795,7 +3783,7 @@
       </c>
       <c r="H7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>4 더블터치</v>
+        <v>4 Drag</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -3809,9 +3797,8 @@
       <c r="N7" s="4">
         <v>50000004</v>
       </c>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>1300002005</v>
       </c>
@@ -3826,7 +3813,7 @@
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>8 브라</v>
+        <v>8 코</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>156</v>
@@ -3834,9 +3821,9 @@
       <c r="G8" s="4">
         <v>5</v>
       </c>
-      <c r="H8" s="4" t="str">
+      <c r="H8" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3850,9 +3837,8 @@
         <v>50000003</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1300002006</v>
       </c>
@@ -3867,7 +3853,7 @@
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>8 브라</v>
+        <v>8 코</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>157</v>
@@ -3875,9 +3861,9 @@
       <c r="G9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="4" t="str">
+      <c r="H9" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -3891,9 +3877,8 @@
         <v>50000003</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1300002007</v>
       </c>
@@ -3914,9 +3899,9 @@
       <c r="G10" s="4">
         <v>5</v>
       </c>
-      <c r="H10" s="4" t="str">
+      <c r="H10" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -3925,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
@@ -3934,9 +3919,8 @@
         <v>152</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1300002008</v>
       </c>
@@ -3957,9 +3941,9 @@
       <c r="G11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="4" t="str">
+      <c r="H11" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I11" s="4">
         <v>2</v>
@@ -3968,7 +3952,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
@@ -3977,9 +3961,8 @@
         <v>152</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1300002009</v>
       </c>
@@ -4000,9 +3983,9 @@
       <c r="G12" s="4">
         <v>5</v>
       </c>
-      <c r="H12" s="4" t="str">
+      <c r="H12" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I12" s="4">
         <v>5</v>
@@ -4011,7 +3994,7 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
@@ -4020,9 +4003,8 @@
         <v>151</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1300002010</v>
       </c>
@@ -4037,20 +4019,20 @@
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>9 팬티</v>
+        <v>9 귀</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
         <v>5</v>
       </c>
-      <c r="H13" s="4" t="str">
+      <c r="H13" s="4" t="e">
         <f t="shared" si="1"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L13" s="4">
         <v>1200002012</v>
@@ -4059,9 +4041,8 @@
         <v>50000003</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1300002011</v>
       </c>
@@ -4084,21 +4065,20 @@
       </c>
       <c r="H14" s="4" t="str">
         <f t="shared" ref="H14" si="3">INDEX(touch_gesture_type_desc,MATCH(G14,touch_gesture_type,0))</f>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>153</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1300002012</v>
       </c>
@@ -4113,7 +4093,7 @@
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ref="E15" si="4">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
-        <v>8 브라</v>
+        <v>8 코</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>156</v>
@@ -4121,14 +4101,14 @@
       <c r="G15" s="4">
         <v>5</v>
       </c>
-      <c r="H15" s="4" t="str">
+      <c r="H15" s="4" t="e">
         <f t="shared" ref="H15" si="5">INDEX(touch_gesture_type_desc,MATCH(G15,touch_gesture_type,0))</f>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -4139,9 +4119,8 @@
       <c r="N15" s="4">
         <v>50000005</v>
       </c>
-      <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1300002013</v>
       </c>
@@ -4156,7 +4135,7 @@
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ref="E16:E26" si="6">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
-        <v>8 브라</v>
+        <v>8 코</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>157</v>
@@ -4164,14 +4143,14 @@
       <c r="G16" s="4">
         <v>5</v>
       </c>
-      <c r="H16" s="4" t="str">
+      <c r="H16" s="4" t="e">
         <f t="shared" ref="H16:H26" si="7">INDEX(touch_gesture_type_desc,MATCH(G16,touch_gesture_type,0))</f>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
@@ -4180,9 +4159,8 @@
         <v>150</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1300002014</v>
       </c>
@@ -4197,20 +4175,20 @@
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>9 팬티</v>
+        <v>9 귀</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
         <v>5</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="4" t="e">
         <f t="shared" si="7"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L17" s="4">
         <v>1200002018</v>
@@ -4221,9 +4199,8 @@
       <c r="N17" s="4">
         <v>50000006</v>
       </c>
-      <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1300002015</v>
       </c>
@@ -4238,20 +4215,20 @@
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>9 팬티</v>
+        <v>9 귀</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
         <v>5</v>
       </c>
-      <c r="H18" s="4" t="str">
+      <c r="H18" s="4" t="e">
         <f t="shared" si="7"/>
-        <v>5 드래그</v>
+        <v>#N/A</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="L18" s="4">
         <v>1200002017</v>
@@ -4260,9 +4237,8 @@
         <v>50000004</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1300002016</v>
       </c>
@@ -4285,19 +4261,20 @@
       </c>
       <c r="H19" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="M19" s="4">
         <v>50000006</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1300002017</v>
       </c>
@@ -4320,19 +4297,20 @@
       </c>
       <c r="H20" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="M20" s="4">
         <v>50000006</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1300002018</v>
       </c>
@@ -4355,19 +4333,20 @@
       </c>
       <c r="H21" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="M21" s="4">
         <v>50000006</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1300002019</v>
       </c>
@@ -4390,19 +4369,20 @@
       </c>
       <c r="H22" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="M22" s="4">
         <v>50000006</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1300002020</v>
       </c>
@@ -4425,19 +4405,20 @@
       </c>
       <c r="H23" s="4" t="str">
         <f t="shared" si="7"/>
-        <v>3 터치</v>
+        <v>3 PushDown(누른 채로 1초 이상)</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>308</v>
+      </c>
       <c r="M23" s="4">
         <v>50000006</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1300002021</v>
       </c>
@@ -4458,9 +4439,9 @@
       <c r="G24" s="4">
         <v>6</v>
       </c>
-      <c r="H24" s="4" t="str">
+      <c r="H24" s="4" t="e">
         <f t="shared" si="7"/>
-        <v>6 쓰다듬기</v>
+        <v>#N/A</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -4476,9 +4457,8 @@
         <v>50000006</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1300002022</v>
       </c>
@@ -4499,9 +4479,9 @@
       <c r="G25" s="4">
         <v>6</v>
       </c>
-      <c r="H25" s="4" t="str">
+      <c r="H25" s="4" t="e">
         <f t="shared" si="7"/>
-        <v>6 쓰다듬기</v>
+        <v>#N/A</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
@@ -4517,9 +4497,8 @@
         <v>50000006</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1300002023</v>
       </c>
@@ -4540,9 +4519,9 @@
       <c r="G26" s="4">
         <v>6</v>
       </c>
-      <c r="H26" s="4" t="str">
+      <c r="H26" s="4" t="e">
         <f t="shared" si="7"/>
-        <v>6 쓰다듬기</v>
+        <v>#N/A</v>
       </c>
       <c r="I26" s="4">
         <v>3</v>
@@ -4560,9 +4539,8 @@
       <c r="N26" s="4">
         <v>50000003</v>
       </c>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -4576,7 +4554,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -4590,7 +4568,7 @@
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -4604,7 +4582,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -4620,7 +4598,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D30" xr:uid="{E9B854B6-DE6E-4019-B702-12C9C1D1E92A}">
       <formula1>touch_body_type</formula1>
     </dataValidation>
@@ -4639,8 +4617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4897,7 +4875,9 @@
       <c r="C18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -4949,7 +4929,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D22" s="4">
         <v>1100002009</v>
@@ -4963,7 +4943,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D23" s="4">
         <v>1100002010</v>
@@ -4977,7 +4957,7 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>182</v>
@@ -4991,10 +4971,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5005,10 +4985,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5019,10 +4999,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5033,10 +5013,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5047,10 +5027,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5061,9 +5041,11 @@
         <v>100002</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D30" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -5073,9 +5055,11 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="4"/>
+        <v>206</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -5085,10 +5069,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5099,7 +5083,7 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D33" s="4">
         <v>1100002029</v>
@@ -5113,10 +5097,10 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -5127,10 +5111,10 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5141,10 +5125,10 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5157,8 +5141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5329,7 +5313,7 @@
         <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5424,7 +5408,7 @@
         <v>100001</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>74</v>
@@ -5441,7 +5425,7 @@
         <v>158</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -5455,7 +5439,7 @@
         <v>159</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -5490,10 +5474,10 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -5504,10 +5488,10 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -5518,10 +5502,10 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -5532,10 +5516,10 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -5546,10 +5530,10 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -5560,10 +5544,10 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -5574,10 +5558,10 @@
         <v>100002</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -5588,10 +5572,10 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -5602,10 +5586,10 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -5616,10 +5600,10 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -5642,10 +5626,10 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -5656,10 +5640,10 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -5670,10 +5654,10 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -5684,10 +5668,10 @@
         <v>100002</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -5698,10 +5682,10 @@
         <v>100002</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -5712,10 +5696,10 @@
         <v>100002</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -5726,10 +5710,10 @@
         <v>100002</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -5740,7 +5724,7 @@
         <v>100002</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D42" s="8"/>
     </row>
@@ -5788,10 +5772,10 @@
         <v>100002</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -5802,10 +5786,10 @@
         <v>100002</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,10 +5800,10 @@
         <v>100002</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -5830,10 +5814,10 @@
         <v>100002</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -5844,10 +5828,10 @@
         <v>100002</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -5858,10 +5842,10 @@
         <v>100002</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -5872,10 +5856,10 @@
         <v>100002</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -5886,10 +5870,10 @@
         <v>100002</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -5900,10 +5884,10 @@
         <v>100002</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -5914,10 +5898,10 @@
         <v>100002</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -5928,10 +5912,10 @@
         <v>100002</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -5942,10 +5926,10 @@
         <v>100002</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -5956,10 +5940,10 @@
         <v>100002</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -5982,10 +5966,10 @@
         <v>100002</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -6008,10 +5992,10 @@
         <v>100002</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -6034,10 +6018,10 @@
         <v>100002</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -6048,10 +6032,10 @@
         <v>100002</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -6062,10 +6046,10 @@
         <v>100002</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6076,10 +6060,10 @@
         <v>100002</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0D1413-5206-4883-A411-253336575709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80C440-E470-4624-B81A-06877C25DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -2035,7 +2035,13 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4618,7 +4624,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4663,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B80C440-E470-4624-B81A-06877C25DD98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDE107-B146-4888-A613-16D256AEA28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
-    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$36</definedName>
+    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$37</definedName>
     <definedName name="me_serifu_data_id">me_serifu_data!$A$5:$A$67</definedName>
     <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
     <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="310">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1430,6 +1430,9 @@
   <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_01</t>
   </si>
 </sst>
 </file>
@@ -3297,7 +3300,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4621,10 +4624,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5135,6 +5138,20 @@
       </c>
       <c r="D36" s="4" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>10000001</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BDE107-B146-4888-A613-16D256AEA28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60AB90A-E60F-4F9F-A555-D74EACEDCFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -3522,7 +3522,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4627,7 +4627,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0D1413-5206-4883-A411-253336575709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60AB90A-E60F-4F9F-A555-D74EACEDCFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
-    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$36</definedName>
+    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$37</definedName>
     <definedName name="me_serifu_data_id">me_serifu_data!$A$5:$A$67</definedName>
     <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
     <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="310">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1430,6 +1430,9 @@
   <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_01</t>
   </si>
 </sst>
 </file>
@@ -2035,7 +2038,13 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3291,7 +3300,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3513,7 +3522,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4615,10 +4624,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4663,7 +4672,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -5129,6 +5138,20 @@
       </c>
       <c r="D36" s="4" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>10000001</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60AB90A-E60F-4F9F-A555-D74EACEDCFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE99FE8-ECC9-47DF-8485-81F8A2268781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="4170" yWindow="420" windowWidth="27975" windowHeight="19770" tabRatio="707" firstSheet="1" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="311">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1433,6 +1433,10 @@
   </si>
   <si>
     <t>00_idle_01</t>
+  </si>
+  <si>
+    <t>key_1:int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3001,7 +3005,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3054,7 +3058,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3300,7 +3304,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3343,7 +3347,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3521,8 +3525,8 @@
   </sheetPr>
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3601,7 +3605,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4626,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4666,13 +4670,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -5164,8 +5168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5201,7 +5205,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE99FE8-ECC9-47DF-8485-81F8A2268781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F709A-9E3F-4F49-8D70-A1FA7E6902C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="420" windowWidth="27975" windowHeight="19770" tabRatio="707" firstSheet="1" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -1650,7 +1650,6 @@
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
       <sheetName val="@skill_type"/>
-      <sheetName val="@item_type"/>
       <sheetName val="@Limit"/>
       <sheetName val="@item_type_v2"/>
       <sheetName val="@goods_type"/>
@@ -1662,6 +1661,7 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -2042,22 +2042,16 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2095,7 +2089,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2201,7 +2195,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2343,7 +2337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3004,8 +2998,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3304,7 +3298,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3526,7 +3520,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4631,7 +4625,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4676,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -5168,8 +5162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F709A-9E3F-4F49-8D70-A1FA7E6902C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC29734-021C-4353-AAE1-0209EA6D63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="6150" yWindow="1770" windowWidth="30060" windowHeight="18660" tabRatio="707" firstSheet="2" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="325">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1438,6 +1438,62 @@
     <t>key_1:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>애니메이션 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#animation_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_touch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로비용 숨쉬기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근원전달용 숨쉬기(장비해제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 성공 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 거부반응 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 거부반응 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가슴 성공 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breast_ng_lv0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breast_ng_lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breast_ok_lv0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>breast_ok_lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1496,7 +1552,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1524,6 +1580,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,7 +1640,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1604,6 +1672,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1664,18 +1744,18 @@
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_BODY_TYPE</v>
@@ -1847,7 +1927,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12">
+      <sheetData sheetId="12" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_GESTURE_TYPE</v>
@@ -1930,12 +2010,12 @@
           <cell r="C10"/>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18">
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>INEQUALITY_TYPE</v>
@@ -2030,18 +2110,18 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2998,8 +3078,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4622,33 +4702,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
-    <col min="4" max="4" width="34.125" customWidth="1"/>
-    <col min="5" max="5" width="19.625" customWidth="1"/>
-    <col min="6" max="6" width="105.5" customWidth="1"/>
-    <col min="7" max="7" width="105.625" customWidth="1"/>
-    <col min="8" max="8" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="105.5" customWidth="1"/>
+    <col min="8" max="8" width="105.625" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>56</v>
       </c>
@@ -4658,11 +4738,14 @@
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>310</v>
       </c>
@@ -4672,11 +4755,14 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -4686,11 +4772,14 @@
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>200001001</v>
       </c>
@@ -4700,11 +4789,12 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>200001002</v>
       </c>
@@ -4714,11 +4804,12 @@
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>200001003</v>
       </c>
@@ -4728,11 +4819,12 @@
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>200001004</v>
       </c>
@@ -4742,11 +4834,12 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>1200001001</v>
       </c>
@@ -4756,11 +4849,12 @@
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="14"/>
+      <c r="E9" s="4">
         <v>1100001001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1200001002</v>
       </c>
@@ -4770,11 +4864,12 @@
       <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="14"/>
+      <c r="E10" s="4">
         <v>1100001002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>1200001003</v>
       </c>
@@ -4784,11 +4879,12 @@
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="14"/>
+      <c r="E11" s="4">
         <v>1100001003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>1200001004</v>
       </c>
@@ -4798,11 +4894,12 @@
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="14"/>
+      <c r="E12" s="4">
         <v>1100001004</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1200001005</v>
       </c>
@@ -4812,11 +4909,12 @@
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="14"/>
+      <c r="E13" s="4">
         <v>1100001005</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>1200001006</v>
       </c>
@@ -4826,11 +4924,12 @@
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="14"/>
+      <c r="E14" s="4">
         <v>1100001006</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>1200001007</v>
       </c>
@@ -4840,11 +4939,12 @@
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="14"/>
+      <c r="E15" s="4">
         <v>1100001007</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>1200002001</v>
       </c>
@@ -4854,11 +4954,12 @@
       <c r="C16" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="14"/>
+      <c r="E16" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>1200002002</v>
       </c>
@@ -4868,11 +4969,12 @@
       <c r="C17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>1200002003</v>
       </c>
@@ -4882,11 +4984,12 @@
       <c r="C18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="14"/>
+      <c r="E18" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>1200002004</v>
       </c>
@@ -4896,11 +4999,12 @@
       <c r="C19" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="14"/>
+      <c r="E19" s="4">
         <v>1100002005</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>1200002005</v>
       </c>
@@ -4910,11 +5014,12 @@
       <c r="C20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="14"/>
+      <c r="E20" s="4">
         <v>1100002006</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>1200002006</v>
       </c>
@@ -4924,11 +5029,12 @@
       <c r="C21" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="4" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>1200002007</v>
       </c>
@@ -4938,11 +5044,12 @@
       <c r="C22" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="14"/>
+      <c r="E22" s="4">
         <v>1100002009</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>1200002008</v>
       </c>
@@ -4952,11 +5059,12 @@
       <c r="C23" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="14"/>
+      <c r="E23" s="4">
         <v>1100002010</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>1200002009</v>
       </c>
@@ -4966,11 +5074,12 @@
       <c r="C24" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="4" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>1200002010</v>
       </c>
@@ -4980,11 +5089,12 @@
       <c r="C25" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>1200002011</v>
       </c>
@@ -4994,11 +5104,12 @@
       <c r="C26" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>1200002012</v>
       </c>
@@ -5008,11 +5119,12 @@
       <c r="C27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>1200002013</v>
       </c>
@@ -5022,11 +5134,12 @@
       <c r="C28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="14"/>
+      <c r="E28" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>1200002014</v>
       </c>
@@ -5036,11 +5149,12 @@
       <c r="C29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="14"/>
+      <c r="E29" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>1200002015</v>
       </c>
@@ -5050,11 +5164,12 @@
       <c r="C30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="14"/>
+      <c r="E30" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>1200002016</v>
       </c>
@@ -5064,11 +5179,12 @@
       <c r="C31" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="14"/>
+      <c r="E31" s="4" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>1200002017</v>
       </c>
@@ -5078,11 +5194,12 @@
       <c r="C32" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="14"/>
+      <c r="E32" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>1200002018</v>
       </c>
@@ -5092,11 +5209,12 @@
       <c r="C33" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="14"/>
+      <c r="E33" s="4">
         <v>1100002029</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>1200002019</v>
       </c>
@@ -5106,11 +5224,12 @@
       <c r="C34" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="14"/>
+      <c r="E34" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>1200002020</v>
       </c>
@@ -5120,11 +5239,12 @@
       <c r="C35" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="14"/>
+      <c r="E35" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>1200002021</v>
       </c>
@@ -5134,11 +5254,12 @@
       <c r="C36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="14"/>
+      <c r="E36" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>10000001</v>
       </c>
@@ -5148,8 +5269,107 @@
       <c r="C37" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="14"/>
+      <c r="E37" s="4" t="s">
         <v>307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="13">
+        <v>10000002</v>
+      </c>
+      <c r="B38" s="13">
+        <v>100006</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="13">
+        <v>10000003</v>
+      </c>
+      <c r="B39" s="13">
+        <v>100006</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="13">
+        <v>10000011</v>
+      </c>
+      <c r="B40" s="13">
+        <v>100006</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1100002011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>10000012</v>
+      </c>
+      <c r="B41" s="13">
+        <v>100006</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1100002007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="13">
+        <v>10000021</v>
+      </c>
+      <c r="B42" s="13">
+        <v>100006</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1100002014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="13">
+        <v>10000022</v>
+      </c>
+      <c r="B43" s="13">
+        <v>100006</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1100002017</v>
       </c>
     </row>
   </sheetData>
@@ -5162,8 +5382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC29734-021C-4353-AAE1-0209EA6D63CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A48BA8-D67C-4706-B399-C02B9BF3FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="1770" windowWidth="30060" windowHeight="18660" tabRatio="707" firstSheet="2" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="42630" yWindow="1110" windowWidth="30060" windowHeight="18660" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="355">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1492,6 +1492,110 @@
   </si>
   <si>
     <t>breast_ok_lv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion_angry</t>
+  </si>
+  <si>
+    <t>emotion_embarrassed</t>
+  </si>
+  <si>
+    <t>emotion_heart</t>
+  </si>
+  <si>
+    <t>emotion_normal</t>
+  </si>
+  <si>
+    <t>emotion_panic</t>
+  </si>
+  <si>
+    <t>emotion_sad</t>
+  </si>
+  <si>
+    <t>emotion_shy</t>
+  </si>
+  <si>
+    <t>emotion_smile</t>
+  </si>
+  <si>
+    <t>페이셜_화남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion_h1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion_h2</t>
+  </si>
+  <si>
+    <t>emotion_h3</t>
+  </si>
+  <si>
+    <t>emotion_h4</t>
+  </si>
+  <si>
+    <t>emotion_h5</t>
+  </si>
+  <si>
+    <t>페이셜_당황</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_H2</t>
+  </si>
+  <si>
+    <t>페이셜_H3</t>
+  </si>
+  <si>
+    <t>페이셜_H4</t>
+  </si>
+  <si>
+    <t>페이셜_H5</t>
+  </si>
+  <si>
+    <t>페이셜_사랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_보통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_패닉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion_pleasure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_기쁨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_슬픔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_부끄러움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_미소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emotion_upset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이셜_속상함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1680,10 +1784,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4702,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4789,7 +4893,7 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="4" t="s">
         <v>82</v>
       </c>
@@ -4804,7 +4908,7 @@
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="4" t="s">
         <v>83</v>
       </c>
@@ -4819,7 +4923,7 @@
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="4" t="s">
         <v>84</v>
       </c>
@@ -4834,7 +4938,7 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4" t="s">
         <v>85</v>
       </c>
@@ -4849,7 +4953,7 @@
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4">
         <v>1100001001</v>
       </c>
@@ -4864,7 +4968,7 @@
       <c r="C10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4">
         <v>1100001002</v>
       </c>
@@ -4879,7 +4983,7 @@
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4">
         <v>1100001003</v>
       </c>
@@ -4894,7 +4998,7 @@
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4">
         <v>1100001004</v>
       </c>
@@ -4909,7 +5013,7 @@
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4">
         <v>1100001005</v>
       </c>
@@ -4924,7 +5028,7 @@
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4">
         <v>1100001006</v>
       </c>
@@ -4939,7 +5043,7 @@
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4">
         <v>1100001007</v>
       </c>
@@ -4954,7 +5058,7 @@
       <c r="C16" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4" t="s">
         <v>163</v>
       </c>
@@ -4969,7 +5073,7 @@
       <c r="C17" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="4" t="s">
         <v>164</v>
       </c>
@@ -4984,7 +5088,7 @@
       <c r="C18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="4" t="s">
         <v>308</v>
       </c>
@@ -4999,7 +5103,7 @@
       <c r="C19" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="4">
         <v>1100002005</v>
       </c>
@@ -5014,7 +5118,7 @@
       <c r="C20" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="4">
         <v>1100002006</v>
       </c>
@@ -5029,7 +5133,7 @@
       <c r="C21" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="4" t="s">
         <v>176</v>
       </c>
@@ -5044,7 +5148,7 @@
       <c r="C22" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="4">
         <v>1100002009</v>
       </c>
@@ -5059,7 +5163,7 @@
       <c r="C23" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="13"/>
       <c r="E23" s="4">
         <v>1100002010</v>
       </c>
@@ -5074,7 +5178,7 @@
       <c r="C24" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="13"/>
       <c r="E24" s="4" t="s">
         <v>182</v>
       </c>
@@ -5089,7 +5193,7 @@
       <c r="C25" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="4" t="s">
         <v>192</v>
       </c>
@@ -5104,7 +5208,7 @@
       <c r="C26" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="13"/>
       <c r="E26" s="4" t="s">
         <v>193</v>
       </c>
@@ -5119,7 +5223,7 @@
       <c r="C27" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="13"/>
       <c r="E27" s="4" t="s">
         <v>217</v>
       </c>
@@ -5134,7 +5238,7 @@
       <c r="C28" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="4" t="s">
         <v>187</v>
       </c>
@@ -5149,7 +5253,7 @@
       <c r="C29" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="4" t="s">
         <v>189</v>
       </c>
@@ -5164,7 +5268,7 @@
       <c r="C30" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="4" t="s">
         <v>308</v>
       </c>
@@ -5179,7 +5283,7 @@
       <c r="C31" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="4" t="s">
         <v>308</v>
       </c>
@@ -5194,7 +5298,7 @@
       <c r="C32" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="4" t="s">
         <v>217</v>
       </c>
@@ -5209,7 +5313,7 @@
       <c r="C33" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="4">
         <v>1100002029</v>
       </c>
@@ -5224,7 +5328,7 @@
       <c r="C34" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="4" t="s">
         <v>221</v>
       </c>
@@ -5239,7 +5343,7 @@
       <c r="C35" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="14"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="4" t="s">
         <v>222</v>
       </c>
@@ -5254,7 +5358,7 @@
       <c r="C36" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="14"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="4" t="s">
         <v>223</v>
       </c>
@@ -5269,52 +5373,52 @@
       <c r="C37" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="D37" s="14"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="4" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="13">
+      <c r="A38" s="4">
         <v>10000002</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="4">
         <v>100006</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>315</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="13">
+      <c r="A39" s="4">
         <v>10000003</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="4">
         <v>100006</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>316</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
+      <c r="A40" s="4">
         <v>10000011</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="4">
         <v>100006</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="D40" s="14" t="s">
+      <c r="D40" s="13" t="s">
         <v>318</v>
       </c>
       <c r="E40" s="4">
@@ -5322,16 +5426,16 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
+      <c r="A41" s="4">
         <v>10000012</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41" s="4">
         <v>100006</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="14" t="s">
+      <c r="D41" s="13" t="s">
         <v>319</v>
       </c>
       <c r="E41" s="4">
@@ -5339,16 +5443,16 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="13">
+      <c r="A42" s="4">
         <v>10000021</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="4">
         <v>100006</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="D42" s="13" t="s">
         <v>317</v>
       </c>
       <c r="E42" s="4">
@@ -5356,21 +5460,246 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="13">
+      <c r="A43" s="4">
         <v>10000022</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="4">
         <v>100006</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="13" t="s">
         <v>320</v>
       </c>
       <c r="E43" s="4">
         <v>1100002017</v>
       </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="14">
+        <v>10000101</v>
+      </c>
+      <c r="B44" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="14">
+        <v>10000102</v>
+      </c>
+      <c r="B45" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="14">
+        <v>10000103</v>
+      </c>
+      <c r="B46" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="14">
+        <v>10000104</v>
+      </c>
+      <c r="B47" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="14">
+        <v>10000105</v>
+      </c>
+      <c r="B48" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="14">
+        <v>10000106</v>
+      </c>
+      <c r="B49" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14">
+        <v>10000107</v>
+      </c>
+      <c r="B50" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="14">
+        <v>10000108</v>
+      </c>
+      <c r="B51" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14">
+        <v>10000109</v>
+      </c>
+      <c r="B52" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="14">
+        <v>10000110</v>
+      </c>
+      <c r="B53" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="14">
+        <v>10000111</v>
+      </c>
+      <c r="B54" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>10000112</v>
+      </c>
+      <c r="B55" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="14">
+        <v>10000113</v>
+      </c>
+      <c r="B56" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="14">
+        <v>10000114</v>
+      </c>
+      <c r="B57" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="14">
+        <v>10000115</v>
+      </c>
+      <c r="B58" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5383,7 +5712,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A48BA8-D67C-4706-B399-C02B9BF3FCFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36114768-58D9-400B-9B3D-E59E4AE4FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42630" yWindow="1110" windowWidth="30060" windowHeight="18660" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38850" yWindow="1170" windowWidth="37950" windowHeight="18660" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="354">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1432,9 +1432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_idle_01</t>
-  </si>
-  <si>
     <t>key_1:int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1447,14 +1444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>idle_normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle_touch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로비용 숨쉬기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1479,66 +1468,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>breast_ng_lv0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>breast_ng_lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>breast_ok_lv0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>breast_ok_lv1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emotion_angry</t>
-  </si>
-  <si>
-    <t>emotion_embarrassed</t>
-  </si>
-  <si>
-    <t>emotion_heart</t>
-  </si>
-  <si>
-    <t>emotion_normal</t>
-  </si>
-  <si>
-    <t>emotion_panic</t>
-  </si>
-  <si>
-    <t>emotion_sad</t>
-  </si>
-  <si>
-    <t>emotion_shy</t>
-  </si>
-  <si>
-    <t>emotion_smile</t>
-  </si>
-  <si>
     <t>페이셜_화남</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emotion_h1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emotion_h2</t>
-  </si>
-  <si>
-    <t>emotion_h3</t>
-  </si>
-  <si>
-    <t>emotion_h4</t>
-  </si>
-  <si>
-    <t>emotion_h5</t>
-  </si>
-  <si>
     <t>페이셜_당황</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1571,10 +1504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emotion_pleasure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이셜_기쁨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1591,12 +1520,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emotion_upset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>페이셜_속상함</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_normal</t>
+  </si>
+  <si>
+    <t>00_idle_touch</t>
+  </si>
+  <si>
+    <t>00_breast_ng_lv0</t>
+  </si>
+  <si>
+    <t>00_breast_ng_lv1</t>
+  </si>
+  <si>
+    <t>00_breast_ok_lv0</t>
+  </si>
+  <si>
+    <t>00_breast_ok_lv1</t>
+  </si>
+  <si>
+    <t>20_emotion_angry</t>
+  </si>
+  <si>
+    <t>20_emotion_embarrassed</t>
+  </si>
+  <si>
+    <t>20_emotion_h1</t>
+  </si>
+  <si>
+    <t>20_emotion_h2</t>
+  </si>
+  <si>
+    <t>20_emotion_h3</t>
+  </si>
+  <si>
+    <t>20_emotion_h4</t>
+  </si>
+  <si>
+    <t>20_emotion_h5</t>
+  </si>
+  <si>
+    <t>20_emotion_heart</t>
+  </si>
+  <si>
+    <t>20_emotion_normal</t>
+  </si>
+  <si>
+    <t>20_emotion_panic</t>
+  </si>
+  <si>
+    <t>20_emotion_pleasure</t>
+  </si>
+  <si>
+    <t>20_emotion_sad</t>
+  </si>
+  <si>
+    <t>20_emotion_shy</t>
+  </si>
+  <si>
+    <t>20_emotion_smile</t>
+  </si>
+  <si>
+    <t>20_emotion_upset</t>
   </si>
 </sst>
 </file>
@@ -1744,7 +1732,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1785,9 +1773,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3236,7 +3221,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3525,7 +3510,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3783,7 +3768,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4808,8 +4793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4843,7 +4828,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>81</v>
@@ -4851,7 +4836,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4877,7 +4862,7 @@
         <v>20</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>103</v>
@@ -5371,7 +5356,7 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="4" t="s">
@@ -5386,10 +5371,10 @@
         <v>100006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -5401,10 +5386,10 @@
         <v>100006</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -5416,10 +5401,10 @@
         <v>100006</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E40" s="4">
         <v>1100002011</v>
@@ -5433,10 +5418,10 @@
         <v>100006</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E41" s="4">
         <v>1100002007</v>
@@ -5450,10 +5435,10 @@
         <v>100006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E42" s="4">
         <v>1100002014</v>
@@ -5467,227 +5452,227 @@
         <v>100006</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E43" s="4">
         <v>1100002017</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="14">
+      <c r="A44" s="4">
         <v>10000101</v>
       </c>
       <c r="B44" s="4">
         <v>100006</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="14">
+      <c r="A45" s="4">
         <v>10000102</v>
       </c>
       <c r="B45" s="4">
         <v>100006</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="14">
+      <c r="A46" s="4">
         <v>10000103</v>
       </c>
       <c r="B46" s="4">
         <v>100006</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="14">
+      <c r="A47" s="4">
         <v>10000104</v>
       </c>
       <c r="B47" s="4">
         <v>100006</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
+      <c r="A48" s="4">
         <v>10000105</v>
       </c>
       <c r="B48" s="4">
         <v>100006</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="14">
+      <c r="A49" s="4">
         <v>10000106</v>
       </c>
       <c r="B49" s="4">
         <v>100006</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="14">
+      <c r="A50" s="4">
         <v>10000107</v>
       </c>
       <c r="B50" s="4">
         <v>100006</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="14">
+      <c r="A51" s="4">
         <v>10000108</v>
       </c>
       <c r="B51" s="4">
         <v>100006</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="14">
+      <c r="A52" s="4">
         <v>10000109</v>
       </c>
       <c r="B52" s="4">
         <v>100006</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="14">
+      <c r="A53" s="4">
         <v>10000110</v>
       </c>
       <c r="B53" s="4">
         <v>100006</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="14">
+      <c r="A54" s="4">
         <v>10000111</v>
       </c>
       <c r="B54" s="4">
         <v>100006</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
+      <c r="A55" s="4">
         <v>10000112</v>
       </c>
       <c r="B55" s="4">
         <v>100006</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="14">
+      <c r="A56" s="4">
         <v>10000113</v>
       </c>
       <c r="B56" s="4">
         <v>100006</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="14">
+      <c r="A57" s="4">
         <v>10000114</v>
       </c>
       <c r="B57" s="4">
         <v>100006</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="14">
+      <c r="A58" s="4">
         <v>10000115</v>
       </c>
       <c r="B58" s="4">
@@ -5697,7 +5682,7 @@
         <v>353</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="E58" s="4"/>
     </row>
@@ -5748,7 +5733,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36114768-58D9-400B-9B3D-E59E4AE4FD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D28393-B315-4BA5-A9E0-089CAAD51639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38850" yWindow="1170" windowWidth="37950" windowHeight="18660" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38790" yWindow="390" windowWidth="37950" windowHeight="18660" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="379">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1444,104 +1444,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로비용 숨쉬기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근원전달용 숨쉬기(장비해제)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 성공 호감도 낮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 거부반응 호감도 낮음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 거부반응 호감도 높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가슴 성공 호감도 높음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_화남</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_당황</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_H2</t>
-  </si>
-  <si>
-    <t>페이셜_H3</t>
-  </si>
-  <si>
-    <t>페이셜_H4</t>
-  </si>
-  <si>
-    <t>페이셜_H5</t>
-  </si>
-  <si>
-    <t>페이셜_사랑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_보통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_패닉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_기쁨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_슬픔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_부끄러움</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_미소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>페이셜_속상함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00_idle_normal</t>
   </si>
   <si>
     <t>00_idle_touch</t>
   </si>
   <si>
-    <t>00_breast_ng_lv0</t>
-  </si>
-  <si>
-    <t>00_breast_ng_lv1</t>
-  </si>
-  <si>
-    <t>00_breast_ok_lv0</t>
-  </si>
-  <si>
-    <t>00_breast_ok_lv1</t>
-  </si>
-  <si>
     <t>20_emotion_angry</t>
   </si>
   <si>
@@ -1585,6 +1493,172 @@
   </si>
   <si>
     <t>20_emotion_upset</t>
+  </si>
+  <si>
+    <t>00_part3_ng_lv0</t>
+  </si>
+  <si>
+    <t>00_part3_ng_lv1</t>
+  </si>
+  <si>
+    <t>00_part3_ok_lv0</t>
+  </si>
+  <si>
+    <t>00_part3_ok_lv1</t>
+  </si>
+  <si>
+    <t>에일린_헤어 거부반응 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_로비용 숨쉬기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_근원전달용 숨쉬기(장비해제)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_가슴 거부반응 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_가슴 성공 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_헤어 거부반응 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_헤어 성공 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_헤어 성공 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_part1_ng_lv0</t>
+  </si>
+  <si>
+    <t>00_part1_ng_lv1</t>
+  </si>
+  <si>
+    <t>00_part1_ok_lv0</t>
+  </si>
+  <si>
+    <t>00_part1_ok_lv1</t>
+  </si>
+  <si>
+    <t>00_part2_ng_lv0</t>
+  </si>
+  <si>
+    <t>00_part2_ng_lv1</t>
+  </si>
+  <si>
+    <t>00_part2_ok_lv0</t>
+  </si>
+  <si>
+    <t>00_part2_ok_lv1</t>
+  </si>
+  <si>
+    <t>에일린_얼굴 거부반응 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_얼굴 거부반응 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_얼굴 성공 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_얼굴 성공 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_part4_ng_lv0</t>
+  </si>
+  <si>
+    <t>00_part4_ng_lv1</t>
+  </si>
+  <si>
+    <t>00_part4_ok_lv0</t>
+  </si>
+  <si>
+    <t>00_part4_ok_lv1</t>
+  </si>
+  <si>
+    <t>에일린_가슴 거부반응 호감도 낮음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_가슴 성공 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_사타구니 거부반응 호감도 낮음</t>
+  </si>
+  <si>
+    <t>에일린_사타구니 거부반응 호감도 높음</t>
+  </si>
+  <si>
+    <t>에일린_사타구니 성공 호감도 낮음</t>
+  </si>
+  <si>
+    <t>에일린_대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_사타구니 성공 호감도 높음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_페이셜_화남</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_당황</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_H1</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_H2</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_H3</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_H4</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_H5</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_사랑</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_보통</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_패닉</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_기쁨</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_슬픔</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_부끄러움</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_미소</t>
+  </si>
+  <si>
+    <t>에일린_페이셜_속상함</t>
   </si>
 </sst>
 </file>
@@ -4791,10 +4865,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5358,7 +5432,9 @@
       <c r="C37" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>362</v>
+      </c>
       <c r="E37" s="4" t="s">
         <v>307</v>
       </c>
@@ -5371,10 +5447,10 @@
         <v>100006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -5386,10 +5462,10 @@
         <v>100006</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -5401,10 +5477,10 @@
         <v>100006</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="E40" s="4">
         <v>1100002011</v>
@@ -5418,10 +5494,10 @@
         <v>100006</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="E41" s="4">
         <v>1100002007</v>
@@ -5435,10 +5511,10 @@
         <v>100006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="E42" s="4">
         <v>1100002014</v>
@@ -5452,10 +5528,10 @@
         <v>100006</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="E43" s="4">
         <v>1100002017</v>
@@ -5463,228 +5539,432 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
-        <v>10000101</v>
+        <v>10000111</v>
       </c>
       <c r="B44" s="4">
         <v>100006</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>318</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>349</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1100002011</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
-        <v>10000102</v>
+        <v>10000112</v>
       </c>
       <c r="B45" s="4">
         <v>100006</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="E45" s="4"/>
+        <v>350</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1100002007</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
-        <v>10000103</v>
+        <v>10000113</v>
       </c>
       <c r="B46" s="4">
         <v>100006</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="E46" s="4"/>
+        <v>351</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1100002014</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
-        <v>10000104</v>
+        <v>10000114</v>
       </c>
       <c r="B47" s="4">
         <v>100006</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="E47" s="4"/>
+        <v>352</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1100002017</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
-        <v>10000105</v>
+        <v>10000211</v>
       </c>
       <c r="B48" s="4">
         <v>100006</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="E48" s="4"/>
+        <v>357</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1100002011</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
-        <v>10000106</v>
+        <v>10000212</v>
       </c>
       <c r="B49" s="4">
         <v>100006</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>336</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1100002007</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
-        <v>10000107</v>
+        <v>10000221</v>
       </c>
       <c r="B50" s="4">
         <v>100006</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="E50" s="4"/>
+        <v>337</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1100002014</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
-        <v>10000108</v>
+        <v>10000222</v>
       </c>
       <c r="B51" s="4">
         <v>100006</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="E51" s="4"/>
+        <v>358</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1100002017</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
-        <v>10000109</v>
+        <v>10000311</v>
       </c>
       <c r="B52" s="4">
         <v>100006</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>359</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1100002011</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
-        <v>10000110</v>
+        <v>10000312</v>
       </c>
       <c r="B53" s="4">
         <v>100006</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>360</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1100002007</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
-        <v>10000111</v>
+        <v>10000313</v>
       </c>
       <c r="B54" s="4">
         <v>100006</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="E54" s="4"/>
+        <v>361</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1100002014</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
-        <v>10000112</v>
+        <v>10000314</v>
       </c>
       <c r="B55" s="4">
         <v>100006</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>363</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1100002017</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
-        <v>10000113</v>
+        <v>10000901</v>
       </c>
       <c r="B56" s="4">
         <v>100006</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
-        <v>10000114</v>
+        <v>10000902</v>
       </c>
       <c r="B57" s="4">
         <v>100006</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>352</v>
+        <v>315</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
-        <v>10000115</v>
+        <v>10000903</v>
       </c>
       <c r="B58" s="4">
         <v>100006</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>353</v>
+        <v>316</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>10000904</v>
+      </c>
+      <c r="B59" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>10000905</v>
+      </c>
+      <c r="B60" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>10000906</v>
+      </c>
+      <c r="B61" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>10000907</v>
+      </c>
+      <c r="B62" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>10000908</v>
+      </c>
+      <c r="B63" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>10000909</v>
+      </c>
+      <c r="B64" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>10000910</v>
+      </c>
+      <c r="B65" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>10000911</v>
+      </c>
+      <c r="B66" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>10000912</v>
+      </c>
+      <c r="B67" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>10000913</v>
+      </c>
+      <c r="B68" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>10000914</v>
+      </c>
+      <c r="B69" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>10000915</v>
+      </c>
+      <c r="B70" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E70" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D28393-B315-4BA5-A9E0-089CAAD51639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED27064C-7ACC-4B2B-BE61-56DFC89089FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38790" yWindow="390" windowWidth="37950" windowHeight="18660" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39300" yWindow="1140" windowWidth="34770" windowHeight="19395" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -24,6 +24,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="407">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,10 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>text_kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00_touch_horn_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,21 +447,6 @@
     <t>00_touch_horn_2</t>
   </si>
   <si>
-    <t>사실은 조금 부탁하고 싶은 게 있어. 괜찮다면 어울려주지 않을래?</t>
-  </si>
-  <si>
-    <t>에헷♡ 어서와. 못만나서 쓸쓸했어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_01_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_01_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>serifu_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,98 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어.디.든.지 말야♡</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_02_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_02_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후훗♡ 대장이 그렇게 말한다면 어디든지 따라갈 생각인데?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>천국을 보.여.줄.께♡</t>
-  </si>
-  <si>
-    <t>우후훗♡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_02_4</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_02_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실은 며칠 전에 아끼는 캐셔파우치를 잃어버렸어. 내용물이랑 같이.</t>
-  </si>
-  <si>
-    <t>라던가 그런게 아니라~ 물건 찾는걸 도와줬으면 해.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_03_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 그래? 뿔 만져보고 싶어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아~ 산지 얼마 안된 브라가 벌써 꽉 껴~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어라, 또 가슴이 커진걸까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>후훗♡ 대장의 손가락 듬직해서 빨고 싶어지네.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우훗♡ 알겠어? 이 립스틱 신상인데.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>싫다~ 뿔에 거미줄이 걸려있잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_breast_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_mouth_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_mouth_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_horn_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/FX/Touch/touch_horn_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대사 id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,18 +535,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>audio_clip_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오디오 클립 키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>말풍선 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>serifu_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -876,22 +754,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오, 오빠? 왜 그렇게 보고만 있어…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 몸… 이상해…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(분명히 아까 목욕하고 다 체크했는데….)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(뭐라고 말 좀 해줘 오빠…!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>00_bored_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -904,27 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(그래도 교리상… 맨살만 아니면….)</t>
-  </si>
-  <si>
-    <t>(어느 쪽을 막아야…!)</t>
-  </si>
-  <si>
-    <t>(손을 대는거랑, 맨살을 보는 것중에 뭐가 더 중죄더라?!)</t>
-  </si>
-  <si>
-    <t>(으으… 오빠 진짜 바보!)</t>
-  </si>
-  <si>
-    <t>(오빠가… 머리를 쓰다듬어주고 있어….)</t>
-  </si>
-  <si>
-    <t>(오빠 손 크다… 뭔가 안심되는 기분….)</t>
-  </si>
-  <si>
-    <t>…….</t>
-  </si>
-  <si>
     <t>chat_motion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -996,10 +837,6 @@
     <t>01_drag_Leg_01</t>
   </si>
   <si>
-    <t>뭐야~? 엄청 크니까 패드라고 생각한거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1100002014, 1100002015]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1059,14 +896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(에? 어, 어떡하지?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에에에?! 그건 진짜로 안돼!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bored_chatmotion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1150,268 +979,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>꺅…! 오, 오빠?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하, 하지마아~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 안된다니까!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오빠 그러다 가이아 님한테 벌 받는다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우우…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자꾸 그래도 안 되는 건 안 돼!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>...보, 보기만 할거라구?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 안된다니까아….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말… 지, 진짜진짜 보기만 해야된다?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷 위로는 아슬아슬하게 세이프니까….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이걸로… 괜찮아?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠까아아아안! 그런 거 한다고는 안 했잖아!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가이아 님의 딸들은… 그… 혼전순결, 해야 된단 말야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>절대로 못 만지게 할 거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤헷. 아무리 오빠라도 이러면 손 못 대겠지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거, 거기까지?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>으, 으으….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엑, 아, 안돼…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아아아앗!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오빠, 봤어? 안 봤지? 응?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예뻤다고…? 그, 그러면….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본 거지! 봤구나! 내 가, 가슴!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오빠 진짜 바보!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수녀의 맨살을 보는 건 진짜 큰 죄란 말야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나는 오빠 생각해서 하지 말라는 거라구우… 훌쩍.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 싫은 건 아니란 말야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 오빠를 얼마나 좋아하는데….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오빠…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 아니야. 이건 딱히… 교리 위반은 아니니까….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이건 얼마든지 해줘도 되는데, 다른 건….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">결혼하고 나서라면… 다른 곳도 오빠 맘대로 해도 되니까… </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 진짜 안 그럴거지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이따가 나랑 같이 가이아님한테 죄송하다고 기도드리자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분명 용서해 주실거야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/sample/sample_03_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_3</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_4</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_5</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_6</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_7</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_8</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_9</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_10</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_11</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_12</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_13</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_14</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_15</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_16</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_17</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_18</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_19</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_20</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_21</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_22</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_23</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_24</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_25</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_26</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_27</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_28</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_29</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_30</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_31</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_32</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_33</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_34</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_37</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_38</t>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/AssetResources/Audio/Voice/lucia/lucia_voice_36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01_return_leg_L_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1659,6 +1226,456 @@
   </si>
   <si>
     <t>에일린_페이셜_속상함</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part1_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv0_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part2_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv0_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv0_5</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part3_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv0_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part4_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv0_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv0_5</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv0_6</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part1_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv1_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part1_Lv1_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part2_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv1_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv1_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part2_Lv1_5</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part3_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv1_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv1_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part3_Lv1_5</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginOk_Part4_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv1_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv1_4</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv1_5</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginPass_Part4_Lv1_6</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part1_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part1_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part1_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part2_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part2_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part2_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part3_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part3_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part3_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part4_Lv0_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part4_Lv0_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part4_Lv0_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part1_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part1_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part1_Lv1_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part2_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part2_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part2_Lv1_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part3_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part3_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part3_Lv1_3</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part4_Lv1_1</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part4_Lv1_2</t>
+  </si>
+  <si>
+    <t>dialog_Eileen_OriginNG_Part4_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part1_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv0_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part2_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv0_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv0_5</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part3_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv0_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part4_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv0_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv0_5</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv0_6</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part1_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part1_Lv1_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part2_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv1_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part2_Lv1_5</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part3_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv1_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part3_Lv1_5</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginOk_Part4_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv1_4</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv1_5</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginPass_Part4_Lv1_6</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part1_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part1_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part1_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part2_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part2_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part2_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part3_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part3_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part3_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part4_Lv0_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part4_Lv0_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part4_Lv0_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part1_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part1_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part1_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part2_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part2_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part2_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part3_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part3_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part3_Lv1_3</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part4_Lv1_1</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part4_Lv1_2</t>
+  </si>
+  <si>
+    <t>voice_Eileen_OriginNG_Part4_Lv1_3</t>
+  </si>
+  <si>
+    <t>캐릭터 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_text_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_clip_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보이스 파일 아이디_스트링 테이블 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 내용 추적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#dialogue_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1718,7 +1735,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1761,8 +1778,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1785,28 +1808,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1834,12 +1842,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,6 +1849,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2286,6 +2303,631 @@
       <sheetData sheetId="29" refreshError="1"/>
       <sheetData sheetId="30" refreshError="1"/>
       <sheetData sheetId="31" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="!_ID_RULE"/>
+      <sheetName val="system"/>
+      <sheetName val="character"/>
+      <sheetName val="skill"/>
+      <sheetName val="item"/>
+      <sheetName val="dialog"/>
+      <sheetName val="voice"/>
+      <sheetName val="story"/>
+      <sheetName val="!system_참고"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>string ID</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>한국어</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>key_1:string</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>string_id</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>kor</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>dialog_Eileen_OriginOk_Part1_Lv0_1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>머리 안 헝클어지게 해~</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_1</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_2</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>나는 그냥… 행복이 충전되는 기분?</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_3</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>응. 기분 좋아.</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_4</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>(웃음)너도 해줄까?</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>dialog_Eileen_OriginOk_Part2_Lv0_1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>뭐, 뭐하게?! 아….</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_1</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>(키, 키스하는 줄 알았네….)</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_2</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>(싫은 건, 아니지만….)</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_3</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>…….</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_4</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>무, 뭐라고 말좀 해.</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_5</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>(으… 자꾸 의식하게 되잖아….)</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>dialog_Eileen_OriginOk_Part3_Lv0_1</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>가슴은 좀 부끄러운데….</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="B17" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_1</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>그래도 손만 대는 거면-</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_2</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>…누가 그렇게 만지작거리랬어.</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_3</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>하여튼 진짜.</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_4</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>…근데 이게 그렇게 좋아?</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21" t="str">
+            <v>dialog_Eileen_OriginOk_Part4_Lv0_1</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>……!!</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_1</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>자, 잠깐만! 역시 거기는 조금…!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_2</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>꺅…?!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_3</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>그만, 흣, 이상하다구우….</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_4</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>윽… 앗… 흐읏….</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_5</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>하아, 하아, 하아….</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_6</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>…몰라, 멍충아.</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28" t="str">
+            <v>dialog_Eileen_OriginOk_Part1_Lv1_1</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>뭐해? 빨리 해줘.</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_1</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_2</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="B31" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_3</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>사랑받는다는 느낌이 든달까?</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_4</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>헤헷.</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33" t="str">
+            <v>dialog_Eileen_OriginOk_Part2_Lv1_1</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>…….</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_1</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>(또 이렇게 말없이 보네.)</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_2</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>(뭐, 지금은 이정도로도 충분한가….)</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_3</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>(……아니. 안 충분해.)</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_4</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>[쪽]</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_5</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>(웃음)그냥, 내가 하고 싶었어.</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>dialog_Eileen_OriginOk_Part3_Lv1_1</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>으응….</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_1</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_2</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_3</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>나 덕분이라구? (웃음)</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_4</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>그런거면… 음….</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_5</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>더 만져도 되는데…?</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45" t="str">
+            <v>dialog_Eileen_OriginOk_Part4_Lv1_1</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>으휴, 진짜 변태.</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_1</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>(무드라도 좀 맞춰주든가.)</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_2</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>…….</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_3</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>(…얘도 많이 참고 있는 거구나.)</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_4</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>저기, 있지.</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_5</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>할 거면….</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_6</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>…끝까지, 제대로 해줘.</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="B52" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv0_1</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>머리 헝클어지잖아~</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="B53" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv0_2</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>되는 거 맞아?</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="B54" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv0_3</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>흐음… 나도 해줄까?</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="B55" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv0_1</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>그렇게 분위기 잡기야?</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="B56" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv0_2</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>(웃음)간지러워.</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="B57" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv0_3</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>너 손 진짜 크다.</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="B58" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv0_1</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>…제대로 찾고 있는 거 맞지?</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="B59" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv0_2</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="B60" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv0_3</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v xml:space="preserve">……저기요. </v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="B61" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv0_1</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>뭐, 뭐하는 거야!</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="B62" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv0_2</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>아무리 근원 때문이라도 거긴 안 돼!</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="B63" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv0_3</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>죽는다 진짜.</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="B64" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv1_1</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>좋다아….</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="B65" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv1_2</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="B66" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv1_3</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>(작은 웃음)그냥 계속해줘.</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="B67" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv1_1</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="B68" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv1_2</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>헤헷. 나도 좋아해.</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="B69" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv1_3</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>뭔가 안심되는 기분이야.</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv1_1</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>(웃음)이게 그렇게 좋아?</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv1_2</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>역시 그냥 핑계였지?</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv1_3</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv1_1</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv1_2</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>꼭 근원 때문이 아니라도….</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv1_3</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>너, 너무 본격적으로는 안 돼.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2711,10 +3353,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -2722,28 +3364,28 @@
         <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -3264,7 +3906,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3275,27 +3917,27 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3324,25 +3966,25 @@
         <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3353,16 +3995,16 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G5" s="4">
         <v>50000001</v>
@@ -3379,16 +4021,16 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G6" s="4">
         <v>50000001</v>
@@ -3405,16 +4047,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G7" s="4">
         <v>50000003</v>
@@ -3431,16 +4073,16 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4">
         <v>50000001</v>
@@ -3457,16 +4099,16 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4">
         <v>50000001</v>
@@ -3483,16 +4125,16 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4">
         <v>50000001</v>
@@ -3509,16 +4151,16 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4">
         <v>50000001</v>
@@ -3559,32 +4201,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3604,22 +4246,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3630,14 +4272,14 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3648,14 +4290,14 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3666,16 +4308,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3686,14 +4328,14 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3704,14 +4346,14 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3722,14 +4364,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>196</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3790,59 +4432,59 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>204</v>
+        <v>160</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3851,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -3860,7 +4502,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -3886,46 +4528,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>201</v>
+        <v>157</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -3936,7 +4578,7 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -3961,7 +4603,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -3976,7 +4618,7 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
@@ -4018,7 +4660,7 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
@@ -4056,7 +4698,7 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
@@ -4066,7 +4708,7 @@
         <v>8 코</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -4078,7 +4720,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -4096,7 +4738,7 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -4106,7 +4748,7 @@
         <v>8 코</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -4118,7 +4760,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -4136,7 +4778,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
@@ -4160,13 +4802,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -4178,7 +4820,7 @@
         <v>100002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
@@ -4202,13 +4844,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="N11" s="4"/>
     </row>
@@ -4220,7 +4862,7 @@
         <v>100002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
@@ -4244,13 +4886,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="N12" s="4"/>
     </row>
@@ -4262,7 +4904,7 @@
         <v>100002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
@@ -4282,7 +4924,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="L13" s="4">
         <v>1200002012</v>
@@ -4300,7 +4942,7 @@
         <v>100002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -4321,10 +4963,10 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -4336,7 +4978,7 @@
         <v>100002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
@@ -4346,7 +4988,7 @@
         <v>8 코</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
@@ -4358,7 +5000,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -4378,7 +5020,7 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
@@ -4388,7 +5030,7 @@
         <v>8 코</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -4400,13 +5042,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -4418,7 +5060,7 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
@@ -4438,7 +5080,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="L17" s="4">
         <v>1200002018</v>
@@ -4458,7 +5100,7 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="D18" s="4">
         <v>9</v>
@@ -4478,7 +5120,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="L18" s="4">
         <v>1200002017</v>
@@ -4496,7 +5138,7 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
@@ -4517,7 +5159,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="M19" s="4">
         <v>50000006</v>
@@ -4532,7 +5174,7 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
@@ -4553,7 +5195,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="M20" s="4">
         <v>50000006</v>
@@ -4568,7 +5210,7 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
@@ -4589,7 +5231,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="M21" s="4">
         <v>50000006</v>
@@ -4604,7 +5246,7 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
@@ -4625,7 +5267,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="M22" s="4">
         <v>50000006</v>
@@ -4640,7 +5282,7 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
@@ -4661,7 +5303,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="M23" s="4">
         <v>50000006</v>
@@ -4676,7 +5318,7 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
@@ -4716,7 +5358,7 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -4756,7 +5398,7 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
@@ -4867,8 +5509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4888,29 +5530,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>310</v>
+      <c r="D2" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4918,7 +5560,7 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -4927,19 +5569,19 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>311</v>
+      <c r="D4" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4952,9 +5594,9 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4967,9 +5609,9 @@
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4982,9 +5624,9 @@
       <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4997,9 +5639,9 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="4" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5010,9 +5652,9 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="D9" s="11"/>
       <c r="E9" s="4">
         <v>1100001001</v>
       </c>
@@ -5025,9 +5667,9 @@
         <v>100001</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="D10" s="11"/>
       <c r="E10" s="4">
         <v>1100001002</v>
       </c>
@@ -5040,9 +5682,9 @@
         <v>100001</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="11"/>
       <c r="E11" s="4">
         <v>1100001003</v>
       </c>
@@ -5055,9 +5697,9 @@
         <v>100001</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>31</v>
+      </c>
+      <c r="D12" s="11"/>
       <c r="E12" s="4">
         <v>1100001004</v>
       </c>
@@ -5070,9 +5712,9 @@
         <v>100001</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="4">
         <v>1100001005</v>
       </c>
@@ -5085,9 +5727,9 @@
         <v>100001</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="D14" s="11"/>
       <c r="E14" s="4">
         <v>1100001006</v>
       </c>
@@ -5100,9 +5742,9 @@
         <v>100001</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="D15" s="11"/>
       <c r="E15" s="4">
         <v>1100001007</v>
       </c>
@@ -5115,11 +5757,11 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D16" s="13"/>
+        <v>126</v>
+      </c>
+      <c r="D16" s="11"/>
       <c r="E16" s="4" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -5130,11 +5772,11 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D17" s="13"/>
+        <v>135</v>
+      </c>
+      <c r="D17" s="11"/>
       <c r="E17" s="4" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -5145,11 +5787,11 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="13"/>
+        <v>136</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -5160,9 +5802,9 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="13"/>
+        <v>130</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="4">
         <v>1100002005</v>
       </c>
@@ -5175,9 +5817,9 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="13"/>
+        <v>131</v>
+      </c>
+      <c r="D20" s="11"/>
       <c r="E20" s="4">
         <v>1100002006</v>
       </c>
@@ -5190,11 +5832,11 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21" s="13"/>
+        <v>132</v>
+      </c>
+      <c r="D21" s="11"/>
       <c r="E21" s="4" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -5205,9 +5847,9 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="13"/>
+        <v>141</v>
+      </c>
+      <c r="D22" s="11"/>
       <c r="E22" s="4">
         <v>1100002009</v>
       </c>
@@ -5220,9 +5862,9 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D23" s="13"/>
+        <v>140</v>
+      </c>
+      <c r="D23" s="11"/>
       <c r="E23" s="4">
         <v>1100002010</v>
       </c>
@@ -5235,11 +5877,11 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D24" s="13"/>
+        <v>184</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="4" t="s">
-        <v>182</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -5250,11 +5892,11 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D25" s="13"/>
+        <v>185</v>
+      </c>
+      <c r="D25" s="11"/>
       <c r="E25" s="4" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -5265,11 +5907,11 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D26" s="13"/>
+        <v>186</v>
+      </c>
+      <c r="D26" s="11"/>
       <c r="E26" s="4" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -5280,11 +5922,11 @@
         <v>100002</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D27" s="13"/>
+        <v>168</v>
+      </c>
+      <c r="D27" s="11"/>
       <c r="E27" s="4" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -5295,11 +5937,11 @@
         <v>100002</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="13"/>
+        <v>143</v>
+      </c>
+      <c r="D28" s="11"/>
       <c r="E28" s="4" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -5310,11 +5952,11 @@
         <v>100002</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" s="13"/>
+        <v>145</v>
+      </c>
+      <c r="D29" s="11"/>
       <c r="E29" s="4" t="s">
-        <v>189</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -5325,11 +5967,11 @@
         <v>100002</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D30" s="13"/>
+        <v>150</v>
+      </c>
+      <c r="D30" s="11"/>
       <c r="E30" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -5340,11 +5982,11 @@
         <v>100002</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="13"/>
+        <v>162</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="4" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -5355,11 +5997,11 @@
         <v>100002</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D32" s="13"/>
+        <v>169</v>
+      </c>
+      <c r="D32" s="11"/>
       <c r="E32" s="4" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -5370,9 +6012,9 @@
         <v>100002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D33" s="13"/>
+        <v>170</v>
+      </c>
+      <c r="D33" s="11"/>
       <c r="E33" s="4">
         <v>1100002029</v>
       </c>
@@ -5385,11 +6027,11 @@
         <v>100002</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="13"/>
+        <v>172</v>
+      </c>
+      <c r="D34" s="11"/>
       <c r="E34" s="4" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -5400,11 +6042,11 @@
         <v>100002</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="13"/>
+        <v>173</v>
+      </c>
+      <c r="D35" s="11"/>
       <c r="E35" s="4" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -5415,11 +6057,11 @@
         <v>100002</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" s="13"/>
+        <v>174</v>
+      </c>
+      <c r="D36" s="11"/>
       <c r="E36" s="4" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -5430,13 +6072,13 @@
         <v>100002</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>362</v>
+        <v>95</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -5447,10 +6089,10 @@
         <v>100006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>334</v>
+        <v>192</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="E38" s="4"/>
     </row>
@@ -5462,10 +6104,10 @@
         <v>100006</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>335</v>
+        <v>193</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>215</v>
       </c>
       <c r="E39" s="4"/>
     </row>
@@ -5477,10 +6119,10 @@
         <v>100006</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>333</v>
+        <v>221</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>213</v>
       </c>
       <c r="E40" s="4">
         <v>1100002011</v>
@@ -5494,10 +6136,10 @@
         <v>100006</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>338</v>
+        <v>222</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>218</v>
       </c>
       <c r="E41" s="4">
         <v>1100002007</v>
@@ -5511,10 +6153,10 @@
         <v>100006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>339</v>
+        <v>223</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>219</v>
       </c>
       <c r="E42" s="4">
         <v>1100002014</v>
@@ -5528,10 +6170,10 @@
         <v>100006</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>340</v>
+        <v>224</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="E43" s="4">
         <v>1100002017</v>
@@ -5545,10 +6187,10 @@
         <v>100006</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>349</v>
+        <v>225</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>229</v>
       </c>
       <c r="E44" s="4">
         <v>1100002011</v>
@@ -5562,10 +6204,10 @@
         <v>100006</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>350</v>
+        <v>226</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>230</v>
       </c>
       <c r="E45" s="4">
         <v>1100002007</v>
@@ -5579,10 +6221,10 @@
         <v>100006</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>351</v>
+        <v>227</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>231</v>
       </c>
       <c r="E46" s="4">
         <v>1100002014</v>
@@ -5596,10 +6238,10 @@
         <v>100006</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>352</v>
+        <v>228</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="E47" s="4">
         <v>1100002017</v>
@@ -5613,10 +6255,10 @@
         <v>100006</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>357</v>
+        <v>209</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="E48" s="4">
         <v>1100002011</v>
@@ -5630,10 +6272,10 @@
         <v>100006</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>336</v>
+        <v>210</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>216</v>
       </c>
       <c r="E49" s="4">
         <v>1100002007</v>
@@ -5647,10 +6289,10 @@
         <v>100006</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>337</v>
+        <v>211</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>217</v>
       </c>
       <c r="E50" s="4">
         <v>1100002014</v>
@@ -5664,10 +6306,10 @@
         <v>100006</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>358</v>
+        <v>212</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>238</v>
       </c>
       <c r="E51" s="4">
         <v>1100002017</v>
@@ -5681,10 +6323,10 @@
         <v>100006</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>359</v>
+        <v>233</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>239</v>
       </c>
       <c r="E52" s="4">
         <v>1100002011</v>
@@ -5698,10 +6340,10 @@
         <v>100006</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>360</v>
+        <v>234</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>240</v>
       </c>
       <c r="E53" s="4">
         <v>1100002007</v>
@@ -5715,10 +6357,10 @@
         <v>100006</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>361</v>
+        <v>235</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="E54" s="4">
         <v>1100002014</v>
@@ -5732,10 +6374,10 @@
         <v>100006</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>363</v>
+        <v>236</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>243</v>
       </c>
       <c r="E55" s="4">
         <v>1100002017</v>
@@ -5749,10 +6391,10 @@
         <v>100006</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>364</v>
+        <v>194</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="E56" s="4"/>
     </row>
@@ -5764,10 +6406,10 @@
         <v>100006</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>365</v>
+        <v>195</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>245</v>
       </c>
       <c r="E57" s="4"/>
     </row>
@@ -5779,10 +6421,10 @@
         <v>100006</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>366</v>
+        <v>196</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="E58" s="4"/>
     </row>
@@ -5794,10 +6436,10 @@
         <v>100006</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>367</v>
+        <v>197</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>247</v>
       </c>
       <c r="E59" s="4"/>
     </row>
@@ -5809,10 +6451,10 @@
         <v>100006</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>368</v>
+        <v>198</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="E60" s="4"/>
     </row>
@@ -5824,10 +6466,10 @@
         <v>100006</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>369</v>
+        <v>199</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="E61" s="4"/>
     </row>
@@ -5839,10 +6481,10 @@
         <v>100006</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>370</v>
+        <v>200</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E62" s="4"/>
     </row>
@@ -5854,10 +6496,10 @@
         <v>100006</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>371</v>
+        <v>201</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="E63" s="4"/>
     </row>
@@ -5869,10 +6511,10 @@
         <v>100006</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D64" s="13" t="s">
-        <v>372</v>
+        <v>202</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="E64" s="4"/>
     </row>
@@ -5884,10 +6526,10 @@
         <v>100006</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>373</v>
+        <v>203</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>253</v>
       </c>
       <c r="E65" s="4"/>
     </row>
@@ -5899,10 +6541,10 @@
         <v>100006</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D66" s="13" t="s">
-        <v>374</v>
+        <v>204</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="E66" s="4"/>
     </row>
@@ -5914,10 +6556,10 @@
         <v>100006</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>375</v>
+        <v>205</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="E67" s="4"/>
     </row>
@@ -5929,10 +6571,10 @@
         <v>100006</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>376</v>
+        <v>206</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>256</v>
       </c>
       <c r="E68" s="4"/>
     </row>
@@ -5944,10 +6586,10 @@
         <v>100006</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>377</v>
+        <v>207</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="E69" s="4"/>
     </row>
@@ -5959,10 +6601,10 @@
         <v>100006</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>378</v>
+        <v>208</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>258</v>
       </c>
       <c r="E70" s="4"/>
     </row>
@@ -5974,46 +6616,50 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="105.5" customWidth="1"/>
-    <col min="4" max="4" width="105.625" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" style="13" customWidth="1"/>
+    <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -6024,881 +6670,1303 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
+        <v>1100002001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="16" t="str">
+        <f>VLOOKUP(C5,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>머리 안 헝클어지게 해~</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>1100002002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="16" t="str">
+        <f>VLOOKUP(C6,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>1100002003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="16" t="str">
+        <f>VLOOKUP(C7,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>나는 그냥… 행복이 충전되는 기분?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>1100002004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="16" t="str">
+        <f>VLOOKUP(C8,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>응. 기분 좋아.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1100002005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="16" t="str">
+        <f>VLOOKUP(C9,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)너도 해줄까?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1100002006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="16" t="str">
+        <f>VLOOKUP(C10,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>뭐, 뭐하게?! 아….</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1100002007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="16" t="str">
+        <f>VLOOKUP(C11,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(키, 키스하는 줄 알았네….)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1100002008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="16" t="str">
+        <f>VLOOKUP(C12,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(싫은 건, 아니지만….)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1100002009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E13" s="16" t="str">
+        <f>VLOOKUP(C13,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…….</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1100002010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="16" t="str">
+        <f>VLOOKUP(C14,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>무, 뭐라고 말좀 해.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1100002011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" s="16" t="str">
+        <f>VLOOKUP(C15,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(으… 자꾸 의식하게 되잖아….)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1100002012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E16" s="16" t="str">
+        <f>VLOOKUP(C16,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>가슴은 좀 부끄러운데….</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1100002013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="E17" s="16" t="str">
+        <f>VLOOKUP(C17,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>그래도 손만 대는 거면-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1100002014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="E18" s="16" t="str">
+        <f>VLOOKUP(C18,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…누가 그렇게 만지작거리랬어.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>1100002015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="16" t="str">
+        <f>VLOOKUP(C19,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>하여튼 진짜.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1100002016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="16" t="str">
+        <f>VLOOKUP(C20,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…근데 이게 그렇게 좋아?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1100002017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E21" s="16" t="str">
+        <f>VLOOKUP(C21,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>……!!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1100002018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="16" t="str">
+        <f>VLOOKUP(C22,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>자, 잠깐만! 역시 거기는 조금…!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1100002019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="16" t="str">
+        <f>VLOOKUP(C23,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>꺅…?!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1100002020</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="E24" s="16" t="str">
+        <f>VLOOKUP(C24,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>그만, 흣, 이상하다구우….</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1100002021</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E25" s="16" t="str">
+        <f>VLOOKUP(C25,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>윽… 앗… 흐읏….</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1100002022</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="16" t="str">
+        <f>VLOOKUP(C26,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>하아, 하아, 하아….</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1100002023</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E27" s="16" t="str">
+        <f>VLOOKUP(C27,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…몰라, 멍충아.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1100002024</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" s="16" t="str">
+        <f>VLOOKUP(C28,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>뭐해? 빨리 해줘.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1100002025</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E29" s="16" t="str">
+        <f>VLOOKUP(C29,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1100002026</v>
+      </c>
+      <c r="B30" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E30" s="16" t="str">
+        <f>VLOOKUP(C30,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1100002027</v>
+      </c>
+      <c r="B31" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="E31" s="16" t="str">
+        <f>VLOOKUP(C31,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>사랑받는다는 느낌이 든달까?</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1100002028</v>
+      </c>
+      <c r="B32" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" s="16" t="str">
+        <f>VLOOKUP(C32,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>헤헷.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1100002029</v>
+      </c>
+      <c r="B33" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E33" s="16" t="str">
+        <f>VLOOKUP(C33,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…….</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1100002030</v>
+      </c>
+      <c r="B34" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E34" s="16" t="str">
+        <f>VLOOKUP(C34,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(또 이렇게 말없이 보네.)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1100002031</v>
+      </c>
+      <c r="B35" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E35" s="16" t="str">
+        <f>VLOOKUP(C35,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(뭐, 지금은 이정도로도 충분한가….)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1100002032</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E36" s="16" t="str">
+        <f>VLOOKUP(C36,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(……아니. 안 충분해.)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>1100002033</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" s="16" t="str">
+        <f>VLOOKUP(C37,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>[쪽]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>1100002034</v>
+      </c>
+      <c r="B38" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E38" s="16" t="str">
+        <f>VLOOKUP(C38,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)그냥, 내가 하고 싶었어.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>1100002035</v>
+      </c>
+      <c r="B39" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E39" s="16" t="str">
+        <f>VLOOKUP(C39,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>으응….</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>1100002036</v>
+      </c>
+      <c r="B40" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E40" s="16" t="str">
+        <f>VLOOKUP(C40,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>1100002037</v>
+      </c>
+      <c r="B41" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E41" s="16" t="str">
+        <f>VLOOKUP(C41,[2]dialog!$B:$C,2,FALSE)</f>
+        <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>1100002038</v>
+      </c>
+      <c r="B42" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E42" s="16" t="str">
+        <f>VLOOKUP(C42,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>나 덕분이라구? (웃음)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>1100002039</v>
+      </c>
+      <c r="B43" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" s="16" t="str">
+        <f>VLOOKUP(C43,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>그런거면… 음….</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>1100002040</v>
+      </c>
+      <c r="B44" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" s="16" t="str">
+        <f>VLOOKUP(C44,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>더 만져도 되는데…?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>1100002041</v>
+      </c>
+      <c r="B45" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E45" s="16" t="str">
+        <f>VLOOKUP(C45,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>으휴, 진짜 변태.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>1100002042</v>
+      </c>
+      <c r="B46" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E46" s="16" t="str">
+        <f>VLOOKUP(C46,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(무드라도 좀 맞춰주든가.)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>1100002043</v>
+      </c>
+      <c r="B47" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E47" s="16" t="str">
+        <f>VLOOKUP(C47,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…….</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>1100002044</v>
+      </c>
+      <c r="B48" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E48" s="16" t="str">
+        <f>VLOOKUP(C48,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(…얘도 많이 참고 있는 거구나.)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>1100002045</v>
+      </c>
+      <c r="B49" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E49" s="16" t="str">
+        <f>VLOOKUP(C49,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>저기, 있지.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>1100002046</v>
+      </c>
+      <c r="B50" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E50" s="16" t="str">
+        <f>VLOOKUP(C50,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>할 거면….</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>1100002047</v>
+      </c>
+      <c r="B51" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E51" s="16" t="str">
+        <f>VLOOKUP(C51,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…끝까지, 제대로 해줘.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>100001001</v>
       </c>
-      <c r="B5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="B52" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E52" s="16" t="str">
+        <f>VLOOKUP(C52,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>머리 헝클어지잖아~</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>100001002</v>
       </c>
-      <c r="B6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="B53" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E53" s="16" t="str">
+        <f>VLOOKUP(C53,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>되는 거 맞아?</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>100001003</v>
       </c>
-      <c r="B7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="B54" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="E54" s="16" t="str">
+        <f>VLOOKUP(C54,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>흐음… 나도 해줄까?</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>100001004</v>
       </c>
-      <c r="B8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="B55" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" s="16" t="str">
+        <f>VLOOKUP(C55,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>그렇게 분위기 잡기야?</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>100001005</v>
       </c>
-      <c r="B9" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="B56" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E56" s="16" t="str">
+        <f>VLOOKUP(C56,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)간지러워.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>100001006</v>
       </c>
-      <c r="B10" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="B57" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E57" s="16" t="str">
+        <f>VLOOKUP(C57,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>너 손 진짜 크다.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>100001007</v>
       </c>
-      <c r="B11" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="B58" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E58" s="16" t="str">
+        <f>VLOOKUP(C58,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…제대로 찾고 있는 거 맞지?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>100001008</v>
       </c>
-      <c r="B12" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1100001001</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1100001002</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1100001003</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1100001004</v>
-      </c>
-      <c r="B16" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1100001005</v>
-      </c>
-      <c r="B17" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1100001006</v>
-      </c>
-      <c r="B18" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1100001007</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1100002001</v>
-      </c>
-      <c r="B20" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1100002002</v>
-      </c>
-      <c r="B21" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1100002003</v>
-      </c>
-      <c r="B22" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>1100002004</v>
-      </c>
-      <c r="B23" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>1100002005</v>
-      </c>
-      <c r="B24" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>1100002006</v>
-      </c>
-      <c r="B25" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1100002007</v>
-      </c>
-      <c r="B26" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1100002008</v>
-      </c>
-      <c r="B27" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1100002009</v>
-      </c>
-      <c r="B28" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>1100002010</v>
-      </c>
-      <c r="B29" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1100002011</v>
-      </c>
-      <c r="B30" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1100002012</v>
-      </c>
-      <c r="B31" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1100002013</v>
-      </c>
-      <c r="B32" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1100002014</v>
-      </c>
-      <c r="B33" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1100002015</v>
-      </c>
-      <c r="B34" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1100002016</v>
-      </c>
-      <c r="B35" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1100002017</v>
-      </c>
-      <c r="B36" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1100002018</v>
-      </c>
-      <c r="B37" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1100002019</v>
-      </c>
-      <c r="B38" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>1100002020</v>
-      </c>
-      <c r="B39" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>1100002021</v>
-      </c>
-      <c r="B40" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>1100002022</v>
-      </c>
-      <c r="B41" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>1100002023</v>
-      </c>
-      <c r="B42" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>1100002024</v>
-      </c>
-      <c r="B43" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>1100002025</v>
-      </c>
-      <c r="B44" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>1100002026</v>
-      </c>
-      <c r="B45" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>1100002027</v>
-      </c>
-      <c r="B46" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>1100002028</v>
-      </c>
-      <c r="B47" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>1100002029</v>
-      </c>
-      <c r="B48" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>1100002030</v>
-      </c>
-      <c r="B49" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>1100002031</v>
-      </c>
-      <c r="B50" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>1100002032</v>
-      </c>
-      <c r="B51" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>1100002033</v>
-      </c>
-      <c r="B52" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>1100002034</v>
-      </c>
-      <c r="B53" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>1100002035</v>
-      </c>
-      <c r="B54" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>1100002036</v>
-      </c>
-      <c r="B55" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>1100002037</v>
-      </c>
-      <c r="B56" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>1100002038</v>
-      </c>
-      <c r="B57" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>1100002039</v>
-      </c>
-      <c r="B58" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>1100002040</v>
-      </c>
       <c r="B59" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="16" t="str">
+        <f>VLOOKUP(C59,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
-        <v>1100002041</v>
+        <v>100001009</v>
       </c>
       <c r="B60" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="E60" s="16" t="str">
+        <f>VLOOKUP(C60,[2]dialog!$B:$C,2,FALSE)</f>
+        <v xml:space="preserve">……저기요. </v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
-        <v>1100002042</v>
+        <v>100001010</v>
       </c>
       <c r="B61" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="E61" s="16" t="str">
+        <f>VLOOKUP(C61,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>뭐, 뭐하는 거야!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
-        <v>1100002043</v>
+        <v>100001011</v>
       </c>
       <c r="B62" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="E62" s="16" t="str">
+        <f>VLOOKUP(C62,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>아무리 근원 때문이라도 거긴 안 돼!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
-        <v>1100002044</v>
+        <v>100001012</v>
       </c>
       <c r="B63" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D63" s="8"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E63" s="16" t="str">
+        <f>VLOOKUP(C63,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>죽는다 진짜.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
-        <v>1100002045</v>
+        <v>100001013</v>
       </c>
       <c r="B64" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>261</v>
+        <v>318</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="E64" s="16" t="str">
+        <f>VLOOKUP(C64,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>좋다아….</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
-        <v>1100002046</v>
+        <v>100001014</v>
       </c>
       <c r="B65" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>262</v>
+        <v>319</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+      <c r="E65" s="16" t="str">
+        <f>VLOOKUP(C65,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
-        <v>1100002047</v>
+        <v>100001015</v>
       </c>
       <c r="B66" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>263</v>
+        <v>320</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+      <c r="E66" s="16" t="str">
+        <f>VLOOKUP(C66,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(작은 웃음)그냥 계속해줘.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
-        <v>1100002048</v>
+        <v>100001016</v>
       </c>
       <c r="B67" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>264</v>
+        <v>100006</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>301</v>
+        <v>392</v>
+      </c>
+      <c r="E67" s="16" t="str">
+        <f>VLOOKUP(C67,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>100001017</v>
+      </c>
+      <c r="B68" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="16" t="str">
+        <f>VLOOKUP(C68,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>헤헷. 나도 좋아해.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>100001018</v>
+      </c>
+      <c r="B69" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E69" s="16" t="str">
+        <f>VLOOKUP(C69,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>뭔가 안심되는 기분이야.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>100001019</v>
+      </c>
+      <c r="B70" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E70" s="16" t="str">
+        <f>VLOOKUP(C70,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)이게 그렇게 좋아?</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
+        <v>100001020</v>
+      </c>
+      <c r="B71" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="16" t="str">
+        <f>VLOOKUP(C71,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>역시 그냥 핑계였지?</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
+        <v>100001021</v>
+      </c>
+      <c r="B72" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E72" s="16" t="str">
+        <f>VLOOKUP(C72,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
+        <v>100001022</v>
+      </c>
+      <c r="B73" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E73" s="16" t="str">
+        <f>VLOOKUP(C73,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
+        <v>100001023</v>
+      </c>
+      <c r="B74" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E74" s="16" t="str">
+        <f>VLOOKUP(C74,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>꼭 근원 때문이 아니라도….</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>100001024</v>
+      </c>
+      <c r="B75" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="16" t="str">
+        <f>VLOOKUP(C75,[2]dialog!$B:$C,2,FALSE)</f>
+        <v>너, 너무 본격적으로는 안 돼.</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED27064C-7ACC-4B2B-BE61-56DFC89089FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1715DC45-D83A-4C79-9219-413F106F2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39300" yWindow="1140" windowWidth="34770" windowHeight="19395" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39780" yWindow="780" windowWidth="36135" windowHeight="19395" tabRatio="707" activeTab="8" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="me_interaction_data" sheetId="9" r:id="rId6"/>
     <sheet name="me_chat_motion_data" sheetId="11" r:id="rId7"/>
     <sheet name="me_serifu_data" sheetId="2" r:id="rId8"/>
+    <sheet name="!me_timeline_data" sheetId="14" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="415">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1675,6 +1676,38 @@
   </si>
   <si>
     <t>#dialogue_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Me_Timeline_Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeline_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Skeleton/Standing/Eileen/TL_Part3_Lv0.playable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 형식 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 형식은 캐릭터 아이디 + 타임라인 넘버링으로 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1851,9 +1884,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1863,7 +1893,10 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2326,12 +2359,15 @@
       <sheetName val="!system_참고"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
+        <row r="1">
+          <cell r="B1"/>
+        </row>
         <row r="2">
           <cell r="B2" t="str">
             <v>string ID</v>
@@ -2925,9 +2961,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5509,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6619,7 +6655,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6628,7 +6664,7 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="35.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" style="13" customWidth="1"/>
+    <col min="5" max="5" width="46" style="12" customWidth="1"/>
     <col min="6" max="6" width="24.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
@@ -6653,7 +6689,7 @@
       <c r="D2" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>405</v>
       </c>
     </row>
@@ -6670,7 +6706,7 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -6687,7 +6723,7 @@
       <c r="D4" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6704,7 +6740,7 @@
       <c r="D5" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="16" t="str">
+      <c r="E5" s="15" t="str">
         <f>VLOOKUP(C5,[2]dialog!$B:$C,2,FALSE)</f>
         <v>머리 안 헝클어지게 해~</v>
       </c>
@@ -6722,7 +6758,7 @@
       <c r="D6" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E6" s="16" t="str">
+      <c r="E6" s="15" t="str">
         <f>VLOOKUP(C6,[2]dialog!$B:$C,2,FALSE)</f>
         <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
       </c>
@@ -6740,7 +6776,7 @@
       <c r="D7" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="E7" s="15" t="str">
         <f>VLOOKUP(C7,[2]dialog!$B:$C,2,FALSE)</f>
         <v>나는 그냥… 행복이 충전되는 기분?</v>
       </c>
@@ -6758,7 +6794,7 @@
       <c r="D8" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="E8" s="15" t="str">
         <f>VLOOKUP(C8,[2]dialog!$B:$C,2,FALSE)</f>
         <v>응. 기분 좋아.</v>
       </c>
@@ -6776,7 +6812,7 @@
       <c r="D9" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="E9" s="15" t="str">
         <f>VLOOKUP(C9,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)너도 해줄까?</v>
       </c>
@@ -6794,7 +6830,7 @@
       <c r="D10" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="E10" s="15" t="str">
         <f>VLOOKUP(C10,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭐, 뭐하게?! 아….</v>
       </c>
@@ -6812,7 +6848,7 @@
       <c r="D11" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="16" t="str">
+      <c r="E11" s="15" t="str">
         <f>VLOOKUP(C11,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(키, 키스하는 줄 알았네….)</v>
       </c>
@@ -6830,7 +6866,7 @@
       <c r="D12" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="15" t="str">
         <f>VLOOKUP(C12,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(싫은 건, 아니지만….)</v>
       </c>
@@ -6848,7 +6884,7 @@
       <c r="D13" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="E13" s="15" t="str">
         <f>VLOOKUP(C13,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…….</v>
       </c>
@@ -6866,7 +6902,7 @@
       <c r="D14" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="E14" s="15" t="str">
         <f>VLOOKUP(C14,[2]dialog!$B:$C,2,FALSE)</f>
         <v>무, 뭐라고 말좀 해.</v>
       </c>
@@ -6884,7 +6920,7 @@
       <c r="D15" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="E15" s="15" t="str">
         <f>VLOOKUP(C15,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(으… 자꾸 의식하게 되잖아….)</v>
       </c>
@@ -6902,7 +6938,7 @@
       <c r="D16" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="E16" s="15" t="str">
         <f>VLOOKUP(C16,[2]dialog!$B:$C,2,FALSE)</f>
         <v>가슴은 좀 부끄러운데….</v>
       </c>
@@ -6920,7 +6956,7 @@
       <c r="D17" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="E17" s="15" t="str">
         <f>VLOOKUP(C17,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그래도 손만 대는 거면-</v>
       </c>
@@ -6938,7 +6974,7 @@
       <c r="D18" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="E18" s="16" t="str">
+      <c r="E18" s="15" t="str">
         <f>VLOOKUP(C18,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…누가 그렇게 만지작거리랬어.</v>
       </c>
@@ -6956,7 +6992,7 @@
       <c r="D19" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="E19" s="16" t="str">
+      <c r="E19" s="15" t="str">
         <f>VLOOKUP(C19,[2]dialog!$B:$C,2,FALSE)</f>
         <v>하여튼 진짜.</v>
       </c>
@@ -6974,7 +7010,7 @@
       <c r="D20" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="16" t="str">
+      <c r="E20" s="15" t="str">
         <f>VLOOKUP(C20,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…근데 이게 그렇게 좋아?</v>
       </c>
@@ -6992,7 +7028,7 @@
       <c r="D21" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="16" t="str">
+      <c r="E21" s="15" t="str">
         <f>VLOOKUP(C21,[2]dialog!$B:$C,2,FALSE)</f>
         <v>……!!</v>
       </c>
@@ -7010,7 +7046,7 @@
       <c r="D22" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E22" s="16" t="str">
+      <c r="E22" s="15" t="str">
         <f>VLOOKUP(C22,[2]dialog!$B:$C,2,FALSE)</f>
         <v>자, 잠깐만! 역시 거기는 조금…!</v>
       </c>
@@ -7028,7 +7064,7 @@
       <c r="D23" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="16" t="str">
+      <c r="E23" s="15" t="str">
         <f>VLOOKUP(C23,[2]dialog!$B:$C,2,FALSE)</f>
         <v>꺅…?!</v>
       </c>
@@ -7046,7 +7082,7 @@
       <c r="D24" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="16" t="str">
+      <c r="E24" s="15" t="str">
         <f>VLOOKUP(C24,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그만, 흣, 이상하다구우….</v>
       </c>
@@ -7064,7 +7100,7 @@
       <c r="D25" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="E25" s="16" t="str">
+      <c r="E25" s="15" t="str">
         <f>VLOOKUP(C25,[2]dialog!$B:$C,2,FALSE)</f>
         <v>윽… 앗… 흐읏….</v>
       </c>
@@ -7082,7 +7118,7 @@
       <c r="D26" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E26" s="16" t="str">
+      <c r="E26" s="15" t="str">
         <f>VLOOKUP(C26,[2]dialog!$B:$C,2,FALSE)</f>
         <v>하아, 하아, 하아….</v>
       </c>
@@ -7100,7 +7136,7 @@
       <c r="D27" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="16" t="str">
+      <c r="E27" s="15" t="str">
         <f>VLOOKUP(C27,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…몰라, 멍충아.</v>
       </c>
@@ -7118,7 +7154,7 @@
       <c r="D28" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E28" s="16" t="str">
+      <c r="E28" s="15" t="str">
         <f>VLOOKUP(C28,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭐해? 빨리 해줘.</v>
       </c>
@@ -7136,7 +7172,7 @@
       <c r="D29" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="16" t="str">
+      <c r="E29" s="15" t="str">
         <f>VLOOKUP(C29,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
       </c>
@@ -7148,13 +7184,13 @@
       <c r="B30" s="4">
         <v>100006</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="4" t="s">
         <v>284</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="E30" s="16" t="str">
+      <c r="E30" s="15" t="str">
         <f>VLOOKUP(C30,[2]dialog!$B:$C,2,FALSE)</f>
         <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
       </c>
@@ -7172,7 +7208,7 @@
       <c r="D31" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="E31" s="16" t="str">
+      <c r="E31" s="15" t="str">
         <f>VLOOKUP(C31,[2]dialog!$B:$C,2,FALSE)</f>
         <v>사랑받는다는 느낌이 든달까?</v>
       </c>
@@ -7190,7 +7226,7 @@
       <c r="D32" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="E32" s="16" t="str">
+      <c r="E32" s="15" t="str">
         <f>VLOOKUP(C32,[2]dialog!$B:$C,2,FALSE)</f>
         <v>헤헷.</v>
       </c>
@@ -7208,7 +7244,7 @@
       <c r="D33" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="E33" s="16" t="str">
+      <c r="E33" s="15" t="str">
         <f>VLOOKUP(C33,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…….</v>
       </c>
@@ -7226,7 +7262,7 @@
       <c r="D34" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E34" s="16" t="str">
+      <c r="E34" s="15" t="str">
         <f>VLOOKUP(C34,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(또 이렇게 말없이 보네.)</v>
       </c>
@@ -7244,7 +7280,7 @@
       <c r="D35" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="E35" s="16" t="str">
+      <c r="E35" s="15" t="str">
         <f>VLOOKUP(C35,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(뭐, 지금은 이정도로도 충분한가….)</v>
       </c>
@@ -7262,7 +7298,7 @@
       <c r="D36" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E36" s="16" t="str">
+      <c r="E36" s="15" t="str">
         <f>VLOOKUP(C36,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(……아니. 안 충분해.)</v>
       </c>
@@ -7280,7 +7316,7 @@
       <c r="D37" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="E37" s="16" t="str">
+      <c r="E37" s="15" t="str">
         <f>VLOOKUP(C37,[2]dialog!$B:$C,2,FALSE)</f>
         <v>[쪽]</v>
       </c>
@@ -7298,7 +7334,7 @@
       <c r="D38" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E38" s="16" t="str">
+      <c r="E38" s="15" t="str">
         <f>VLOOKUP(C38,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)그냥, 내가 하고 싶었어.</v>
       </c>
@@ -7316,7 +7352,7 @@
       <c r="D39" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E39" s="16" t="str">
+      <c r="E39" s="15" t="str">
         <f>VLOOKUP(C39,[2]dialog!$B:$C,2,FALSE)</f>
         <v>으응….</v>
       </c>
@@ -7334,7 +7370,7 @@
       <c r="D40" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="E40" s="16" t="str">
+      <c r="E40" s="15" t="str">
         <f>VLOOKUP(C40,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
       </c>
@@ -7352,7 +7388,7 @@
       <c r="D41" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E41" s="16" t="str">
+      <c r="E41" s="15" t="str">
         <f>VLOOKUP(C41,[2]dialog!$B:$C,2,FALSE)</f>
         <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
       </c>
@@ -7370,7 +7406,7 @@
       <c r="D42" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="E42" s="16" t="str">
+      <c r="E42" s="15" t="str">
         <f>VLOOKUP(C42,[2]dialog!$B:$C,2,FALSE)</f>
         <v>나 덕분이라구? (웃음)</v>
       </c>
@@ -7388,7 +7424,7 @@
       <c r="D43" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="E43" s="16" t="str">
+      <c r="E43" s="15" t="str">
         <f>VLOOKUP(C43,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그런거면… 음….</v>
       </c>
@@ -7406,7 +7442,7 @@
       <c r="D44" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E44" s="16" t="str">
+      <c r="E44" s="15" t="str">
         <f>VLOOKUP(C44,[2]dialog!$B:$C,2,FALSE)</f>
         <v>더 만져도 되는데…?</v>
       </c>
@@ -7424,7 +7460,7 @@
       <c r="D45" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="E45" s="16" t="str">
+      <c r="E45" s="15" t="str">
         <f>VLOOKUP(C45,[2]dialog!$B:$C,2,FALSE)</f>
         <v>으휴, 진짜 변태.</v>
       </c>
@@ -7442,7 +7478,7 @@
       <c r="D46" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E46" s="16" t="str">
+      <c r="E46" s="15" t="str">
         <f>VLOOKUP(C46,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(무드라도 좀 맞춰주든가.)</v>
       </c>
@@ -7460,7 +7496,7 @@
       <c r="D47" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E47" s="16" t="str">
+      <c r="E47" s="15" t="str">
         <f>VLOOKUP(C47,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…….</v>
       </c>
@@ -7478,7 +7514,7 @@
       <c r="D48" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="E48" s="16" t="str">
+      <c r="E48" s="15" t="str">
         <f>VLOOKUP(C48,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(…얘도 많이 참고 있는 거구나.)</v>
       </c>
@@ -7496,7 +7532,7 @@
       <c r="D49" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="E49" s="16" t="str">
+      <c r="E49" s="15" t="str">
         <f>VLOOKUP(C49,[2]dialog!$B:$C,2,FALSE)</f>
         <v>저기, 있지.</v>
       </c>
@@ -7514,7 +7550,7 @@
       <c r="D50" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E50" s="16" t="str">
+      <c r="E50" s="15" t="str">
         <f>VLOOKUP(C50,[2]dialog!$B:$C,2,FALSE)</f>
         <v>할 거면….</v>
       </c>
@@ -7532,7 +7568,7 @@
       <c r="D51" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E51" s="16" t="str">
+      <c r="E51" s="15" t="str">
         <f>VLOOKUP(C51,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…끝까지, 제대로 해줘.</v>
       </c>
@@ -7550,7 +7586,7 @@
       <c r="D52" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="E52" s="16" t="str">
+      <c r="E52" s="15" t="str">
         <f>VLOOKUP(C52,[2]dialog!$B:$C,2,FALSE)</f>
         <v>머리 헝클어지잖아~</v>
       </c>
@@ -7568,7 +7604,7 @@
       <c r="D53" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E53" s="16" t="str">
+      <c r="E53" s="15" t="str">
         <f>VLOOKUP(C53,[2]dialog!$B:$C,2,FALSE)</f>
         <v>되는 거 맞아?</v>
       </c>
@@ -7586,7 +7622,7 @@
       <c r="D54" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="E54" s="16" t="str">
+      <c r="E54" s="15" t="str">
         <f>VLOOKUP(C54,[2]dialog!$B:$C,2,FALSE)</f>
         <v>흐음… 나도 해줄까?</v>
       </c>
@@ -7604,7 +7640,7 @@
       <c r="D55" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E55" s="16" t="str">
+      <c r="E55" s="15" t="str">
         <f>VLOOKUP(C55,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그렇게 분위기 잡기야?</v>
       </c>
@@ -7622,7 +7658,7 @@
       <c r="D56" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="E56" s="16" t="str">
+      <c r="E56" s="15" t="str">
         <f>VLOOKUP(C56,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)간지러워.</v>
       </c>
@@ -7640,7 +7676,7 @@
       <c r="D57" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="E57" s="16" t="str">
+      <c r="E57" s="15" t="str">
         <f>VLOOKUP(C57,[2]dialog!$B:$C,2,FALSE)</f>
         <v>너 손 진짜 크다.</v>
       </c>
@@ -7658,7 +7694,7 @@
       <c r="D58" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E58" s="16" t="str">
+      <c r="E58" s="15" t="str">
         <f>VLOOKUP(C58,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…제대로 찾고 있는 거 맞지?</v>
       </c>
@@ -7676,7 +7712,7 @@
       <c r="D59" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E59" s="16" t="str">
+      <c r="E59" s="15" t="str">
         <f>VLOOKUP(C59,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
       </c>
@@ -7694,7 +7730,7 @@
       <c r="D60" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E60" s="16" t="str">
+      <c r="E60" s="15" t="str">
         <f>VLOOKUP(C60,[2]dialog!$B:$C,2,FALSE)</f>
         <v xml:space="preserve">……저기요. </v>
       </c>
@@ -7712,7 +7748,7 @@
       <c r="D61" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="E61" s="16" t="str">
+      <c r="E61" s="15" t="str">
         <f>VLOOKUP(C61,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭐, 뭐하는 거야!</v>
       </c>
@@ -7730,7 +7766,7 @@
       <c r="D62" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="E62" s="16" t="str">
+      <c r="E62" s="15" t="str">
         <f>VLOOKUP(C62,[2]dialog!$B:$C,2,FALSE)</f>
         <v>아무리 근원 때문이라도 거긴 안 돼!</v>
       </c>
@@ -7748,7 +7784,7 @@
       <c r="D63" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="E63" s="16" t="str">
+      <c r="E63" s="15" t="str">
         <f>VLOOKUP(C63,[2]dialog!$B:$C,2,FALSE)</f>
         <v>죽는다 진짜.</v>
       </c>
@@ -7766,7 +7802,7 @@
       <c r="D64" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="E64" s="16" t="str">
+      <c r="E64" s="15" t="str">
         <f>VLOOKUP(C64,[2]dialog!$B:$C,2,FALSE)</f>
         <v>좋다아….</v>
       </c>
@@ -7784,7 +7820,7 @@
       <c r="D65" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="E65" s="16" t="str">
+      <c r="E65" s="15" t="str">
         <f>VLOOKUP(C65,[2]dialog!$B:$C,2,FALSE)</f>
         <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
       </c>
@@ -7802,7 +7838,7 @@
       <c r="D66" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E66" s="16" t="str">
+      <c r="E66" s="15" t="str">
         <f>VLOOKUP(C66,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(작은 웃음)그냥 계속해줘.</v>
       </c>
@@ -7820,7 +7856,7 @@
       <c r="D67" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="E67" s="16" t="str">
+      <c r="E67" s="15" t="str">
         <f>VLOOKUP(C67,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
       </c>
@@ -7838,7 +7874,7 @@
       <c r="D68" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="E68" s="16" t="str">
+      <c r="E68" s="15" t="str">
         <f>VLOOKUP(C68,[2]dialog!$B:$C,2,FALSE)</f>
         <v>헤헷. 나도 좋아해.</v>
       </c>
@@ -7856,7 +7892,7 @@
       <c r="D69" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="E69" s="16" t="str">
+      <c r="E69" s="15" t="str">
         <f>VLOOKUP(C69,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭔가 안심되는 기분이야.</v>
       </c>
@@ -7874,7 +7910,7 @@
       <c r="D70" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="E70" s="16" t="str">
+      <c r="E70" s="15" t="str">
         <f>VLOOKUP(C70,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)이게 그렇게 좋아?</v>
       </c>
@@ -7892,7 +7928,7 @@
       <c r="D71" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E71" s="16" t="str">
+      <c r="E71" s="15" t="str">
         <f>VLOOKUP(C71,[2]dialog!$B:$C,2,FALSE)</f>
         <v>역시 그냥 핑계였지?</v>
       </c>
@@ -7910,7 +7946,7 @@
       <c r="D72" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="E72" s="16" t="str">
+      <c r="E72" s="15" t="str">
         <f>VLOOKUP(C72,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
       </c>
@@ -7928,7 +7964,7 @@
       <c r="D73" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="E73" s="16" t="str">
+      <c r="E73" s="15" t="str">
         <f>VLOOKUP(C73,[2]dialog!$B:$C,2,FALSE)</f>
         <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
       </c>
@@ -7946,7 +7982,7 @@
       <c r="D74" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E74" s="16" t="str">
+      <c r="E74" s="15" t="str">
         <f>VLOOKUP(C74,[2]dialog!$B:$C,2,FALSE)</f>
         <v>꼭 근원 때문이 아니라도….</v>
       </c>
@@ -7964,9 +8000,167 @@
       <c r="D75" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="E75" s="16" t="str">
+      <c r="E75" s="15" t="str">
         <f>VLOOKUP(C75,[2]dialog!$B:$C,2,FALSE)</f>
         <v>너, 너무 본격적으로는 안 돼.</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A574ABB5-6EF5-4270-9FE1-AD809E1F99F3}">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.625" customWidth="1"/>
+    <col min="3" max="3" width="50.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>10000601</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>10000602</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>10000603</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>10000604</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>10000605</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>10000606</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>10000607</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>10000608</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>10000609</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>10000610</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>10000611</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>10000612</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1715DC45-D83A-4C79-9219-413F106F2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D9BF38-48DA-4725-9694-FDB7AC2D88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="780" windowWidth="36135" windowHeight="19395" tabRatio="707" activeTab="8" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="415">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5545,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6130,7 +6130,9 @@
       <c r="D38" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
@@ -6145,7 +6147,9 @@
       <c r="D39" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -6432,7 +6436,9 @@
       <c r="D56" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -6447,7 +6453,9 @@
       <c r="D57" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -6462,7 +6470,9 @@
       <c r="D58" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -6477,7 +6487,9 @@
       <c r="D59" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -6492,7 +6504,9 @@
       <c r="D60" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="4"/>
+      <c r="E60" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -6507,7 +6521,9 @@
       <c r="D61" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
@@ -6522,7 +6538,9 @@
       <c r="D62" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -6537,7 +6555,9 @@
       <c r="D63" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
@@ -6552,7 +6572,9 @@
       <c r="D64" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="E64" s="4"/>
+      <c r="E64" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -6567,7 +6589,9 @@
       <c r="D65" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
@@ -6582,7 +6606,9 @@
       <c r="D66" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
@@ -6597,7 +6623,9 @@
       <c r="D67" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
@@ -6612,7 +6640,9 @@
       <c r="D68" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
@@ -6627,7 +6657,9 @@
       <c r="D69" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
@@ -6642,7 +6674,9 @@
       <c r="D70" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8015,7 +8049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A574ABB5-6EF5-4270-9FE1-AD809E1F99F3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D9BF38-48DA-4725-9694-FDB7AC2D88C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555276C2-BEC2-48F7-B2F9-699400EECD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39180" yWindow="780" windowWidth="36135" windowHeight="19395" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
-    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$37</definedName>
+    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$5</definedName>
     <definedName name="me_serifu_data_id">me_serifu_data!$A$5:$A$67</definedName>
     <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
     <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="386">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,22 +342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_script_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_script_02_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_script_02_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_script_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>memorial_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,29 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_touch_horn_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_mouth_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_mouth_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_breast_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_breast_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_breast_3</t>
-  </si>
-  <si>
     <t>script_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,9 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_touch_horn_2</t>
-  </si>
-  <si>
     <t>serifu_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,22 +422,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100001001, 100001002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001003, 100001004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001005, 100001006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001007, 100001008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM:TOUCH_BODY_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,50 +697,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_bored_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002001, 1100002002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002003, 1100002004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chat_motion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_react_breast_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002007, 1100002008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1200002004, 1200002005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_bored_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_bored_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01_drag_bra_L_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -807,49 +713,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1100002012, 1100002013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1200002013, 1200002014]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_react_leg_04</t>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015, 1100002017]</t>
-  </si>
-  <si>
-    <t>00_react_panty_02</t>
-  </si>
-  <si>
-    <t>[1100002007, 1100002012]</t>
-  </si>
-  <si>
     <t>01_drag_Leg_01</t>
   </si>
   <si>
-    <t>[1100002014, 1100002015]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002016, 1100002017, 1100002018]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21_bra_L_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01_drag_panty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +763,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22_bra_R_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bored_chatmotion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,45 +783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_return_panty_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_panty_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_panty_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002019, 1100002020]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_03</t>
-  </si>
-  <si>
-    <t>1100002039, 1100002040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100002041, 1100002042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100002043, 1100002045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actor_prefab_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,18 +807,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01_return_leg_L_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_return_leg_L_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_return_leg_L_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1709,13 +1524,73 @@
   <si>
     <t>아이디 형식은 캐릭터 아이디 + 타임라인 넘버링으로 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대사 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타임라인 테이블 참조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_로비용 터치시 움찔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006001</t>
+  </si>
+  <si>
+    <t>100006025</t>
+  </si>
+  <si>
+    <t>100006048</t>
+  </si>
+  <si>
+    <t>100006051</t>
+  </si>
+  <si>
+    <t>100006054</t>
+  </si>
+  <si>
+    <t>100006060</t>
+  </si>
+  <si>
+    <t>100006063</t>
+  </si>
+  <si>
+    <t>100006066</t>
+  </si>
+  <si>
+    <t>100006069</t>
+  </si>
+  <si>
+    <t>100006057</t>
+  </si>
+  <si>
+    <t>100006018</t>
+  </si>
+  <si>
+    <t>100006042</t>
+  </si>
+  <si>
+    <t>100006036</t>
+  </si>
+  <si>
+    <t>100006012</t>
+  </si>
+  <si>
+    <t>100006006</t>
+  </si>
+  <si>
+    <t>100006030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,6 +1639,14 @@
       <color theme="8" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1847,7 +1730,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,6 +1782,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1939,6 +1828,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -1954,21 +1844,23 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_BODY_TYPE</v>
@@ -1998,149 +1890,149 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>BODY</v>
+            <v>PART1</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 몸체</v>
+            <v>Part 1</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>BREAST</v>
+            <v>PART2</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 가슴</v>
+            <v>Part 2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>HEAD</v>
+            <v>PART3</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 머리</v>
+            <v>Part 3</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MOUTH</v>
+            <v>PART4</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>4 입</v>
+            <v>Part 4</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>PELVIS</v>
+            <v>PART5</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>5 골반</v>
+            <v>Part 5</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>LEG</v>
+            <v>PART6</v>
           </cell>
           <cell r="B10">
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>6 다리</v>
+            <v>Part 6</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>EYE</v>
+            <v>PART7</v>
           </cell>
           <cell r="B11">
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7 눈</v>
+            <v>Part 7</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>NOSE</v>
+            <v>PART8</v>
           </cell>
           <cell r="B12">
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>8 코</v>
+            <v>Part 8</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>EAR</v>
+            <v>PART9</v>
           </cell>
           <cell r="B13">
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>9 귀</v>
+            <v>Part 9</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>CHEEK</v>
+            <v>PART10</v>
           </cell>
           <cell r="B14">
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>10 볼</v>
+            <v>Part 10</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>JAW</v>
+            <v>PART11</v>
           </cell>
           <cell r="B15">
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>11 턱</v>
+            <v>Part 11</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>BROW</v>
+            <v>PART12</v>
           </cell>
           <cell r="B16">
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>12 이마</v>
+            <v>Part 12</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>FACE</v>
+            <v>PART13</v>
           </cell>
           <cell r="B17">
             <v>13</v>
           </cell>
           <cell r="C17" t="str">
-            <v>13 얼굴</v>
+            <v>Part 13</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1">
+      <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_GESTURE_TYPE</v>
@@ -2223,12 +2115,13 @@
           <cell r="C10"/>
         </row>
       </sheetData>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19">
         <row r="1">
           <cell r="A1" t="str">
             <v>INEQUALITY_TYPE</v>
@@ -2323,19 +2216,27 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3389,39 +3290,39 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -3552,7 +3453,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@touch_body_type'!$A5</f>
-        <v>BODY</v>
+        <v>PART1</v>
       </c>
       <c r="B4" s="4">
         <f>'[1]@touch_body_type'!$B5</f>
@@ -3560,7 +3461,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@touch_body_type'!$C5</f>
-        <v>1 몸체</v>
+        <v>Part 1</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A5</f>
@@ -3590,7 +3491,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@touch_body_type'!$A6</f>
-        <v>BREAST</v>
+        <v>PART2</v>
       </c>
       <c r="B5" s="4">
         <f>'[1]@touch_body_type'!$B6</f>
@@ -3598,7 +3499,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@touch_body_type'!$C6</f>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A6</f>
@@ -3628,7 +3529,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@touch_body_type'!$A7</f>
-        <v>HEAD</v>
+        <v>PART3</v>
       </c>
       <c r="B6" s="4">
         <f>'[1]@touch_body_type'!$B7</f>
@@ -3636,7 +3537,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@touch_body_type'!$C7</f>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A7</f>
@@ -3666,7 +3567,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@touch_body_type'!$A8</f>
-        <v>MOUTH</v>
+        <v>PART4</v>
       </c>
       <c r="B7" s="4">
         <f>'[1]@touch_body_type'!$B8</f>
@@ -3674,7 +3575,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@touch_body_type'!$C8</f>
-        <v>4 입</v>
+        <v>Part 4</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A8</f>
@@ -3704,7 +3605,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@touch_body_type'!$A9</f>
-        <v>PELVIS</v>
+        <v>PART5</v>
       </c>
       <c r="B8" s="4">
         <f>'[1]@touch_body_type'!$B9</f>
@@ -3712,7 +3613,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@touch_body_type'!$C9</f>
-        <v>5 골반</v>
+        <v>Part 5</v>
       </c>
       <c r="E8" s="4">
         <f>'[1]@touch_gesture_type'!$A9</f>
@@ -3742,7 +3643,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@touch_body_type'!$A10</f>
-        <v>LEG</v>
+        <v>PART6</v>
       </c>
       <c r="B9" s="4">
         <f>'[1]@touch_body_type'!$B10</f>
@@ -3750,7 +3651,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@touch_body_type'!$C10</f>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="E9" s="4">
         <f>'[1]@touch_gesture_type'!$A10</f>
@@ -3780,7 +3681,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@touch_body_type'!$A11</f>
-        <v>EYE</v>
+        <v>PART7</v>
       </c>
       <c r="B10" s="4">
         <f>'[1]@touch_body_type'!$B11</f>
@@ -3788,7 +3689,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@touch_body_type'!$C11</f>
-        <v>7 눈</v>
+        <v>Part 7</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3797,7 +3698,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@touch_body_type'!$A12</f>
-        <v>NOSE</v>
+        <v>PART8</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@touch_body_type'!$B12</f>
@@ -3805,7 +3706,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@touch_body_type'!$C12</f>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3814,7 +3715,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@touch_body_type'!$A13</f>
-        <v>EAR</v>
+        <v>PART9</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@touch_body_type'!$B13</f>
@@ -3822,7 +3723,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@touch_body_type'!$C13</f>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3831,7 +3732,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@touch_body_type'!$A14</f>
-        <v>CHEEK</v>
+        <v>PART10</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@touch_body_type'!$B14</f>
@@ -3839,7 +3740,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@touch_body_type'!$C14</f>
-        <v>10 볼</v>
+        <v>Part 10</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3848,7 +3749,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@touch_body_type'!$A15</f>
-        <v>JAW</v>
+        <v>PART11</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@touch_body_type'!$B15</f>
@@ -3856,7 +3757,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@touch_body_type'!$C15</f>
-        <v>11 턱</v>
+        <v>Part 11</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3865,7 +3766,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@touch_body_type'!$A16</f>
-        <v>BROW</v>
+        <v>PART12</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@touch_body_type'!$B16</f>
@@ -3873,7 +3774,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@touch_body_type'!$C16</f>
-        <v>12 이마</v>
+        <v>Part 12</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3882,7 +3783,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@touch_body_type'!$A17</f>
-        <v>FACE</v>
+        <v>PART13</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@touch_body_type'!$B17</f>
@@ -3890,7 +3791,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@touch_body_type'!$C17</f>
-        <v>13 얼굴</v>
+        <v>Part 13</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3942,38 +3843,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3999,28 +3900,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4031,16 +3932,16 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4">
         <v>50000001</v>
@@ -4057,16 +3958,16 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4">
         <v>50000001</v>
@@ -4083,16 +3984,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G7" s="4">
         <v>50000003</v>
@@ -4109,16 +4010,16 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4">
         <v>50000001</v>
@@ -4135,16 +4036,16 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4">
         <v>50000001</v>
@@ -4161,16 +4062,16 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4">
         <v>50000001</v>
@@ -4187,16 +4088,16 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4">
         <v>50000001</v>
@@ -4237,32 +4138,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4282,22 +4183,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4308,14 +4209,14 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4326,14 +4227,14 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4344,16 +4245,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4364,14 +4265,14 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4382,14 +4283,14 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4400,14 +4301,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4468,59 +4369,59 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4529,7 +4430,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -4538,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -4564,46 +4465,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4614,14 +4515,14 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E13" si="0">INDEX(touch_body_type_desc,MATCH(D5,touch_body_type,0))</f>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
@@ -4639,7 +4540,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -4654,14 +4555,14 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
@@ -4696,14 +4597,14 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
@@ -4734,17 +4635,17 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -4756,7 +4657,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -4774,17 +4675,17 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -4796,7 +4697,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -4814,14 +4715,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -4838,13 +4739,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -4856,14 +4757,14 @@
         <v>100002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -4880,13 +4781,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="N11" s="4"/>
     </row>
@@ -4898,14 +4799,14 @@
         <v>100002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
@@ -4922,13 +4823,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="N12" s="4"/>
     </row>
@@ -4940,14 +4841,14 @@
         <v>100002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -4960,7 +4861,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="L13" s="4">
         <v>1200002012</v>
@@ -4978,14 +4879,14 @@
         <v>100002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ref="E14" si="2">INDEX(touch_body_type_desc,MATCH(D14,touch_body_type,0))</f>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
@@ -4999,10 +4900,10 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -5014,17 +4915,17 @@
         <v>100002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ref="E15" si="4">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
@@ -5036,7 +4937,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -5056,17 +4957,17 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ref="E16:E26" si="6">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -5078,13 +4979,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -5096,14 +4997,14 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -5116,7 +5017,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="L17" s="4">
         <v>1200002018</v>
@@ -5136,14 +5037,14 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4">
         <v>9</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
@@ -5156,7 +5057,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="L18" s="4">
         <v>1200002017</v>
@@ -5174,14 +5075,14 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
@@ -5195,7 +5096,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M19" s="4">
         <v>50000006</v>
@@ -5210,14 +5111,14 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
@@ -5231,7 +5132,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M20" s="4">
         <v>50000006</v>
@@ -5246,14 +5147,14 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
@@ -5267,7 +5168,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M21" s="4">
         <v>50000006</v>
@@ -5282,14 +5183,14 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
@@ -5303,7 +5204,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M22" s="4">
         <v>50000006</v>
@@ -5318,14 +5219,14 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
@@ -5339,7 +5240,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M23" s="4">
         <v>50000006</v>
@@ -5354,14 +5255,14 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
@@ -5394,14 +5295,14 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
@@ -5434,14 +5335,14 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
@@ -5543,19 +5444,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="4" width="40.125" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="105.5" customWidth="1"/>
     <col min="8" max="8" width="105.625" customWidth="1"/>
     <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
@@ -5564,31 +5466,34 @@
     <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -5602,1080 +5507,763 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>100006001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(E5="[]","",VLOOKUP(E5,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>100006002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(E6="[]","",VLOOKUP(E6,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>100006003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(E7="[]","",VLOOKUP(E7,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>100006004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(E8="[]","",VLOOKUP(E8,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>100006005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(E9="[]","",VLOOKUP(E9,me_serifu_data!A:E,5,FALSE))</f>
+        <v>머리 헝클어지잖아~</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>100006006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(E10="[]","",VLOOKUP(E10,me_serifu_data!A:E,5,FALSE))</f>
+        <v>좋다아….</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>100006007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(E11="[]","",VLOOKUP(E11,me_serifu_data!A:E,5,FALSE))</f>
+        <v>머리 안 헝클어지게 해~</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100006008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(E12="[]","",VLOOKUP(E12,me_serifu_data!A:E,5,FALSE))</f>
+        <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>100006009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(E13="[]","",VLOOKUP(E13,me_serifu_data!A:E,5,FALSE))</f>
+        <v>그렇게 분위기 잡기야?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>100006010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(E14="[]","",VLOOKUP(E14,me_serifu_data!A:E,5,FALSE))</f>
+        <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>100006011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(E15="[]","",VLOOKUP(E15,me_serifu_data!A:E,5,FALSE))</f>
+        <v>뭐, 뭐하게?! 아….</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>100006012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(E16="[]","",VLOOKUP(E16,me_serifu_data!A:E,5,FALSE))</f>
+        <v>(또 이렇게 말없이 보네.)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100006013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(E17="[]","",VLOOKUP(E17,me_serifu_data!A:E,5,FALSE))</f>
+        <v>…제대로 찾고 있는 거 맞지?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>100006014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(E18="[]","",VLOOKUP(E18,me_serifu_data!A:E,5,FALSE))</f>
+        <v>(웃음)이게 그렇게 좋아?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>100006015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F19" t="str">
+        <f>IF(E19="[]","",VLOOKUP(E19,me_serifu_data!A:E,5,FALSE))</f>
+        <v>가슴은 좀 부끄러운데….</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>100006016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(E20="[]","",VLOOKUP(E20,me_serifu_data!A:E,5,FALSE))</f>
+        <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>100006017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>200001001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>200001002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>200001003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>200001004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1200001001</v>
-      </c>
-      <c r="B9" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="4">
-        <v>1100001001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1200001002</v>
-      </c>
-      <c r="B10" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4">
-        <v>1100001002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1200001003</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="4">
-        <v>1100001003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1200001004</v>
-      </c>
-      <c r="B12" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="4">
-        <v>1100001004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1200001005</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="4">
-        <v>1100001005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1200001006</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="4">
-        <v>1100001006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1200001007</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="4">
-        <v>1100001007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1200002001</v>
-      </c>
-      <c r="B16" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1200002002</v>
-      </c>
-      <c r="B17" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1200002003</v>
-      </c>
-      <c r="B18" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="4" t="s">
+      <c r="E21" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(E21="[]","",VLOOKUP(E21,me_serifu_data!A:E,5,FALSE))</f>
+        <v>뭐, 뭐하는 거야!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>100006018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(E22="[]","",VLOOKUP(E22,me_serifu_data!A:E,5,FALSE))</f>
+        <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>100006019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(E23="[]","",VLOOKUP(E23,me_serifu_data!A:E,5,FALSE))</f>
+        <v>자, 잠깐만! 역시 거기는 조금…!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>100006020</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1200002004</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="4">
-        <v>1100002005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1200002005</v>
-      </c>
-      <c r="B20" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="4">
-        <v>1100002006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1200002006</v>
-      </c>
-      <c r="B21" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1200002007</v>
-      </c>
-      <c r="B22" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4">
-        <v>1100002009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>1200002008</v>
-      </c>
-      <c r="B23" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4">
-        <v>1100002010</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>1200002009</v>
-      </c>
-      <c r="B24" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>195</v>
+      </c>
       <c r="E24" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(E24="[]","",VLOOKUP(E24,me_serifu_data!A:E,5,FALSE))</f>
+        <v>(무드라도 좀 맞춰주든가.)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>100006021</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>1200002010</v>
-      </c>
-      <c r="B25" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="4" t="s">
+      <c r="F25" t="str">
+        <f>IF(E25="[]","",VLOOKUP(E25,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>100006022</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(E26="[]","",VLOOKUP(E26,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>100006023</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1200002011</v>
-      </c>
-      <c r="B26" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="4" t="s">
+      <c r="D27" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(E27="[]","",VLOOKUP(E27,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>100006024</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1200002012</v>
-      </c>
-      <c r="B27" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1200002013</v>
-      </c>
-      <c r="B28" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11" t="s">
+        <v>199</v>
+      </c>
       <c r="E28" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(E28="[]","",VLOOKUP(E28,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>1200002014</v>
+        <v>100006025</v>
       </c>
       <c r="B29" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="11"/>
+        <v>150</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>200</v>
+      </c>
       <c r="E29" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(E29="[]","",VLOOKUP(E29,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>1200002015</v>
+        <v>100006026</v>
       </c>
       <c r="B30" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="11"/>
+        <v>151</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>201</v>
+      </c>
       <c r="E30" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(E30="[]","",VLOOKUP(E30,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>1200002016</v>
+        <v>100006027</v>
       </c>
       <c r="B31" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="11"/>
+        <v>152</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="E31" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F31" t="str">
+        <f>IF(E31="[]","",VLOOKUP(E31,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>1200002017</v>
+        <v>100006028</v>
       </c>
       <c r="B32" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="11"/>
+        <v>153</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="E32" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(E32="[]","",VLOOKUP(E32,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>1200002018</v>
+        <v>100006029</v>
       </c>
       <c r="B33" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="4">
-        <v>1100002029</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(E33="[]","",VLOOKUP(E33,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>1200002019</v>
+        <v>100006030</v>
       </c>
       <c r="B34" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>205</v>
+      </c>
       <c r="E34" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(E34="[]","",VLOOKUP(E34,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>1200002020</v>
+        <v>100006031</v>
       </c>
       <c r="B35" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>206</v>
+      </c>
       <c r="E35" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(E35="[]","",VLOOKUP(E35,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>1200002021</v>
+        <v>100006032</v>
       </c>
       <c r="B36" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="11"/>
+        <v>157</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>207</v>
+      </c>
       <c r="E36" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(E36="[]","",VLOOKUP(E36,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>10000001</v>
+        <v>100006033</v>
       </c>
       <c r="B37" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(E37="[]","",VLOOKUP(E37,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>10000002</v>
+        <v>100006034</v>
       </c>
       <c r="B38" s="4">
         <v>100006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(E38="[]","",VLOOKUP(E38,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>10000003</v>
+        <v>100006035</v>
       </c>
       <c r="B39" s="4">
         <v>100006</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>10000011</v>
-      </c>
-      <c r="B40" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>10000012</v>
-      </c>
-      <c r="B41" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>10000021</v>
-      </c>
-      <c r="B42" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>10000022</v>
-      </c>
-      <c r="B43" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>10000111</v>
-      </c>
-      <c r="B44" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>10000112</v>
-      </c>
-      <c r="B45" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>10000113</v>
-      </c>
-      <c r="B46" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>10000114</v>
-      </c>
-      <c r="B47" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>10000211</v>
-      </c>
-      <c r="B48" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>10000212</v>
-      </c>
-      <c r="B49" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>10000221</v>
-      </c>
-      <c r="B50" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>10000222</v>
-      </c>
-      <c r="B51" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>10000311</v>
-      </c>
-      <c r="B52" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>10000312</v>
-      </c>
-      <c r="B53" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>10000313</v>
-      </c>
-      <c r="B54" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>10000314</v>
-      </c>
-      <c r="B55" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>10000901</v>
-      </c>
-      <c r="B56" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>10000902</v>
-      </c>
-      <c r="B57" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>10000903</v>
-      </c>
-      <c r="B58" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>10000904</v>
-      </c>
-      <c r="B59" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>10000905</v>
-      </c>
-      <c r="B60" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>10000906</v>
-      </c>
-      <c r="B61" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>10000907</v>
-      </c>
-      <c r="B62" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>10000908</v>
-      </c>
-      <c r="B63" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>10000909</v>
-      </c>
-      <c r="B64" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>10000910</v>
-      </c>
-      <c r="B65" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>10000911</v>
-      </c>
-      <c r="B66" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>10000912</v>
-      </c>
-      <c r="B67" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>10000913</v>
-      </c>
-      <c r="B68" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>10000914</v>
-      </c>
-      <c r="B69" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>10000915</v>
-      </c>
-      <c r="B70" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(E39="[]","",VLOOKUP(E39,me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6689,7 +6277,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6707,29 +6295,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -6746,33 +6334,34 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1100002001</v>
+      <c r="A5" s="18" t="str">
+        <f>B5&amp;IF(COUNTIF(C5,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C5,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C5,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C5,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A5)-4,"00")</f>
+        <v>100006001</v>
       </c>
       <c r="B5" s="4">
         <v>100006</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="E5" s="15" t="str">
         <f>VLOOKUP(C5,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6780,17 +6369,18 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1100002002</v>
+      <c r="A6" s="18" t="str">
+        <f t="shared" ref="A6:A69" si="0">B6&amp;IF(COUNTIF(C6,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C6,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C6,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C6,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A6)-4,"00")</f>
+        <v>100006002</v>
       </c>
       <c r="B6" s="4">
         <v>100006</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="E6" s="15" t="str">
         <f>VLOOKUP(C6,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6798,17 +6388,18 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1100002003</v>
+      <c r="A7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006003</v>
       </c>
       <c r="B7" s="4">
         <v>100006</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="E7" s="15" t="str">
         <f>VLOOKUP(C7,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6816,17 +6407,18 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1100002004</v>
+      <c r="A8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006004</v>
       </c>
       <c r="B8" s="4">
         <v>100006</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="E8" s="15" t="str">
         <f>VLOOKUP(C8,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6834,17 +6426,18 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1100002005</v>
+      <c r="A9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006005</v>
       </c>
       <c r="B9" s="4">
         <v>100006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="E9" s="15" t="str">
         <f>VLOOKUP(C9,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6852,17 +6445,18 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1100002006</v>
+      <c r="A10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006006</v>
       </c>
       <c r="B10" s="4">
         <v>100006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="E10" s="15" t="str">
         <f>VLOOKUP(C10,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6870,17 +6464,18 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1100002007</v>
+      <c r="A11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006007</v>
       </c>
       <c r="B11" s="4">
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="E11" s="15" t="str">
         <f>VLOOKUP(C11,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6888,17 +6483,18 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1100002008</v>
+      <c r="A12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006008</v>
       </c>
       <c r="B12" s="4">
         <v>100006</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="E12" s="15" t="str">
         <f>VLOOKUP(C12,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6906,17 +6502,18 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1100002009</v>
+      <c r="A13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006009</v>
       </c>
       <c r="B13" s="4">
         <v>100006</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="E13" s="15" t="str">
         <f>VLOOKUP(C13,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6924,17 +6521,18 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1100002010</v>
+      <c r="A14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006010</v>
       </c>
       <c r="B14" s="4">
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="E14" s="15" t="str">
         <f>VLOOKUP(C14,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6942,17 +6540,18 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1100002011</v>
+      <c r="A15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006011</v>
       </c>
       <c r="B15" s="4">
         <v>100006</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="E15" s="15" t="str">
         <f>VLOOKUP(C15,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6960,17 +6559,18 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1100002012</v>
+      <c r="A16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006012</v>
       </c>
       <c r="B16" s="4">
         <v>100006</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="E16" s="15" t="str">
         <f>VLOOKUP(C16,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6978,17 +6578,18 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1100002013</v>
+      <c r="A17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006013</v>
       </c>
       <c r="B17" s="4">
         <v>100006</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>271</v>
+        <v>223</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="E17" s="15" t="str">
         <f>VLOOKUP(C17,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6996,17 +6597,18 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1100002014</v>
+      <c r="A18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006014</v>
       </c>
       <c r="B18" s="4">
         <v>100006</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>272</v>
+        <v>224</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="E18" s="15" t="str">
         <f>VLOOKUP(C18,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7014,17 +6616,18 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1100002015</v>
+      <c r="A19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006015</v>
       </c>
       <c r="B19" s="4">
         <v>100006</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="E19" s="15" t="str">
         <f>VLOOKUP(C19,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7032,17 +6635,18 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1100002016</v>
+      <c r="A20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006016</v>
       </c>
       <c r="B20" s="4">
         <v>100006</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="E20" s="15" t="str">
         <f>VLOOKUP(C20,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7050,17 +6654,18 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1100002017</v>
+      <c r="A21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006017</v>
       </c>
       <c r="B21" s="4">
         <v>100006</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="E21" s="15" t="str">
         <f>VLOOKUP(C21,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7068,17 +6673,18 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1100002018</v>
+      <c r="A22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006018</v>
       </c>
       <c r="B22" s="4">
         <v>100006</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="E22" s="15" t="str">
         <f>VLOOKUP(C22,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7086,17 +6692,18 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>1100002019</v>
+      <c r="A23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006019</v>
       </c>
       <c r="B23" s="4">
         <v>100006</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="E23" s="15" t="str">
         <f>VLOOKUP(C23,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7104,17 +6711,18 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>1100002020</v>
+      <c r="A24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006020</v>
       </c>
       <c r="B24" s="4">
         <v>100006</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="E24" s="15" t="str">
         <f>VLOOKUP(C24,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7122,17 +6730,18 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>1100002021</v>
+      <c r="A25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006021</v>
       </c>
       <c r="B25" s="4">
         <v>100006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="E25" s="15" t="str">
         <f>VLOOKUP(C25,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7140,17 +6749,18 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1100002022</v>
+      <c r="A26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006022</v>
       </c>
       <c r="B26" s="4">
         <v>100006</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="E26" s="15" t="str">
         <f>VLOOKUP(C26,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7158,17 +6768,18 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1100002023</v>
+      <c r="A27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006023</v>
       </c>
       <c r="B27" s="4">
         <v>100006</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="E27" s="15" t="str">
         <f>VLOOKUP(C27,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7176,17 +6787,18 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1100002024</v>
+      <c r="A28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006024</v>
       </c>
       <c r="B28" s="4">
         <v>100006</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="E28" s="15" t="str">
         <f>VLOOKUP(C28,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7194,17 +6806,18 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>1100002025</v>
+      <c r="A29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006025</v>
       </c>
       <c r="B29" s="4">
         <v>100006</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="E29" s="15" t="str">
         <f>VLOOKUP(C29,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7212,17 +6825,18 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1100002026</v>
+      <c r="A30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006026</v>
       </c>
       <c r="B30" s="4">
         <v>100006</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="E30" s="15" t="str">
         <f>VLOOKUP(C30,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7230,17 +6844,18 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1100002027</v>
+      <c r="A31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006027</v>
       </c>
       <c r="B31" s="4">
         <v>100006</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="E31" s="15" t="str">
         <f>VLOOKUP(C31,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7248,17 +6863,18 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1100002028</v>
+      <c r="A32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006028</v>
       </c>
       <c r="B32" s="4">
         <v>100006</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="E32" s="15" t="str">
         <f>VLOOKUP(C32,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7266,17 +6882,18 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1100002029</v>
+      <c r="A33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006029</v>
       </c>
       <c r="B33" s="4">
         <v>100006</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="E33" s="15" t="str">
         <f>VLOOKUP(C33,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7284,17 +6901,18 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1100002030</v>
+      <c r="A34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006030</v>
       </c>
       <c r="B34" s="4">
         <v>100006</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>359</v>
+        <v>311</v>
       </c>
       <c r="E34" s="15" t="str">
         <f>VLOOKUP(C34,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7302,17 +6920,18 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1100002031</v>
+      <c r="A35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006031</v>
       </c>
       <c r="B35" s="4">
         <v>100006</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>360</v>
+        <v>312</v>
       </c>
       <c r="E35" s="15" t="str">
         <f>VLOOKUP(C35,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7320,17 +6939,18 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1100002032</v>
+      <c r="A36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006032</v>
       </c>
       <c r="B36" s="4">
         <v>100006</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="E36" s="15" t="str">
         <f>VLOOKUP(C36,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7338,17 +6958,18 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1100002033</v>
+      <c r="A37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006033</v>
       </c>
       <c r="B37" s="4">
         <v>100006</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="E37" s="15" t="str">
         <f>VLOOKUP(C37,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7356,17 +6977,18 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1100002034</v>
+      <c r="A38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006034</v>
       </c>
       <c r="B38" s="4">
         <v>100006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="E38" s="15" t="str">
         <f>VLOOKUP(C38,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7374,17 +6996,18 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>1100002035</v>
+      <c r="A39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006035</v>
       </c>
       <c r="B39" s="4">
         <v>100006</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="E39" s="15" t="str">
         <f>VLOOKUP(C39,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7392,17 +7015,18 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>1100002036</v>
+      <c r="A40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006036</v>
       </c>
       <c r="B40" s="4">
         <v>100006</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="E40" s="15" t="str">
         <f>VLOOKUP(C40,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7410,17 +7034,18 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>1100002037</v>
+      <c r="A41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006037</v>
       </c>
       <c r="B41" s="4">
         <v>100006</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="E41" s="15" t="str">
         <f>VLOOKUP(C41,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7428,17 +7053,18 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>1100002038</v>
+      <c r="A42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006038</v>
       </c>
       <c r="B42" s="4">
         <v>100006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="E42" s="15" t="str">
         <f>VLOOKUP(C42,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7446,17 +7072,18 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>1100002039</v>
+      <c r="A43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006039</v>
       </c>
       <c r="B43" s="4">
         <v>100006</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="E43" s="15" t="str">
         <f>VLOOKUP(C43,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7464,17 +7091,18 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>1100002040</v>
+      <c r="A44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006040</v>
       </c>
       <c r="B44" s="4">
         <v>100006</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="E44" s="15" t="str">
         <f>VLOOKUP(C44,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7482,17 +7110,18 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>1100002041</v>
+      <c r="A45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006041</v>
       </c>
       <c r="B45" s="4">
         <v>100006</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="E45" s="15" t="str">
         <f>VLOOKUP(C45,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7500,17 +7129,18 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>1100002042</v>
+      <c r="A46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006042</v>
       </c>
       <c r="B46" s="4">
         <v>100006</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="E46" s="15" t="str">
         <f>VLOOKUP(C46,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7518,17 +7148,18 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>1100002043</v>
+      <c r="A47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006043</v>
       </c>
       <c r="B47" s="4">
         <v>100006</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="E47" s="15" t="str">
         <f>VLOOKUP(C47,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7536,17 +7167,18 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>1100002044</v>
+      <c r="A48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006044</v>
       </c>
       <c r="B48" s="4">
         <v>100006</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="E48" s="15" t="str">
         <f>VLOOKUP(C48,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7554,17 +7186,18 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>1100002045</v>
+      <c r="A49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006045</v>
       </c>
       <c r="B49" s="4">
         <v>100006</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="E49" s="15" t="str">
         <f>VLOOKUP(C49,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7572,17 +7205,18 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>1100002046</v>
+      <c r="A50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006046</v>
       </c>
       <c r="B50" s="4">
         <v>100006</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="E50" s="15" t="str">
         <f>VLOOKUP(C50,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7590,17 +7224,18 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>1100002047</v>
+      <c r="A51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006047</v>
       </c>
       <c r="B51" s="4">
         <v>100006</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="E51" s="15" t="str">
         <f>VLOOKUP(C51,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7608,17 +7243,18 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>100001001</v>
+      <c r="A52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006048</v>
       </c>
       <c r="B52" s="4">
         <v>100006</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="E52" s="15" t="str">
         <f>VLOOKUP(C52,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7626,17 +7262,18 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>100001002</v>
+      <c r="A53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006049</v>
       </c>
       <c r="B53" s="4">
         <v>100006</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="E53" s="15" t="str">
         <f>VLOOKUP(C53,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7644,17 +7281,18 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>100001003</v>
+      <c r="A54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006050</v>
       </c>
       <c r="B54" s="4">
         <v>100006</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="E54" s="15" t="str">
         <f>VLOOKUP(C54,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7662,17 +7300,18 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>100001004</v>
+      <c r="A55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006051</v>
       </c>
       <c r="B55" s="4">
         <v>100006</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="E55" s="15" t="str">
         <f>VLOOKUP(C55,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7680,17 +7319,18 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>100001005</v>
+      <c r="A56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006052</v>
       </c>
       <c r="B56" s="4">
         <v>100006</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="E56" s="15" t="str">
         <f>VLOOKUP(C56,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7698,17 +7338,18 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>100001006</v>
+      <c r="A57" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006053</v>
       </c>
       <c r="B57" s="4">
         <v>100006</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="E57" s="15" t="str">
         <f>VLOOKUP(C57,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7716,17 +7357,18 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>100001007</v>
+      <c r="A58" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006054</v>
       </c>
       <c r="B58" s="4">
         <v>100006</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="E58" s="15" t="str">
         <f>VLOOKUP(C58,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7734,17 +7376,18 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>100001008</v>
+      <c r="A59" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006055</v>
       </c>
       <c r="B59" s="4">
         <v>100006</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="E59" s="15" t="str">
         <f>VLOOKUP(C59,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7752,17 +7395,18 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>100001009</v>
+      <c r="A60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006056</v>
       </c>
       <c r="B60" s="4">
         <v>100006</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="E60" s="15" t="str">
         <f>VLOOKUP(C60,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7770,17 +7414,18 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>100001010</v>
+      <c r="A61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006057</v>
       </c>
       <c r="B61" s="4">
         <v>100006</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="E61" s="15" t="str">
         <f>VLOOKUP(C61,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7788,17 +7433,18 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>100001011</v>
+      <c r="A62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006058</v>
       </c>
       <c r="B62" s="4">
         <v>100006</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>387</v>
+        <v>339</v>
       </c>
       <c r="E62" s="15" t="str">
         <f>VLOOKUP(C62,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7806,17 +7452,18 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>100001012</v>
+      <c r="A63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006059</v>
       </c>
       <c r="B63" s="4">
         <v>100006</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>388</v>
+        <v>340</v>
       </c>
       <c r="E63" s="15" t="str">
         <f>VLOOKUP(C63,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7824,17 +7471,18 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>100001013</v>
+      <c r="A64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006060</v>
       </c>
       <c r="B64" s="4">
         <v>100006</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="E64" s="15" t="str">
         <f>VLOOKUP(C64,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7842,17 +7490,18 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>100001014</v>
+      <c r="A65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006061</v>
       </c>
       <c r="B65" s="4">
         <v>100006</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>390</v>
+        <v>342</v>
       </c>
       <c r="E65" s="15" t="str">
         <f>VLOOKUP(C65,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7860,17 +7509,18 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>100001015</v>
+      <c r="A66" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006062</v>
       </c>
       <c r="B66" s="4">
         <v>100006</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>391</v>
+        <v>343</v>
       </c>
       <c r="E66" s="15" t="str">
         <f>VLOOKUP(C66,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7878,17 +7528,18 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>100001016</v>
+      <c r="A67" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006063</v>
       </c>
       <c r="B67" s="4">
         <v>100006</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="E67" s="15" t="str">
         <f>VLOOKUP(C67,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7896,17 +7547,18 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>100001017</v>
+      <c r="A68" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006064</v>
       </c>
       <c r="B68" s="4">
         <v>100006</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>393</v>
+        <v>345</v>
       </c>
       <c r="E68" s="15" t="str">
         <f>VLOOKUP(C68,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7914,17 +7566,18 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>100001018</v>
+      <c r="A69" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006065</v>
       </c>
       <c r="B69" s="4">
         <v>100006</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>394</v>
+        <v>346</v>
       </c>
       <c r="E69" s="15" t="str">
         <f>VLOOKUP(C69,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7932,17 +7585,18 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>100001019</v>
+      <c r="A70" s="18" t="str">
+        <f t="shared" ref="A70:A75" si="1">B70&amp;IF(COUNTIF(C70,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C70,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C70,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C70,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A70)-4,"00")</f>
+        <v>100006066</v>
       </c>
       <c r="B70" s="4">
         <v>100006</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>395</v>
+        <v>347</v>
       </c>
       <c r="E70" s="15" t="str">
         <f>VLOOKUP(C70,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7950,17 +7604,18 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>100001020</v>
+      <c r="A71" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006067</v>
       </c>
       <c r="B71" s="4">
         <v>100006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>396</v>
+        <v>348</v>
       </c>
       <c r="E71" s="15" t="str">
         <f>VLOOKUP(C71,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7968,17 +7623,18 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>100001021</v>
+      <c r="A72" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006068</v>
       </c>
       <c r="B72" s="4">
         <v>100006</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="E72" s="15" t="str">
         <f>VLOOKUP(C72,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7986,17 +7642,18 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>100001022</v>
+      <c r="A73" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006069</v>
       </c>
       <c r="B73" s="4">
         <v>100006</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>398</v>
+        <v>350</v>
       </c>
       <c r="E73" s="15" t="str">
         <f>VLOOKUP(C73,[2]dialog!$B:$C,2,FALSE)</f>
@@ -8004,17 +7661,18 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>100001023</v>
+      <c r="A74" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006070</v>
       </c>
       <c r="B74" s="4">
         <v>100006</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="E74" s="15" t="str">
         <f>VLOOKUP(C74,[2]dialog!$B:$C,2,FALSE)</f>
@@ -8022,17 +7680,18 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>100001024</v>
+      <c r="A75" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006071</v>
       </c>
       <c r="B75" s="4">
         <v>100006</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="E75" s="15" t="str">
         <f>VLOOKUP(C75,[2]dialog!$B:$C,2,FALSE)</f>
@@ -8050,7 +7709,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8062,23 +7721,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -8089,13 +7748,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>410</v>
+        <v>362</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -8103,10 +7762,10 @@
         <v>10000601</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -8114,7 +7773,7 @@
         <v>10000602</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -8122,7 +7781,7 @@
         <v>10000603</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -8130,7 +7789,7 @@
         <v>10000604</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -8138,7 +7797,7 @@
         <v>10000605</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -8146,7 +7805,7 @@
         <v>10000606</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -8154,7 +7813,7 @@
         <v>10000607</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -8162,7 +7821,7 @@
         <v>10000608</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -8170,7 +7829,7 @@
         <v>10000609</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -8178,7 +7837,7 @@
         <v>10000610</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -8186,7 +7845,7 @@
         <v>10000611</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -8194,7 +7853,7 @@
         <v>10000612</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>411</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555276C2-BEC2-48F7-B2F9-699400EECD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1715DC45-D83A-4C79-9219-413F106F2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39180" yWindow="780" windowWidth="36135" windowHeight="19395" tabRatio="707" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39780" yWindow="780" windowWidth="36135" windowHeight="19395" tabRatio="707" activeTab="8" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
-    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$5</definedName>
+    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$37</definedName>
     <definedName name="me_serifu_data_id">me_serifu_data!$A$5:$A$67</definedName>
     <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
     <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="415">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_script_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_script_02_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_script_02_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_script_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>memorial_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +370,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_touch_horn_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_touch_mouth_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_touch_mouth_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_touch_breast_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_touch_breast_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_touch_breast_3</t>
+  </si>
+  <si>
     <t>script_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -406,6 +445,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_touch_horn_2</t>
+  </si>
+  <si>
     <t>serifu_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -422,6 +464,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[100001001, 100001002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001003, 100001004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001005, 100001006]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100001007, 100001008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ENUM:TOUCH_BODY_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -697,14 +755,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_bored_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002001, 1100002002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002003, 1100002004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>chat_motion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_react_breast_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_react_breast_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002007, 1100002008]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[1200002004, 1200002005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_bored_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_bored_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>01_drag_bra_L_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -713,13 +807,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[1100002012, 1100002013]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_bra_L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[1200002013, 1200002014]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_react_leg_04</t>
+  </si>
+  <si>
+    <t>[1100002014, 1100002015, 1100002017]</t>
+  </si>
+  <si>
+    <t>00_react_panty_02</t>
+  </si>
+  <si>
+    <t>[1100002007, 1100002012]</t>
+  </si>
+  <si>
     <t>01_drag_Leg_01</t>
   </si>
   <si>
+    <t>[1100002014, 1100002015]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002016, 1100002017, 1100002018]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21_bra_L_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>01_drag_panty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,6 +893,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>22_bra_R_off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>bored_chatmotion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -783,6 +917,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>00_return_panty_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_return_panty_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1100002019, 1100002020]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_nade_talk_03</t>
+  </si>
+  <si>
+    <t>1100002039, 1100002040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100002041, 1100002042</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100002043, 1100002045</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>actor_prefab_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -807,6 +980,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>01_return_leg_L_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_return_leg_L_02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_return_leg_L_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1524,73 +1709,13 @@
   <si>
     <t>아이디 형식은 캐릭터 아이디 + 타임라인 넘버링으로 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대사 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타임라인 테이블 참조</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>에일린_로비용 터치시 움찔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100006001</t>
-  </si>
-  <si>
-    <t>100006025</t>
-  </si>
-  <si>
-    <t>100006048</t>
-  </si>
-  <si>
-    <t>100006051</t>
-  </si>
-  <si>
-    <t>100006054</t>
-  </si>
-  <si>
-    <t>100006060</t>
-  </si>
-  <si>
-    <t>100006063</t>
-  </si>
-  <si>
-    <t>100006066</t>
-  </si>
-  <si>
-    <t>100006069</t>
-  </si>
-  <si>
-    <t>100006057</t>
-  </si>
-  <si>
-    <t>100006018</t>
-  </si>
-  <si>
-    <t>100006042</t>
-  </si>
-  <si>
-    <t>100006036</t>
-  </si>
-  <si>
-    <t>100006012</t>
-  </si>
-  <si>
-    <t>100006006</t>
-  </si>
-  <si>
-    <t>100006030</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1639,14 +1764,6 @@
       <color theme="8" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1730,7 +1847,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1782,12 +1899,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1828,7 +1939,6 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
-      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -1844,23 +1954,21 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
-      <sheetName val="@attribute_type"/>
-      <sheetName val="@res_type"/>
       <sheetName val="@item_type"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_BODY_TYPE</v>
@@ -1890,149 +1998,149 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>PART1</v>
+            <v>BODY</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>Part 1</v>
+            <v>1 몸체</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>PART2</v>
+            <v>BREAST</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>Part 2</v>
+            <v>2 가슴</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>PART3</v>
+            <v>HEAD</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>Part 3</v>
+            <v>3 머리</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>PART4</v>
+            <v>MOUTH</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>Part 4</v>
+            <v>4 입</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>PART5</v>
+            <v>PELVIS</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>Part 5</v>
+            <v>5 골반</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>PART6</v>
+            <v>LEG</v>
           </cell>
           <cell r="B10">
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>Part 6</v>
+            <v>6 다리</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>PART7</v>
+            <v>EYE</v>
           </cell>
           <cell r="B11">
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>Part 7</v>
+            <v>7 눈</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>PART8</v>
+            <v>NOSE</v>
           </cell>
           <cell r="B12">
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>Part 8</v>
+            <v>8 코</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>PART9</v>
+            <v>EAR</v>
           </cell>
           <cell r="B13">
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>Part 9</v>
+            <v>9 귀</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>PART10</v>
+            <v>CHEEK</v>
           </cell>
           <cell r="B14">
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>Part 10</v>
+            <v>10 볼</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>PART11</v>
+            <v>JAW</v>
           </cell>
           <cell r="B15">
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>Part 11</v>
+            <v>11 턱</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>PART12</v>
+            <v>BROW</v>
           </cell>
           <cell r="B16">
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>Part 12</v>
+            <v>12 이마</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>PART13</v>
+            <v>FACE</v>
           </cell>
           <cell r="B17">
             <v>13</v>
           </cell>
           <cell r="C17" t="str">
-            <v>Part 13</v>
+            <v>13 얼굴</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12">
+      <sheetData sheetId="12" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_GESTURE_TYPE</v>
@@ -2115,13 +2223,12 @@
           <cell r="C10"/>
         </row>
       </sheetData>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>INEQUALITY_TYPE</v>
@@ -2216,27 +2323,19 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3290,39 +3389,39 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -3453,7 +3552,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@touch_body_type'!$A5</f>
-        <v>PART1</v>
+        <v>BODY</v>
       </c>
       <c r="B4" s="4">
         <f>'[1]@touch_body_type'!$B5</f>
@@ -3461,7 +3560,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@touch_body_type'!$C5</f>
-        <v>Part 1</v>
+        <v>1 몸체</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A5</f>
@@ -3491,7 +3590,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@touch_body_type'!$A6</f>
-        <v>PART2</v>
+        <v>BREAST</v>
       </c>
       <c r="B5" s="4">
         <f>'[1]@touch_body_type'!$B6</f>
@@ -3499,7 +3598,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@touch_body_type'!$C6</f>
-        <v>Part 2</v>
+        <v>2 가슴</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A6</f>
@@ -3529,7 +3628,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@touch_body_type'!$A7</f>
-        <v>PART3</v>
+        <v>HEAD</v>
       </c>
       <c r="B6" s="4">
         <f>'[1]@touch_body_type'!$B7</f>
@@ -3537,7 +3636,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@touch_body_type'!$C7</f>
-        <v>Part 3</v>
+        <v>3 머리</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A7</f>
@@ -3567,7 +3666,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@touch_body_type'!$A8</f>
-        <v>PART4</v>
+        <v>MOUTH</v>
       </c>
       <c r="B7" s="4">
         <f>'[1]@touch_body_type'!$B8</f>
@@ -3575,7 +3674,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@touch_body_type'!$C8</f>
-        <v>Part 4</v>
+        <v>4 입</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A8</f>
@@ -3605,7 +3704,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@touch_body_type'!$A9</f>
-        <v>PART5</v>
+        <v>PELVIS</v>
       </c>
       <c r="B8" s="4">
         <f>'[1]@touch_body_type'!$B9</f>
@@ -3613,7 +3712,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@touch_body_type'!$C9</f>
-        <v>Part 5</v>
+        <v>5 골반</v>
       </c>
       <c r="E8" s="4">
         <f>'[1]@touch_gesture_type'!$A9</f>
@@ -3643,7 +3742,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@touch_body_type'!$A10</f>
-        <v>PART6</v>
+        <v>LEG</v>
       </c>
       <c r="B9" s="4">
         <f>'[1]@touch_body_type'!$B10</f>
@@ -3651,7 +3750,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@touch_body_type'!$C10</f>
-        <v>Part 6</v>
+        <v>6 다리</v>
       </c>
       <c r="E9" s="4">
         <f>'[1]@touch_gesture_type'!$A10</f>
@@ -3681,7 +3780,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@touch_body_type'!$A11</f>
-        <v>PART7</v>
+        <v>EYE</v>
       </c>
       <c r="B10" s="4">
         <f>'[1]@touch_body_type'!$B11</f>
@@ -3689,7 +3788,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@touch_body_type'!$C11</f>
-        <v>Part 7</v>
+        <v>7 눈</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3698,7 +3797,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@touch_body_type'!$A12</f>
-        <v>PART8</v>
+        <v>NOSE</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@touch_body_type'!$B12</f>
@@ -3706,7 +3805,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@touch_body_type'!$C12</f>
-        <v>Part 8</v>
+        <v>8 코</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3715,7 +3814,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@touch_body_type'!$A13</f>
-        <v>PART9</v>
+        <v>EAR</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@touch_body_type'!$B13</f>
@@ -3723,7 +3822,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@touch_body_type'!$C13</f>
-        <v>Part 9</v>
+        <v>9 귀</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3732,7 +3831,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@touch_body_type'!$A14</f>
-        <v>PART10</v>
+        <v>CHEEK</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@touch_body_type'!$B14</f>
@@ -3740,7 +3839,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@touch_body_type'!$C14</f>
-        <v>Part 10</v>
+        <v>10 볼</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3749,7 +3848,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@touch_body_type'!$A15</f>
-        <v>PART11</v>
+        <v>JAW</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@touch_body_type'!$B15</f>
@@ -3757,7 +3856,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@touch_body_type'!$C15</f>
-        <v>Part 11</v>
+        <v>11 턱</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3766,7 +3865,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@touch_body_type'!$A16</f>
-        <v>PART12</v>
+        <v>BROW</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@touch_body_type'!$B16</f>
@@ -3774,7 +3873,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@touch_body_type'!$C16</f>
-        <v>Part 12</v>
+        <v>12 이마</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3783,7 +3882,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@touch_body_type'!$A17</f>
-        <v>PART13</v>
+        <v>FACE</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@touch_body_type'!$B17</f>
@@ -3791,7 +3890,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@touch_body_type'!$C17</f>
-        <v>Part 13</v>
+        <v>13 얼굴</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3843,38 +3942,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3900,28 +3999,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -3932,16 +4031,16 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G5" s="4">
         <v>50000001</v>
@@ -3958,16 +4057,16 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G6" s="4">
         <v>50000001</v>
@@ -3984,16 +4083,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G7" s="4">
         <v>50000003</v>
@@ -4010,16 +4109,16 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4">
         <v>50000001</v>
@@ -4036,16 +4135,16 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G9" s="4">
         <v>50000001</v>
@@ -4062,16 +4161,16 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4">
         <v>50000001</v>
@@ -4088,16 +4187,16 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G11" s="4">
         <v>50000001</v>
@@ -4138,32 +4237,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4183,22 +4282,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4209,14 +4308,14 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4227,14 +4326,14 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4245,16 +4344,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4265,14 +4364,14 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4283,14 +4382,14 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4301,14 +4400,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4369,59 +4468,59 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4430,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -4439,7 +4538,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -4465,46 +4564,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4515,14 +4614,14 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E13" si="0">INDEX(touch_body_type_desc,MATCH(D5,touch_body_type,0))</f>
-        <v>Part 2</v>
+        <v>2 가슴</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
@@ -4540,7 +4639,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -4555,14 +4654,14 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 2</v>
+        <v>2 가슴</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
@@ -4597,14 +4696,14 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 2</v>
+        <v>2 가슴</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
@@ -4635,17 +4734,17 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 8</v>
+        <v>8 코</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -4657,7 +4756,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -4675,17 +4774,17 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 8</v>
+        <v>8 코</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -4697,7 +4796,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -4715,14 +4814,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 6</v>
+        <v>6 다리</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -4739,13 +4838,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -4757,14 +4856,14 @@
         <v>100002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 6</v>
+        <v>6 다리</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -4781,13 +4880,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="N11" s="4"/>
     </row>
@@ -4799,14 +4898,14 @@
         <v>100002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 6</v>
+        <v>6 다리</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
@@ -4823,13 +4922,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="N12" s="4"/>
     </row>
@@ -4841,14 +4940,14 @@
         <v>100002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>Part 9</v>
+        <v>9 귀</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -4861,7 +4960,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="L13" s="4">
         <v>1200002012</v>
@@ -4879,14 +4978,14 @@
         <v>100002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ref="E14" si="2">INDEX(touch_body_type_desc,MATCH(D14,touch_body_type,0))</f>
-        <v>Part 2</v>
+        <v>2 가슴</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
@@ -4900,10 +4999,10 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -4915,17 +5014,17 @@
         <v>100002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ref="E15" si="4">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
-        <v>Part 8</v>
+        <v>8 코</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
@@ -4937,7 +5036,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -4957,17 +5056,17 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ref="E16:E26" si="6">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
-        <v>Part 8</v>
+        <v>8 코</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -4979,13 +5078,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -4997,14 +5096,14 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 9</v>
+        <v>9 귀</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -5017,7 +5116,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="L17" s="4">
         <v>1200002018</v>
@@ -5037,14 +5136,14 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D18" s="4">
         <v>9</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 9</v>
+        <v>9 귀</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
@@ -5057,7 +5156,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="L18" s="4">
         <v>1200002017</v>
@@ -5075,14 +5174,14 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 3</v>
+        <v>3 머리</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
@@ -5096,7 +5195,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="M19" s="4">
         <v>50000006</v>
@@ -5111,14 +5210,14 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 3</v>
+        <v>3 머리</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
@@ -5132,7 +5231,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="M20" s="4">
         <v>50000006</v>
@@ -5147,14 +5246,14 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 6</v>
+        <v>6 다리</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
@@ -5168,7 +5267,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="M21" s="4">
         <v>50000006</v>
@@ -5183,14 +5282,14 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 6</v>
+        <v>6 다리</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
@@ -5204,7 +5303,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="M22" s="4">
         <v>50000006</v>
@@ -5219,14 +5318,14 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 6</v>
+        <v>6 다리</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
@@ -5240,7 +5339,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="M23" s="4">
         <v>50000006</v>
@@ -5255,14 +5354,14 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 3</v>
+        <v>3 머리</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
@@ -5295,14 +5394,14 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 3</v>
+        <v>3 머리</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
@@ -5335,14 +5434,14 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>Part 3</v>
+        <v>3 머리</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
@@ -5444,20 +5543,19 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.125" customWidth="1"/>
-    <col min="5" max="5" width="15.125" customWidth="1"/>
-    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="40.125" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
     <col min="7" max="7" width="105.5" customWidth="1"/>
     <col min="8" max="8" width="105.625" customWidth="1"/>
     <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
@@ -5466,34 +5564,31 @@
     <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -5507,764 +5602,1047 @@
       <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>200001001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>200001002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>200001003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>200001004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>1200001001</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="4">
+        <v>1100001001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1200001002</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4">
+        <v>1100001002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1200001003</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="4">
+        <v>1100001003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1200001004</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="4">
+        <v>1100001004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1200001005</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="4">
+        <v>1100001005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1200001006</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="4">
+        <v>1100001006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1200001007</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100001</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="4">
+        <v>1100001007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1200002001</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1200002002</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1200002003</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>1200002004</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="4">
+        <v>1100002005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>1200002005</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="4">
+        <v>1100002006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1200002006</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1200002007</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="4">
+        <v>1100002009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>1200002008</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="4">
+        <v>1100002010</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>1200002009</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>1200002010</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>1200002011</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>1200002012</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>1200002013</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>100006001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>1200002014</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>1200002015</v>
+      </c>
+      <c r="B30" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>1200002016</v>
+      </c>
+      <c r="B31" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1200002017</v>
+      </c>
+      <c r="B32" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>1200002018</v>
+      </c>
+      <c r="B33" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="4">
+        <v>1100002029</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1200002019</v>
+      </c>
+      <c r="B34" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>1200002020</v>
+      </c>
+      <c r="B35" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>1200002021</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>10000001</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>10000002</v>
+      </c>
+      <c r="B38" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>10000003</v>
+      </c>
+      <c r="B39" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>10000011</v>
+      </c>
+      <c r="B40" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1100002011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>10000012</v>
+      </c>
+      <c r="B41" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1100002007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>10000021</v>
+      </c>
+      <c r="B42" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1100002014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>10000022</v>
+      </c>
+      <c r="B43" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1100002017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>10000111</v>
+      </c>
+      <c r="B44" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1100002011</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>10000112</v>
+      </c>
+      <c r="B45" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1100002007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>10000113</v>
+      </c>
+      <c r="B46" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1100002014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>10000114</v>
+      </c>
+      <c r="B47" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1100002017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>10000211</v>
+      </c>
+      <c r="B48" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1100002011</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>10000212</v>
+      </c>
+      <c r="B49" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1100002007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>10000221</v>
+      </c>
+      <c r="B50" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1100002014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>10000222</v>
+      </c>
+      <c r="B51" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1100002017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
+        <v>10000311</v>
+      </c>
+      <c r="B52" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1100002011</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>10000312</v>
+      </c>
+      <c r="B53" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1100002007</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
+        <v>10000313</v>
+      </c>
+      <c r="B54" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1100002014</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>10000314</v>
+      </c>
+      <c r="B55" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1100002017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
+        <v>10000901</v>
+      </c>
+      <c r="B56" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" t="str">
-        <f>IF(E5="[]","",VLOOKUP(E5,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>100006002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F6" t="str">
-        <f>IF(E6="[]","",VLOOKUP(E6,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>100006003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" t="str">
-        <f>IF(E7="[]","",VLOOKUP(E7,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>100006004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F8" t="str">
-        <f>IF(E8="[]","",VLOOKUP(E8,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>100006005</v>
-      </c>
-      <c r="B9" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F9" t="str">
-        <f>IF(E9="[]","",VLOOKUP(E9,me_serifu_data!A:E,5,FALSE))</f>
-        <v>머리 헝클어지잖아~</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>100006006</v>
-      </c>
-      <c r="B10" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="F10" t="str">
-        <f>IF(E10="[]","",VLOOKUP(E10,me_serifu_data!A:E,5,FALSE))</f>
-        <v>좋다아….</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>100006007</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="F11" t="str">
-        <f>IF(E11="[]","",VLOOKUP(E11,me_serifu_data!A:E,5,FALSE))</f>
-        <v>머리 안 헝클어지게 해~</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>100006008</v>
-      </c>
-      <c r="B12" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="F12" t="str">
-        <f>IF(E12="[]","",VLOOKUP(E12,me_serifu_data!A:E,5,FALSE))</f>
-        <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>100006009</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="F13" t="str">
-        <f>IF(E13="[]","",VLOOKUP(E13,me_serifu_data!A:E,5,FALSE))</f>
-        <v>그렇게 분위기 잡기야?</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>100006010</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="F14" t="str">
-        <f>IF(E14="[]","",VLOOKUP(E14,me_serifu_data!A:E,5,FALSE))</f>
-        <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>100006011</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="F15" t="str">
-        <f>IF(E15="[]","",VLOOKUP(E15,me_serifu_data!A:E,5,FALSE))</f>
-        <v>뭐, 뭐하게?! 아….</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>100006012</v>
-      </c>
-      <c r="B16" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F16" t="str">
-        <f>IF(E16="[]","",VLOOKUP(E16,me_serifu_data!A:E,5,FALSE))</f>
-        <v>(또 이렇게 말없이 보네.)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>100006013</v>
-      </c>
-      <c r="B17" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="F17" t="str">
-        <f>IF(E17="[]","",VLOOKUP(E17,me_serifu_data!A:E,5,FALSE))</f>
-        <v>…제대로 찾고 있는 거 맞지?</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>100006014</v>
-      </c>
-      <c r="B18" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="F18" t="str">
-        <f>IF(E18="[]","",VLOOKUP(E18,me_serifu_data!A:E,5,FALSE))</f>
-        <v>(웃음)이게 그렇게 좋아?</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>100006015</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F19" t="str">
-        <f>IF(E19="[]","",VLOOKUP(E19,me_serifu_data!A:E,5,FALSE))</f>
-        <v>가슴은 좀 부끄러운데….</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>100006016</v>
-      </c>
-      <c r="B20" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="F20" t="str">
-        <f>IF(E20="[]","",VLOOKUP(E20,me_serifu_data!A:E,5,FALSE))</f>
-        <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>100006017</v>
-      </c>
-      <c r="B21" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="F21" t="str">
-        <f>IF(E21="[]","",VLOOKUP(E21,me_serifu_data!A:E,5,FALSE))</f>
-        <v>뭐, 뭐하는 거야!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>100006018</v>
-      </c>
-      <c r="B22" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="F22" t="str">
-        <f>IF(E22="[]","",VLOOKUP(E22,me_serifu_data!A:E,5,FALSE))</f>
-        <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>100006019</v>
-      </c>
-      <c r="B23" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="F23" t="str">
-        <f>IF(E23="[]","",VLOOKUP(E23,me_serifu_data!A:E,5,FALSE))</f>
-        <v>자, 잠깐만! 역시 거기는 조금…!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>100006020</v>
-      </c>
-      <c r="B24" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="D56" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
+        <v>10000902</v>
+      </c>
+      <c r="B57" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="F24" t="str">
-        <f>IF(E24="[]","",VLOOKUP(E24,me_serifu_data!A:E,5,FALSE))</f>
-        <v>(무드라도 좀 맞춰주든가.)</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>100006021</v>
-      </c>
-      <c r="B25" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D25" s="11" t="s">
+      <c r="D57" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
+        <v>10000903</v>
+      </c>
+      <c r="B58" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="str">
-        <f>IF(E25="[]","",VLOOKUP(E25,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>100006022</v>
-      </c>
-      <c r="B26" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="D58" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
+        <v>10000904</v>
+      </c>
+      <c r="B59" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F26" t="str">
-        <f>IF(E26="[]","",VLOOKUP(E26,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>100006023</v>
-      </c>
-      <c r="B27" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D27" s="11" t="s">
+      <c r="D59" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
+        <v>10000905</v>
+      </c>
+      <c r="B60" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" t="str">
-        <f>IF(E27="[]","",VLOOKUP(E27,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>100006024</v>
-      </c>
-      <c r="B28" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="11" t="s">
+      <c r="D60" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
+        <v>10000906</v>
+      </c>
+      <c r="B61" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F28" t="str">
-        <f>IF(E28="[]","",VLOOKUP(E28,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>100006025</v>
-      </c>
-      <c r="B29" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="11" t="s">
+      <c r="D61" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>10000907</v>
+      </c>
+      <c r="B62" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" t="str">
-        <f>IF(E29="[]","",VLOOKUP(E29,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>100006026</v>
-      </c>
-      <c r="B30" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="11" t="s">
+      <c r="D62" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
+        <v>10000908</v>
+      </c>
+      <c r="B63" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" t="str">
-        <f>IF(E30="[]","",VLOOKUP(E30,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>100006027</v>
-      </c>
-      <c r="B31" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="11" t="s">
+      <c r="D63" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>10000909</v>
+      </c>
+      <c r="B64" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" t="str">
-        <f>IF(E31="[]","",VLOOKUP(E31,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>100006028</v>
-      </c>
-      <c r="B32" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="11" t="s">
+      <c r="D64" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
+        <v>10000910</v>
+      </c>
+      <c r="B65" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F32" t="str">
-        <f>IF(E32="[]","",VLOOKUP(E32,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>100006029</v>
-      </c>
-      <c r="B33" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" s="11" t="s">
+      <c r="D65" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
+        <v>10000911</v>
+      </c>
+      <c r="B66" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F33" t="str">
-        <f>IF(E33="[]","",VLOOKUP(E33,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>100006030</v>
-      </c>
-      <c r="B34" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" s="11" t="s">
+      <c r="D66" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
+        <v>10000912</v>
+      </c>
+      <c r="B67" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F34" t="str">
-        <f>IF(E34="[]","",VLOOKUP(E34,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>100006031</v>
-      </c>
-      <c r="B35" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="11" t="s">
+      <c r="D67" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>10000913</v>
+      </c>
+      <c r="B68" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F35" t="str">
-        <f>IF(E35="[]","",VLOOKUP(E35,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>100006032</v>
-      </c>
-      <c r="B36" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="11" t="s">
+      <c r="D68" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
+        <v>10000914</v>
+      </c>
+      <c r="B69" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" t="str">
-        <f>IF(E36="[]","",VLOOKUP(E36,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>100006033</v>
-      </c>
-      <c r="B37" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" s="11" t="s">
+      <c r="D69" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
+        <v>10000915</v>
+      </c>
+      <c r="B70" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" t="str">
-        <f>IF(E37="[]","",VLOOKUP(E37,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>100006034</v>
-      </c>
-      <c r="B38" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F38" t="str">
-        <f>IF(E38="[]","",VLOOKUP(E38,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>100006035</v>
-      </c>
-      <c r="B39" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F39" t="str">
-        <f>IF(E39="[]","",VLOOKUP(E39,me_serifu_data!A:E,5,FALSE))</f>
-        <v/>
-      </c>
+      <c r="D70" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6277,7 +6655,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6295,29 +6673,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -6334,34 +6712,33 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="str">
-        <f>B5&amp;IF(COUNTIF(C5,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C5,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C5,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C5,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A5)-4,"00")</f>
-        <v>100006001</v>
+      <c r="A5" s="4">
+        <v>1100002001</v>
       </c>
       <c r="B5" s="4">
         <v>100006</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>211</v>
+        <v>259</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="E5" s="15" t="str">
         <f>VLOOKUP(C5,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6369,18 +6746,17 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="str">
-        <f t="shared" ref="A6:A69" si="0">B6&amp;IF(COUNTIF(C6,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C6,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C6,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C6,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A6)-4,"00")</f>
-        <v>100006002</v>
+      <c r="A6" s="4">
+        <v>1100002002</v>
       </c>
       <c r="B6" s="4">
         <v>100006</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>212</v>
+        <v>260</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="E6" s="15" t="str">
         <f>VLOOKUP(C6,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6388,18 +6764,17 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006003</v>
+      <c r="A7" s="4">
+        <v>1100002003</v>
       </c>
       <c r="B7" s="4">
         <v>100006</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="E7" s="15" t="str">
         <f>VLOOKUP(C7,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6407,18 +6782,17 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006004</v>
+      <c r="A8" s="4">
+        <v>1100002004</v>
       </c>
       <c r="B8" s="4">
         <v>100006</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>214</v>
+        <v>262</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="E8" s="15" t="str">
         <f>VLOOKUP(C8,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6426,18 +6800,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006005</v>
+      <c r="A9" s="4">
+        <v>1100002005</v>
       </c>
       <c r="B9" s="4">
         <v>100006</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="E9" s="15" t="str">
         <f>VLOOKUP(C9,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6445,18 +6818,17 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006006</v>
+      <c r="A10" s="4">
+        <v>1100002006</v>
       </c>
       <c r="B10" s="4">
         <v>100006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="E10" s="15" t="str">
         <f>VLOOKUP(C10,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6464,18 +6836,17 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006007</v>
+      <c r="A11" s="4">
+        <v>1100002007</v>
       </c>
       <c r="B11" s="4">
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>288</v>
+        <v>336</v>
       </c>
       <c r="E11" s="15" t="str">
         <f>VLOOKUP(C11,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6483,18 +6854,17 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006008</v>
+      <c r="A12" s="4">
+        <v>1100002008</v>
       </c>
       <c r="B12" s="4">
         <v>100006</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>289</v>
+        <v>337</v>
       </c>
       <c r="E12" s="15" t="str">
         <f>VLOOKUP(C12,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6502,18 +6872,17 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006009</v>
+      <c r="A13" s="4">
+        <v>1100002009</v>
       </c>
       <c r="B13" s="4">
         <v>100006</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>290</v>
+        <v>338</v>
       </c>
       <c r="E13" s="15" t="str">
         <f>VLOOKUP(C13,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6521,18 +6890,17 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006010</v>
+      <c r="A14" s="4">
+        <v>1100002010</v>
       </c>
       <c r="B14" s="4">
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="E14" s="15" t="str">
         <f>VLOOKUP(C14,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6540,18 +6908,17 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006011</v>
+      <c r="A15" s="4">
+        <v>1100002011</v>
       </c>
       <c r="B15" s="4">
         <v>100006</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="E15" s="15" t="str">
         <f>VLOOKUP(C15,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6559,18 +6926,17 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006012</v>
+      <c r="A16" s="4">
+        <v>1100002012</v>
       </c>
       <c r="B16" s="4">
         <v>100006</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="E16" s="15" t="str">
         <f>VLOOKUP(C16,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6578,18 +6944,17 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006013</v>
+      <c r="A17" s="4">
+        <v>1100002013</v>
       </c>
       <c r="B17" s="4">
         <v>100006</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>294</v>
+        <v>342</v>
       </c>
       <c r="E17" s="15" t="str">
         <f>VLOOKUP(C17,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6597,18 +6962,17 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006014</v>
+      <c r="A18" s="4">
+        <v>1100002014</v>
       </c>
       <c r="B18" s="4">
         <v>100006</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>295</v>
+        <v>343</v>
       </c>
       <c r="E18" s="15" t="str">
         <f>VLOOKUP(C18,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6616,18 +6980,17 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006015</v>
+      <c r="A19" s="4">
+        <v>1100002015</v>
       </c>
       <c r="B19" s="4">
         <v>100006</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="E19" s="15" t="str">
         <f>VLOOKUP(C19,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6635,18 +6998,17 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006016</v>
+      <c r="A20" s="4">
+        <v>1100002016</v>
       </c>
       <c r="B20" s="4">
         <v>100006</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="E20" s="15" t="str">
         <f>VLOOKUP(C20,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6654,18 +7016,17 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006017</v>
+      <c r="A21" s="4">
+        <v>1100002017</v>
       </c>
       <c r="B21" s="4">
         <v>100006</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>298</v>
+        <v>346</v>
       </c>
       <c r="E21" s="15" t="str">
         <f>VLOOKUP(C21,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6673,18 +7034,17 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006018</v>
+      <c r="A22" s="4">
+        <v>1100002018</v>
       </c>
       <c r="B22" s="4">
         <v>100006</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="E22" s="15" t="str">
         <f>VLOOKUP(C22,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6692,18 +7052,17 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006019</v>
+      <c r="A23" s="4">
+        <v>1100002019</v>
       </c>
       <c r="B23" s="4">
         <v>100006</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>300</v>
+        <v>348</v>
       </c>
       <c r="E23" s="15" t="str">
         <f>VLOOKUP(C23,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6711,18 +7070,17 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006020</v>
+      <c r="A24" s="4">
+        <v>1100002020</v>
       </c>
       <c r="B24" s="4">
         <v>100006</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>230</v>
+        <v>278</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>301</v>
+        <v>349</v>
       </c>
       <c r="E24" s="15" t="str">
         <f>VLOOKUP(C24,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6730,18 +7088,17 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006021</v>
+      <c r="A25" s="4">
+        <v>1100002021</v>
       </c>
       <c r="B25" s="4">
         <v>100006</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="E25" s="15" t="str">
         <f>VLOOKUP(C25,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6749,18 +7106,17 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006022</v>
+      <c r="A26" s="4">
+        <v>1100002022</v>
       </c>
       <c r="B26" s="4">
         <v>100006</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>303</v>
+        <v>351</v>
       </c>
       <c r="E26" s="15" t="str">
         <f>VLOOKUP(C26,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6768,18 +7124,17 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006023</v>
+      <c r="A27" s="4">
+        <v>1100002023</v>
       </c>
       <c r="B27" s="4">
         <v>100006</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>304</v>
+        <v>352</v>
       </c>
       <c r="E27" s="15" t="str">
         <f>VLOOKUP(C27,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6787,18 +7142,17 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006024</v>
+      <c r="A28" s="4">
+        <v>1100002024</v>
       </c>
       <c r="B28" s="4">
         <v>100006</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>305</v>
+        <v>353</v>
       </c>
       <c r="E28" s="15" t="str">
         <f>VLOOKUP(C28,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6806,18 +7160,17 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006025</v>
+      <c r="A29" s="4">
+        <v>1100002025</v>
       </c>
       <c r="B29" s="4">
         <v>100006</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="E29" s="15" t="str">
         <f>VLOOKUP(C29,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6825,18 +7178,17 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006026</v>
+      <c r="A30" s="4">
+        <v>1100002026</v>
       </c>
       <c r="B30" s="4">
         <v>100006</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>307</v>
+        <v>355</v>
       </c>
       <c r="E30" s="15" t="str">
         <f>VLOOKUP(C30,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6844,18 +7196,17 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006027</v>
+      <c r="A31" s="4">
+        <v>1100002027</v>
       </c>
       <c r="B31" s="4">
         <v>100006</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>308</v>
+        <v>356</v>
       </c>
       <c r="E31" s="15" t="str">
         <f>VLOOKUP(C31,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6863,18 +7214,17 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006028</v>
+      <c r="A32" s="4">
+        <v>1100002028</v>
       </c>
       <c r="B32" s="4">
         <v>100006</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="E32" s="15" t="str">
         <f>VLOOKUP(C32,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6882,18 +7232,17 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006029</v>
+      <c r="A33" s="4">
+        <v>1100002029</v>
       </c>
       <c r="B33" s="4">
         <v>100006</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>239</v>
+        <v>287</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>310</v>
+        <v>358</v>
       </c>
       <c r="E33" s="15" t="str">
         <f>VLOOKUP(C33,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6901,18 +7250,17 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006030</v>
+      <c r="A34" s="4">
+        <v>1100002030</v>
       </c>
       <c r="B34" s="4">
         <v>100006</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>311</v>
+        <v>359</v>
       </c>
       <c r="E34" s="15" t="str">
         <f>VLOOKUP(C34,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6920,18 +7268,17 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006031</v>
+      <c r="A35" s="4">
+        <v>1100002031</v>
       </c>
       <c r="B35" s="4">
         <v>100006</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>312</v>
+        <v>360</v>
       </c>
       <c r="E35" s="15" t="str">
         <f>VLOOKUP(C35,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6939,18 +7286,17 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006032</v>
+      <c r="A36" s="4">
+        <v>1100002032</v>
       </c>
       <c r="B36" s="4">
         <v>100006</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="E36" s="15" t="str">
         <f>VLOOKUP(C36,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6958,18 +7304,17 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006033</v>
+      <c r="A37" s="4">
+        <v>1100002033</v>
       </c>
       <c r="B37" s="4">
         <v>100006</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>243</v>
+        <v>291</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>314</v>
+        <v>362</v>
       </c>
       <c r="E37" s="15" t="str">
         <f>VLOOKUP(C37,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6977,18 +7322,17 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006034</v>
+      <c r="A38" s="4">
+        <v>1100002034</v>
       </c>
       <c r="B38" s="4">
         <v>100006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>315</v>
+        <v>363</v>
       </c>
       <c r="E38" s="15" t="str">
         <f>VLOOKUP(C38,[2]dialog!$B:$C,2,FALSE)</f>
@@ -6996,18 +7340,17 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006035</v>
+      <c r="A39" s="4">
+        <v>1100002035</v>
       </c>
       <c r="B39" s="4">
         <v>100006</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>245</v>
+        <v>293</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>316</v>
+        <v>364</v>
       </c>
       <c r="E39" s="15" t="str">
         <f>VLOOKUP(C39,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7015,18 +7358,17 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006036</v>
+      <c r="A40" s="4">
+        <v>1100002036</v>
       </c>
       <c r="B40" s="4">
         <v>100006</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>246</v>
+        <v>294</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>317</v>
+        <v>365</v>
       </c>
       <c r="E40" s="15" t="str">
         <f>VLOOKUP(C40,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7034,18 +7376,17 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006037</v>
+      <c r="A41" s="4">
+        <v>1100002037</v>
       </c>
       <c r="B41" s="4">
         <v>100006</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>318</v>
+        <v>366</v>
       </c>
       <c r="E41" s="15" t="str">
         <f>VLOOKUP(C41,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7053,18 +7394,17 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006038</v>
+      <c r="A42" s="4">
+        <v>1100002038</v>
       </c>
       <c r="B42" s="4">
         <v>100006</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>319</v>
+        <v>367</v>
       </c>
       <c r="E42" s="15" t="str">
         <f>VLOOKUP(C42,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7072,18 +7412,17 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006039</v>
+      <c r="A43" s="4">
+        <v>1100002039</v>
       </c>
       <c r="B43" s="4">
         <v>100006</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>249</v>
+        <v>297</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="E43" s="15" t="str">
         <f>VLOOKUP(C43,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7091,18 +7430,17 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006040</v>
+      <c r="A44" s="4">
+        <v>1100002040</v>
       </c>
       <c r="B44" s="4">
         <v>100006</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="E44" s="15" t="str">
         <f>VLOOKUP(C44,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7110,18 +7448,17 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006041</v>
+      <c r="A45" s="4">
+        <v>1100002041</v>
       </c>
       <c r="B45" s="4">
         <v>100006</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>251</v>
+        <v>299</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="E45" s="15" t="str">
         <f>VLOOKUP(C45,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7129,18 +7466,17 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006042</v>
+      <c r="A46" s="4">
+        <v>1100002042</v>
       </c>
       <c r="B46" s="4">
         <v>100006</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="E46" s="15" t="str">
         <f>VLOOKUP(C46,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7148,18 +7484,17 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006043</v>
+      <c r="A47" s="4">
+        <v>1100002043</v>
       </c>
       <c r="B47" s="4">
         <v>100006</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="E47" s="15" t="str">
         <f>VLOOKUP(C47,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7167,18 +7502,17 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006044</v>
+      <c r="A48" s="4">
+        <v>1100002044</v>
       </c>
       <c r="B48" s="4">
         <v>100006</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>325</v>
+        <v>373</v>
       </c>
       <c r="E48" s="15" t="str">
         <f>VLOOKUP(C48,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7186,18 +7520,17 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006045</v>
+      <c r="A49" s="4">
+        <v>1100002045</v>
       </c>
       <c r="B49" s="4">
         <v>100006</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>326</v>
+        <v>374</v>
       </c>
       <c r="E49" s="15" t="str">
         <f>VLOOKUP(C49,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7205,18 +7538,17 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006046</v>
+      <c r="A50" s="4">
+        <v>1100002046</v>
       </c>
       <c r="B50" s="4">
         <v>100006</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>256</v>
+        <v>304</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>327</v>
+        <v>375</v>
       </c>
       <c r="E50" s="15" t="str">
         <f>VLOOKUP(C50,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7224,18 +7556,17 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006047</v>
+      <c r="A51" s="4">
+        <v>1100002047</v>
       </c>
       <c r="B51" s="4">
         <v>100006</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>328</v>
+        <v>376</v>
       </c>
       <c r="E51" s="15" t="str">
         <f>VLOOKUP(C51,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7243,18 +7574,17 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006048</v>
+      <c r="A52" s="4">
+        <v>100001001</v>
       </c>
       <c r="B52" s="4">
         <v>100006</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>258</v>
+        <v>306</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>329</v>
+        <v>377</v>
       </c>
       <c r="E52" s="15" t="str">
         <f>VLOOKUP(C52,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7262,18 +7592,17 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006049</v>
+      <c r="A53" s="4">
+        <v>100001002</v>
       </c>
       <c r="B53" s="4">
         <v>100006</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="E53" s="15" t="str">
         <f>VLOOKUP(C53,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7281,18 +7610,17 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006050</v>
+      <c r="A54" s="4">
+        <v>100001003</v>
       </c>
       <c r="B54" s="4">
         <v>100006</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="E54" s="15" t="str">
         <f>VLOOKUP(C54,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7300,18 +7628,17 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006051</v>
+      <c r="A55" s="4">
+        <v>100001004</v>
       </c>
       <c r="B55" s="4">
         <v>100006</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
       <c r="E55" s="15" t="str">
         <f>VLOOKUP(C55,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7319,18 +7646,17 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006052</v>
+      <c r="A56" s="4">
+        <v>100001005</v>
       </c>
       <c r="B56" s="4">
         <v>100006</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>333</v>
+        <v>381</v>
       </c>
       <c r="E56" s="15" t="str">
         <f>VLOOKUP(C56,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7338,18 +7664,17 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006053</v>
+      <c r="A57" s="4">
+        <v>100001006</v>
       </c>
       <c r="B57" s="4">
         <v>100006</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>334</v>
+        <v>382</v>
       </c>
       <c r="E57" s="15" t="str">
         <f>VLOOKUP(C57,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7357,18 +7682,17 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006054</v>
+      <c r="A58" s="4">
+        <v>100001007</v>
       </c>
       <c r="B58" s="4">
         <v>100006</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>335</v>
+        <v>383</v>
       </c>
       <c r="E58" s="15" t="str">
         <f>VLOOKUP(C58,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7376,18 +7700,17 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006055</v>
+      <c r="A59" s="4">
+        <v>100001008</v>
       </c>
       <c r="B59" s="4">
         <v>100006</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>336</v>
+        <v>384</v>
       </c>
       <c r="E59" s="15" t="str">
         <f>VLOOKUP(C59,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7395,18 +7718,17 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006056</v>
+      <c r="A60" s="4">
+        <v>100001009</v>
       </c>
       <c r="B60" s="4">
         <v>100006</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>337</v>
+        <v>385</v>
       </c>
       <c r="E60" s="15" t="str">
         <f>VLOOKUP(C60,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7414,18 +7736,17 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006057</v>
+      <c r="A61" s="4">
+        <v>100001010</v>
       </c>
       <c r="B61" s="4">
         <v>100006</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>338</v>
+        <v>386</v>
       </c>
       <c r="E61" s="15" t="str">
         <f>VLOOKUP(C61,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7433,18 +7754,17 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006058</v>
+      <c r="A62" s="4">
+        <v>100001011</v>
       </c>
       <c r="B62" s="4">
         <v>100006</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="E62" s="15" t="str">
         <f>VLOOKUP(C62,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7452,18 +7772,17 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006059</v>
+      <c r="A63" s="4">
+        <v>100001012</v>
       </c>
       <c r="B63" s="4">
         <v>100006</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>340</v>
+        <v>388</v>
       </c>
       <c r="E63" s="15" t="str">
         <f>VLOOKUP(C63,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7471,18 +7790,17 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006060</v>
+      <c r="A64" s="4">
+        <v>100001013</v>
       </c>
       <c r="B64" s="4">
         <v>100006</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>341</v>
+        <v>389</v>
       </c>
       <c r="E64" s="15" t="str">
         <f>VLOOKUP(C64,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7490,18 +7808,17 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006061</v>
+      <c r="A65" s="4">
+        <v>100001014</v>
       </c>
       <c r="B65" s="4">
         <v>100006</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="E65" s="15" t="str">
         <f>VLOOKUP(C65,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7509,18 +7826,17 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006062</v>
+      <c r="A66" s="4">
+        <v>100001015</v>
       </c>
       <c r="B66" s="4">
         <v>100006</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>343</v>
+        <v>391</v>
       </c>
       <c r="E66" s="15" t="str">
         <f>VLOOKUP(C66,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7528,18 +7844,17 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006063</v>
+      <c r="A67" s="4">
+        <v>100001016</v>
       </c>
       <c r="B67" s="4">
         <v>100006</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>344</v>
+        <v>392</v>
       </c>
       <c r="E67" s="15" t="str">
         <f>VLOOKUP(C67,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7547,18 +7862,17 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006064</v>
+      <c r="A68" s="4">
+        <v>100001017</v>
       </c>
       <c r="B68" s="4">
         <v>100006</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="E68" s="15" t="str">
         <f>VLOOKUP(C68,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7566,18 +7880,17 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="18" t="str">
-        <f t="shared" si="0"/>
-        <v>100006065</v>
+      <c r="A69" s="4">
+        <v>100001018</v>
       </c>
       <c r="B69" s="4">
         <v>100006</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>346</v>
+        <v>394</v>
       </c>
       <c r="E69" s="15" t="str">
         <f>VLOOKUP(C69,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7585,18 +7898,17 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="18" t="str">
-        <f t="shared" ref="A70:A75" si="1">B70&amp;IF(COUNTIF(C70,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C70,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C70,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C70,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A70)-4,"00")</f>
-        <v>100006066</v>
+      <c r="A70" s="4">
+        <v>100001019</v>
       </c>
       <c r="B70" s="4">
         <v>100006</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>347</v>
+        <v>395</v>
       </c>
       <c r="E70" s="15" t="str">
         <f>VLOOKUP(C70,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7604,18 +7916,17 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>100006067</v>
+      <c r="A71" s="4">
+        <v>100001020</v>
       </c>
       <c r="B71" s="4">
         <v>100006</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>348</v>
+        <v>396</v>
       </c>
       <c r="E71" s="15" t="str">
         <f>VLOOKUP(C71,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7623,18 +7934,17 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>100006068</v>
+      <c r="A72" s="4">
+        <v>100001021</v>
       </c>
       <c r="B72" s="4">
         <v>100006</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="E72" s="15" t="str">
         <f>VLOOKUP(C72,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7642,18 +7952,17 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>100006069</v>
+      <c r="A73" s="4">
+        <v>100001022</v>
       </c>
       <c r="B73" s="4">
         <v>100006</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="E73" s="15" t="str">
         <f>VLOOKUP(C73,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7661,18 +7970,17 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>100006070</v>
+      <c r="A74" s="4">
+        <v>100001023</v>
       </c>
       <c r="B74" s="4">
         <v>100006</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="E74" s="15" t="str">
         <f>VLOOKUP(C74,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7680,18 +7988,17 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="str">
-        <f t="shared" si="1"/>
-        <v>100006071</v>
+      <c r="A75" s="4">
+        <v>100001024</v>
       </c>
       <c r="B75" s="4">
         <v>100006</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>281</v>
+        <v>329</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="E75" s="15" t="str">
         <f>VLOOKUP(C75,[2]dialog!$B:$C,2,FALSE)</f>
@@ -7708,8 +8015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A574ABB5-6EF5-4270-9FE1-AD809E1F99F3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7721,23 +8028,23 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>189</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -7748,13 +8055,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -7762,10 +8069,10 @@
         <v>10000601</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>366</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -7773,7 +8080,7 @@
         <v>10000602</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -7781,7 +8088,7 @@
         <v>10000603</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -7789,7 +8096,7 @@
         <v>10000604</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -7797,7 +8104,7 @@
         <v>10000605</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -7805,7 +8112,7 @@
         <v>10000606</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -7813,7 +8120,7 @@
         <v>10000607</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -7821,7 +8128,7 @@
         <v>10000608</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -7829,7 +8136,7 @@
         <v>10000609</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -7837,7 +8144,7 @@
         <v>10000610</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -7845,7 +8152,7 @@
         <v>10000611</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -7853,7 +8160,7 @@
         <v>10000612</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1715DC45-D83A-4C79-9219-413F106F2DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1301C9-7393-4EDA-94D3-98459C0C85BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="780" windowWidth="36135" windowHeight="19395" tabRatio="707" activeTab="8" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="2820" yWindow="1815" windowWidth="32760" windowHeight="18330" tabRatio="707" firstSheet="2" activeTab="8" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -26,11 +26,12 @@
   <externalReferences>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
-    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$37</definedName>
+    <definedName name="me_chat_motion_data_id">me_chat_motion_data!#REF!</definedName>
     <definedName name="me_serifu_data_id">me_serifu_data!$A$5:$A$67</definedName>
     <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
     <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="385">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,22 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_script_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_script_02_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_script_02_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_script_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>memorial_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -370,29 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_touch_horn_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_mouth_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_mouth_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_breast_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_breast_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_touch_breast_3</t>
-  </si>
-  <si>
     <t>script_data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -445,9 +407,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_touch_horn_2</t>
-  </si>
-  <si>
     <t>serifu_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -464,22 +423,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[100001001, 100001002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001003, 100001004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001005, 100001006]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100001007, 100001008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ENUM:TOUCH_BODY_TYPE:NONE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -755,50 +698,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_bored_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002001, 1100002002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002003, 1100002004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>chat_motion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_react_breast_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_react_breast_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002007, 1100002008]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1200002004, 1200002005]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_bored_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_bored_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01_drag_bra_L_01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -807,49 +714,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1100002012, 1100002013]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_bra_L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1200002013, 1200002014]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_react_leg_04</t>
-  </si>
-  <si>
-    <t>[1100002014, 1100002015, 1100002017]</t>
-  </si>
-  <si>
-    <t>00_react_panty_02</t>
-  </si>
-  <si>
-    <t>[1100002007, 1100002012]</t>
-  </si>
-  <si>
     <t>01_drag_Leg_01</t>
   </si>
   <si>
-    <t>[1100002014, 1100002015]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002016, 1100002017, 1100002018]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21_bra_L_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>01_drag_panty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -893,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22_bra_R_off</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bored_chatmotion_ids</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -917,45 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>00_return_panty_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_panty_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>00_return_panty_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1100002019, 1100002020]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_nade_talk_03</t>
-  </si>
-  <si>
-    <t>1100002039, 1100002040</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100002041, 1100002042</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100002043, 1100002045</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>actor_prefab_key</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -980,18 +808,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>01_return_leg_L_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_return_leg_L_02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_return_leg_L_03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,10 +1511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Skeleton/Standing/Eileen/TL_Part3_Lv0.playable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디 형식 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1708,6 +1520,67 @@
   </si>
   <si>
     <t>아이디 형식은 캐릭터 아이디 + 타임라인 넘버링으로 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/AssetResources/Prefabs/Standing/ST_Eileen/TL_Part3_Lv0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에일린_로비용 터치시 움찔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100006048</t>
+  </si>
+  <si>
+    <t>100006060</t>
+  </si>
+  <si>
+    <t>100006001</t>
+  </si>
+  <si>
+    <t>100006025</t>
+  </si>
+  <si>
+    <t>100006051</t>
+  </si>
+  <si>
+    <t>100006063</t>
+  </si>
+  <si>
+    <t>100006006</t>
+  </si>
+  <si>
+    <t>100006030</t>
+  </si>
+  <si>
+    <t>100006054</t>
+  </si>
+  <si>
+    <t>100006066</t>
+  </si>
+  <si>
+    <t>100006036</t>
+  </si>
+  <si>
+    <t>100006057</t>
+  </si>
+  <si>
+    <t>100006069</t>
+  </si>
+  <si>
+    <t>100006018</t>
+  </si>
+  <si>
+    <t>100006042</t>
+  </si>
+  <si>
+    <t>대사 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100006036,100006037,1000060368,100006039]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1715,7 +1588,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1764,6 +1637,14 @@
       <color theme="8" tint="-0.249977111117893"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1847,7 +1728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,6 +1780,27 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1939,6 +1841,7 @@
       <sheetName val="@target_type"/>
       <sheetName val="@onetime_effect_type"/>
       <sheetName val="@duration_effect_type"/>
+      <sheetName val="@game_type"/>
       <sheetName val="@persistence_type"/>
       <sheetName val="@projectile_type"/>
       <sheetName val="@inequality_type"/>
@@ -1954,21 +1857,27 @@
       <sheetName val="@reward_type"/>
       <sheetName val="@effect_count_type"/>
       <sheetName val="@love_level_type"/>
+      <sheetName val="@attribute_type"/>
+      <sheetName val="@res_type"/>
       <sheetName val="@item_type"/>
+      <sheetName val="@sd_body_type"/>
+      <sheetName val="@stage_common"/>
+      <sheetName val="@reward"/>
+      <sheetName val="Enums_01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1">
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_BODY_TYPE</v>
@@ -1998,149 +1907,149 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>BODY</v>
+            <v>PART1</v>
           </cell>
           <cell r="B5">
             <v>1</v>
           </cell>
           <cell r="C5" t="str">
-            <v>1 몸체</v>
+            <v>Part 1</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>BREAST</v>
+            <v>PART2</v>
           </cell>
           <cell r="B6">
             <v>2</v>
           </cell>
           <cell r="C6" t="str">
-            <v>2 가슴</v>
+            <v>Part 2</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>HEAD</v>
+            <v>PART3</v>
           </cell>
           <cell r="B7">
             <v>3</v>
           </cell>
           <cell r="C7" t="str">
-            <v>3 머리</v>
+            <v>Part 3</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MOUTH</v>
+            <v>PART4</v>
           </cell>
           <cell r="B8">
             <v>4</v>
           </cell>
           <cell r="C8" t="str">
-            <v>4 입</v>
+            <v>Part 4</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>PELVIS</v>
+            <v>PART5</v>
           </cell>
           <cell r="B9">
             <v>5</v>
           </cell>
           <cell r="C9" t="str">
-            <v>5 골반</v>
+            <v>Part 5</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>LEG</v>
+            <v>PART6</v>
           </cell>
           <cell r="B10">
             <v>6</v>
           </cell>
           <cell r="C10" t="str">
-            <v>6 다리</v>
+            <v>Part 6</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>EYE</v>
+            <v>PART7</v>
           </cell>
           <cell r="B11">
             <v>7</v>
           </cell>
           <cell r="C11" t="str">
-            <v>7 눈</v>
+            <v>Part 7</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>NOSE</v>
+            <v>PART8</v>
           </cell>
           <cell r="B12">
             <v>8</v>
           </cell>
           <cell r="C12" t="str">
-            <v>8 코</v>
+            <v>Part 8</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>EAR</v>
+            <v>PART9</v>
           </cell>
           <cell r="B13">
             <v>9</v>
           </cell>
           <cell r="C13" t="str">
-            <v>9 귀</v>
+            <v>Part 9</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>CHEEK</v>
+            <v>PART10</v>
           </cell>
           <cell r="B14">
             <v>10</v>
           </cell>
           <cell r="C14" t="str">
-            <v>10 볼</v>
+            <v>Part 10</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>JAW</v>
+            <v>PART11</v>
           </cell>
           <cell r="B15">
             <v>11</v>
           </cell>
           <cell r="C15" t="str">
-            <v>11 턱</v>
+            <v>Part 11</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>BROW</v>
+            <v>PART12</v>
           </cell>
           <cell r="B16">
             <v>12</v>
           </cell>
           <cell r="C16" t="str">
-            <v>12 이마</v>
+            <v>Part 12</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>FACE</v>
+            <v>PART13</v>
           </cell>
           <cell r="B17">
             <v>13</v>
           </cell>
           <cell r="C17" t="str">
-            <v>13 얼굴</v>
+            <v>Part 13</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="12" refreshError="1">
+      <sheetData sheetId="12">
         <row r="1">
           <cell r="A1" t="str">
             <v>TOUCH_GESTURE_TYPE</v>
@@ -2223,12 +2132,13 @@
           <cell r="C10"/>
         </row>
       </sheetData>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1">
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19">
         <row r="1">
           <cell r="A1" t="str">
             <v>INEQUALITY_TYPE</v>
@@ -2323,25 +2233,1333 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="!Usable"/>
+      <sheetName val="!Desc"/>
+      <sheetName val="!참조_ENUM"/>
+      <sheetName val="me_resource_data"/>
+      <sheetName val="me_state_data"/>
+      <sheetName val="me_interaction_data"/>
+      <sheetName val="me_chat_motion_data"/>
+      <sheetName val="me_serifu_data"/>
+      <sheetName val="!me_timeline_data"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Me_Serifu_Data</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>대사 인덱스</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>캐릭터 고유 아이디</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>캐릭터 대사</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>보이스 파일 아이디_스트링 테이블 참조</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>대사 내용 추적</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>key_1:int</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>string</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>serifu_id</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>player_character_id</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>dialogue_text_id</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>audio_clip_id</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>#dialogue_text</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>100006001</v>
+          </cell>
+          <cell r="B5">
+            <v>100006</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>dialog_Eileen_OriginOk_Part1_Lv0_1</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>voice_Eileen_OriginOk_Part1_Lv0_1</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>머리 안 헝클어지게 해~</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>100006002</v>
+          </cell>
+          <cell r="B6">
+            <v>100006</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_1</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv0_1</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>100006003</v>
+          </cell>
+          <cell r="B7">
+            <v>100006</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_2</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv0_2</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>나는 그냥… 행복이 충전되는 기분?</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>100006004</v>
+          </cell>
+          <cell r="B8">
+            <v>100006</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_3</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv0_3</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>응. 기분 좋아.</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>100006005</v>
+          </cell>
+          <cell r="B9">
+            <v>100006</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv0_4</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv0_4</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>(웃음)너도 해줄까?</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>100006006</v>
+          </cell>
+          <cell r="B10">
+            <v>100006</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>dialog_Eileen_OriginOk_Part2_Lv0_1</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>voice_Eileen_OriginOk_Part2_Lv0_1</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>뭐, 뭐하게?! 아….</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>100006007</v>
+          </cell>
+          <cell r="B11">
+            <v>100006</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_1</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv0_1</v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>(키, 키스하는 줄 알았네….)</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>100006008</v>
+          </cell>
+          <cell r="B12">
+            <v>100006</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_2</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv0_2</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>(싫은 건, 아니지만….)</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>100006009</v>
+          </cell>
+          <cell r="B13">
+            <v>100006</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_3</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv0_3</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>…….</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>100006010</v>
+          </cell>
+          <cell r="B14">
+            <v>100006</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_4</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv0_4</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>무, 뭐라고 말좀 해.</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>100006011</v>
+          </cell>
+          <cell r="B15">
+            <v>100006</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv0_5</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv0_5</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>(으… 자꾸 의식하게 되잖아….)</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>100006012</v>
+          </cell>
+          <cell r="B16">
+            <v>100006</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>dialog_Eileen_OriginOk_Part3_Lv0_1</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>voice_Eileen_OriginOk_Part3_Lv0_1</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>가슴은 좀 부끄러운데….</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>100006013</v>
+          </cell>
+          <cell r="B17">
+            <v>100006</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_1</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv0_1</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>그래도 손만 대는 거면-</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>100006014</v>
+          </cell>
+          <cell r="B18">
+            <v>100006</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_2</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv0_2</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>…누가 그렇게 만지작거리랬어.</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>100006015</v>
+          </cell>
+          <cell r="B19">
+            <v>100006</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_3</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv0_3</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>하여튼 진짜.</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>100006016</v>
+          </cell>
+          <cell r="B20">
+            <v>100006</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv0_4</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv0_4</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>…근데 이게 그렇게 좋아?</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>100006017</v>
+          </cell>
+          <cell r="B21">
+            <v>100006</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>dialog_Eileen_OriginOk_Part4_Lv0_1</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>voice_Eileen_OriginOk_Part4_Lv0_1</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>……!!</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>100006018</v>
+          </cell>
+          <cell r="B22">
+            <v>100006</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_1</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv0_1</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>자, 잠깐만! 역시 거기는 조금…!</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>100006019</v>
+          </cell>
+          <cell r="B23">
+            <v>100006</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_2</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv0_2</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>꺅…?!</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>100006020</v>
+          </cell>
+          <cell r="B24">
+            <v>100006</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_3</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv0_3</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>그만, 흣, 이상하다구우….</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>100006021</v>
+          </cell>
+          <cell r="B25">
+            <v>100006</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_4</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv0_4</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>윽… 앗… 흐읏….</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>100006022</v>
+          </cell>
+          <cell r="B26">
+            <v>100006</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_5</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv0_5</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>하아, 하아, 하아….</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>100006023</v>
+          </cell>
+          <cell r="B27">
+            <v>100006</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv0_6</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv0_6</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>…몰라, 멍충아.</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>100006024</v>
+          </cell>
+          <cell r="B28">
+            <v>100006</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>dialog_Eileen_OriginOk_Part1_Lv1_1</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>voice_Eileen_OriginOk_Part1_Lv1_1</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>뭐해? 빨리 해줘.</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>100006025</v>
+          </cell>
+          <cell r="B29">
+            <v>100006</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_1</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv1_1</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>100006026</v>
+          </cell>
+          <cell r="B30">
+            <v>100006</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_2</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv1_2</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>100006027</v>
+          </cell>
+          <cell r="B31">
+            <v>100006</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_3</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv1_3</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>사랑받는다는 느낌이 든달까?</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>100006028</v>
+          </cell>
+          <cell r="B32">
+            <v>100006</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>dialog_Eileen_OriginPass_Part1_Lv1_4</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>voice_Eileen_OriginPass_Part1_Lv1_4</v>
+          </cell>
+          <cell r="E32" t="str">
+            <v>헤헷.</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>100006029</v>
+          </cell>
+          <cell r="B33">
+            <v>100006</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>dialog_Eileen_OriginOk_Part2_Lv1_1</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>voice_Eileen_OriginOk_Part2_Lv1_1</v>
+          </cell>
+          <cell r="E33" t="str">
+            <v>…….</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>100006030</v>
+          </cell>
+          <cell r="B34">
+            <v>100006</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_1</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv1_1</v>
+          </cell>
+          <cell r="E34" t="str">
+            <v>(또 이렇게 말없이 보네.)</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>100006031</v>
+          </cell>
+          <cell r="B35">
+            <v>100006</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_2</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv1_2</v>
+          </cell>
+          <cell r="E35" t="str">
+            <v>(뭐, 지금은 이정도로도 충분한가….)</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>100006032</v>
+          </cell>
+          <cell r="B36">
+            <v>100006</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_3</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv1_3</v>
+          </cell>
+          <cell r="E36" t="str">
+            <v>(……아니. 안 충분해.)</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>100006033</v>
+          </cell>
+          <cell r="B37">
+            <v>100006</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_4</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv1_4</v>
+          </cell>
+          <cell r="E37" t="str">
+            <v>[쪽]</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>100006034</v>
+          </cell>
+          <cell r="B38">
+            <v>100006</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>dialog_Eileen_OriginPass_Part2_Lv1_5</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>voice_Eileen_OriginPass_Part2_Lv1_5</v>
+          </cell>
+          <cell r="E38" t="str">
+            <v>(웃음)그냥, 내가 하고 싶었어.</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>100006035</v>
+          </cell>
+          <cell r="B39">
+            <v>100006</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>dialog_Eileen_OriginOk_Part3_Lv1_1</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>voice_Eileen_OriginOk_Part3_Lv1_1</v>
+          </cell>
+          <cell r="E39" t="str">
+            <v>으응….</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>100006036</v>
+          </cell>
+          <cell r="B40">
+            <v>100006</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_1</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv1_1</v>
+          </cell>
+          <cell r="E40" t="str">
+            <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>100006037</v>
+          </cell>
+          <cell r="B41">
+            <v>100006</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_2</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv1_2</v>
+          </cell>
+          <cell r="E41" t="str">
+            <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>100006038</v>
+          </cell>
+          <cell r="B42">
+            <v>100006</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_3</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv1_3</v>
+          </cell>
+          <cell r="E42" t="str">
+            <v>나 덕분이라구? (웃음)</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>100006039</v>
+          </cell>
+          <cell r="B43">
+            <v>100006</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_4</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv1_4</v>
+          </cell>
+          <cell r="E43" t="str">
+            <v>그런거면… 음….</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>100006040</v>
+          </cell>
+          <cell r="B44">
+            <v>100006</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>dialog_Eileen_OriginPass_Part3_Lv1_5</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>voice_Eileen_OriginPass_Part3_Lv1_5</v>
+          </cell>
+          <cell r="E44" t="str">
+            <v>더 만져도 되는데…?</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>100006041</v>
+          </cell>
+          <cell r="B45">
+            <v>100006</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>dialog_Eileen_OriginOk_Part4_Lv1_1</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>voice_Eileen_OriginOk_Part4_Lv1_1</v>
+          </cell>
+          <cell r="E45" t="str">
+            <v>으휴, 진짜 변태.</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>100006042</v>
+          </cell>
+          <cell r="B46">
+            <v>100006</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_1</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv1_1</v>
+          </cell>
+          <cell r="E46" t="str">
+            <v>(무드라도 좀 맞춰주든가.)</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>100006043</v>
+          </cell>
+          <cell r="B47">
+            <v>100006</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_2</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv1_2</v>
+          </cell>
+          <cell r="E47" t="str">
+            <v>…….</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>100006044</v>
+          </cell>
+          <cell r="B48">
+            <v>100006</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_3</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv1_3</v>
+          </cell>
+          <cell r="E48" t="str">
+            <v>(…얘도 많이 참고 있는 거구나.)</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>100006045</v>
+          </cell>
+          <cell r="B49">
+            <v>100006</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_4</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv1_4</v>
+          </cell>
+          <cell r="E49" t="str">
+            <v>저기, 있지.</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>100006046</v>
+          </cell>
+          <cell r="B50">
+            <v>100006</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_5</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv1_5</v>
+          </cell>
+          <cell r="E50" t="str">
+            <v>할 거면….</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>100006047</v>
+          </cell>
+          <cell r="B51">
+            <v>100006</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>dialog_Eileen_OriginPass_Part4_Lv1_6</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>voice_Eileen_OriginPass_Part4_Lv1_6</v>
+          </cell>
+          <cell r="E51" t="str">
+            <v>…끝까지, 제대로 해줘.</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>100006048</v>
+          </cell>
+          <cell r="B52">
+            <v>100006</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv0_1</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>voice_Eileen_OriginNG_Part1_Lv0_1</v>
+          </cell>
+          <cell r="E52" t="str">
+            <v>머리 헝클어지잖아~</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>100006049</v>
+          </cell>
+          <cell r="B53">
+            <v>100006</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv0_2</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>voice_Eileen_OriginNG_Part1_Lv0_2</v>
+          </cell>
+          <cell r="E53" t="str">
+            <v>되는 거 맞아?</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>100006050</v>
+          </cell>
+          <cell r="B54">
+            <v>100006</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv0_3</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>voice_Eileen_OriginNG_Part1_Lv0_3</v>
+          </cell>
+          <cell r="E54" t="str">
+            <v>흐음… 나도 해줄까?</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>100006051</v>
+          </cell>
+          <cell r="B55">
+            <v>100006</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv0_1</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>voice_Eileen_OriginNG_Part2_Lv0_1</v>
+          </cell>
+          <cell r="E55" t="str">
+            <v>그렇게 분위기 잡기야?</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>100006052</v>
+          </cell>
+          <cell r="B56">
+            <v>100006</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv0_2</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>voice_Eileen_OriginNG_Part2_Lv0_2</v>
+          </cell>
+          <cell r="E56" t="str">
+            <v>(웃음)간지러워.</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>100006053</v>
+          </cell>
+          <cell r="B57">
+            <v>100006</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv0_3</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>voice_Eileen_OriginNG_Part2_Lv0_3</v>
+          </cell>
+          <cell r="E57" t="str">
+            <v>너 손 진짜 크다.</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>100006054</v>
+          </cell>
+          <cell r="B58">
+            <v>100006</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv0_1</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>voice_Eileen_OriginNG_Part3_Lv0_1</v>
+          </cell>
+          <cell r="E58" t="str">
+            <v>…제대로 찾고 있는 거 맞지?</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>100006055</v>
+          </cell>
+          <cell r="B59">
+            <v>100006</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv0_2</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>voice_Eileen_OriginNG_Part3_Lv0_2</v>
+          </cell>
+          <cell r="E59" t="str">
+            <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>100006056</v>
+          </cell>
+          <cell r="B60">
+            <v>100006</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv0_3</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>voice_Eileen_OriginNG_Part3_Lv0_3</v>
+          </cell>
+          <cell r="E60" t="str">
+            <v xml:space="preserve">……저기요. </v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>100006057</v>
+          </cell>
+          <cell r="B61">
+            <v>100006</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv0_1</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>voice_Eileen_OriginNG_Part4_Lv0_1</v>
+          </cell>
+          <cell r="E61" t="str">
+            <v>뭐, 뭐하는 거야!</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>100006058</v>
+          </cell>
+          <cell r="B62">
+            <v>100006</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv0_2</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>voice_Eileen_OriginNG_Part4_Lv0_2</v>
+          </cell>
+          <cell r="E62" t="str">
+            <v>아무리 근원 때문이라도 거긴 안 돼!</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>100006059</v>
+          </cell>
+          <cell r="B63">
+            <v>100006</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv0_3</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>voice_Eileen_OriginNG_Part4_Lv0_3</v>
+          </cell>
+          <cell r="E63" t="str">
+            <v>죽는다 진짜.</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>100006060</v>
+          </cell>
+          <cell r="B64">
+            <v>100006</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv1_1</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>voice_Eileen_OriginNG_Part1_Lv1_1</v>
+          </cell>
+          <cell r="E64" t="str">
+            <v>좋다아….</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>100006061</v>
+          </cell>
+          <cell r="B65">
+            <v>100006</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv1_2</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>voice_Eileen_OriginNG_Part1_Lv1_2</v>
+          </cell>
+          <cell r="E65" t="str">
+            <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>100006062</v>
+          </cell>
+          <cell r="B66">
+            <v>100006</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>dialog_Eileen_OriginNG_Part1_Lv1_3</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>voice_Eileen_OriginNG_Part1_Lv1_3</v>
+          </cell>
+          <cell r="E66" t="str">
+            <v>(작은 웃음)그냥 계속해줘.</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>100006063</v>
+          </cell>
+          <cell r="B67">
+            <v>100006</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv1_1</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>voice_Eileen_OriginNG_Part2_Lv1_1</v>
+          </cell>
+          <cell r="E67" t="str">
+            <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>100006064</v>
+          </cell>
+          <cell r="B68">
+            <v>100006</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv1_2</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>voice_Eileen_OriginNG_Part2_Lv1_2</v>
+          </cell>
+          <cell r="E68" t="str">
+            <v>헤헷. 나도 좋아해.</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>100006065</v>
+          </cell>
+          <cell r="B69">
+            <v>100006</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>dialog_Eileen_OriginNG_Part2_Lv1_3</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>voice_Eileen_OriginNG_Part2_Lv1_3</v>
+          </cell>
+          <cell r="E69" t="str">
+            <v>뭔가 안심되는 기분이야.</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>100006066</v>
+          </cell>
+          <cell r="B70">
+            <v>100006</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv1_1</v>
+          </cell>
+          <cell r="D70" t="str">
+            <v>voice_Eileen_OriginNG_Part3_Lv1_1</v>
+          </cell>
+          <cell r="E70" t="str">
+            <v>(웃음)이게 그렇게 좋아?</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>100006067</v>
+          </cell>
+          <cell r="B71">
+            <v>100006</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv1_2</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>voice_Eileen_OriginNG_Part3_Lv1_2</v>
+          </cell>
+          <cell r="E71" t="str">
+            <v>역시 그냥 핑계였지?</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>100006068</v>
+          </cell>
+          <cell r="B72">
+            <v>100006</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>dialog_Eileen_OriginNG_Part3_Lv1_3</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>voice_Eileen_OriginNG_Part3_Lv1_3</v>
+          </cell>
+          <cell r="E72" t="str">
+            <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>100006069</v>
+          </cell>
+          <cell r="B73">
+            <v>100006</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv1_1</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>voice_Eileen_OriginNG_Part4_Lv1_1</v>
+          </cell>
+          <cell r="E73" t="str">
+            <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>100006070</v>
+          </cell>
+          <cell r="B74">
+            <v>100006</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv1_2</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>voice_Eileen_OriginNG_Part4_Lv1_2</v>
+          </cell>
+          <cell r="E74" t="str">
+            <v>꼭 근원 때문이 아니라도….</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>100006071</v>
+          </cell>
+          <cell r="B75">
+            <v>100006</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>dialog_Eileen_OriginNG_Part4_Lv1_3</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>voice_Eileen_OriginNG_Part4_Lv1_3</v>
+          </cell>
+          <cell r="E75" t="str">
+            <v>너, 너무 본격적으로는 안 돼.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -3389,39 +4607,39 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" s="4">
         <v>3</v>
@@ -3445,7 +4663,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3552,7 +4770,7 @@
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f>'[1]@touch_body_type'!$A5</f>
-        <v>BODY</v>
+        <v>PART1</v>
       </c>
       <c r="B4" s="4">
         <f>'[1]@touch_body_type'!$B5</f>
@@ -3560,7 +4778,7 @@
       </c>
       <c r="C4" s="4" t="str">
         <f>'[1]@touch_body_type'!$C5</f>
-        <v>1 몸체</v>
+        <v>Part 1</v>
       </c>
       <c r="E4" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A5</f>
@@ -3590,7 +4808,7 @@
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f>'[1]@touch_body_type'!$A6</f>
-        <v>BREAST</v>
+        <v>PART2</v>
       </c>
       <c r="B5" s="4">
         <f>'[1]@touch_body_type'!$B6</f>
@@ -3598,7 +4816,7 @@
       </c>
       <c r="C5" s="4" t="str">
         <f>'[1]@touch_body_type'!$C6</f>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="E5" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A6</f>
@@ -3628,7 +4846,7 @@
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f>'[1]@touch_body_type'!$A7</f>
-        <v>HEAD</v>
+        <v>PART3</v>
       </c>
       <c r="B6" s="4">
         <f>'[1]@touch_body_type'!$B7</f>
@@ -3636,7 +4854,7 @@
       </c>
       <c r="C6" s="4" t="str">
         <f>'[1]@touch_body_type'!$C7</f>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="E6" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A7</f>
@@ -3666,7 +4884,7 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f>'[1]@touch_body_type'!$A8</f>
-        <v>MOUTH</v>
+        <v>PART4</v>
       </c>
       <c r="B7" s="4">
         <f>'[1]@touch_body_type'!$B8</f>
@@ -3674,7 +4892,7 @@
       </c>
       <c r="C7" s="4" t="str">
         <f>'[1]@touch_body_type'!$C8</f>
-        <v>4 입</v>
+        <v>Part 4</v>
       </c>
       <c r="E7" s="4" t="str">
         <f>'[1]@touch_gesture_type'!$A8</f>
@@ -3704,7 +4922,7 @@
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f>'[1]@touch_body_type'!$A9</f>
-        <v>PELVIS</v>
+        <v>PART5</v>
       </c>
       <c r="B8" s="4">
         <f>'[1]@touch_body_type'!$B9</f>
@@ -3712,7 +4930,7 @@
       </c>
       <c r="C8" s="4" t="str">
         <f>'[1]@touch_body_type'!$C9</f>
-        <v>5 골반</v>
+        <v>Part 5</v>
       </c>
       <c r="E8" s="4">
         <f>'[1]@touch_gesture_type'!$A9</f>
@@ -3742,7 +4960,7 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f>'[1]@touch_body_type'!$A10</f>
-        <v>LEG</v>
+        <v>PART6</v>
       </c>
       <c r="B9" s="4">
         <f>'[1]@touch_body_type'!$B10</f>
@@ -3750,7 +4968,7 @@
       </c>
       <c r="C9" s="4" t="str">
         <f>'[1]@touch_body_type'!$C10</f>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="E9" s="4">
         <f>'[1]@touch_gesture_type'!$A10</f>
@@ -3780,7 +4998,7 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f>'[1]@touch_body_type'!$A11</f>
-        <v>EYE</v>
+        <v>PART7</v>
       </c>
       <c r="B10" s="4">
         <f>'[1]@touch_body_type'!$B11</f>
@@ -3788,7 +5006,7 @@
       </c>
       <c r="C10" s="4" t="str">
         <f>'[1]@touch_body_type'!$C11</f>
-        <v>7 눈</v>
+        <v>Part 7</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -3797,7 +5015,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f>'[1]@touch_body_type'!$A12</f>
-        <v>NOSE</v>
+        <v>PART8</v>
       </c>
       <c r="B11" s="4">
         <f>'[1]@touch_body_type'!$B12</f>
@@ -3805,7 +5023,7 @@
       </c>
       <c r="C11" s="4" t="str">
         <f>'[1]@touch_body_type'!$C12</f>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -3814,7 +5032,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f>'[1]@touch_body_type'!$A13</f>
-        <v>EAR</v>
+        <v>PART9</v>
       </c>
       <c r="B12" s="4">
         <f>'[1]@touch_body_type'!$B13</f>
@@ -3822,7 +5040,7 @@
       </c>
       <c r="C12" s="4" t="str">
         <f>'[1]@touch_body_type'!$C13</f>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -3831,7 +5049,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f>'[1]@touch_body_type'!$A14</f>
-        <v>CHEEK</v>
+        <v>PART10</v>
       </c>
       <c r="B13" s="4">
         <f>'[1]@touch_body_type'!$B14</f>
@@ -3839,7 +5057,7 @@
       </c>
       <c r="C13" s="4" t="str">
         <f>'[1]@touch_body_type'!$C14</f>
-        <v>10 볼</v>
+        <v>Part 10</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -3848,7 +5066,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f>'[1]@touch_body_type'!$A15</f>
-        <v>JAW</v>
+        <v>PART11</v>
       </c>
       <c r="B14" s="4">
         <f>'[1]@touch_body_type'!$B15</f>
@@ -3856,7 +5074,7 @@
       </c>
       <c r="C14" s="4" t="str">
         <f>'[1]@touch_body_type'!$C15</f>
-        <v>11 턱</v>
+        <v>Part 11</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -3865,7 +5083,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f>'[1]@touch_body_type'!$A16</f>
-        <v>BROW</v>
+        <v>PART12</v>
       </c>
       <c r="B15" s="4">
         <f>'[1]@touch_body_type'!$B16</f>
@@ -3873,7 +5091,7 @@
       </c>
       <c r="C15" s="4" t="str">
         <f>'[1]@touch_body_type'!$C16</f>
-        <v>12 이마</v>
+        <v>Part 12</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -3882,7 +5100,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>'[1]@touch_body_type'!$A17</f>
-        <v>FACE</v>
+        <v>PART13</v>
       </c>
       <c r="B16" s="4">
         <f>'[1]@touch_body_type'!$B17</f>
@@ -3890,7 +5108,7 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>'[1]@touch_body_type'!$C17</f>
-        <v>13 얼굴</v>
+        <v>Part 13</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -3942,38 +5160,38 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3999,28 +5217,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>179</v>
+        <v>134</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -4031,16 +5249,16 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4">
         <v>50000001</v>
@@ -4057,16 +5275,16 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G6" s="4">
         <v>50000001</v>
@@ -4083,16 +5301,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G7" s="4">
         <v>50000003</v>
@@ -4109,16 +5327,16 @@
         <v>100003</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G8" s="4">
         <v>50000001</v>
@@ -4135,16 +5353,16 @@
         <v>100004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G9" s="4">
         <v>50000001</v>
@@ -4161,16 +5379,16 @@
         <v>100005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G10" s="4">
         <v>50000001</v>
@@ -4187,16 +5405,16 @@
         <v>100006</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="G11" s="4">
         <v>50000001</v>
@@ -4237,32 +5455,32 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4282,22 +5500,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4308,14 +5526,14 @@
         <v>100001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4326,14 +5544,14 @@
         <v>100001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4344,16 +5562,16 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4">
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4364,14 +5582,14 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4382,14 +5600,14 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4400,14 +5618,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4468,59 +5686,59 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4529,7 +5747,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -4538,7 +5756,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
@@ -4564,46 +5782,46 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -4614,14 +5832,14 @@
         <v>100002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="str">
         <f t="shared" ref="E5:E13" si="0">INDEX(touch_body_type_desc,MATCH(D5,touch_body_type,0))</f>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4">
@@ -4639,7 +5857,7 @@
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="M5" s="4">
         <v>50000003</v>
@@ -4654,14 +5872,14 @@
         <v>100002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
@@ -4696,14 +5914,14 @@
         <v>100002</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D7" s="4">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4">
@@ -4734,17 +5952,17 @@
         <v>100002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D8" s="4">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -4756,7 +5974,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L8" s="4">
         <v>1200002007</v>
@@ -4774,17 +5992,17 @@
         <v>100002</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G9" s="4">
         <v>5</v>
@@ -4796,7 +6014,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="L9" s="4">
         <v>1200002008</v>
@@ -4814,14 +6032,14 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4">
         <v>6</v>
       </c>
       <c r="E10" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
@@ -4838,13 +6056,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="L10" s="4">
         <v>1200002009</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="N10" s="4"/>
     </row>
@@ -4856,14 +6074,14 @@
         <v>100002</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4">
         <v>6</v>
       </c>
       <c r="E11" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4">
@@ -4880,13 +6098,13 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="L11" s="4">
         <v>1200002010</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="N11" s="4"/>
     </row>
@@ -4898,14 +6116,14 @@
         <v>100002</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4">
         <v>6</v>
       </c>
       <c r="E12" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4">
@@ -4922,13 +6140,13 @@
         <v>5</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="L12" s="4">
         <v>1200002011</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="N12" s="4"/>
     </row>
@@ -4940,14 +6158,14 @@
         <v>100002</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="str">
         <f t="shared" si="0"/>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
@@ -4960,7 +6178,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="L13" s="4">
         <v>1200002012</v>
@@ -4978,14 +6196,14 @@
         <v>100002</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
       </c>
       <c r="E14" s="4" t="str">
         <f t="shared" ref="E14" si="2">INDEX(touch_body_type_desc,MATCH(D14,touch_body_type,0))</f>
-        <v>2 가슴</v>
+        <v>Part 2</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4">
@@ -4999,10 +6217,10 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -5014,17 +6232,17 @@
         <v>100002</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
       </c>
       <c r="E15" s="4" t="str">
         <f t="shared" ref="E15" si="4">INDEX(touch_body_type_desc,MATCH(D15,touch_body_type,0))</f>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="G15" s="4">
         <v>5</v>
@@ -5036,7 +6254,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="L15" s="4">
         <v>1200002015</v>
@@ -5056,17 +6274,17 @@
         <v>100002</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D16" s="4">
         <v>8</v>
       </c>
       <c r="E16" s="4" t="str">
         <f t="shared" ref="E16:E26" si="6">INDEX(touch_body_type_desc,MATCH(D16,touch_body_type,0))</f>
-        <v>8 코</v>
+        <v>Part 8</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G16" s="4">
         <v>5</v>
@@ -5078,13 +6296,13 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="L16" s="4">
         <v>1200002016</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="N16" s="4"/>
     </row>
@@ -5096,14 +6314,14 @@
         <v>100002</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D17" s="4">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -5116,7 +6334,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="L17" s="4">
         <v>1200002018</v>
@@ -5136,14 +6354,14 @@
         <v>100002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4">
         <v>9</v>
       </c>
       <c r="E18" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>9 귀</v>
+        <v>Part 9</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
@@ -5156,7 +6374,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="s">
-        <v>151</v>
+        <v>117</v>
       </c>
       <c r="L18" s="4">
         <v>1200002017</v>
@@ -5174,14 +6392,14 @@
         <v>100002</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D19" s="4">
         <v>3</v>
       </c>
       <c r="E19" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
@@ -5195,7 +6413,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M19" s="4">
         <v>50000006</v>
@@ -5210,14 +6428,14 @@
         <v>100002</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4">
         <v>3</v>
       </c>
       <c r="E20" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
@@ -5231,7 +6449,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M20" s="4">
         <v>50000006</v>
@@ -5246,14 +6464,14 @@
         <v>100002</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D21" s="4">
         <v>6</v>
       </c>
       <c r="E21" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4">
@@ -5267,7 +6485,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M21" s="4">
         <v>50000006</v>
@@ -5282,14 +6500,14 @@
         <v>100002</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D22" s="4">
         <v>6</v>
       </c>
       <c r="E22" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4">
@@ -5303,7 +6521,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M22" s="4">
         <v>50000006</v>
@@ -5318,14 +6536,14 @@
         <v>100002</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4">
         <v>6</v>
       </c>
       <c r="E23" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>6 다리</v>
+        <v>Part 6</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4">
@@ -5339,7 +6557,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="M23" s="4">
         <v>50000006</v>
@@ -5354,14 +6572,14 @@
         <v>100002</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D24" s="4">
         <v>3</v>
       </c>
       <c r="E24" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
@@ -5394,14 +6612,14 @@
         <v>100002</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
       </c>
       <c r="E25" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
@@ -5434,14 +6652,14 @@
         <v>100002</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D26" s="4">
         <v>3</v>
       </c>
       <c r="E26" s="4" t="str">
         <f t="shared" si="6"/>
-        <v>3 머리</v>
+        <v>Part 3</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
@@ -5543,10 +6761,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5554,8 +6772,8 @@
     <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="4" width="40.125" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="42.875" style="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="105.5" customWidth="1"/>
     <col min="8" max="8" width="105.625" customWidth="1"/>
     <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
@@ -5564,31 +6782,34 @@
     <col min="12" max="12" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -5599,1050 +6820,767 @@
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>100006001</v>
+      </c>
+      <c r="B5" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="str">
+        <f>IF(E5="[]","",VLOOKUP(E5,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>100006002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" t="str">
+        <f>IF(E6="[]","",VLOOKUP(E6,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>100006003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F7" t="str">
+        <f>IF(E7="[]","",VLOOKUP(E7,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>100006004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" t="str">
+        <f>IF(E8="[]","",VLOOKUP(E8,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>100006005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" t="str">
+        <f>IF(E9="[]","",VLOOKUP(E9,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>머리 헝클어지잖아~</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>100006006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" t="str">
+        <f>IF(E10="[]","",VLOOKUP(E10,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>좋다아….</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>100006007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" t="str">
+        <f>IF(E11="[]","",VLOOKUP(E11,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>머리 안 헝클어지게 해~</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>100006008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="F12" t="str">
+        <f>IF(E12="[]","",VLOOKUP(E12,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>100006009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F13" t="str">
+        <f>IF(E13="[]","",VLOOKUP(E13,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>그렇게 분위기 잡기야?</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>100006010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F14" t="str">
+        <f>IF(E14="[]","",VLOOKUP(E14,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>100006011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="F15" t="str">
+        <f>IF(E15="[]","",VLOOKUP(E15,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>뭐, 뭐하게?! 아….</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>100006012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="F16" t="str">
+        <f>IF(E16="[]","",VLOOKUP(E16,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>(또 이렇게 말없이 보네.)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>100006013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" t="str">
+        <f>IF(E17="[]","",VLOOKUP(E17,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>…제대로 찾고 있는 거 맞지?</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>100006014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" t="str">
+        <f>IF(E18="[]","",VLOOKUP(E18,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>(웃음)이게 그렇게 좋아?</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>100006015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" t="e">
+        <f>IF(E19="[]","",VLOOKUP(E19,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>100006016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="F20" t="str">
+        <f>IF(E20="[]","",VLOOKUP(E20,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>100006017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>200001001</v>
-      </c>
-      <c r="B5" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>200001002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>200001003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>200001004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1200001001</v>
-      </c>
-      <c r="B9" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="4">
-        <v>1100001001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1200001002</v>
-      </c>
-      <c r="B10" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="4">
-        <v>1100001002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1200001003</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="4">
-        <v>1100001003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1200001004</v>
-      </c>
-      <c r="B12" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="4">
-        <v>1100001004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1200001005</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="4">
-        <v>1100001005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1200001006</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="4">
-        <v>1100001006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1200001007</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100001</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="4">
-        <v>1100001007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1200002001</v>
-      </c>
-      <c r="B16" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1200002002</v>
-      </c>
-      <c r="B17" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1200002003</v>
-      </c>
-      <c r="B18" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="4" t="s">
+      <c r="E21" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="F21" t="str">
+        <f>IF(E21="[]","",VLOOKUP(E21,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>뭐, 뭐하는 거야!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>100006018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F22" t="str">
+        <f>IF(E22="[]","",VLOOKUP(E22,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>100006019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="F23" t="str">
+        <f>IF(E23="[]","",VLOOKUP(E23,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>자, 잠깐만! 역시 거기는 조금…!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>100006020</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1200002004</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="4">
-        <v>1100002005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1200002005</v>
-      </c>
-      <c r="B20" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="4">
-        <v>1100002006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1200002006</v>
-      </c>
-      <c r="B21" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1200002007</v>
-      </c>
-      <c r="B22" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="4">
-        <v>1100002009</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>1200002008</v>
-      </c>
-      <c r="B23" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="4">
-        <v>1100002010</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>1200002009</v>
-      </c>
-      <c r="B24" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="F24" t="str">
+        <f>IF(E24="[]","",VLOOKUP(E24,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v>(무드라도 좀 맞춰주든가.)</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>100006021</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>1200002010</v>
-      </c>
-      <c r="B25" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="4" t="s">
+      <c r="F25" t="str">
+        <f>IF(E25="[]","",VLOOKUP(E25,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>100006022</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="str">
+        <f>IF(E26="[]","",VLOOKUP(E26,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>100006023</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1200002011</v>
-      </c>
-      <c r="B26" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="4" t="s">
+      <c r="D27" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" t="str">
+        <f>IF(E27="[]","",VLOOKUP(E27,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>100006024</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1200002012</v>
-      </c>
-      <c r="B27" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1200002013</v>
-      </c>
-      <c r="B28" s="4">
-        <v>100002</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F28" t="str">
+        <f>IF(E28="[]","",VLOOKUP(E28,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
-        <v>1200002014</v>
+        <v>100006025</v>
       </c>
       <c r="B29" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" t="str">
+        <f>IF(E29="[]","",VLOOKUP(E29,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
-        <v>1200002015</v>
+        <v>100006026</v>
       </c>
       <c r="B30" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="str">
+        <f>IF(E30="[]","",VLOOKUP(E30,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
-        <v>1200002016</v>
+        <v>100006027</v>
       </c>
       <c r="B31" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="str">
+        <f>IF(E31="[]","",VLOOKUP(E31,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
-        <v>1200002017</v>
+        <v>100006028</v>
       </c>
       <c r="B32" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(E32="[]","",VLOOKUP(E32,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
-        <v>1200002018</v>
+        <v>100006029</v>
       </c>
       <c r="B33" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="4">
-        <v>1100002029</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F33" t="str">
+        <f>IF(E33="[]","",VLOOKUP(E33,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
-        <v>1200002019</v>
+        <v>100006030</v>
       </c>
       <c r="B34" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F34" t="str">
+        <f>IF(E34="[]","",VLOOKUP(E34,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
-        <v>1200002020</v>
+        <v>100006031</v>
       </c>
       <c r="B35" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(E35="[]","",VLOOKUP(E35,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
-        <v>1200002021</v>
+        <v>100006032</v>
       </c>
       <c r="B36" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" t="str">
+        <f>IF(E36="[]","",VLOOKUP(E36,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
-        <v>10000001</v>
+        <v>100006033</v>
       </c>
       <c r="B37" s="4">
-        <v>100002</v>
+        <v>100006</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" t="str">
+        <f>IF(E37="[]","",VLOOKUP(E37,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
-        <v>10000002</v>
+        <v>100006034</v>
       </c>
       <c r="B38" s="4">
         <v>100006</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" t="str">
+        <f>IF(E38="[]","",VLOOKUP(E38,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
-        <v>10000003</v>
+        <v>100006035</v>
       </c>
       <c r="B39" s="4">
         <v>100006</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>193</v>
+        <v>160</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>10000011</v>
-      </c>
-      <c r="B40" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>10000012</v>
-      </c>
-      <c r="B41" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>10000021</v>
-      </c>
-      <c r="B42" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>10000022</v>
-      </c>
-      <c r="B43" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>10000111</v>
-      </c>
-      <c r="B44" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>10000112</v>
-      </c>
-      <c r="B45" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>10000113</v>
-      </c>
-      <c r="B46" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>10000114</v>
-      </c>
-      <c r="B47" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>10000211</v>
-      </c>
-      <c r="B48" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>10000212</v>
-      </c>
-      <c r="B49" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C49" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="E49" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>10000221</v>
-      </c>
-      <c r="B50" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>10000222</v>
-      </c>
-      <c r="B51" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>10000311</v>
-      </c>
-      <c r="B52" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1100002011</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>10000312</v>
-      </c>
-      <c r="B53" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1100002007</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>10000313</v>
-      </c>
-      <c r="B54" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D54" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E54" s="4">
-        <v>1100002014</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>10000314</v>
-      </c>
-      <c r="B55" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1100002017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>10000901</v>
-      </c>
-      <c r="B56" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>10000902</v>
-      </c>
-      <c r="B57" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>10000903</v>
-      </c>
-      <c r="B58" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>10000904</v>
-      </c>
-      <c r="B59" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>10000905</v>
-      </c>
-      <c r="B60" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="E60" s="4"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>10000906</v>
-      </c>
-      <c r="B61" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="4"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>10000907</v>
-      </c>
-      <c r="B62" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>10000908</v>
-      </c>
-      <c r="B63" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E63" s="4"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>10000909</v>
-      </c>
-      <c r="B64" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>10000910</v>
-      </c>
-      <c r="B65" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="E65" s="4"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>10000911</v>
-      </c>
-      <c r="B66" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D66" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>10000912</v>
-      </c>
-      <c r="B67" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="4"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>10000913</v>
-      </c>
-      <c r="B68" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="E68" s="4"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>10000914</v>
-      </c>
-      <c r="B69" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="E69" s="4"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>10000915</v>
-      </c>
-      <c r="B70" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="E70" s="4"/>
+      <c r="E39" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" t="str">
+        <f>IF(E39="[]","",VLOOKUP(E39,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6655,7 +7593,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6673,29 +7611,29 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>404</v>
+        <v>356</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>405</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -6712,1296 +7650,1367 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>403</v>
+        <v>355</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>1100002001</v>
+      <c r="A5" s="18" t="str">
+        <f>B5&amp;IF(COUNTIF(C5,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C5,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C5,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C5,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A5)-4,"00")</f>
+        <v>100006001</v>
       </c>
       <c r="B5" s="4">
         <v>100006</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E5" s="15" t="str">
+        <f>VLOOKUP(C5,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>머리 안 헝클어지게 해~</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="str">
+        <f t="shared" ref="A6:A69" si="0">B6&amp;IF(COUNTIF(C6,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C6,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C6,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C6,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A6)-4,"00")</f>
+        <v>100006002</v>
+      </c>
+      <c r="B6" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" s="15" t="str">
+        <f>VLOOKUP(C6,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006003</v>
+      </c>
+      <c r="B7" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E7" s="15" t="str">
+        <f>VLOOKUP(C7,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>나는 그냥… 행복이 충전되는 기분?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006004</v>
+      </c>
+      <c r="B8" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="15" t="str">
+        <f>VLOOKUP(C8,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>응. 기분 좋아.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006005</v>
+      </c>
+      <c r="B9" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="15" t="str">
+        <f>VLOOKUP(C9,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)너도 해줄까?</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006006</v>
+      </c>
+      <c r="B10" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="15" t="str">
+        <f>VLOOKUP(C10,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>뭐, 뭐하게?! 아….</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006007</v>
+      </c>
+      <c r="B11" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E11" s="15" t="str">
+        <f>VLOOKUP(C11,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(키, 키스하는 줄 알았네….)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006008</v>
+      </c>
+      <c r="B12" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E12" s="15" t="str">
+        <f>VLOOKUP(C12,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(싫은 건, 아니지만….)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006009</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="15" t="str">
+        <f>VLOOKUP(C13,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…….</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006010</v>
+      </c>
+      <c r="B14" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="15" t="str">
+        <f>VLOOKUP(C14,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>무, 뭐라고 말좀 해.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006011</v>
+      </c>
+      <c r="B15" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="15" t="str">
+        <f>VLOOKUP(C15,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(으… 자꾸 의식하게 되잖아….)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006012</v>
+      </c>
+      <c r="B16" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="15" t="str">
+        <f>VLOOKUP(C16,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>가슴은 좀 부끄러운데….</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006013</v>
+      </c>
+      <c r="B17" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="15" t="str">
+        <f>VLOOKUP(C17,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>그래도 손만 대는 거면-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006014</v>
+      </c>
+      <c r="B18" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="15" t="str">
+        <f>VLOOKUP(C18,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…누가 그렇게 만지작거리랬어.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006015</v>
+      </c>
+      <c r="B19" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="15" t="str">
+        <f>VLOOKUP(C19,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>하여튼 진짜.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006016</v>
+      </c>
+      <c r="B20" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="15" t="str">
+        <f>VLOOKUP(C20,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…근데 이게 그렇게 좋아?</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006017</v>
+      </c>
+      <c r="B21" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="15" t="str">
+        <f>VLOOKUP(C21,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>……!!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006018</v>
+      </c>
+      <c r="B22" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="15" t="str">
+        <f>VLOOKUP(C22,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>자, 잠깐만! 역시 거기는 조금…!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006019</v>
+      </c>
+      <c r="B23" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="15" t="str">
+        <f>VLOOKUP(C23,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>꺅…?!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006020</v>
+      </c>
+      <c r="B24" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" s="15" t="str">
+        <f>VLOOKUP(C24,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>그만, 흣, 이상하다구우….</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006021</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="15" t="str">
+        <f>VLOOKUP(C25,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>윽… 앗… 흐읏….</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006022</v>
+      </c>
+      <c r="B26" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="15" t="str">
+        <f>VLOOKUP(C26,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>하아, 하아, 하아….</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006023</v>
+      </c>
+      <c r="B27" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="15" t="str">
+        <f>VLOOKUP(C27,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…몰라, 멍충아.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006024</v>
+      </c>
+      <c r="B28" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" s="15" t="str">
+        <f>VLOOKUP(C28,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>뭐해? 빨리 해줘.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006025</v>
+      </c>
+      <c r="B29" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" s="15" t="str">
+        <f>VLOOKUP(C29,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006026</v>
+      </c>
+      <c r="B30" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="15" t="str">
+        <f>VLOOKUP(C30,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006027</v>
+      </c>
+      <c r="B31" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="15" t="str">
+        <f>VLOOKUP(C31,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>사랑받는다는 느낌이 든달까?</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006028</v>
+      </c>
+      <c r="B32" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E32" s="15" t="str">
+        <f>VLOOKUP(C32,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>헤헷.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006029</v>
+      </c>
+      <c r="B33" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E33" s="15" t="str">
+        <f>VLOOKUP(C33,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…….</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006030</v>
+      </c>
+      <c r="B34" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="15" t="str">
+        <f>VLOOKUP(C34,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(또 이렇게 말없이 보네.)</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006031</v>
+      </c>
+      <c r="B35" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E35" s="15" t="str">
+        <f>VLOOKUP(C35,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(뭐, 지금은 이정도로도 충분한가….)</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006032</v>
+      </c>
+      <c r="B36" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="E36" s="15" t="str">
+        <f>VLOOKUP(C36,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(……아니. 안 충분해.)</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006033</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="E37" s="15" t="str">
+        <f>VLOOKUP(C37,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>[쪽]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006034</v>
+      </c>
+      <c r="B38" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E38" s="15" t="str">
+        <f>VLOOKUP(C38,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)그냥, 내가 하고 싶었어.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006035</v>
+      </c>
+      <c r="B39" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" s="15" t="str">
+        <f>VLOOKUP(C39,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>으응….</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006036</v>
+      </c>
+      <c r="B40" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E40" s="15" t="str">
+        <f>VLOOKUP(C40,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006037</v>
+      </c>
+      <c r="B41" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E41" s="15" t="str">
+        <f>VLOOKUP(C41,[3]dialog!$B:$C,2,FALSE)</f>
+        <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006038</v>
+      </c>
+      <c r="B42" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E42" s="15" t="str">
+        <f>VLOOKUP(C42,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>나 덕분이라구? (웃음)</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006039</v>
+      </c>
+      <c r="B43" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="15" t="str">
+        <f>VLOOKUP(C43,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>그런거면… 음….</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006040</v>
+      </c>
+      <c r="B44" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E44" s="15" t="str">
+        <f>VLOOKUP(C44,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>더 만져도 되는데…?</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006041</v>
+      </c>
+      <c r="B45" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E45" s="15" t="str">
+        <f>VLOOKUP(C45,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>으휴, 진짜 변태.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006042</v>
+      </c>
+      <c r="B46" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="15" t="str">
+        <f>VLOOKUP(C46,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(무드라도 좀 맞춰주든가.)</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006043</v>
+      </c>
+      <c r="B47" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E47" s="15" t="str">
+        <f>VLOOKUP(C47,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…….</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006044</v>
+      </c>
+      <c r="B48" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E48" s="15" t="str">
+        <f>VLOOKUP(C48,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(…얘도 많이 참고 있는 거구나.)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006045</v>
+      </c>
+      <c r="B49" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E49" s="15" t="str">
+        <f>VLOOKUP(C49,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>저기, 있지.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006046</v>
+      </c>
+      <c r="B50" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E50" s="15" t="str">
+        <f>VLOOKUP(C50,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>할 거면….</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006047</v>
+      </c>
+      <c r="B51" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="15" t="str">
+        <f>VLOOKUP(C51,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…끝까지, 제대로 해줘.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006048</v>
+      </c>
+      <c r="B52" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E52" s="15" t="str">
+        <f>VLOOKUP(C52,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>머리 헝클어지잖아~</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006049</v>
+      </c>
+      <c r="B53" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E5" s="15" t="str">
-        <f>VLOOKUP(C5,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>머리 안 헝클어지게 해~</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>1100002002</v>
-      </c>
-      <c r="B6" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="E53" s="15" t="str">
+        <f>VLOOKUP(C53,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>되는 거 맞아?</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006050</v>
+      </c>
+      <c r="B54" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="E6" s="15" t="str">
-        <f>VLOOKUP(C6,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>1100002003</v>
-      </c>
-      <c r="B7" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="E54" s="15" t="str">
+        <f>VLOOKUP(C54,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>흐음… 나도 해줄까?</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006051</v>
+      </c>
+      <c r="B55" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D55" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="15" t="str">
-        <f>VLOOKUP(C7,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>나는 그냥… 행복이 충전되는 기분?</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>1100002004</v>
-      </c>
-      <c r="B8" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E55" s="15" t="str">
+        <f>VLOOKUP(C55,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>그렇게 분위기 잡기야?</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006052</v>
+      </c>
+      <c r="B56" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D56" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="E8" s="15" t="str">
-        <f>VLOOKUP(C8,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>응. 기분 좋아.</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>1100002005</v>
-      </c>
-      <c r="B9" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="E56" s="15" t="str">
+        <f>VLOOKUP(C56,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)간지러워.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006053</v>
+      </c>
+      <c r="B57" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D57" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E9" s="15" t="str">
-        <f>VLOOKUP(C9,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(웃음)너도 해줄까?</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>1100002006</v>
-      </c>
-      <c r="B10" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="E57" s="15" t="str">
+        <f>VLOOKUP(C57,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>너 손 진짜 크다.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006054</v>
+      </c>
+      <c r="B58" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D58" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="15" t="str">
-        <f>VLOOKUP(C10,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>뭐, 뭐하게?! 아….</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>1100002007</v>
-      </c>
-      <c r="B11" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="E58" s="15" t="str">
+        <f>VLOOKUP(C58,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…제대로 찾고 있는 거 맞지?</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006055</v>
+      </c>
+      <c r="B59" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D59" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="15" t="str">
-        <f>VLOOKUP(C11,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(키, 키스하는 줄 알았네….)</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>1100002008</v>
-      </c>
-      <c r="B12" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="E59" s="15" t="str">
+        <f>VLOOKUP(C59,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006056</v>
+      </c>
+      <c r="B60" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D60" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E12" s="15" t="str">
-        <f>VLOOKUP(C12,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(싫은 건, 아니지만….)</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>1100002009</v>
-      </c>
-      <c r="B13" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="E60" s="15" t="str">
+        <f>VLOOKUP(C60,[3]dialog!$B:$C,2,FALSE)</f>
+        <v xml:space="preserve">……저기요. </v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006057</v>
+      </c>
+      <c r="B61" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D61" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="15" t="str">
-        <f>VLOOKUP(C13,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…….</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>1100002010</v>
-      </c>
-      <c r="B14" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="E61" s="15" t="str">
+        <f>VLOOKUP(C61,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>뭐, 뭐하는 거야!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006058</v>
+      </c>
+      <c r="B62" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D62" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="15" t="str">
-        <f>VLOOKUP(C14,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>무, 뭐라고 말좀 해.</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>1100002011</v>
-      </c>
-      <c r="B15" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="E62" s="15" t="str">
+        <f>VLOOKUP(C62,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>아무리 근원 때문이라도 거긴 안 돼!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006059</v>
+      </c>
+      <c r="B63" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D63" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="15" t="str">
-        <f>VLOOKUP(C15,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(으… 자꾸 의식하게 되잖아….)</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1100002012</v>
-      </c>
-      <c r="B16" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="E63" s="15" t="str">
+        <f>VLOOKUP(C63,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>죽는다 진짜.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006060</v>
+      </c>
+      <c r="B64" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D64" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E16" s="15" t="str">
-        <f>VLOOKUP(C16,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>가슴은 좀 부끄러운데….</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>1100002013</v>
-      </c>
-      <c r="B17" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="E64" s="15" t="str">
+        <f>VLOOKUP(C64,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>좋다아….</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006061</v>
+      </c>
+      <c r="B65" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D65" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E17" s="15" t="str">
-        <f>VLOOKUP(C17,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>그래도 손만 대는 거면-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>1100002014</v>
-      </c>
-      <c r="B18" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="E65" s="15" t="str">
+        <f>VLOOKUP(C65,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006062</v>
+      </c>
+      <c r="B66" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D66" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E18" s="15" t="str">
-        <f>VLOOKUP(C18,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…누가 그렇게 만지작거리랬어.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>1100002015</v>
-      </c>
-      <c r="B19" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="E66" s="15" t="str">
+        <f>VLOOKUP(C66,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(작은 웃음)그냥 계속해줘.</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006063</v>
+      </c>
+      <c r="B67" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D67" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E19" s="15" t="str">
-        <f>VLOOKUP(C19,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>하여튼 진짜.</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>1100002016</v>
-      </c>
-      <c r="B20" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="E67" s="15" t="str">
+        <f>VLOOKUP(C67,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006064</v>
+      </c>
+      <c r="B68" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D68" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E20" s="15" t="str">
-        <f>VLOOKUP(C20,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…근데 이게 그렇게 좋아?</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>1100002017</v>
-      </c>
-      <c r="B21" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="E68" s="15" t="str">
+        <f>VLOOKUP(C68,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>헤헷. 나도 좋아해.</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>100006065</v>
+      </c>
+      <c r="B69" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D69" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E21" s="15" t="str">
-        <f>VLOOKUP(C21,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>……!!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>1100002018</v>
-      </c>
-      <c r="B22" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="E69" s="15" t="str">
+        <f>VLOOKUP(C69,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>뭔가 안심되는 기분이야.</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="18" t="str">
+        <f t="shared" ref="A70:A75" si="1">B70&amp;IF(COUNTIF(C70,"*"&amp;"Part1"&amp;"*")&gt;1,1,IF(COUNTIF(C70,"*"&amp;"Part2"&amp;"*")&gt;1,2,IF(COUNTIF(C70,"*"&amp;"Part3"&amp;"*")&gt;1,3,IF(COUNTIF(C70,"*"&amp;"Part4"&amp;"*")&gt;1,4,0))))&amp;TEXT(ROW(A70)-4,"00")</f>
+        <v>100006066</v>
+      </c>
+      <c r="B70" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D70" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="E22" s="15" t="str">
-        <f>VLOOKUP(C22,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>자, 잠깐만! 역시 거기는 조금…!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>1100002019</v>
-      </c>
-      <c r="B23" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="E70" s="15" t="str">
+        <f>VLOOKUP(C70,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)이게 그렇게 좋아?</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006067</v>
+      </c>
+      <c r="B71" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D71" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E23" s="15" t="str">
-        <f>VLOOKUP(C23,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>꺅…?!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>1100002020</v>
-      </c>
-      <c r="B24" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="E71" s="15" t="str">
+        <f>VLOOKUP(C71,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>역시 그냥 핑계였지?</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006068</v>
+      </c>
+      <c r="B72" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C72" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D72" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="E24" s="15" t="str">
-        <f>VLOOKUP(C24,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>그만, 흣, 이상하다구우….</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>1100002021</v>
-      </c>
-      <c r="B25" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="E72" s="15" t="str">
+        <f>VLOOKUP(C72,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006069</v>
+      </c>
+      <c r="B73" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D73" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="E25" s="15" t="str">
-        <f>VLOOKUP(C25,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>윽… 앗… 흐읏….</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>1100002022</v>
-      </c>
-      <c r="B26" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="E73" s="15" t="str">
+        <f>VLOOKUP(C73,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006070</v>
+      </c>
+      <c r="B74" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D74" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E26" s="15" t="str">
-        <f>VLOOKUP(C26,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>하아, 하아, 하아….</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
-        <v>1100002023</v>
-      </c>
-      <c r="B27" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C27" s="4" t="s">
+      <c r="E74" s="15" t="str">
+        <f>VLOOKUP(C74,[3]dialog!$B:$C,2,FALSE)</f>
+        <v>꼭 근원 때문이 아니라도….</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="18" t="str">
+        <f t="shared" si="1"/>
+        <v>100006071</v>
+      </c>
+      <c r="B75" s="4">
+        <v>100006</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D75" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E27" s="15" t="str">
-        <f>VLOOKUP(C27,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…몰라, 멍충아.</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
-        <v>1100002024</v>
-      </c>
-      <c r="B28" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="E28" s="15" t="str">
-        <f>VLOOKUP(C28,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>뭐해? 빨리 해줘.</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
-        <v>1100002025</v>
-      </c>
-      <c r="B29" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E29" s="15" t="str">
-        <f>VLOOKUP(C29,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>1100002026</v>
-      </c>
-      <c r="B30" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="E30" s="15" t="str">
-        <f>VLOOKUP(C30,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>1100002027</v>
-      </c>
-      <c r="B31" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E31" s="15" t="str">
-        <f>VLOOKUP(C31,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>사랑받는다는 느낌이 든달까?</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>1100002028</v>
-      </c>
-      <c r="B32" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="15" t="str">
-        <f>VLOOKUP(C32,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>헤헷.</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>1100002029</v>
-      </c>
-      <c r="B33" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="E33" s="15" t="str">
-        <f>VLOOKUP(C33,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…….</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
-        <v>1100002030</v>
-      </c>
-      <c r="B34" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E34" s="15" t="str">
-        <f>VLOOKUP(C34,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(또 이렇게 말없이 보네.)</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
-        <v>1100002031</v>
-      </c>
-      <c r="B35" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="E35" s="15" t="str">
-        <f>VLOOKUP(C35,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(뭐, 지금은 이정도로도 충분한가….)</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
-        <v>1100002032</v>
-      </c>
-      <c r="B36" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E36" s="15" t="str">
-        <f>VLOOKUP(C36,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(……아니. 안 충분해.)</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
-        <v>1100002033</v>
-      </c>
-      <c r="B37" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="E37" s="15" t="str">
-        <f>VLOOKUP(C37,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>[쪽]</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>1100002034</v>
-      </c>
-      <c r="B38" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="E38" s="15" t="str">
-        <f>VLOOKUP(C38,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(웃음)그냥, 내가 하고 싶었어.</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>1100002035</v>
-      </c>
-      <c r="B39" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="E39" s="15" t="str">
-        <f>VLOOKUP(C39,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>으응….</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>1100002036</v>
-      </c>
-      <c r="B40" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="E40" s="15" t="str">
-        <f>VLOOKUP(C40,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>1100002037</v>
-      </c>
-      <c r="B41" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="E41" s="15" t="str">
-        <f>VLOOKUP(C41,[2]dialog!$B:$C,2,FALSE)</f>
-        <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
-        <v>1100002038</v>
-      </c>
-      <c r="B42" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E42" s="15" t="str">
-        <f>VLOOKUP(C42,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>나 덕분이라구? (웃음)</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
-        <v>1100002039</v>
-      </c>
-      <c r="B43" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="E43" s="15" t="str">
-        <f>VLOOKUP(C43,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>그런거면… 음….</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>1100002040</v>
-      </c>
-      <c r="B44" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E44" s="15" t="str">
-        <f>VLOOKUP(C44,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>더 만져도 되는데…?</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
-        <v>1100002041</v>
-      </c>
-      <c r="B45" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="E45" s="15" t="str">
-        <f>VLOOKUP(C45,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>으휴, 진짜 변태.</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>1100002042</v>
-      </c>
-      <c r="B46" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E46" s="15" t="str">
-        <f>VLOOKUP(C46,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(무드라도 좀 맞춰주든가.)</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>1100002043</v>
-      </c>
-      <c r="B47" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E47" s="15" t="str">
-        <f>VLOOKUP(C47,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…….</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>1100002044</v>
-      </c>
-      <c r="B48" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E48" s="15" t="str">
-        <f>VLOOKUP(C48,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(…얘도 많이 참고 있는 거구나.)</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>1100002045</v>
-      </c>
-      <c r="B49" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E49" s="15" t="str">
-        <f>VLOOKUP(C49,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>저기, 있지.</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>1100002046</v>
-      </c>
-      <c r="B50" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="E50" s="15" t="str">
-        <f>VLOOKUP(C50,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>할 거면….</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
-        <v>1100002047</v>
-      </c>
-      <c r="B51" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="E51" s="15" t="str">
-        <f>VLOOKUP(C51,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…끝까지, 제대로 해줘.</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
-        <v>100001001</v>
-      </c>
-      <c r="B52" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E52" s="15" t="str">
-        <f>VLOOKUP(C52,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>머리 헝클어지잖아~</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
-        <v>100001002</v>
-      </c>
-      <c r="B53" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="E53" s="15" t="str">
-        <f>VLOOKUP(C53,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>되는 거 맞아?</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
-        <v>100001003</v>
-      </c>
-      <c r="B54" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="E54" s="15" t="str">
-        <f>VLOOKUP(C54,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>흐음… 나도 해줄까?</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
-        <v>100001004</v>
-      </c>
-      <c r="B55" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E55" s="15" t="str">
-        <f>VLOOKUP(C55,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>그렇게 분위기 잡기야?</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
-        <v>100001005</v>
-      </c>
-      <c r="B56" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E56" s="15" t="str">
-        <f>VLOOKUP(C56,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(웃음)간지러워.</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
-        <v>100001006</v>
-      </c>
-      <c r="B57" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E57" s="15" t="str">
-        <f>VLOOKUP(C57,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>너 손 진짜 크다.</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
-        <v>100001007</v>
-      </c>
-      <c r="B58" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E58" s="15" t="str">
-        <f>VLOOKUP(C58,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…제대로 찾고 있는 거 맞지?</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
-        <v>100001008</v>
-      </c>
-      <c r="B59" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E59" s="15" t="str">
-        <f>VLOOKUP(C59,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
-        <v>100001009</v>
-      </c>
-      <c r="B60" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E60" s="15" t="str">
-        <f>VLOOKUP(C60,[2]dialog!$B:$C,2,FALSE)</f>
-        <v xml:space="preserve">……저기요. </v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
-        <v>100001010</v>
-      </c>
-      <c r="B61" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="E61" s="15" t="str">
-        <f>VLOOKUP(C61,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>뭐, 뭐하는 거야!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>100001011</v>
-      </c>
-      <c r="B62" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E62" s="15" t="str">
-        <f>VLOOKUP(C62,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>아무리 근원 때문이라도 거긴 안 돼!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
-        <v>100001012</v>
-      </c>
-      <c r="B63" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E63" s="15" t="str">
-        <f>VLOOKUP(C63,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>죽는다 진짜.</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>100001013</v>
-      </c>
-      <c r="B64" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="E64" s="15" t="str">
-        <f>VLOOKUP(C64,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>좋다아….</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
-        <v>100001014</v>
-      </c>
-      <c r="B65" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="E65" s="15" t="str">
-        <f>VLOOKUP(C65,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>100001015</v>
-      </c>
-      <c r="B66" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="E66" s="15" t="str">
-        <f>VLOOKUP(C66,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(작은 웃음)그냥 계속해줘.</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
-        <v>100001016</v>
-      </c>
-      <c r="B67" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="E67" s="15" t="str">
-        <f>VLOOKUP(C67,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>100001017</v>
-      </c>
-      <c r="B68" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E68" s="15" t="str">
-        <f>VLOOKUP(C68,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>헤헷. 나도 좋아해.</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
-        <v>100001018</v>
-      </c>
-      <c r="B69" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E69" s="15" t="str">
-        <f>VLOOKUP(C69,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>뭔가 안심되는 기분이야.</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>100001019</v>
-      </c>
-      <c r="B70" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E70" s="15" t="str">
-        <f>VLOOKUP(C70,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(웃음)이게 그렇게 좋아?</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
-        <v>100001020</v>
-      </c>
-      <c r="B71" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E71" s="15" t="str">
-        <f>VLOOKUP(C71,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>역시 그냥 핑계였지?</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>100001021</v>
-      </c>
-      <c r="B72" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E72" s="15" t="str">
-        <f>VLOOKUP(C72,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
-        <v>100001022</v>
-      </c>
-      <c r="B73" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E73" s="15" t="str">
-        <f>VLOOKUP(C73,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
-        <v>100001023</v>
-      </c>
-      <c r="B74" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E74" s="15" t="str">
-        <f>VLOOKUP(C74,[2]dialog!$B:$C,2,FALSE)</f>
-        <v>꼭 근원 때문이 아니라도….</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>100001024</v>
-      </c>
-      <c r="B75" s="4">
-        <v>100006</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>400</v>
-      </c>
       <c r="E75" s="15" t="str">
-        <f>VLOOKUP(C75,[2]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C75,[3]dialog!$B:$C,2,FALSE)</f>
         <v>너, 너무 본격적으로는 안 돼.</v>
       </c>
     </row>
@@ -8013,154 +9022,200 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A574ABB5-6EF5-4270-9FE1-AD809E1F99F3}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="79.625" customWidth="1"/>
-    <col min="3" max="3" width="50.625" customWidth="1"/>
+    <col min="3" max="3" width="46.25" customWidth="1"/>
+    <col min="4" max="4" width="50.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>409</v>
+        <v>361</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>362</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>10000601</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>10000602</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10000603</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>10000604</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>10000605</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>10000606</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10000607</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10000608</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>10000609</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10000610</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>10000611</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>366</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>10000612</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>411</v>
+        <v>366</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1301C9-7393-4EDA-94D3-98459C0C85BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E142B-652D-4CC1-9330-DD0BA80F61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1815" windowWidth="32760" windowHeight="18330" tabRatio="707" firstSheet="2" activeTab="8" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="1170" yWindow="615" windowWidth="36780" windowHeight="19395" tabRatio="707" firstSheet="2" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,6 @@
   <externalReferences>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="386">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1581,6 +1580,10 @@
   </si>
   <si>
     <t>[100006036,100006037,1000060368,100006039]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100006013,100006014,100006015,100006016]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2264,1302 +2267,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="!Usable"/>
-      <sheetName val="!Desc"/>
-      <sheetName val="!참조_ENUM"/>
-      <sheetName val="me_resource_data"/>
-      <sheetName val="me_state_data"/>
-      <sheetName val="me_interaction_data"/>
-      <sheetName val="me_chat_motion_data"/>
-      <sheetName val="me_serifu_data"/>
-      <sheetName val="!me_timeline_data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Me_Serifu_Data</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>대사 인덱스</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>캐릭터 고유 아이디</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>캐릭터 대사</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>보이스 파일 아이디_스트링 테이블 참조</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>대사 내용 추적</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>key_1:int</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>int</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>string</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>string</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>string</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>serifu_id</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>player_character_id</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>dialogue_text_id</v>
-          </cell>
-          <cell r="D4" t="str">
-            <v>audio_clip_id</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>#dialogue_text</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>100006001</v>
-          </cell>
-          <cell r="B5">
-            <v>100006</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>dialog_Eileen_OriginOk_Part1_Lv0_1</v>
-          </cell>
-          <cell r="D5" t="str">
-            <v>voice_Eileen_OriginOk_Part1_Lv0_1</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>머리 안 헝클어지게 해~</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>100006002</v>
-          </cell>
-          <cell r="B6">
-            <v>100006</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv0_1</v>
-          </cell>
-          <cell r="D6" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv0_1</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>100006003</v>
-          </cell>
-          <cell r="B7">
-            <v>100006</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv0_2</v>
-          </cell>
-          <cell r="D7" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv0_2</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>나는 그냥… 행복이 충전되는 기분?</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>100006004</v>
-          </cell>
-          <cell r="B8">
-            <v>100006</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv0_3</v>
-          </cell>
-          <cell r="D8" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv0_3</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>응. 기분 좋아.</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>100006005</v>
-          </cell>
-          <cell r="B9">
-            <v>100006</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv0_4</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv0_4</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>(웃음)너도 해줄까?</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>100006006</v>
-          </cell>
-          <cell r="B10">
-            <v>100006</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>dialog_Eileen_OriginOk_Part2_Lv0_1</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>voice_Eileen_OriginOk_Part2_Lv0_1</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>뭐, 뭐하게?! 아….</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>100006007</v>
-          </cell>
-          <cell r="B11">
-            <v>100006</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv0_1</v>
-          </cell>
-          <cell r="D11" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv0_1</v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>(키, 키스하는 줄 알았네….)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>100006008</v>
-          </cell>
-          <cell r="B12">
-            <v>100006</v>
-          </cell>
-          <cell r="C12" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv0_2</v>
-          </cell>
-          <cell r="D12" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv0_2</v>
-          </cell>
-          <cell r="E12" t="str">
-            <v>(싫은 건, 아니지만….)</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>100006009</v>
-          </cell>
-          <cell r="B13">
-            <v>100006</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv0_3</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv0_3</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>…….</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>100006010</v>
-          </cell>
-          <cell r="B14">
-            <v>100006</v>
-          </cell>
-          <cell r="C14" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv0_4</v>
-          </cell>
-          <cell r="D14" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv0_4</v>
-          </cell>
-          <cell r="E14" t="str">
-            <v>무, 뭐라고 말좀 해.</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>100006011</v>
-          </cell>
-          <cell r="B15">
-            <v>100006</v>
-          </cell>
-          <cell r="C15" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv0_5</v>
-          </cell>
-          <cell r="D15" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv0_5</v>
-          </cell>
-          <cell r="E15" t="str">
-            <v>(으… 자꾸 의식하게 되잖아….)</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>100006012</v>
-          </cell>
-          <cell r="B16">
-            <v>100006</v>
-          </cell>
-          <cell r="C16" t="str">
-            <v>dialog_Eileen_OriginOk_Part3_Lv0_1</v>
-          </cell>
-          <cell r="D16" t="str">
-            <v>voice_Eileen_OriginOk_Part3_Lv0_1</v>
-          </cell>
-          <cell r="E16" t="str">
-            <v>가슴은 좀 부끄러운데….</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>100006013</v>
-          </cell>
-          <cell r="B17">
-            <v>100006</v>
-          </cell>
-          <cell r="C17" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv0_1</v>
-          </cell>
-          <cell r="D17" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv0_1</v>
-          </cell>
-          <cell r="E17" t="str">
-            <v>그래도 손만 대는 거면-</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>100006014</v>
-          </cell>
-          <cell r="B18">
-            <v>100006</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv0_2</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv0_2</v>
-          </cell>
-          <cell r="E18" t="str">
-            <v>…누가 그렇게 만지작거리랬어.</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>100006015</v>
-          </cell>
-          <cell r="B19">
-            <v>100006</v>
-          </cell>
-          <cell r="C19" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv0_3</v>
-          </cell>
-          <cell r="D19" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv0_3</v>
-          </cell>
-          <cell r="E19" t="str">
-            <v>하여튼 진짜.</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>100006016</v>
-          </cell>
-          <cell r="B20">
-            <v>100006</v>
-          </cell>
-          <cell r="C20" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv0_4</v>
-          </cell>
-          <cell r="D20" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv0_4</v>
-          </cell>
-          <cell r="E20" t="str">
-            <v>…근데 이게 그렇게 좋아?</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>100006017</v>
-          </cell>
-          <cell r="B21">
-            <v>100006</v>
-          </cell>
-          <cell r="C21" t="str">
-            <v>dialog_Eileen_OriginOk_Part4_Lv0_1</v>
-          </cell>
-          <cell r="D21" t="str">
-            <v>voice_Eileen_OriginOk_Part4_Lv0_1</v>
-          </cell>
-          <cell r="E21" t="str">
-            <v>……!!</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>100006018</v>
-          </cell>
-          <cell r="B22">
-            <v>100006</v>
-          </cell>
-          <cell r="C22" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv0_1</v>
-          </cell>
-          <cell r="D22" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv0_1</v>
-          </cell>
-          <cell r="E22" t="str">
-            <v>자, 잠깐만! 역시 거기는 조금…!</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>100006019</v>
-          </cell>
-          <cell r="B23">
-            <v>100006</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv0_2</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv0_2</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>꺅…?!</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>100006020</v>
-          </cell>
-          <cell r="B24">
-            <v>100006</v>
-          </cell>
-          <cell r="C24" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv0_3</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv0_3</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>그만, 흣, 이상하다구우….</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>100006021</v>
-          </cell>
-          <cell r="B25">
-            <v>100006</v>
-          </cell>
-          <cell r="C25" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv0_4</v>
-          </cell>
-          <cell r="D25" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv0_4</v>
-          </cell>
-          <cell r="E25" t="str">
-            <v>윽… 앗… 흐읏….</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>100006022</v>
-          </cell>
-          <cell r="B26">
-            <v>100006</v>
-          </cell>
-          <cell r="C26" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv0_5</v>
-          </cell>
-          <cell r="D26" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv0_5</v>
-          </cell>
-          <cell r="E26" t="str">
-            <v>하아, 하아, 하아….</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>100006023</v>
-          </cell>
-          <cell r="B27">
-            <v>100006</v>
-          </cell>
-          <cell r="C27" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv0_6</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv0_6</v>
-          </cell>
-          <cell r="E27" t="str">
-            <v>…몰라, 멍충아.</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>100006024</v>
-          </cell>
-          <cell r="B28">
-            <v>100006</v>
-          </cell>
-          <cell r="C28" t="str">
-            <v>dialog_Eileen_OriginOk_Part1_Lv1_1</v>
-          </cell>
-          <cell r="D28" t="str">
-            <v>voice_Eileen_OriginOk_Part1_Lv1_1</v>
-          </cell>
-          <cell r="E28" t="str">
-            <v>뭐해? 빨리 해줘.</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>100006025</v>
-          </cell>
-          <cell r="B29">
-            <v>100006</v>
-          </cell>
-          <cell r="C29" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv1_1</v>
-          </cell>
-          <cell r="D29" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv1_1</v>
-          </cell>
-          <cell r="E29" t="str">
-            <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>100006026</v>
-          </cell>
-          <cell r="B30">
-            <v>100006</v>
-          </cell>
-          <cell r="C30" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv1_2</v>
-          </cell>
-          <cell r="D30" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv1_2</v>
-          </cell>
-          <cell r="E30" t="str">
-            <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>100006027</v>
-          </cell>
-          <cell r="B31">
-            <v>100006</v>
-          </cell>
-          <cell r="C31" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv1_3</v>
-          </cell>
-          <cell r="D31" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv1_3</v>
-          </cell>
-          <cell r="E31" t="str">
-            <v>사랑받는다는 느낌이 든달까?</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>100006028</v>
-          </cell>
-          <cell r="B32">
-            <v>100006</v>
-          </cell>
-          <cell r="C32" t="str">
-            <v>dialog_Eileen_OriginPass_Part1_Lv1_4</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>voice_Eileen_OriginPass_Part1_Lv1_4</v>
-          </cell>
-          <cell r="E32" t="str">
-            <v>헤헷.</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>100006029</v>
-          </cell>
-          <cell r="B33">
-            <v>100006</v>
-          </cell>
-          <cell r="C33" t="str">
-            <v>dialog_Eileen_OriginOk_Part2_Lv1_1</v>
-          </cell>
-          <cell r="D33" t="str">
-            <v>voice_Eileen_OriginOk_Part2_Lv1_1</v>
-          </cell>
-          <cell r="E33" t="str">
-            <v>…….</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>100006030</v>
-          </cell>
-          <cell r="B34">
-            <v>100006</v>
-          </cell>
-          <cell r="C34" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv1_1</v>
-          </cell>
-          <cell r="D34" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv1_1</v>
-          </cell>
-          <cell r="E34" t="str">
-            <v>(또 이렇게 말없이 보네.)</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>100006031</v>
-          </cell>
-          <cell r="B35">
-            <v>100006</v>
-          </cell>
-          <cell r="C35" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv1_2</v>
-          </cell>
-          <cell r="D35" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv1_2</v>
-          </cell>
-          <cell r="E35" t="str">
-            <v>(뭐, 지금은 이정도로도 충분한가….)</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>100006032</v>
-          </cell>
-          <cell r="B36">
-            <v>100006</v>
-          </cell>
-          <cell r="C36" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv1_3</v>
-          </cell>
-          <cell r="D36" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv1_3</v>
-          </cell>
-          <cell r="E36" t="str">
-            <v>(……아니. 안 충분해.)</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>100006033</v>
-          </cell>
-          <cell r="B37">
-            <v>100006</v>
-          </cell>
-          <cell r="C37" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv1_4</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv1_4</v>
-          </cell>
-          <cell r="E37" t="str">
-            <v>[쪽]</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>100006034</v>
-          </cell>
-          <cell r="B38">
-            <v>100006</v>
-          </cell>
-          <cell r="C38" t="str">
-            <v>dialog_Eileen_OriginPass_Part2_Lv1_5</v>
-          </cell>
-          <cell r="D38" t="str">
-            <v>voice_Eileen_OriginPass_Part2_Lv1_5</v>
-          </cell>
-          <cell r="E38" t="str">
-            <v>(웃음)그냥, 내가 하고 싶었어.</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>100006035</v>
-          </cell>
-          <cell r="B39">
-            <v>100006</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>dialog_Eileen_OriginOk_Part3_Lv1_1</v>
-          </cell>
-          <cell r="D39" t="str">
-            <v>voice_Eileen_OriginOk_Part3_Lv1_1</v>
-          </cell>
-          <cell r="E39" t="str">
-            <v>으응….</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>100006036</v>
-          </cell>
-          <cell r="B40">
-            <v>100006</v>
-          </cell>
-          <cell r="C40" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv1_1</v>
-          </cell>
-          <cell r="D40" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv1_1</v>
-          </cell>
-          <cell r="E40" t="str">
-            <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>100006037</v>
-          </cell>
-          <cell r="B41">
-            <v>100006</v>
-          </cell>
-          <cell r="C41" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv1_2</v>
-          </cell>
-          <cell r="D41" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv1_2</v>
-          </cell>
-          <cell r="E41" t="str">
-            <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>100006038</v>
-          </cell>
-          <cell r="B42">
-            <v>100006</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv1_3</v>
-          </cell>
-          <cell r="D42" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv1_3</v>
-          </cell>
-          <cell r="E42" t="str">
-            <v>나 덕분이라구? (웃음)</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>100006039</v>
-          </cell>
-          <cell r="B43">
-            <v>100006</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv1_4</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv1_4</v>
-          </cell>
-          <cell r="E43" t="str">
-            <v>그런거면… 음….</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>100006040</v>
-          </cell>
-          <cell r="B44">
-            <v>100006</v>
-          </cell>
-          <cell r="C44" t="str">
-            <v>dialog_Eileen_OriginPass_Part3_Lv1_5</v>
-          </cell>
-          <cell r="D44" t="str">
-            <v>voice_Eileen_OriginPass_Part3_Lv1_5</v>
-          </cell>
-          <cell r="E44" t="str">
-            <v>더 만져도 되는데…?</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>100006041</v>
-          </cell>
-          <cell r="B45">
-            <v>100006</v>
-          </cell>
-          <cell r="C45" t="str">
-            <v>dialog_Eileen_OriginOk_Part4_Lv1_1</v>
-          </cell>
-          <cell r="D45" t="str">
-            <v>voice_Eileen_OriginOk_Part4_Lv1_1</v>
-          </cell>
-          <cell r="E45" t="str">
-            <v>으휴, 진짜 변태.</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>100006042</v>
-          </cell>
-          <cell r="B46">
-            <v>100006</v>
-          </cell>
-          <cell r="C46" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv1_1</v>
-          </cell>
-          <cell r="D46" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv1_1</v>
-          </cell>
-          <cell r="E46" t="str">
-            <v>(무드라도 좀 맞춰주든가.)</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>100006043</v>
-          </cell>
-          <cell r="B47">
-            <v>100006</v>
-          </cell>
-          <cell r="C47" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv1_2</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv1_2</v>
-          </cell>
-          <cell r="E47" t="str">
-            <v>…….</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>100006044</v>
-          </cell>
-          <cell r="B48">
-            <v>100006</v>
-          </cell>
-          <cell r="C48" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv1_3</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv1_3</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>(…얘도 많이 참고 있는 거구나.)</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>100006045</v>
-          </cell>
-          <cell r="B49">
-            <v>100006</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv1_4</v>
-          </cell>
-          <cell r="D49" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv1_4</v>
-          </cell>
-          <cell r="E49" t="str">
-            <v>저기, 있지.</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>100006046</v>
-          </cell>
-          <cell r="B50">
-            <v>100006</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv1_5</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv1_5</v>
-          </cell>
-          <cell r="E50" t="str">
-            <v>할 거면….</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>100006047</v>
-          </cell>
-          <cell r="B51">
-            <v>100006</v>
-          </cell>
-          <cell r="C51" t="str">
-            <v>dialog_Eileen_OriginPass_Part4_Lv1_6</v>
-          </cell>
-          <cell r="D51" t="str">
-            <v>voice_Eileen_OriginPass_Part4_Lv1_6</v>
-          </cell>
-          <cell r="E51" t="str">
-            <v>…끝까지, 제대로 해줘.</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>100006048</v>
-          </cell>
-          <cell r="B52">
-            <v>100006</v>
-          </cell>
-          <cell r="C52" t="str">
-            <v>dialog_Eileen_OriginNG_Part1_Lv0_1</v>
-          </cell>
-          <cell r="D52" t="str">
-            <v>voice_Eileen_OriginNG_Part1_Lv0_1</v>
-          </cell>
-          <cell r="E52" t="str">
-            <v>머리 헝클어지잖아~</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>100006049</v>
-          </cell>
-          <cell r="B53">
-            <v>100006</v>
-          </cell>
-          <cell r="C53" t="str">
-            <v>dialog_Eileen_OriginNG_Part1_Lv0_2</v>
-          </cell>
-          <cell r="D53" t="str">
-            <v>voice_Eileen_OriginNG_Part1_Lv0_2</v>
-          </cell>
-          <cell r="E53" t="str">
-            <v>되는 거 맞아?</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>100006050</v>
-          </cell>
-          <cell r="B54">
-            <v>100006</v>
-          </cell>
-          <cell r="C54" t="str">
-            <v>dialog_Eileen_OriginNG_Part1_Lv0_3</v>
-          </cell>
-          <cell r="D54" t="str">
-            <v>voice_Eileen_OriginNG_Part1_Lv0_3</v>
-          </cell>
-          <cell r="E54" t="str">
-            <v>흐음… 나도 해줄까?</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>100006051</v>
-          </cell>
-          <cell r="B55">
-            <v>100006</v>
-          </cell>
-          <cell r="C55" t="str">
-            <v>dialog_Eileen_OriginNG_Part2_Lv0_1</v>
-          </cell>
-          <cell r="D55" t="str">
-            <v>voice_Eileen_OriginNG_Part2_Lv0_1</v>
-          </cell>
-          <cell r="E55" t="str">
-            <v>그렇게 분위기 잡기야?</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>100006052</v>
-          </cell>
-          <cell r="B56">
-            <v>100006</v>
-          </cell>
-          <cell r="C56" t="str">
-            <v>dialog_Eileen_OriginNG_Part2_Lv0_2</v>
-          </cell>
-          <cell r="D56" t="str">
-            <v>voice_Eileen_OriginNG_Part2_Lv0_2</v>
-          </cell>
-          <cell r="E56" t="str">
-            <v>(웃음)간지러워.</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>100006053</v>
-          </cell>
-          <cell r="B57">
-            <v>100006</v>
-          </cell>
-          <cell r="C57" t="str">
-            <v>dialog_Eileen_OriginNG_Part2_Lv0_3</v>
-          </cell>
-          <cell r="D57" t="str">
-            <v>voice_Eileen_OriginNG_Part2_Lv0_3</v>
-          </cell>
-          <cell r="E57" t="str">
-            <v>너 손 진짜 크다.</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>100006054</v>
-          </cell>
-          <cell r="B58">
-            <v>100006</v>
-          </cell>
-          <cell r="C58" t="str">
-            <v>dialog_Eileen_OriginNG_Part3_Lv0_1</v>
-          </cell>
-          <cell r="D58" t="str">
-            <v>voice_Eileen_OriginNG_Part3_Lv0_1</v>
-          </cell>
-          <cell r="E58" t="str">
-            <v>…제대로 찾고 있는 거 맞지?</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>100006055</v>
-          </cell>
-          <cell r="B59">
-            <v>100006</v>
-          </cell>
-          <cell r="C59" t="str">
-            <v>dialog_Eileen_OriginNG_Part3_Lv0_2</v>
-          </cell>
-          <cell r="D59" t="str">
-            <v>voice_Eileen_OriginNG_Part3_Lv0_2</v>
-          </cell>
-          <cell r="E59" t="str">
-            <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>100006056</v>
-          </cell>
-          <cell r="B60">
-            <v>100006</v>
-          </cell>
-          <cell r="C60" t="str">
-            <v>dialog_Eileen_OriginNG_Part3_Lv0_3</v>
-          </cell>
-          <cell r="D60" t="str">
-            <v>voice_Eileen_OriginNG_Part3_Lv0_3</v>
-          </cell>
-          <cell r="E60" t="str">
-            <v xml:space="preserve">……저기요. </v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>100006057</v>
-          </cell>
-          <cell r="B61">
-            <v>100006</v>
-          </cell>
-          <cell r="C61" t="str">
-            <v>dialog_Eileen_OriginNG_Part4_Lv0_1</v>
-          </cell>
-          <cell r="D61" t="str">
-            <v>voice_Eileen_OriginNG_Part4_Lv0_1</v>
-          </cell>
-          <cell r="E61" t="str">
-            <v>뭐, 뭐하는 거야!</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>100006058</v>
-          </cell>
-          <cell r="B62">
-            <v>100006</v>
-          </cell>
-          <cell r="C62" t="str">
-            <v>dialog_Eileen_OriginNG_Part4_Lv0_2</v>
-          </cell>
-          <cell r="D62" t="str">
-            <v>voice_Eileen_OriginNG_Part4_Lv0_2</v>
-          </cell>
-          <cell r="E62" t="str">
-            <v>아무리 근원 때문이라도 거긴 안 돼!</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>100006059</v>
-          </cell>
-          <cell r="B63">
-            <v>100006</v>
-          </cell>
-          <cell r="C63" t="str">
-            <v>dialog_Eileen_OriginNG_Part4_Lv0_3</v>
-          </cell>
-          <cell r="D63" t="str">
-            <v>voice_Eileen_OriginNG_Part4_Lv0_3</v>
-          </cell>
-          <cell r="E63" t="str">
-            <v>죽는다 진짜.</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>100006060</v>
-          </cell>
-          <cell r="B64">
-            <v>100006</v>
-          </cell>
-          <cell r="C64" t="str">
-            <v>dialog_Eileen_OriginNG_Part1_Lv1_1</v>
-          </cell>
-          <cell r="D64" t="str">
-            <v>voice_Eileen_OriginNG_Part1_Lv1_1</v>
-          </cell>
-          <cell r="E64" t="str">
-            <v>좋다아….</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>100006061</v>
-          </cell>
-          <cell r="B65">
-            <v>100006</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>dialog_Eileen_OriginNG_Part1_Lv1_2</v>
-          </cell>
-          <cell r="D65" t="str">
-            <v>voice_Eileen_OriginNG_Part1_Lv1_2</v>
-          </cell>
-          <cell r="E65" t="str">
-            <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>100006062</v>
-          </cell>
-          <cell r="B66">
-            <v>100006</v>
-          </cell>
-          <cell r="C66" t="str">
-            <v>dialog_Eileen_OriginNG_Part1_Lv1_3</v>
-          </cell>
-          <cell r="D66" t="str">
-            <v>voice_Eileen_OriginNG_Part1_Lv1_3</v>
-          </cell>
-          <cell r="E66" t="str">
-            <v>(작은 웃음)그냥 계속해줘.</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>100006063</v>
-          </cell>
-          <cell r="B67">
-            <v>100006</v>
-          </cell>
-          <cell r="C67" t="str">
-            <v>dialog_Eileen_OriginNG_Part2_Lv1_1</v>
-          </cell>
-          <cell r="D67" t="str">
-            <v>voice_Eileen_OriginNG_Part2_Lv1_1</v>
-          </cell>
-          <cell r="E67" t="str">
-            <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>100006064</v>
-          </cell>
-          <cell r="B68">
-            <v>100006</v>
-          </cell>
-          <cell r="C68" t="str">
-            <v>dialog_Eileen_OriginNG_Part2_Lv1_2</v>
-          </cell>
-          <cell r="D68" t="str">
-            <v>voice_Eileen_OriginNG_Part2_Lv1_2</v>
-          </cell>
-          <cell r="E68" t="str">
-            <v>헤헷. 나도 좋아해.</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>100006065</v>
-          </cell>
-          <cell r="B69">
-            <v>100006</v>
-          </cell>
-          <cell r="C69" t="str">
-            <v>dialog_Eileen_OriginNG_Part2_Lv1_3</v>
-          </cell>
-          <cell r="D69" t="str">
-            <v>voice_Eileen_OriginNG_Part2_Lv1_3</v>
-          </cell>
-          <cell r="E69" t="str">
-            <v>뭔가 안심되는 기분이야.</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>100006066</v>
-          </cell>
-          <cell r="B70">
-            <v>100006</v>
-          </cell>
-          <cell r="C70" t="str">
-            <v>dialog_Eileen_OriginNG_Part3_Lv1_1</v>
-          </cell>
-          <cell r="D70" t="str">
-            <v>voice_Eileen_OriginNG_Part3_Lv1_1</v>
-          </cell>
-          <cell r="E70" t="str">
-            <v>(웃음)이게 그렇게 좋아?</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>100006067</v>
-          </cell>
-          <cell r="B71">
-            <v>100006</v>
-          </cell>
-          <cell r="C71" t="str">
-            <v>dialog_Eileen_OriginNG_Part3_Lv1_2</v>
-          </cell>
-          <cell r="D71" t="str">
-            <v>voice_Eileen_OriginNG_Part3_Lv1_2</v>
-          </cell>
-          <cell r="E71" t="str">
-            <v>역시 그냥 핑계였지?</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>100006068</v>
-          </cell>
-          <cell r="B72">
-            <v>100006</v>
-          </cell>
-          <cell r="C72" t="str">
-            <v>dialog_Eileen_OriginNG_Part3_Lv1_3</v>
-          </cell>
-          <cell r="D72" t="str">
-            <v>voice_Eileen_OriginNG_Part3_Lv1_3</v>
-          </cell>
-          <cell r="E72" t="str">
-            <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>100006069</v>
-          </cell>
-          <cell r="B73">
-            <v>100006</v>
-          </cell>
-          <cell r="C73" t="str">
-            <v>dialog_Eileen_OriginNG_Part4_Lv1_1</v>
-          </cell>
-          <cell r="D73" t="str">
-            <v>voice_Eileen_OriginNG_Part4_Lv1_1</v>
-          </cell>
-          <cell r="E73" t="str">
-            <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>100006070</v>
-          </cell>
-          <cell r="B74">
-            <v>100006</v>
-          </cell>
-          <cell r="C74" t="str">
-            <v>dialog_Eileen_OriginNG_Part4_Lv1_2</v>
-          </cell>
-          <cell r="D74" t="str">
-            <v>voice_Eileen_OriginNG_Part4_Lv1_2</v>
-          </cell>
-          <cell r="E74" t="str">
-            <v>꼭 근원 때문이 아니라도….</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>100006071</v>
-          </cell>
-          <cell r="B75">
-            <v>100006</v>
-          </cell>
-          <cell r="C75" t="str">
-            <v>dialog_Eileen_OriginNG_Part4_Lv1_3</v>
-          </cell>
-          <cell r="D75" t="str">
-            <v>voice_Eileen_OriginNG_Part4_Lv1_3</v>
-          </cell>
-          <cell r="E75" t="str">
-            <v>너, 너무 본격적으로는 안 돼.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="8"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -6763,8 +5470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6864,7 +5571,7 @@
         <v>139</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(E5="[]","",VLOOKUP(E5,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E5="[]","",VLOOKUP(E5,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -6885,7 +5592,7 @@
         <v>139</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(E6="[]","",VLOOKUP(E6,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E6="[]","",VLOOKUP(E6,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -6906,7 +5613,7 @@
         <v>139</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(E7="[]","",VLOOKUP(E7,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E7="[]","",VLOOKUP(E7,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -6927,7 +5634,7 @@
         <v>139</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(E8="[]","",VLOOKUP(E8,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E8="[]","",VLOOKUP(E8,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -6948,7 +5655,7 @@
         <v>368</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(E9="[]","",VLOOKUP(E9,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E9="[]","",VLOOKUP(E9,me_serifu_data!A:E,5,FALSE))</f>
         <v>머리 헝클어지잖아~</v>
       </c>
     </row>
@@ -6969,7 +5676,7 @@
         <v>369</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(E10="[]","",VLOOKUP(E10,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E10="[]","",VLOOKUP(E10,me_serifu_data!A:E,5,FALSE))</f>
         <v>좋다아….</v>
       </c>
     </row>
@@ -6990,7 +5697,7 @@
         <v>370</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(E11="[]","",VLOOKUP(E11,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E11="[]","",VLOOKUP(E11,me_serifu_data!A:E,5,FALSE))</f>
         <v>머리 안 헝클어지게 해~</v>
       </c>
     </row>
@@ -7011,7 +5718,7 @@
         <v>371</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(E12="[]","",VLOOKUP(E12,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E12="[]","",VLOOKUP(E12,me_serifu_data!A:E,5,FALSE))</f>
         <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
       </c>
     </row>
@@ -7032,7 +5739,7 @@
         <v>372</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(E13="[]","",VLOOKUP(E13,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E13="[]","",VLOOKUP(E13,me_serifu_data!A:E,5,FALSE))</f>
         <v>그렇게 분위기 잡기야?</v>
       </c>
     </row>
@@ -7053,7 +5760,7 @@
         <v>373</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(E14="[]","",VLOOKUP(E14,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E14="[]","",VLOOKUP(E14,me_serifu_data!A:E,5,FALSE))</f>
         <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
       </c>
     </row>
@@ -7074,7 +5781,7 @@
         <v>374</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(E15="[]","",VLOOKUP(E15,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E15="[]","",VLOOKUP(E15,me_serifu_data!A:E,5,FALSE))</f>
         <v>뭐, 뭐하게?! 아….</v>
       </c>
     </row>
@@ -7095,7 +5802,7 @@
         <v>375</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(E16="[]","",VLOOKUP(E16,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E16="[]","",VLOOKUP(E16,me_serifu_data!A:E,5,FALSE))</f>
         <v>(또 이렇게 말없이 보네.)</v>
       </c>
     </row>
@@ -7116,7 +5823,7 @@
         <v>376</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(E17="[]","",VLOOKUP(E17,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E17="[]","",VLOOKUP(E17,me_serifu_data!A:E,5,FALSE))</f>
         <v>…제대로 찾고 있는 거 맞지?</v>
       </c>
     </row>
@@ -7137,7 +5844,7 @@
         <v>377</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(E18="[]","",VLOOKUP(E18,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E18="[]","",VLOOKUP(E18,me_serifu_data!A:E,5,FALSE))</f>
         <v>(웃음)이게 그렇게 좋아?</v>
       </c>
     </row>
@@ -7155,10 +5862,10 @@
         <v>169</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F19" t="e">
-        <f>IF(E19="[]","",VLOOKUP(E19,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E19="[]","",VLOOKUP(E19,me_serifu_data!A:E,5,FALSE))</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -7179,7 +5886,7 @@
         <v>378</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(E20="[]","",VLOOKUP(E20,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E20="[]","",VLOOKUP(E20,me_serifu_data!A:E,5,FALSE))</f>
         <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
       </c>
     </row>
@@ -7200,7 +5907,7 @@
         <v>379</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(E21="[]","",VLOOKUP(E21,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E21="[]","",VLOOKUP(E21,me_serifu_data!A:E,5,FALSE))</f>
         <v>뭐, 뭐하는 거야!</v>
       </c>
     </row>
@@ -7221,7 +5928,7 @@
         <v>380</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(E22="[]","",VLOOKUP(E22,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E22="[]","",VLOOKUP(E22,me_serifu_data!A:E,5,FALSE))</f>
         <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
       </c>
     </row>
@@ -7242,7 +5949,7 @@
         <v>381</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(E23="[]","",VLOOKUP(E23,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E23="[]","",VLOOKUP(E23,me_serifu_data!A:E,5,FALSE))</f>
         <v>자, 잠깐만! 역시 거기는 조금…!</v>
       </c>
     </row>
@@ -7263,7 +5970,7 @@
         <v>382</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(E24="[]","",VLOOKUP(E24,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E24="[]","",VLOOKUP(E24,me_serifu_data!A:E,5,FALSE))</f>
         <v>(무드라도 좀 맞춰주든가.)</v>
       </c>
     </row>
@@ -7284,7 +5991,7 @@
         <v>139</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(E25="[]","",VLOOKUP(E25,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E25="[]","",VLOOKUP(E25,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7305,7 +6012,7 @@
         <v>139</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(E26="[]","",VLOOKUP(E26,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E26="[]","",VLOOKUP(E26,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7326,7 +6033,7 @@
         <v>139</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(E27="[]","",VLOOKUP(E27,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E27="[]","",VLOOKUP(E27,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7347,7 +6054,7 @@
         <v>139</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(E28="[]","",VLOOKUP(E28,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E28="[]","",VLOOKUP(E28,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7368,7 +6075,7 @@
         <v>139</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(E29="[]","",VLOOKUP(E29,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E29="[]","",VLOOKUP(E29,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7389,7 +6096,7 @@
         <v>139</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(E30="[]","",VLOOKUP(E30,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E30="[]","",VLOOKUP(E30,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7410,7 +6117,7 @@
         <v>139</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(E31="[]","",VLOOKUP(E31,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E31="[]","",VLOOKUP(E31,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7431,7 +6138,7 @@
         <v>139</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(E32="[]","",VLOOKUP(E32,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E32="[]","",VLOOKUP(E32,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7452,7 +6159,7 @@
         <v>139</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(E33="[]","",VLOOKUP(E33,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E33="[]","",VLOOKUP(E33,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7473,7 +6180,7 @@
         <v>139</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(E34="[]","",VLOOKUP(E34,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E34="[]","",VLOOKUP(E34,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7494,7 +6201,7 @@
         <v>139</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(E35="[]","",VLOOKUP(E35,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E35="[]","",VLOOKUP(E35,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7515,7 +6222,7 @@
         <v>139</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(E36="[]","",VLOOKUP(E36,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E36="[]","",VLOOKUP(E36,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7536,7 +6243,7 @@
         <v>139</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(E37="[]","",VLOOKUP(E37,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E37="[]","",VLOOKUP(E37,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7557,7 +6264,7 @@
         <v>139</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(E38="[]","",VLOOKUP(E38,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E38="[]","",VLOOKUP(E38,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7578,7 +6285,7 @@
         <v>139</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(E39="[]","",VLOOKUP(E39,[2]me_serifu_data!A:E,5,FALSE))</f>
+        <f>IF(E39="[]","",VLOOKUP(E39,me_serifu_data!A:E,5,FALSE))</f>
         <v/>
       </c>
     </row>
@@ -7592,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7680,7 +6387,7 @@
         <v>282</v>
       </c>
       <c r="E5" s="15" t="str">
-        <f>VLOOKUP(C5,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C5,[2]dialog!$B:$C,2,FALSE)</f>
         <v>머리 안 헝클어지게 해~</v>
       </c>
     </row>
@@ -7699,7 +6406,7 @@
         <v>283</v>
       </c>
       <c r="E6" s="15" t="str">
-        <f>VLOOKUP(C6,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C6,[2]dialog!$B:$C,2,FALSE)</f>
         <v>되게 진지하네. 그렇게 집중해야 되는 거야?</v>
       </c>
     </row>
@@ -7718,7 +6425,7 @@
         <v>284</v>
       </c>
       <c r="E7" s="15" t="str">
-        <f>VLOOKUP(C7,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C7,[2]dialog!$B:$C,2,FALSE)</f>
         <v>나는 그냥… 행복이 충전되는 기분?</v>
       </c>
     </row>
@@ -7737,7 +6444,7 @@
         <v>285</v>
       </c>
       <c r="E8" s="15" t="str">
-        <f>VLOOKUP(C8,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C8,[2]dialog!$B:$C,2,FALSE)</f>
         <v>응. 기분 좋아.</v>
       </c>
     </row>
@@ -7756,7 +6463,7 @@
         <v>286</v>
       </c>
       <c r="E9" s="15" t="str">
-        <f>VLOOKUP(C9,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C9,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)너도 해줄까?</v>
       </c>
     </row>
@@ -7775,7 +6482,7 @@
         <v>287</v>
       </c>
       <c r="E10" s="15" t="str">
-        <f>VLOOKUP(C10,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C10,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭐, 뭐하게?! 아….</v>
       </c>
     </row>
@@ -7794,7 +6501,7 @@
         <v>288</v>
       </c>
       <c r="E11" s="15" t="str">
-        <f>VLOOKUP(C11,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C11,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(키, 키스하는 줄 알았네….)</v>
       </c>
     </row>
@@ -7813,7 +6520,7 @@
         <v>289</v>
       </c>
       <c r="E12" s="15" t="str">
-        <f>VLOOKUP(C12,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C12,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(싫은 건, 아니지만….)</v>
       </c>
     </row>
@@ -7832,7 +6539,7 @@
         <v>290</v>
       </c>
       <c r="E13" s="15" t="str">
-        <f>VLOOKUP(C13,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C13,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…….</v>
       </c>
     </row>
@@ -7851,7 +6558,7 @@
         <v>291</v>
       </c>
       <c r="E14" s="15" t="str">
-        <f>VLOOKUP(C14,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C14,[2]dialog!$B:$C,2,FALSE)</f>
         <v>무, 뭐라고 말좀 해.</v>
       </c>
     </row>
@@ -7870,7 +6577,7 @@
         <v>292</v>
       </c>
       <c r="E15" s="15" t="str">
-        <f>VLOOKUP(C15,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C15,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(으… 자꾸 의식하게 되잖아….)</v>
       </c>
     </row>
@@ -7889,7 +6596,7 @@
         <v>293</v>
       </c>
       <c r="E16" s="15" t="str">
-        <f>VLOOKUP(C16,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C16,[2]dialog!$B:$C,2,FALSE)</f>
         <v>가슴은 좀 부끄러운데….</v>
       </c>
     </row>
@@ -7908,7 +6615,7 @@
         <v>294</v>
       </c>
       <c r="E17" s="15" t="str">
-        <f>VLOOKUP(C17,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C17,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그래도 손만 대는 거면-</v>
       </c>
     </row>
@@ -7927,7 +6634,7 @@
         <v>295</v>
       </c>
       <c r="E18" s="15" t="str">
-        <f>VLOOKUP(C18,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C18,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…누가 그렇게 만지작거리랬어.</v>
       </c>
     </row>
@@ -7946,7 +6653,7 @@
         <v>296</v>
       </c>
       <c r="E19" s="15" t="str">
-        <f>VLOOKUP(C19,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C19,[2]dialog!$B:$C,2,FALSE)</f>
         <v>하여튼 진짜.</v>
       </c>
     </row>
@@ -7965,7 +6672,7 @@
         <v>297</v>
       </c>
       <c r="E20" s="15" t="str">
-        <f>VLOOKUP(C20,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C20,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…근데 이게 그렇게 좋아?</v>
       </c>
     </row>
@@ -7984,7 +6691,7 @@
         <v>298</v>
       </c>
       <c r="E21" s="15" t="str">
-        <f>VLOOKUP(C21,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C21,[2]dialog!$B:$C,2,FALSE)</f>
         <v>……!!</v>
       </c>
     </row>
@@ -8003,7 +6710,7 @@
         <v>299</v>
       </c>
       <c r="E22" s="15" t="str">
-        <f>VLOOKUP(C22,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C22,[2]dialog!$B:$C,2,FALSE)</f>
         <v>자, 잠깐만! 역시 거기는 조금…!</v>
       </c>
     </row>
@@ -8022,7 +6729,7 @@
         <v>300</v>
       </c>
       <c r="E23" s="15" t="str">
-        <f>VLOOKUP(C23,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C23,[2]dialog!$B:$C,2,FALSE)</f>
         <v>꺅…?!</v>
       </c>
     </row>
@@ -8041,7 +6748,7 @@
         <v>301</v>
       </c>
       <c r="E24" s="15" t="str">
-        <f>VLOOKUP(C24,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C24,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그만, 흣, 이상하다구우….</v>
       </c>
     </row>
@@ -8060,7 +6767,7 @@
         <v>302</v>
       </c>
       <c r="E25" s="15" t="str">
-        <f>VLOOKUP(C25,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C25,[2]dialog!$B:$C,2,FALSE)</f>
         <v>윽… 앗… 흐읏….</v>
       </c>
     </row>
@@ -8079,7 +6786,7 @@
         <v>303</v>
       </c>
       <c r="E26" s="15" t="str">
-        <f>VLOOKUP(C26,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C26,[2]dialog!$B:$C,2,FALSE)</f>
         <v>하아, 하아, 하아….</v>
       </c>
     </row>
@@ -8098,7 +6805,7 @@
         <v>304</v>
       </c>
       <c r="E27" s="15" t="str">
-        <f>VLOOKUP(C27,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C27,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…몰라, 멍충아.</v>
       </c>
     </row>
@@ -8117,7 +6824,7 @@
         <v>305</v>
       </c>
       <c r="E28" s="15" t="str">
-        <f>VLOOKUP(C28,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C28,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭐해? 빨리 해줘.</v>
       </c>
     </row>
@@ -8136,7 +6843,7 @@
         <v>306</v>
       </c>
       <c r="E29" s="15" t="str">
-        <f>VLOOKUP(C29,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C29,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)나, 네가 머리 만져주는 거 좋아하니까.</v>
       </c>
     </row>
@@ -8155,7 +6862,7 @@
         <v>307</v>
       </c>
       <c r="E30" s="15" t="str">
-        <f>VLOOKUP(C30,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C30,[2]dialog!$B:$C,2,FALSE)</f>
         <v>평소에도 좋지만, 연결될 때는 특히 더 좋아.</v>
       </c>
     </row>
@@ -8174,7 +6881,7 @@
         <v>308</v>
       </c>
       <c r="E31" s="15" t="str">
-        <f>VLOOKUP(C31,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C31,[2]dialog!$B:$C,2,FALSE)</f>
         <v>사랑받는다는 느낌이 든달까?</v>
       </c>
     </row>
@@ -8193,7 +6900,7 @@
         <v>309</v>
       </c>
       <c r="E32" s="15" t="str">
-        <f>VLOOKUP(C32,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C32,[2]dialog!$B:$C,2,FALSE)</f>
         <v>헤헷.</v>
       </c>
     </row>
@@ -8212,7 +6919,7 @@
         <v>310</v>
       </c>
       <c r="E33" s="15" t="str">
-        <f>VLOOKUP(C33,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C33,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…….</v>
       </c>
     </row>
@@ -8231,7 +6938,7 @@
         <v>311</v>
       </c>
       <c r="E34" s="15" t="str">
-        <f>VLOOKUP(C34,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C34,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(또 이렇게 말없이 보네.)</v>
       </c>
     </row>
@@ -8250,7 +6957,7 @@
         <v>312</v>
       </c>
       <c r="E35" s="15" t="str">
-        <f>VLOOKUP(C35,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C35,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(뭐, 지금은 이정도로도 충분한가….)</v>
       </c>
     </row>
@@ -8269,7 +6976,7 @@
         <v>313</v>
       </c>
       <c r="E36" s="15" t="str">
-        <f>VLOOKUP(C36,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C36,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(……아니. 안 충분해.)</v>
       </c>
     </row>
@@ -8288,7 +6995,7 @@
         <v>314</v>
       </c>
       <c r="E37" s="15" t="str">
-        <f>VLOOKUP(C37,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C37,[2]dialog!$B:$C,2,FALSE)</f>
         <v>[쪽]</v>
       </c>
     </row>
@@ -8307,7 +7014,7 @@
         <v>315</v>
       </c>
       <c r="E38" s="15" t="str">
-        <f>VLOOKUP(C38,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C38,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)그냥, 내가 하고 싶었어.</v>
       </c>
     </row>
@@ -8326,7 +7033,7 @@
         <v>316</v>
       </c>
       <c r="E39" s="15" t="str">
-        <f>VLOOKUP(C39,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C39,[2]dialog!$B:$C,2,FALSE)</f>
         <v>으응….</v>
       </c>
     </row>
@@ -8345,7 +7052,7 @@
         <v>317</v>
       </c>
       <c r="E40" s="15" t="str">
-        <f>VLOOKUP(C40,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C40,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…근데 너, 점점 능숙해지는 거 아냐?</v>
       </c>
     </row>
@@ -8364,7 +7071,7 @@
         <v>318</v>
       </c>
       <c r="E41" s="15" t="str">
-        <f>VLOOKUP(C41,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C41,[2]dialog!$B:$C,2,FALSE)</f>
         <v xml:space="preserve">만지는 방법이라던가, 기술이라든가… </v>
       </c>
     </row>
@@ -8383,7 +7090,7 @@
         <v>319</v>
       </c>
       <c r="E42" s="15" t="str">
-        <f>VLOOKUP(C42,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C42,[2]dialog!$B:$C,2,FALSE)</f>
         <v>나 덕분이라구? (웃음)</v>
       </c>
     </row>
@@ -8402,7 +7109,7 @@
         <v>320</v>
       </c>
       <c r="E43" s="15" t="str">
-        <f>VLOOKUP(C43,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C43,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그런거면… 음….</v>
       </c>
     </row>
@@ -8421,7 +7128,7 @@
         <v>321</v>
       </c>
       <c r="E44" s="15" t="str">
-        <f>VLOOKUP(C44,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C44,[2]dialog!$B:$C,2,FALSE)</f>
         <v>더 만져도 되는데…?</v>
       </c>
     </row>
@@ -8440,7 +7147,7 @@
         <v>322</v>
       </c>
       <c r="E45" s="15" t="str">
-        <f>VLOOKUP(C45,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C45,[2]dialog!$B:$C,2,FALSE)</f>
         <v>으휴, 진짜 변태.</v>
       </c>
     </row>
@@ -8459,7 +7166,7 @@
         <v>323</v>
       </c>
       <c r="E46" s="15" t="str">
-        <f>VLOOKUP(C46,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C46,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(무드라도 좀 맞춰주든가.)</v>
       </c>
     </row>
@@ -8478,7 +7185,7 @@
         <v>324</v>
       </c>
       <c r="E47" s="15" t="str">
-        <f>VLOOKUP(C47,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C47,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…….</v>
       </c>
     </row>
@@ -8497,7 +7204,7 @@
         <v>325</v>
       </c>
       <c r="E48" s="15" t="str">
-        <f>VLOOKUP(C48,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C48,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(…얘도 많이 참고 있는 거구나.)</v>
       </c>
     </row>
@@ -8516,7 +7223,7 @@
         <v>326</v>
       </c>
       <c r="E49" s="15" t="str">
-        <f>VLOOKUP(C49,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C49,[2]dialog!$B:$C,2,FALSE)</f>
         <v>저기, 있지.</v>
       </c>
     </row>
@@ -8535,7 +7242,7 @@
         <v>327</v>
       </c>
       <c r="E50" s="15" t="str">
-        <f>VLOOKUP(C50,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C50,[2]dialog!$B:$C,2,FALSE)</f>
         <v>할 거면….</v>
       </c>
     </row>
@@ -8554,7 +7261,7 @@
         <v>328</v>
       </c>
       <c r="E51" s="15" t="str">
-        <f>VLOOKUP(C51,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C51,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…끝까지, 제대로 해줘.</v>
       </c>
     </row>
@@ -8573,7 +7280,7 @@
         <v>329</v>
       </c>
       <c r="E52" s="15" t="str">
-        <f>VLOOKUP(C52,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C52,[2]dialog!$B:$C,2,FALSE)</f>
         <v>머리 헝클어지잖아~</v>
       </c>
     </row>
@@ -8592,7 +7299,7 @@
         <v>330</v>
       </c>
       <c r="E53" s="15" t="str">
-        <f>VLOOKUP(C53,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C53,[2]dialog!$B:$C,2,FALSE)</f>
         <v>되는 거 맞아?</v>
       </c>
     </row>
@@ -8611,7 +7318,7 @@
         <v>331</v>
       </c>
       <c r="E54" s="15" t="str">
-        <f>VLOOKUP(C54,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C54,[2]dialog!$B:$C,2,FALSE)</f>
         <v>흐음… 나도 해줄까?</v>
       </c>
     </row>
@@ -8630,7 +7337,7 @@
         <v>332</v>
       </c>
       <c r="E55" s="15" t="str">
-        <f>VLOOKUP(C55,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C55,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그렇게 분위기 잡기야?</v>
       </c>
     </row>
@@ -8649,7 +7356,7 @@
         <v>333</v>
       </c>
       <c r="E56" s="15" t="str">
-        <f>VLOOKUP(C56,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C56,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)간지러워.</v>
       </c>
     </row>
@@ -8668,7 +7375,7 @@
         <v>334</v>
       </c>
       <c r="E57" s="15" t="str">
-        <f>VLOOKUP(C57,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C57,[2]dialog!$B:$C,2,FALSE)</f>
         <v>너 손 진짜 크다.</v>
       </c>
     </row>
@@ -8687,7 +7394,7 @@
         <v>335</v>
       </c>
       <c r="E58" s="15" t="str">
-        <f>VLOOKUP(C58,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C58,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…제대로 찾고 있는 거 맞지?</v>
       </c>
     </row>
@@ -8706,7 +7413,7 @@
         <v>336</v>
       </c>
       <c r="E59" s="15" t="str">
-        <f>VLOOKUP(C59,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C59,[2]dialog!$B:$C,2,FALSE)</f>
         <v>…아무리 봐도 그냥 즐기고 있는 것 같은데.</v>
       </c>
     </row>
@@ -8725,7 +7432,7 @@
         <v>337</v>
       </c>
       <c r="E60" s="15" t="str">
-        <f>VLOOKUP(C60,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C60,[2]dialog!$B:$C,2,FALSE)</f>
         <v xml:space="preserve">……저기요. </v>
       </c>
     </row>
@@ -8744,7 +7451,7 @@
         <v>338</v>
       </c>
       <c r="E61" s="15" t="str">
-        <f>VLOOKUP(C61,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C61,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭐, 뭐하는 거야!</v>
       </c>
     </row>
@@ -8763,7 +7470,7 @@
         <v>339</v>
       </c>
       <c r="E62" s="15" t="str">
-        <f>VLOOKUP(C62,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C62,[2]dialog!$B:$C,2,FALSE)</f>
         <v>아무리 근원 때문이라도 거긴 안 돼!</v>
       </c>
     </row>
@@ -8782,7 +7489,7 @@
         <v>340</v>
       </c>
       <c r="E63" s="15" t="str">
-        <f>VLOOKUP(C63,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C63,[2]dialog!$B:$C,2,FALSE)</f>
         <v>죽는다 진짜.</v>
       </c>
     </row>
@@ -8801,7 +7508,7 @@
         <v>341</v>
       </c>
       <c r="E64" s="15" t="str">
-        <f>VLOOKUP(C64,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C64,[2]dialog!$B:$C,2,FALSE)</f>
         <v>좋다아….</v>
       </c>
     </row>
@@ -8820,7 +7527,7 @@
         <v>342</v>
       </c>
       <c r="E65" s="15" t="str">
-        <f>VLOOKUP(C65,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C65,[2]dialog!$B:$C,2,FALSE)</f>
         <v>안 되는 것 같은데? 기분 좋긴 하지만.</v>
       </c>
     </row>
@@ -8839,7 +7546,7 @@
         <v>343</v>
       </c>
       <c r="E66" s="15" t="str">
-        <f>VLOOKUP(C66,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C66,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(작은 웃음)그냥 계속해줘.</v>
       </c>
     </row>
@@ -8858,7 +7565,7 @@
         <v>344</v>
       </c>
       <c r="E67" s="15" t="str">
-        <f>VLOOKUP(C67,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C67,[2]dialog!$B:$C,2,FALSE)</f>
         <v>그렇게 쳐다보면 좀… 부끄러운데.</v>
       </c>
     </row>
@@ -8877,7 +7584,7 @@
         <v>345</v>
       </c>
       <c r="E68" s="15" t="str">
-        <f>VLOOKUP(C68,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C68,[2]dialog!$B:$C,2,FALSE)</f>
         <v>헤헷. 나도 좋아해.</v>
       </c>
     </row>
@@ -8896,7 +7603,7 @@
         <v>346</v>
       </c>
       <c r="E69" s="15" t="str">
-        <f>VLOOKUP(C69,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C69,[2]dialog!$B:$C,2,FALSE)</f>
         <v>뭔가 안심되는 기분이야.</v>
       </c>
     </row>
@@ -8915,7 +7622,7 @@
         <v>347</v>
       </c>
       <c r="E70" s="15" t="str">
-        <f>VLOOKUP(C70,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C70,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)이게 그렇게 좋아?</v>
       </c>
     </row>
@@ -8934,7 +7641,7 @@
         <v>348</v>
       </c>
       <c r="E71" s="15" t="str">
-        <f>VLOOKUP(C71,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C71,[2]dialog!$B:$C,2,FALSE)</f>
         <v>역시 그냥 핑계였지?</v>
       </c>
     </row>
@@ -8953,7 +7660,7 @@
         <v>349</v>
       </c>
       <c r="E72" s="15" t="str">
-        <f>VLOOKUP(C72,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C72,[2]dialog!$B:$C,2,FALSE)</f>
         <v>(웃음)평소에 만지는 걸로는 부족했어?</v>
       </c>
     </row>
@@ -8972,7 +7679,7 @@
         <v>350</v>
       </c>
       <c r="E73" s="15" t="str">
-        <f>VLOOKUP(C73,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C73,[2]dialog!$B:$C,2,FALSE)</f>
         <v>우리 대장님은 언제 때와 장소를 가리게 될까….</v>
       </c>
     </row>
@@ -8991,7 +7698,7 @@
         <v>351</v>
       </c>
       <c r="E74" s="15" t="str">
-        <f>VLOOKUP(C74,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C74,[2]dialog!$B:$C,2,FALSE)</f>
         <v>꼭 근원 때문이 아니라도….</v>
       </c>
     </row>
@@ -9010,7 +7717,7 @@
         <v>352</v>
       </c>
       <c r="E75" s="15" t="str">
-        <f>VLOOKUP(C75,[3]dialog!$B:$C,2,FALSE)</f>
+        <f>VLOOKUP(C75,[2]dialog!$B:$C,2,FALSE)</f>
         <v>너, 너무 본격적으로는 안 돼.</v>
       </c>
     </row>
@@ -9024,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A574ABB5-6EF5-4270-9FE1-AD809E1F99F3}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15E142B-652D-4CC1-9330-DD0BA80F61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA5229-CC05-4777-AC76-5330A3B5BE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="615" windowWidth="36780" windowHeight="19395" tabRatio="707" firstSheet="2" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="39690" yWindow="735" windowWidth="30510" windowHeight="19395" tabRatio="707" firstSheet="2" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="385">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1567,9 +1567,6 @@
   </si>
   <si>
     <t>100006069</t>
-  </si>
-  <si>
-    <t>100006018</t>
   </si>
   <si>
     <t>100006042</t>
@@ -2247,13 +2244,7 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="31"/>
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
@@ -2290,9 +2281,6 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5">
-        <row r="1">
-          <cell r="B1"/>
-        </row>
         <row r="2">
           <cell r="B2" t="str">
             <v>string ID</v>
@@ -5470,8 +5458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5511,7 +5499,7 @@
         <v>41</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -5862,7 +5850,7 @@
         <v>169</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F19" t="e">
         <f>IF(E19="[]","",VLOOKUP(E19,me_serifu_data!A:E,5,FALSE))</f>
@@ -5946,11 +5934,11 @@
         <v>193</v>
       </c>
       <c r="E23" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="F23" t="str">
+        <v>384</v>
+      </c>
+      <c r="F23" t="e">
         <f>IF(E23="[]","",VLOOKUP(E23,me_serifu_data!A:E,5,FALSE))</f>
-        <v>자, 잠깐만! 역시 거기는 조금…!</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5967,7 +5955,7 @@
         <v>195</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F24" t="str">
         <f>IF(E24="[]","",VLOOKUP(E24,me_serifu_data!A:E,5,FALSE))</f>
@@ -6300,7 +6288,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7798,7 +7786,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="16" t="s">
         <v>365</v>
@@ -7812,7 +7800,7 @@
         <v>366</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -7823,7 +7811,7 @@
         <v>366</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -7834,7 +7822,7 @@
         <v>366</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -7845,7 +7833,7 @@
         <v>366</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -7856,7 +7844,7 @@
         <v>366</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -7867,7 +7855,7 @@
         <v>366</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -7878,7 +7866,7 @@
         <v>366</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -7889,7 +7877,7 @@
         <v>366</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -7900,7 +7888,7 @@
         <v>366</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -7911,7 +7899,7 @@
         <v>366</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -7922,7 +7910,7 @@
         <v>366</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/Android/ExcelData/MemorialTable.xlsx
+++ b/Android/ExcelData/MemorialTable.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SVN_Document\Program\trunk\Client\Prj_Sub_Culture\Android\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05FA5229-CC05-4777-AC76-5330A3B5BE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07660285-56D4-4C10-9E4E-7EE17D1C6AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39690" yWindow="735" windowWidth="30510" windowHeight="19395" tabRatio="707" firstSheet="2" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="2" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
     <sheet name="!Desc" sheetId="1" r:id="rId2"/>
     <sheet name="!참조_ENUM" sheetId="3" r:id="rId3"/>
-    <sheet name="me_resource_data" sheetId="5" r:id="rId4"/>
-    <sheet name="me_state_data" sheetId="13" r:id="rId5"/>
-    <sheet name="me_interaction_data" sheetId="9" r:id="rId6"/>
+    <sheet name="!me_resource_data" sheetId="5" r:id="rId4"/>
+    <sheet name="!me_state_data" sheetId="13" r:id="rId5"/>
+    <sheet name="!me_interaction_data" sheetId="9" r:id="rId6"/>
     <sheet name="me_chat_motion_data" sheetId="11" r:id="rId7"/>
     <sheet name="me_serifu_data" sheetId="2" r:id="rId8"/>
     <sheet name="!me_timeline_data" sheetId="14" r:id="rId9"/>
@@ -2244,7 +2244,13 @@
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="31">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34" refreshError="1"/>
@@ -3832,7 +3838,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -5458,7 +5464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
